--- a/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>33072600</v>
+        <v>29114600</v>
       </c>
       <c r="E8" s="3">
-        <v>30738400</v>
+        <v>27767100</v>
       </c>
       <c r="F8" s="3">
-        <v>28541100</v>
+        <v>25807400</v>
       </c>
       <c r="G8" s="3">
-        <v>25513600</v>
+        <v>23962600</v>
       </c>
       <c r="H8" s="3">
-        <v>23641400</v>
+        <v>21420700</v>
       </c>
       <c r="I8" s="3">
-        <v>22721100</v>
+        <v>19848900</v>
       </c>
       <c r="J8" s="3">
+        <v>19076300</v>
+      </c>
+      <c r="K8" s="3">
         <v>22090500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19594100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>25482100</v>
+        <v>22450800</v>
       </c>
       <c r="E9" s="3">
-        <v>23711600</v>
+        <v>21394300</v>
       </c>
       <c r="F9" s="3">
-        <v>22242800</v>
+        <v>19907900</v>
       </c>
       <c r="G9" s="3">
-        <v>20013000</v>
+        <v>18674700</v>
       </c>
       <c r="H9" s="3">
-        <v>18408000</v>
+        <v>16802600</v>
       </c>
       <c r="I9" s="3">
-        <v>17738200</v>
+        <v>15455000</v>
       </c>
       <c r="J9" s="3">
+        <v>14892700</v>
+      </c>
+      <c r="K9" s="3">
         <v>17253400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15192200</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7590500</v>
+        <v>6663800</v>
       </c>
       <c r="E10" s="3">
-        <v>7026800</v>
+        <v>6372800</v>
       </c>
       <c r="F10" s="3">
-        <v>6298300</v>
+        <v>5899600</v>
       </c>
       <c r="G10" s="3">
-        <v>5500500</v>
+        <v>5287900</v>
       </c>
       <c r="H10" s="3">
-        <v>5233400</v>
+        <v>4618100</v>
       </c>
       <c r="I10" s="3">
-        <v>4983000</v>
+        <v>4393800</v>
       </c>
       <c r="J10" s="3">
+        <v>4183600</v>
+      </c>
+      <c r="K10" s="3">
         <v>4837100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4401900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,9 +920,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30435500</v>
+        <v>26683900</v>
       </c>
       <c r="E17" s="3">
-        <v>28388300</v>
+        <v>25553100</v>
       </c>
       <c r="F17" s="3">
-        <v>26425900</v>
+        <v>23834300</v>
       </c>
       <c r="G17" s="3">
-        <v>23753600</v>
+        <v>22186700</v>
       </c>
       <c r="H17" s="3">
-        <v>21780200</v>
+        <v>19943100</v>
       </c>
       <c r="I17" s="3">
-        <v>21025100</v>
+        <v>18286300</v>
       </c>
       <c r="J17" s="3">
+        <v>17652300</v>
+      </c>
+      <c r="K17" s="3">
         <v>20406000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18066600</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2637100</v>
+        <v>2430700</v>
       </c>
       <c r="E18" s="3">
-        <v>2350100</v>
+        <v>2214000</v>
       </c>
       <c r="F18" s="3">
-        <v>2115200</v>
+        <v>1973100</v>
       </c>
       <c r="G18" s="3">
-        <v>1759900</v>
+        <v>1775900</v>
       </c>
       <c r="H18" s="3">
-        <v>1861100</v>
+        <v>1477600</v>
       </c>
       <c r="I18" s="3">
-        <v>1696000</v>
+        <v>1562600</v>
       </c>
       <c r="J18" s="3">
+        <v>1423900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1684500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1527500</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>65600</v>
+        <v>42800</v>
       </c>
       <c r="E20" s="3">
-        <v>47700</v>
+        <v>55100</v>
       </c>
       <c r="F20" s="3">
-        <v>50800</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="3">
-        <v>131900</v>
+        <v>42700</v>
       </c>
       <c r="H20" s="3">
-        <v>56700</v>
+        <v>54700</v>
       </c>
       <c r="I20" s="3">
-        <v>58800</v>
+        <v>47600</v>
       </c>
       <c r="J20" s="3">
+        <v>49400</v>
+      </c>
+      <c r="K20" s="3">
         <v>133100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>59300</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3378100</v>
+        <v>3236400</v>
       </c>
       <c r="E21" s="3">
-        <v>3024200</v>
+        <v>2832500</v>
       </c>
       <c r="F21" s="3">
-        <v>2741200</v>
+        <v>2535700</v>
       </c>
       <c r="G21" s="3">
-        <v>2431000</v>
+        <v>2298400</v>
       </c>
       <c r="H21" s="3">
-        <v>2417000</v>
+        <v>1982100</v>
       </c>
       <c r="I21" s="3">
-        <v>2222300</v>
+        <v>2026600</v>
       </c>
       <c r="J21" s="3">
+        <v>1863300</v>
+      </c>
+      <c r="K21" s="3">
         <v>2269100</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>83300</v>
+        <v>258900</v>
       </c>
       <c r="E22" s="3">
-        <v>77000</v>
+        <v>69900</v>
       </c>
       <c r="F22" s="3">
-        <v>68100</v>
+        <v>64700</v>
       </c>
       <c r="G22" s="3">
-        <v>127100</v>
+        <v>57200</v>
       </c>
       <c r="H22" s="3">
-        <v>65000</v>
+        <v>50700</v>
       </c>
       <c r="I22" s="3">
-        <v>59700</v>
+        <v>54600</v>
       </c>
       <c r="J22" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K22" s="3">
         <v>111600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>46600</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2619400</v>
+        <v>2214600</v>
       </c>
       <c r="E23" s="3">
-        <v>2320800</v>
+        <v>2199200</v>
       </c>
       <c r="F23" s="3">
-        <v>2097900</v>
+        <v>1948500</v>
       </c>
       <c r="G23" s="3">
-        <v>1764700</v>
+        <v>1761300</v>
       </c>
       <c r="H23" s="3">
-        <v>1852900</v>
+        <v>1481600</v>
       </c>
       <c r="I23" s="3">
-        <v>1695200</v>
+        <v>1555600</v>
       </c>
       <c r="J23" s="3">
+        <v>1423200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1706000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1540200</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>649100</v>
+        <v>508800</v>
       </c>
       <c r="E24" s="3">
-        <v>584300</v>
+        <v>544900</v>
       </c>
       <c r="F24" s="3">
-        <v>569500</v>
+        <v>490600</v>
       </c>
       <c r="G24" s="3">
-        <v>507800</v>
+        <v>478100</v>
       </c>
       <c r="H24" s="3">
-        <v>510400</v>
+        <v>426400</v>
       </c>
       <c r="I24" s="3">
-        <v>516300</v>
+        <v>428600</v>
       </c>
       <c r="J24" s="3">
+        <v>433500</v>
+      </c>
+      <c r="K24" s="3">
         <v>495200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>398000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1970300</v>
+        <v>1705800</v>
       </c>
       <c r="E26" s="3">
-        <v>1736400</v>
+        <v>1654200</v>
       </c>
       <c r="F26" s="3">
-        <v>1528400</v>
+        <v>1457900</v>
       </c>
       <c r="G26" s="3">
-        <v>1256800</v>
+        <v>1283200</v>
       </c>
       <c r="H26" s="3">
-        <v>1342400</v>
+        <v>1055200</v>
       </c>
       <c r="I26" s="3">
-        <v>1178800</v>
+        <v>1127100</v>
       </c>
       <c r="J26" s="3">
+        <v>989700</v>
+      </c>
+      <c r="K26" s="3">
         <v>1210800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1142200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1970300</v>
+        <v>1705800</v>
       </c>
       <c r="E27" s="3">
-        <v>1736400</v>
+        <v>1654200</v>
       </c>
       <c r="F27" s="3">
-        <v>1528400</v>
+        <v>1457900</v>
       </c>
       <c r="G27" s="3">
-        <v>1256700</v>
+        <v>1283200</v>
       </c>
       <c r="H27" s="3">
-        <v>1342000</v>
+        <v>1055100</v>
       </c>
       <c r="I27" s="3">
-        <v>1179000</v>
+        <v>1126700</v>
       </c>
       <c r="J27" s="3">
+        <v>989900</v>
+      </c>
+      <c r="K27" s="3">
         <v>1211200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1142000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>400700</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>259600</v>
+        <v>336400</v>
       </c>
       <c r="G29" s="3">
-        <v>157300</v>
+        <v>218000</v>
       </c>
       <c r="H29" s="3">
-        <v>289200</v>
+        <v>132100</v>
       </c>
       <c r="I29" s="3">
-        <v>38800</v>
+        <v>242800</v>
       </c>
       <c r="J29" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K29" s="3">
         <v>36600</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-65600</v>
+        <v>-42800</v>
       </c>
       <c r="E32" s="3">
-        <v>-47700</v>
+        <v>-55100</v>
       </c>
       <c r="F32" s="3">
-        <v>-50800</v>
+        <v>-40000</v>
       </c>
       <c r="G32" s="3">
-        <v>-131900</v>
+        <v>-42700</v>
       </c>
       <c r="H32" s="3">
-        <v>-56700</v>
+        <v>-54700</v>
       </c>
       <c r="I32" s="3">
-        <v>-58800</v>
+        <v>-47600</v>
       </c>
       <c r="J32" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-133100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-59300</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1970300</v>
+        <v>1705800</v>
       </c>
       <c r="E33" s="3">
-        <v>2137200</v>
+        <v>1654200</v>
       </c>
       <c r="F33" s="3">
-        <v>1788000</v>
+        <v>1794300</v>
       </c>
       <c r="G33" s="3">
-        <v>1414000</v>
+        <v>1501200</v>
       </c>
       <c r="H33" s="3">
-        <v>1631100</v>
+        <v>1187200</v>
       </c>
       <c r="I33" s="3">
-        <v>1217900</v>
+        <v>1369500</v>
       </c>
       <c r="J33" s="3">
+        <v>1022500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1247800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1142000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1970300</v>
+        <v>1705800</v>
       </c>
       <c r="E35" s="3">
-        <v>2137200</v>
+        <v>1654200</v>
       </c>
       <c r="F35" s="3">
-        <v>1788000</v>
+        <v>1794300</v>
       </c>
       <c r="G35" s="3">
-        <v>1414000</v>
+        <v>1501200</v>
       </c>
       <c r="H35" s="3">
-        <v>1631100</v>
+        <v>1187200</v>
       </c>
       <c r="I35" s="3">
-        <v>1217900</v>
+        <v>1369500</v>
       </c>
       <c r="J35" s="3">
+        <v>1022500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1247800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1142000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2081700</v>
+        <v>1392000</v>
       </c>
       <c r="E41" s="3">
-        <v>1908300</v>
+        <v>1751600</v>
       </c>
       <c r="F41" s="3">
-        <v>1499800</v>
+        <v>1605700</v>
       </c>
       <c r="G41" s="3">
-        <v>1329000</v>
+        <v>1262000</v>
       </c>
       <c r="H41" s="3">
-        <v>3007300</v>
+        <v>1118300</v>
       </c>
       <c r="I41" s="3">
-        <v>2265500</v>
+        <v>2530500</v>
       </c>
       <c r="J41" s="3">
+        <v>1906300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1509800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2603200</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,129 +1708,144 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>645200</v>
+        <v>618800</v>
       </c>
       <c r="E43" s="3">
-        <v>580800</v>
+        <v>542900</v>
       </c>
       <c r="F43" s="3">
-        <v>526300</v>
+        <v>488700</v>
       </c>
       <c r="G43" s="3">
-        <v>523200</v>
+        <v>442900</v>
       </c>
       <c r="H43" s="3">
-        <v>591300</v>
+        <v>440200</v>
       </c>
       <c r="I43" s="3">
-        <v>680900</v>
+        <v>497500</v>
       </c>
       <c r="J43" s="3">
+        <v>573000</v>
+      </c>
+      <c r="K43" s="3">
         <v>556300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>593800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3395900</v>
+        <v>3047300</v>
       </c>
       <c r="E44" s="3">
-        <v>3187800</v>
+        <v>2857500</v>
       </c>
       <c r="F44" s="3">
-        <v>2877000</v>
+        <v>2682400</v>
       </c>
       <c r="G44" s="3">
-        <v>2667000</v>
+        <v>2420800</v>
       </c>
       <c r="H44" s="3">
-        <v>5058100</v>
+        <v>2244200</v>
       </c>
       <c r="I44" s="3">
-        <v>4695700</v>
+        <v>4256200</v>
       </c>
       <c r="J44" s="3">
+        <v>3951200</v>
+      </c>
+      <c r="K44" s="3">
         <v>2095700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2141200</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>75400</v>
+        <v>80200</v>
       </c>
       <c r="E45" s="3">
-        <v>52700</v>
+        <v>63400</v>
       </c>
       <c r="F45" s="3">
-        <v>673600</v>
+        <v>44300</v>
       </c>
       <c r="G45" s="3">
-        <v>29500</v>
+        <v>566800</v>
       </c>
       <c r="H45" s="3">
-        <v>481200</v>
+        <v>24800</v>
       </c>
       <c r="I45" s="3">
-        <v>276900</v>
+        <v>404900</v>
       </c>
       <c r="J45" s="3">
+        <v>233000</v>
+      </c>
+      <c r="K45" s="3">
         <v>54500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>48800</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6198100</v>
+        <v>5138300</v>
       </c>
       <c r="E46" s="3">
-        <v>5729600</v>
+        <v>5215400</v>
       </c>
       <c r="F46" s="3">
-        <v>5576700</v>
+        <v>4821200</v>
       </c>
       <c r="G46" s="3">
-        <v>4548700</v>
+        <v>4692500</v>
       </c>
       <c r="H46" s="3">
-        <v>4849100</v>
+        <v>3827500</v>
       </c>
       <c r="I46" s="3">
-        <v>4430800</v>
+        <v>4080300</v>
       </c>
       <c r="J46" s="3">
+        <v>3728300</v>
+      </c>
+      <c r="K46" s="3">
         <v>4216300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3948700</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1757,81 +1861,90 @@
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
-        <v>3900</v>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I47" s="3">
-        <v>11100</v>
-      </c>
-      <c r="J47" s="3" t="s">
+        <v>3300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>15300</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7731700</v>
+        <v>8500500</v>
       </c>
       <c r="E48" s="3">
-        <v>7509800</v>
+        <v>6505900</v>
       </c>
       <c r="F48" s="3">
-        <v>7309700</v>
+        <v>6319100</v>
       </c>
       <c r="G48" s="3">
-        <v>6981200</v>
+        <v>6150700</v>
       </c>
       <c r="H48" s="3">
-        <v>6268900</v>
+        <v>5874300</v>
       </c>
       <c r="I48" s="3">
-        <v>5871400</v>
+        <v>5275000</v>
       </c>
       <c r="J48" s="3">
+        <v>4940500</v>
+      </c>
+      <c r="K48" s="3">
         <v>6292600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8025400</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1983400</v>
+        <v>1672800</v>
       </c>
       <c r="E49" s="3">
-        <v>2110500</v>
+        <v>1669000</v>
       </c>
       <c r="F49" s="3">
-        <v>2216200</v>
+        <v>1775900</v>
       </c>
       <c r="G49" s="3">
-        <v>1847200</v>
+        <v>1864800</v>
       </c>
       <c r="H49" s="3">
-        <v>3124200</v>
+        <v>1554300</v>
       </c>
       <c r="I49" s="3">
-        <v>1391600</v>
+        <v>2628800</v>
       </c>
       <c r="J49" s="3">
+        <v>1170900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1390000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1645500</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>519700</v>
+        <v>439600</v>
       </c>
       <c r="E52" s="3">
-        <v>478700</v>
+        <v>437300</v>
       </c>
       <c r="F52" s="3">
-        <v>352700</v>
+        <v>402800</v>
       </c>
       <c r="G52" s="3">
-        <v>221000</v>
+        <v>296800</v>
       </c>
       <c r="H52" s="3">
-        <v>192700</v>
+        <v>186000</v>
       </c>
       <c r="I52" s="3">
-        <v>50300</v>
+        <v>162100</v>
       </c>
       <c r="J52" s="3">
+        <v>42400</v>
+      </c>
+      <c r="K52" s="3">
         <v>17900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>26300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16433000</v>
+        <v>15751200</v>
       </c>
       <c r="E54" s="3">
-        <v>15828700</v>
+        <v>13827500</v>
       </c>
       <c r="F54" s="3">
-        <v>15455300</v>
+        <v>13319000</v>
       </c>
       <c r="G54" s="3">
-        <v>13598200</v>
+        <v>13004800</v>
       </c>
       <c r="H54" s="3">
-        <v>13333600</v>
+        <v>11442200</v>
       </c>
       <c r="I54" s="3">
-        <v>12344400</v>
+        <v>11219500</v>
       </c>
       <c r="J54" s="3">
+        <v>10387100</v>
+      </c>
+      <c r="K54" s="3">
         <v>11916700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11338100</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4574400</v>
+        <v>3929800</v>
       </c>
       <c r="E57" s="3">
-        <v>4294100</v>
+        <v>3849100</v>
       </c>
       <c r="F57" s="3">
-        <v>3533900</v>
+        <v>3613300</v>
       </c>
       <c r="G57" s="3">
-        <v>3023400</v>
+        <v>2973600</v>
       </c>
       <c r="H57" s="3">
-        <v>2825800</v>
+        <v>2544000</v>
       </c>
       <c r="I57" s="3">
-        <v>2552300</v>
+        <v>2377800</v>
       </c>
       <c r="J57" s="3">
+        <v>2147700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2400100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2630200</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16500</v>
+        <v>137300</v>
       </c>
       <c r="E58" s="3">
-        <v>20400</v>
+        <v>13900</v>
       </c>
       <c r="F58" s="3">
-        <v>28600</v>
+        <v>17200</v>
       </c>
       <c r="G58" s="3">
-        <v>29800</v>
+        <v>24000</v>
       </c>
       <c r="H58" s="3">
-        <v>30000</v>
+        <v>25100</v>
       </c>
       <c r="I58" s="3">
-        <v>38800</v>
+        <v>25200</v>
       </c>
       <c r="J58" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K58" s="3">
         <v>25500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>20800</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1529500</v>
+        <v>1052800</v>
       </c>
       <c r="E59" s="3">
-        <v>1466100</v>
+        <v>1287000</v>
       </c>
       <c r="F59" s="3">
-        <v>2804500</v>
+        <v>1233600</v>
       </c>
       <c r="G59" s="3">
-        <v>1091400</v>
+        <v>2359900</v>
       </c>
       <c r="H59" s="3">
-        <v>2493500</v>
+        <v>918300</v>
       </c>
       <c r="I59" s="3">
-        <v>1773300</v>
+        <v>2098100</v>
       </c>
       <c r="J59" s="3">
+        <v>1492100</v>
+      </c>
+      <c r="K59" s="3">
         <v>907000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>914900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6120400</v>
+        <v>5119900</v>
       </c>
       <c r="E60" s="3">
-        <v>5780600</v>
+        <v>5150000</v>
       </c>
       <c r="F60" s="3">
-        <v>5056400</v>
+        <v>4864100</v>
       </c>
       <c r="G60" s="3">
-        <v>4144600</v>
+        <v>4254700</v>
       </c>
       <c r="H60" s="3">
-        <v>4049100</v>
+        <v>3487400</v>
       </c>
       <c r="I60" s="3">
-        <v>3523300</v>
+        <v>3407100</v>
       </c>
       <c r="J60" s="3">
+        <v>2964700</v>
+      </c>
+      <c r="K60" s="3">
         <v>3332600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3443300</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>759500</v>
+        <v>2443500</v>
       </c>
       <c r="E61" s="3">
-        <v>735900</v>
+        <v>639100</v>
       </c>
       <c r="F61" s="3">
-        <v>701100</v>
+        <v>619200</v>
       </c>
       <c r="G61" s="3">
-        <v>702500</v>
+        <v>589900</v>
       </c>
       <c r="H61" s="3">
-        <v>706600</v>
+        <v>591100</v>
       </c>
       <c r="I61" s="3">
-        <v>738000</v>
+        <v>594500</v>
       </c>
       <c r="J61" s="3">
+        <v>621000</v>
+      </c>
+      <c r="K61" s="3">
         <v>677600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>848600</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>712000</v>
+        <v>602700</v>
       </c>
       <c r="E62" s="3">
-        <v>759500</v>
+        <v>599200</v>
       </c>
       <c r="F62" s="3">
-        <v>743600</v>
+        <v>639100</v>
       </c>
       <c r="G62" s="3">
-        <v>612000</v>
+        <v>625700</v>
       </c>
       <c r="H62" s="3">
-        <v>556000</v>
+        <v>515000</v>
       </c>
       <c r="I62" s="3">
-        <v>447300</v>
+        <v>467800</v>
       </c>
       <c r="J62" s="3">
+        <v>376400</v>
+      </c>
+      <c r="K62" s="3">
         <v>410000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1212400</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7592000</v>
+        <v>8166200</v>
       </c>
       <c r="E66" s="3">
-        <v>7276000</v>
+        <v>6388200</v>
       </c>
       <c r="F66" s="3">
-        <v>6501000</v>
+        <v>6122400</v>
       </c>
       <c r="G66" s="3">
-        <v>5460500</v>
+        <v>5470300</v>
       </c>
       <c r="H66" s="3">
-        <v>5280100</v>
+        <v>4594700</v>
       </c>
       <c r="I66" s="3">
-        <v>4681900</v>
+        <v>4443000</v>
       </c>
       <c r="J66" s="3">
+        <v>3939500</v>
+      </c>
+      <c r="K66" s="3">
         <v>4427400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4673100</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5334900</v>
+        <v>4656100</v>
       </c>
       <c r="E72" s="3">
-        <v>4851500</v>
+        <v>4489000</v>
       </c>
       <c r="F72" s="3">
-        <v>5531500</v>
+        <v>4082200</v>
       </c>
       <c r="G72" s="3">
-        <v>5108700</v>
+        <v>4654400</v>
       </c>
       <c r="H72" s="3">
-        <v>10672700</v>
+        <v>4298700</v>
       </c>
       <c r="I72" s="3">
-        <v>6676200</v>
+        <v>8980500</v>
       </c>
       <c r="J72" s="3">
+        <v>5617700</v>
+      </c>
+      <c r="K72" s="3">
         <v>5274500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4504300</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8841000</v>
+        <v>7585000</v>
       </c>
       <c r="E76" s="3">
-        <v>8552600</v>
+        <v>7439300</v>
       </c>
       <c r="F76" s="3">
-        <v>8954300</v>
+        <v>7196600</v>
       </c>
       <c r="G76" s="3">
-        <v>8137700</v>
+        <v>7534500</v>
       </c>
       <c r="H76" s="3">
-        <v>8053400</v>
+        <v>6847500</v>
       </c>
       <c r="I76" s="3">
-        <v>7662500</v>
+        <v>6776500</v>
       </c>
       <c r="J76" s="3">
+        <v>6447600</v>
+      </c>
+      <c r="K76" s="3">
         <v>7489400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6665000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1970300</v>
+        <v>1705800</v>
       </c>
       <c r="E81" s="3">
-        <v>2137200</v>
+        <v>1654200</v>
       </c>
       <c r="F81" s="3">
-        <v>1788000</v>
+        <v>1794300</v>
       </c>
       <c r="G81" s="3">
-        <v>1414000</v>
+        <v>1501200</v>
       </c>
       <c r="H81" s="3">
-        <v>1631100</v>
+        <v>1187200</v>
       </c>
       <c r="I81" s="3">
-        <v>1217900</v>
+        <v>1369500</v>
       </c>
       <c r="J81" s="3">
+        <v>1022500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1247800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1142000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>673200</v>
+        <v>765300</v>
       </c>
       <c r="E83" s="3">
-        <v>624300</v>
+        <v>565200</v>
       </c>
       <c r="F83" s="3">
-        <v>573300</v>
+        <v>524100</v>
       </c>
       <c r="G83" s="3">
-        <v>537400</v>
+        <v>481300</v>
       </c>
       <c r="H83" s="3">
-        <v>497500</v>
+        <v>451200</v>
       </c>
       <c r="I83" s="3">
-        <v>465900</v>
+        <v>417700</v>
       </c>
       <c r="J83" s="3">
+        <v>391100</v>
+      </c>
+      <c r="K83" s="3">
         <v>450000</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2548300</v>
+        <v>2548800</v>
       </c>
       <c r="E89" s="3">
-        <v>2634100</v>
+        <v>2139500</v>
       </c>
       <c r="F89" s="3">
-        <v>2525500</v>
+        <v>2211600</v>
       </c>
       <c r="G89" s="3">
-        <v>2085600</v>
+        <v>2120300</v>
       </c>
       <c r="H89" s="3">
-        <v>2045400</v>
+        <v>1751100</v>
       </c>
       <c r="I89" s="3">
-        <v>1538800</v>
+        <v>1717200</v>
       </c>
       <c r="J89" s="3">
+        <v>1291900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1589100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1664800</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-961400</v>
+        <v>-926100</v>
       </c>
       <c r="E91" s="3">
-        <v>-934200</v>
+        <v>-807100</v>
       </c>
       <c r="F91" s="3">
-        <v>-768500</v>
+        <v>-784300</v>
       </c>
       <c r="G91" s="3">
-        <v>-671500</v>
+        <v>-645200</v>
       </c>
       <c r="H91" s="3">
-        <v>-680400</v>
+        <v>-563800</v>
       </c>
       <c r="I91" s="3">
-        <v>-749800</v>
+        <v>-571200</v>
       </c>
       <c r="J91" s="3">
+        <v>-629600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-785900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-949200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-829200</v>
+        <v>-885800</v>
       </c>
       <c r="E94" s="3">
-        <v>208400</v>
+        <v>-696200</v>
       </c>
       <c r="F94" s="3">
-        <v>-739900</v>
+        <v>175000</v>
       </c>
       <c r="G94" s="3">
-        <v>-430400</v>
+        <v>-621200</v>
       </c>
       <c r="H94" s="3">
-        <v>-220500</v>
+        <v>-361300</v>
       </c>
       <c r="I94" s="3">
-        <v>-766100</v>
+        <v>-185100</v>
       </c>
       <c r="J94" s="3">
+        <v>-643200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-766800</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1371400</v>
+        <v>-1618400</v>
       </c>
       <c r="E96" s="3">
-        <v>-2292100</v>
+        <v>-1151400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1553200</v>
+        <v>-1924400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1692000</v>
+        <v>-1304000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1160300</v>
+        <v>-1420600</v>
       </c>
       <c r="I96" s="3">
-        <v>-860800</v>
+        <v>-974100</v>
       </c>
       <c r="J96" s="3">
+        <v>-722700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-515300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-499600</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1454900</v>
+        <v>-1982000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2379300</v>
+        <v>-1221500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1640100</v>
+        <v>-1997600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1877000</v>
+        <v>-1377000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1460500</v>
+        <v>-1575900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1113900</v>
+        <v>-1226200</v>
       </c>
       <c r="J100" s="3">
+        <v>-935200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-642900</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-90800</v>
+        <v>-39800</v>
       </c>
       <c r="E101" s="3">
-        <v>-54700</v>
+        <v>-76200</v>
       </c>
       <c r="F101" s="3">
-        <v>25200</v>
+        <v>-45900</v>
       </c>
       <c r="G101" s="3">
-        <v>47100</v>
+        <v>21200</v>
       </c>
       <c r="H101" s="3">
-        <v>6600</v>
+        <v>39500</v>
       </c>
       <c r="I101" s="3">
-        <v>-35800</v>
+        <v>5500</v>
       </c>
       <c r="J101" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-18700</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>173300</v>
+        <v>-358800</v>
       </c>
       <c r="E102" s="3">
-        <v>408500</v>
+        <v>145500</v>
       </c>
       <c r="F102" s="3">
-        <v>170700</v>
+        <v>343000</v>
       </c>
       <c r="G102" s="3">
-        <v>-174600</v>
+        <v>143300</v>
       </c>
       <c r="H102" s="3">
-        <v>370900</v>
+        <v>-146600</v>
       </c>
       <c r="I102" s="3">
-        <v>-377100</v>
+        <v>311400</v>
       </c>
       <c r="J102" s="3">
+        <v>-316600</v>
+      </c>
+      <c r="K102" s="3">
         <v>160700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29114600</v>
+        <v>29496200</v>
       </c>
       <c r="E8" s="3">
-        <v>27767100</v>
+        <v>28131100</v>
       </c>
       <c r="F8" s="3">
-        <v>25807400</v>
+        <v>26145700</v>
       </c>
       <c r="G8" s="3">
-        <v>23962600</v>
+        <v>24276700</v>
       </c>
       <c r="H8" s="3">
-        <v>21420700</v>
+        <v>21701500</v>
       </c>
       <c r="I8" s="3">
-        <v>19848900</v>
+        <v>20109000</v>
       </c>
       <c r="J8" s="3">
-        <v>19076300</v>
+        <v>19326300</v>
       </c>
       <c r="K8" s="3">
         <v>22090500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22450800</v>
+        <v>22745100</v>
       </c>
       <c r="E9" s="3">
-        <v>21394300</v>
+        <v>21674800</v>
       </c>
       <c r="F9" s="3">
-        <v>19907900</v>
+        <v>20168800</v>
       </c>
       <c r="G9" s="3">
-        <v>18674700</v>
+        <v>18919400</v>
       </c>
       <c r="H9" s="3">
-        <v>16802600</v>
+        <v>17022800</v>
       </c>
       <c r="I9" s="3">
-        <v>15455000</v>
+        <v>15657600</v>
       </c>
       <c r="J9" s="3">
-        <v>14892700</v>
+        <v>15087900</v>
       </c>
       <c r="K9" s="3">
         <v>17253400</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6663800</v>
+        <v>6751100</v>
       </c>
       <c r="E10" s="3">
-        <v>6372800</v>
+        <v>6456300</v>
       </c>
       <c r="F10" s="3">
-        <v>5899600</v>
+        <v>5976900</v>
       </c>
       <c r="G10" s="3">
-        <v>5287900</v>
+        <v>5357300</v>
       </c>
       <c r="H10" s="3">
-        <v>4618100</v>
+        <v>4678700</v>
       </c>
       <c r="I10" s="3">
-        <v>4393800</v>
+        <v>4451400</v>
       </c>
       <c r="J10" s="3">
-        <v>4183600</v>
+        <v>4238500</v>
       </c>
       <c r="K10" s="3">
         <v>4837100</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>26683900</v>
+        <v>27033700</v>
       </c>
       <c r="E17" s="3">
-        <v>25553100</v>
+        <v>25888100</v>
       </c>
       <c r="F17" s="3">
-        <v>23834300</v>
+        <v>24146700</v>
       </c>
       <c r="G17" s="3">
-        <v>22186700</v>
+        <v>22477600</v>
       </c>
       <c r="H17" s="3">
-        <v>19943100</v>
+        <v>20204600</v>
       </c>
       <c r="I17" s="3">
-        <v>18286300</v>
+        <v>18526000</v>
       </c>
       <c r="J17" s="3">
-        <v>17652300</v>
+        <v>17883700</v>
       </c>
       <c r="K17" s="3">
         <v>20406000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2430700</v>
+        <v>2462500</v>
       </c>
       <c r="E18" s="3">
-        <v>2214000</v>
+        <v>2243100</v>
       </c>
       <c r="F18" s="3">
-        <v>1973100</v>
+        <v>1999000</v>
       </c>
       <c r="G18" s="3">
-        <v>1775900</v>
+        <v>1799200</v>
       </c>
       <c r="H18" s="3">
-        <v>1477600</v>
+        <v>1497000</v>
       </c>
       <c r="I18" s="3">
-        <v>1562600</v>
+        <v>1583100</v>
       </c>
       <c r="J18" s="3">
-        <v>1423900</v>
+        <v>1442600</v>
       </c>
       <c r="K18" s="3">
         <v>1684500</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>42800</v>
+        <v>43400</v>
       </c>
       <c r="E20" s="3">
-        <v>55100</v>
+        <v>55800</v>
       </c>
       <c r="F20" s="3">
-        <v>40000</v>
+        <v>40500</v>
       </c>
       <c r="G20" s="3">
-        <v>42700</v>
+        <v>43200</v>
       </c>
       <c r="H20" s="3">
-        <v>54700</v>
+        <v>55400</v>
       </c>
       <c r="I20" s="3">
-        <v>47600</v>
+        <v>48200</v>
       </c>
       <c r="J20" s="3">
-        <v>49400</v>
+        <v>50100</v>
       </c>
       <c r="K20" s="3">
         <v>133100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3236400</v>
+        <v>3282800</v>
       </c>
       <c r="E21" s="3">
-        <v>2832500</v>
+        <v>2872600</v>
       </c>
       <c r="F21" s="3">
-        <v>2535700</v>
+        <v>2571600</v>
       </c>
       <c r="G21" s="3">
-        <v>2298400</v>
+        <v>2331000</v>
       </c>
       <c r="H21" s="3">
-        <v>1982100</v>
+        <v>2010400</v>
       </c>
       <c r="I21" s="3">
-        <v>2026600</v>
+        <v>2055300</v>
       </c>
       <c r="J21" s="3">
-        <v>1863300</v>
+        <v>1889700</v>
       </c>
       <c r="K21" s="3">
         <v>2269100</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>258900</v>
+        <v>262300</v>
       </c>
       <c r="E22" s="3">
-        <v>69900</v>
+        <v>70800</v>
       </c>
       <c r="F22" s="3">
-        <v>64700</v>
+        <v>65500</v>
       </c>
       <c r="G22" s="3">
-        <v>57200</v>
+        <v>57900</v>
       </c>
       <c r="H22" s="3">
-        <v>50700</v>
+        <v>51400</v>
       </c>
       <c r="I22" s="3">
-        <v>54600</v>
+        <v>55300</v>
       </c>
       <c r="J22" s="3">
-        <v>50100</v>
+        <v>50800</v>
       </c>
       <c r="K22" s="3">
         <v>111600</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2214600</v>
+        <v>2243600</v>
       </c>
       <c r="E23" s="3">
-        <v>2199200</v>
+        <v>2228000</v>
       </c>
       <c r="F23" s="3">
-        <v>1948500</v>
+        <v>1974000</v>
       </c>
       <c r="G23" s="3">
-        <v>1761300</v>
+        <v>1784400</v>
       </c>
       <c r="H23" s="3">
-        <v>1481600</v>
+        <v>1501000</v>
       </c>
       <c r="I23" s="3">
-        <v>1555600</v>
+        <v>1576000</v>
       </c>
       <c r="J23" s="3">
-        <v>1423200</v>
+        <v>1441900</v>
       </c>
       <c r="K23" s="3">
         <v>1706000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>508800</v>
+        <v>515500</v>
       </c>
       <c r="E24" s="3">
-        <v>544900</v>
+        <v>552100</v>
       </c>
       <c r="F24" s="3">
-        <v>490600</v>
+        <v>497000</v>
       </c>
       <c r="G24" s="3">
-        <v>478100</v>
+        <v>484400</v>
       </c>
       <c r="H24" s="3">
-        <v>426400</v>
+        <v>432000</v>
       </c>
       <c r="I24" s="3">
-        <v>428600</v>
+        <v>434200</v>
       </c>
       <c r="J24" s="3">
-        <v>433500</v>
+        <v>439200</v>
       </c>
       <c r="K24" s="3">
         <v>495200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1705800</v>
+        <v>1728100</v>
       </c>
       <c r="E26" s="3">
-        <v>1654200</v>
+        <v>1675900</v>
       </c>
       <c r="F26" s="3">
-        <v>1457900</v>
+        <v>1477000</v>
       </c>
       <c r="G26" s="3">
-        <v>1283200</v>
+        <v>1300000</v>
       </c>
       <c r="H26" s="3">
-        <v>1055200</v>
+        <v>1069100</v>
       </c>
       <c r="I26" s="3">
-        <v>1127100</v>
+        <v>1141900</v>
       </c>
       <c r="J26" s="3">
-        <v>989700</v>
+        <v>1002700</v>
       </c>
       <c r="K26" s="3">
         <v>1210800</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1705800</v>
+        <v>1728100</v>
       </c>
       <c r="E27" s="3">
-        <v>1654200</v>
+        <v>1675900</v>
       </c>
       <c r="F27" s="3">
-        <v>1457900</v>
+        <v>1477000</v>
       </c>
       <c r="G27" s="3">
-        <v>1283200</v>
+        <v>1300000</v>
       </c>
       <c r="H27" s="3">
-        <v>1055100</v>
+        <v>1068900</v>
       </c>
       <c r="I27" s="3">
-        <v>1126700</v>
+        <v>1141500</v>
       </c>
       <c r="J27" s="3">
-        <v>989900</v>
+        <v>1002900</v>
       </c>
       <c r="K27" s="3">
         <v>1211200</v>
@@ -1359,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>336400</v>
+        <v>340800</v>
       </c>
       <c r="G29" s="3">
-        <v>218000</v>
+        <v>220800</v>
       </c>
       <c r="H29" s="3">
-        <v>132100</v>
+        <v>133800</v>
       </c>
       <c r="I29" s="3">
-        <v>242800</v>
+        <v>246000</v>
       </c>
       <c r="J29" s="3">
-        <v>32600</v>
+        <v>33000</v>
       </c>
       <c r="K29" s="3">
         <v>36600</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-42800</v>
+        <v>-43400</v>
       </c>
       <c r="E32" s="3">
-        <v>-55100</v>
+        <v>-55800</v>
       </c>
       <c r="F32" s="3">
-        <v>-40000</v>
+        <v>-40500</v>
       </c>
       <c r="G32" s="3">
-        <v>-42700</v>
+        <v>-43200</v>
       </c>
       <c r="H32" s="3">
-        <v>-54700</v>
+        <v>-55400</v>
       </c>
       <c r="I32" s="3">
-        <v>-47600</v>
+        <v>-48200</v>
       </c>
       <c r="J32" s="3">
-        <v>-49400</v>
+        <v>-50100</v>
       </c>
       <c r="K32" s="3">
         <v>-133100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1705800</v>
+        <v>1728100</v>
       </c>
       <c r="E33" s="3">
-        <v>1654200</v>
+        <v>1675900</v>
       </c>
       <c r="F33" s="3">
-        <v>1794300</v>
+        <v>1817800</v>
       </c>
       <c r="G33" s="3">
-        <v>1501200</v>
+        <v>1520900</v>
       </c>
       <c r="H33" s="3">
-        <v>1187200</v>
+        <v>1202700</v>
       </c>
       <c r="I33" s="3">
-        <v>1369500</v>
+        <v>1387400</v>
       </c>
       <c r="J33" s="3">
-        <v>1022500</v>
+        <v>1035900</v>
       </c>
       <c r="K33" s="3">
         <v>1247800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1705800</v>
+        <v>1728100</v>
       </c>
       <c r="E35" s="3">
-        <v>1654200</v>
+        <v>1675900</v>
       </c>
       <c r="F35" s="3">
-        <v>1794300</v>
+        <v>1817800</v>
       </c>
       <c r="G35" s="3">
-        <v>1501200</v>
+        <v>1520900</v>
       </c>
       <c r="H35" s="3">
-        <v>1187200</v>
+        <v>1202700</v>
       </c>
       <c r="I35" s="3">
-        <v>1369500</v>
+        <v>1387400</v>
       </c>
       <c r="J35" s="3">
-        <v>1022500</v>
+        <v>1035900</v>
       </c>
       <c r="K35" s="3">
         <v>1247800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1392000</v>
+        <v>1407100</v>
       </c>
       <c r="E41" s="3">
-        <v>1751600</v>
+        <v>1770600</v>
       </c>
       <c r="F41" s="3">
-        <v>1605700</v>
+        <v>1623200</v>
       </c>
       <c r="G41" s="3">
-        <v>1262000</v>
+        <v>1275700</v>
       </c>
       <c r="H41" s="3">
-        <v>1118300</v>
+        <v>1130500</v>
       </c>
       <c r="I41" s="3">
-        <v>2530500</v>
+        <v>2558000</v>
       </c>
       <c r="J41" s="3">
-        <v>1906300</v>
+        <v>1927000</v>
       </c>
       <c r="K41" s="3">
         <v>1509800</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>618800</v>
+        <v>625500</v>
       </c>
       <c r="E43" s="3">
-        <v>542900</v>
+        <v>548800</v>
       </c>
       <c r="F43" s="3">
-        <v>488700</v>
+        <v>494100</v>
       </c>
       <c r="G43" s="3">
-        <v>442900</v>
+        <v>447700</v>
       </c>
       <c r="H43" s="3">
-        <v>440200</v>
+        <v>445000</v>
       </c>
       <c r="I43" s="3">
-        <v>497500</v>
+        <v>502900</v>
       </c>
       <c r="J43" s="3">
-        <v>573000</v>
+        <v>579200</v>
       </c>
       <c r="K43" s="3">
         <v>556300</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3047300</v>
+        <v>3080400</v>
       </c>
       <c r="E44" s="3">
-        <v>2857500</v>
+        <v>2888500</v>
       </c>
       <c r="F44" s="3">
-        <v>2682400</v>
+        <v>2711500</v>
       </c>
       <c r="G44" s="3">
-        <v>2420800</v>
+        <v>2447100</v>
       </c>
       <c r="H44" s="3">
-        <v>2244200</v>
+        <v>2268500</v>
       </c>
       <c r="I44" s="3">
-        <v>4256200</v>
+        <v>4302400</v>
       </c>
       <c r="J44" s="3">
-        <v>3951200</v>
+        <v>3994100</v>
       </c>
       <c r="K44" s="3">
         <v>2095700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>80200</v>
+        <v>81100</v>
       </c>
       <c r="E45" s="3">
-        <v>63400</v>
+        <v>64100</v>
       </c>
       <c r="F45" s="3">
-        <v>44300</v>
+        <v>44800</v>
       </c>
       <c r="G45" s="3">
-        <v>566800</v>
+        <v>572900</v>
       </c>
       <c r="H45" s="3">
-        <v>24800</v>
+        <v>25100</v>
       </c>
       <c r="I45" s="3">
-        <v>404900</v>
+        <v>409300</v>
       </c>
       <c r="J45" s="3">
-        <v>233000</v>
+        <v>235500</v>
       </c>
       <c r="K45" s="3">
         <v>54500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5138300</v>
+        <v>5194100</v>
       </c>
       <c r="E46" s="3">
-        <v>5215400</v>
+        <v>5272000</v>
       </c>
       <c r="F46" s="3">
-        <v>4821200</v>
+        <v>4873600</v>
       </c>
       <c r="G46" s="3">
-        <v>4692500</v>
+        <v>4743400</v>
       </c>
       <c r="H46" s="3">
-        <v>3827500</v>
+        <v>3869100</v>
       </c>
       <c r="I46" s="3">
-        <v>4080300</v>
+        <v>4124600</v>
       </c>
       <c r="J46" s="3">
-        <v>3728300</v>
+        <v>3768800</v>
       </c>
       <c r="K46" s="3">
         <v>4216300</v>
@@ -1865,10 +1865,10 @@
         <v>8</v>
       </c>
       <c r="I47" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J47" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8500500</v>
+        <v>8592800</v>
       </c>
       <c r="E48" s="3">
-        <v>6505900</v>
+        <v>6576500</v>
       </c>
       <c r="F48" s="3">
-        <v>6319100</v>
+        <v>6387700</v>
       </c>
       <c r="G48" s="3">
-        <v>6150700</v>
+        <v>6217500</v>
       </c>
       <c r="H48" s="3">
-        <v>5874300</v>
+        <v>5938100</v>
       </c>
       <c r="I48" s="3">
-        <v>5275000</v>
+        <v>5332300</v>
       </c>
       <c r="J48" s="3">
-        <v>4940500</v>
+        <v>4994100</v>
       </c>
       <c r="K48" s="3">
         <v>6292600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1672800</v>
+        <v>1691000</v>
       </c>
       <c r="E49" s="3">
-        <v>1669000</v>
+        <v>1687100</v>
       </c>
       <c r="F49" s="3">
-        <v>1775900</v>
+        <v>1795200</v>
       </c>
       <c r="G49" s="3">
-        <v>1864800</v>
+        <v>1885100</v>
       </c>
       <c r="H49" s="3">
-        <v>1554300</v>
+        <v>1571200</v>
       </c>
       <c r="I49" s="3">
-        <v>2628800</v>
+        <v>2657400</v>
       </c>
       <c r="J49" s="3">
-        <v>1170900</v>
+        <v>1183600</v>
       </c>
       <c r="K49" s="3">
         <v>1390000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>439600</v>
+        <v>444400</v>
       </c>
       <c r="E52" s="3">
-        <v>437300</v>
+        <v>442100</v>
       </c>
       <c r="F52" s="3">
-        <v>402800</v>
+        <v>407200</v>
       </c>
       <c r="G52" s="3">
-        <v>296800</v>
+        <v>300000</v>
       </c>
       <c r="H52" s="3">
-        <v>186000</v>
+        <v>188000</v>
       </c>
       <c r="I52" s="3">
-        <v>162100</v>
+        <v>163900</v>
       </c>
       <c r="J52" s="3">
-        <v>42400</v>
+        <v>42800</v>
       </c>
       <c r="K52" s="3">
         <v>17900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15751200</v>
+        <v>15922300</v>
       </c>
       <c r="E54" s="3">
-        <v>13827500</v>
+        <v>13977700</v>
       </c>
       <c r="F54" s="3">
-        <v>13319000</v>
+        <v>13463700</v>
       </c>
       <c r="G54" s="3">
-        <v>13004800</v>
+        <v>13146100</v>
       </c>
       <c r="H54" s="3">
-        <v>11442200</v>
+        <v>11566400</v>
       </c>
       <c r="I54" s="3">
-        <v>11219500</v>
+        <v>11341400</v>
       </c>
       <c r="J54" s="3">
-        <v>10387100</v>
+        <v>10500000</v>
       </c>
       <c r="K54" s="3">
         <v>11916700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3929800</v>
+        <v>3972500</v>
       </c>
       <c r="E57" s="3">
-        <v>3849100</v>
+        <v>3890900</v>
       </c>
       <c r="F57" s="3">
-        <v>3613300</v>
+        <v>3652500</v>
       </c>
       <c r="G57" s="3">
-        <v>2973600</v>
+        <v>3005900</v>
       </c>
       <c r="H57" s="3">
-        <v>2544000</v>
+        <v>2571600</v>
       </c>
       <c r="I57" s="3">
-        <v>2377800</v>
+        <v>2403600</v>
       </c>
       <c r="J57" s="3">
-        <v>2147700</v>
+        <v>2171000</v>
       </c>
       <c r="K57" s="3">
         <v>2400100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>137300</v>
+        <v>138800</v>
       </c>
       <c r="E58" s="3">
-        <v>13900</v>
+        <v>14100</v>
       </c>
       <c r="F58" s="3">
-        <v>17200</v>
+        <v>17400</v>
       </c>
       <c r="G58" s="3">
-        <v>24000</v>
+        <v>24300</v>
       </c>
       <c r="H58" s="3">
-        <v>25100</v>
+        <v>25400</v>
       </c>
       <c r="I58" s="3">
-        <v>25200</v>
+        <v>25500</v>
       </c>
       <c r="J58" s="3">
-        <v>32600</v>
+        <v>33000</v>
       </c>
       <c r="K58" s="3">
         <v>25500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1052800</v>
+        <v>1064200</v>
       </c>
       <c r="E59" s="3">
-        <v>1287000</v>
+        <v>1301000</v>
       </c>
       <c r="F59" s="3">
-        <v>1233600</v>
+        <v>1247000</v>
       </c>
       <c r="G59" s="3">
-        <v>2359900</v>
+        <v>2385500</v>
       </c>
       <c r="H59" s="3">
-        <v>918300</v>
+        <v>928300</v>
       </c>
       <c r="I59" s="3">
-        <v>2098100</v>
+        <v>2120900</v>
       </c>
       <c r="J59" s="3">
-        <v>1492100</v>
+        <v>1508300</v>
       </c>
       <c r="K59" s="3">
         <v>907000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5119900</v>
+        <v>5175600</v>
       </c>
       <c r="E60" s="3">
-        <v>5150000</v>
+        <v>5205900</v>
       </c>
       <c r="F60" s="3">
-        <v>4864100</v>
+        <v>4916900</v>
       </c>
       <c r="G60" s="3">
-        <v>4254700</v>
+        <v>4300900</v>
       </c>
       <c r="H60" s="3">
-        <v>3487400</v>
+        <v>3525300</v>
       </c>
       <c r="I60" s="3">
-        <v>3407100</v>
+        <v>3444100</v>
       </c>
       <c r="J60" s="3">
-        <v>2964700</v>
+        <v>2996900</v>
       </c>
       <c r="K60" s="3">
         <v>3332600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2443500</v>
+        <v>2470100</v>
       </c>
       <c r="E61" s="3">
-        <v>639100</v>
+        <v>646000</v>
       </c>
       <c r="F61" s="3">
-        <v>619200</v>
+        <v>625900</v>
       </c>
       <c r="G61" s="3">
-        <v>589900</v>
+        <v>596300</v>
       </c>
       <c r="H61" s="3">
-        <v>591100</v>
+        <v>597500</v>
       </c>
       <c r="I61" s="3">
-        <v>594500</v>
+        <v>601000</v>
       </c>
       <c r="J61" s="3">
-        <v>621000</v>
+        <v>627800</v>
       </c>
       <c r="K61" s="3">
         <v>677600</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>602700</v>
+        <v>609200</v>
       </c>
       <c r="E62" s="3">
-        <v>599200</v>
+        <v>605700</v>
       </c>
       <c r="F62" s="3">
-        <v>639100</v>
+        <v>646100</v>
       </c>
       <c r="G62" s="3">
-        <v>625700</v>
+        <v>632500</v>
       </c>
       <c r="H62" s="3">
-        <v>515000</v>
+        <v>520600</v>
       </c>
       <c r="I62" s="3">
-        <v>467800</v>
+        <v>472900</v>
       </c>
       <c r="J62" s="3">
-        <v>376400</v>
+        <v>380500</v>
       </c>
       <c r="K62" s="3">
         <v>410000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8166200</v>
+        <v>8254900</v>
       </c>
       <c r="E66" s="3">
-        <v>6388200</v>
+        <v>6457600</v>
       </c>
       <c r="F66" s="3">
-        <v>6122400</v>
+        <v>6188900</v>
       </c>
       <c r="G66" s="3">
-        <v>5470300</v>
+        <v>5529700</v>
       </c>
       <c r="H66" s="3">
-        <v>4594700</v>
+        <v>4644600</v>
       </c>
       <c r="I66" s="3">
-        <v>4443000</v>
+        <v>4491200</v>
       </c>
       <c r="J66" s="3">
-        <v>3939500</v>
+        <v>3982300</v>
       </c>
       <c r="K66" s="3">
         <v>4427400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4656100</v>
+        <v>4706700</v>
       </c>
       <c r="E72" s="3">
-        <v>4489000</v>
+        <v>4537800</v>
       </c>
       <c r="F72" s="3">
-        <v>4082200</v>
+        <v>4126600</v>
       </c>
       <c r="G72" s="3">
-        <v>4654400</v>
+        <v>4705000</v>
       </c>
       <c r="H72" s="3">
-        <v>4298700</v>
+        <v>4345400</v>
       </c>
       <c r="I72" s="3">
-        <v>8980500</v>
+        <v>9078100</v>
       </c>
       <c r="J72" s="3">
-        <v>5617700</v>
+        <v>5678700</v>
       </c>
       <c r="K72" s="3">
         <v>5274500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7585000</v>
+        <v>7667400</v>
       </c>
       <c r="E76" s="3">
-        <v>7439300</v>
+        <v>7520100</v>
       </c>
       <c r="F76" s="3">
-        <v>7196600</v>
+        <v>7274700</v>
       </c>
       <c r="G76" s="3">
-        <v>7534500</v>
+        <v>7616400</v>
       </c>
       <c r="H76" s="3">
-        <v>6847500</v>
+        <v>6921800</v>
       </c>
       <c r="I76" s="3">
-        <v>6776500</v>
+        <v>6850100</v>
       </c>
       <c r="J76" s="3">
-        <v>6447600</v>
+        <v>6517600</v>
       </c>
       <c r="K76" s="3">
         <v>7489400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1705800</v>
+        <v>1728100</v>
       </c>
       <c r="E81" s="3">
-        <v>1654200</v>
+        <v>1675900</v>
       </c>
       <c r="F81" s="3">
-        <v>1794300</v>
+        <v>1817800</v>
       </c>
       <c r="G81" s="3">
-        <v>1501200</v>
+        <v>1520900</v>
       </c>
       <c r="H81" s="3">
-        <v>1187200</v>
+        <v>1202700</v>
       </c>
       <c r="I81" s="3">
-        <v>1369500</v>
+        <v>1387400</v>
       </c>
       <c r="J81" s="3">
-        <v>1022500</v>
+        <v>1035900</v>
       </c>
       <c r="K81" s="3">
         <v>1247800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>765300</v>
+        <v>775300</v>
       </c>
       <c r="E83" s="3">
-        <v>565200</v>
+        <v>572600</v>
       </c>
       <c r="F83" s="3">
-        <v>524100</v>
+        <v>531000</v>
       </c>
       <c r="G83" s="3">
-        <v>481300</v>
+        <v>487600</v>
       </c>
       <c r="H83" s="3">
-        <v>451200</v>
+        <v>457100</v>
       </c>
       <c r="I83" s="3">
-        <v>417700</v>
+        <v>423100</v>
       </c>
       <c r="J83" s="3">
-        <v>391100</v>
+        <v>396300</v>
       </c>
       <c r="K83" s="3">
         <v>450000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2548800</v>
+        <v>2582200</v>
       </c>
       <c r="E89" s="3">
-        <v>2139500</v>
+        <v>2167600</v>
       </c>
       <c r="F89" s="3">
-        <v>2211600</v>
+        <v>2240600</v>
       </c>
       <c r="G89" s="3">
-        <v>2120300</v>
+        <v>2148100</v>
       </c>
       <c r="H89" s="3">
-        <v>1751100</v>
+        <v>1774000</v>
       </c>
       <c r="I89" s="3">
-        <v>1717200</v>
+        <v>1739800</v>
       </c>
       <c r="J89" s="3">
-        <v>1291900</v>
+        <v>1308800</v>
       </c>
       <c r="K89" s="3">
         <v>1589100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-926100</v>
+        <v>-938200</v>
       </c>
       <c r="E91" s="3">
-        <v>-807100</v>
+        <v>-817700</v>
       </c>
       <c r="F91" s="3">
-        <v>-784300</v>
+        <v>-794600</v>
       </c>
       <c r="G91" s="3">
-        <v>-645200</v>
+        <v>-653700</v>
       </c>
       <c r="H91" s="3">
-        <v>-563800</v>
+        <v>-571200</v>
       </c>
       <c r="I91" s="3">
-        <v>-571200</v>
+        <v>-578700</v>
       </c>
       <c r="J91" s="3">
-        <v>-629600</v>
+        <v>-637800</v>
       </c>
       <c r="K91" s="3">
         <v>-785900</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-885800</v>
+        <v>-897500</v>
       </c>
       <c r="E94" s="3">
-        <v>-696200</v>
+        <v>-705300</v>
       </c>
       <c r="F94" s="3">
-        <v>175000</v>
+        <v>177300</v>
       </c>
       <c r="G94" s="3">
-        <v>-621200</v>
+        <v>-629300</v>
       </c>
       <c r="H94" s="3">
-        <v>-361300</v>
+        <v>-366100</v>
       </c>
       <c r="I94" s="3">
-        <v>-185100</v>
+        <v>-187500</v>
       </c>
       <c r="J94" s="3">
-        <v>-643200</v>
+        <v>-651700</v>
       </c>
       <c r="K94" s="3">
         <v>-766800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1618400</v>
+        <v>-1639700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1151400</v>
+        <v>-1166500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1924400</v>
+        <v>-1949700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1304000</v>
+        <v>-1321100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1420600</v>
+        <v>-1439200</v>
       </c>
       <c r="I96" s="3">
-        <v>-974100</v>
+        <v>-986900</v>
       </c>
       <c r="J96" s="3">
-        <v>-722700</v>
+        <v>-732200</v>
       </c>
       <c r="K96" s="3">
         <v>-515300</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1982000</v>
+        <v>-2007900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1221500</v>
+        <v>-1237600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1997600</v>
+        <v>-2023800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1377000</v>
+        <v>-1395000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1575900</v>
+        <v>-1596500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1226200</v>
+        <v>-1242300</v>
       </c>
       <c r="J100" s="3">
-        <v>-935200</v>
+        <v>-947400</v>
       </c>
       <c r="K100" s="3">
         <v>-642900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-39800</v>
+        <v>-40400</v>
       </c>
       <c r="E101" s="3">
-        <v>-76200</v>
+        <v>-77200</v>
       </c>
       <c r="F101" s="3">
-        <v>-45900</v>
+        <v>-46500</v>
       </c>
       <c r="G101" s="3">
-        <v>21200</v>
+        <v>21400</v>
       </c>
       <c r="H101" s="3">
-        <v>39500</v>
+        <v>40100</v>
       </c>
       <c r="I101" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="J101" s="3">
-        <v>-30100</v>
+        <v>-30500</v>
       </c>
       <c r="K101" s="3">
         <v>-18700</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-358800</v>
+        <v>-363500</v>
       </c>
       <c r="E102" s="3">
-        <v>145500</v>
+        <v>147400</v>
       </c>
       <c r="F102" s="3">
-        <v>343000</v>
+        <v>347500</v>
       </c>
       <c r="G102" s="3">
-        <v>143300</v>
+        <v>145200</v>
       </c>
       <c r="H102" s="3">
-        <v>-146600</v>
+        <v>-148500</v>
       </c>
       <c r="I102" s="3">
-        <v>311400</v>
+        <v>315500</v>
       </c>
       <c r="J102" s="3">
-        <v>-316600</v>
+        <v>-320700</v>
       </c>
       <c r="K102" s="3">
         <v>160700</v>

--- a/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29496200</v>
+        <v>32297000</v>
       </c>
       <c r="E8" s="3">
-        <v>28131100</v>
+        <v>30802300</v>
       </c>
       <c r="F8" s="3">
-        <v>26145700</v>
+        <v>28628400</v>
       </c>
       <c r="G8" s="3">
-        <v>24276700</v>
+        <v>26581900</v>
       </c>
       <c r="H8" s="3">
-        <v>21701500</v>
+        <v>23762200</v>
       </c>
       <c r="I8" s="3">
-        <v>20109000</v>
+        <v>22018500</v>
       </c>
       <c r="J8" s="3">
-        <v>19326300</v>
+        <v>21161500</v>
       </c>
       <c r="K8" s="3">
         <v>22090500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22745100</v>
+        <v>24904900</v>
       </c>
       <c r="E9" s="3">
-        <v>21674800</v>
+        <v>23732900</v>
       </c>
       <c r="F9" s="3">
-        <v>20168800</v>
+        <v>22084000</v>
       </c>
       <c r="G9" s="3">
-        <v>18919400</v>
+        <v>20716000</v>
       </c>
       <c r="H9" s="3">
-        <v>17022800</v>
+        <v>18639300</v>
       </c>
       <c r="I9" s="3">
-        <v>15657600</v>
+        <v>17144400</v>
       </c>
       <c r="J9" s="3">
-        <v>15087900</v>
+        <v>16520600</v>
       </c>
       <c r="K9" s="3">
         <v>17253400</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6751100</v>
+        <v>7392200</v>
       </c>
       <c r="E10" s="3">
-        <v>6456300</v>
+        <v>7069400</v>
       </c>
       <c r="F10" s="3">
-        <v>5976900</v>
+        <v>6544400</v>
       </c>
       <c r="G10" s="3">
-        <v>5357300</v>
+        <v>5866000</v>
       </c>
       <c r="H10" s="3">
-        <v>4678700</v>
+        <v>5123000</v>
       </c>
       <c r="I10" s="3">
-        <v>4451400</v>
+        <v>4874100</v>
       </c>
       <c r="J10" s="3">
-        <v>4238500</v>
+        <v>4640900</v>
       </c>
       <c r="K10" s="3">
         <v>4837100</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27033700</v>
+        <v>29600700</v>
       </c>
       <c r="E17" s="3">
-        <v>25888100</v>
+        <v>28346300</v>
       </c>
       <c r="F17" s="3">
-        <v>24146700</v>
+        <v>26439600</v>
       </c>
       <c r="G17" s="3">
-        <v>22477600</v>
+        <v>24611900</v>
       </c>
       <c r="H17" s="3">
-        <v>20204600</v>
+        <v>22123100</v>
       </c>
       <c r="I17" s="3">
-        <v>18526000</v>
+        <v>20285100</v>
       </c>
       <c r="J17" s="3">
-        <v>17883700</v>
+        <v>19581900</v>
       </c>
       <c r="K17" s="3">
         <v>20406000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2462500</v>
+        <v>2696400</v>
       </c>
       <c r="E18" s="3">
-        <v>2243100</v>
+        <v>2456000</v>
       </c>
       <c r="F18" s="3">
-        <v>1999000</v>
+        <v>2188800</v>
       </c>
       <c r="G18" s="3">
-        <v>1799200</v>
+        <v>1970000</v>
       </c>
       <c r="H18" s="3">
-        <v>1497000</v>
+        <v>1639100</v>
       </c>
       <c r="I18" s="3">
-        <v>1583100</v>
+        <v>1733400</v>
       </c>
       <c r="J18" s="3">
-        <v>1442600</v>
+        <v>1579600</v>
       </c>
       <c r="K18" s="3">
         <v>1684500</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>43400</v>
+        <v>47500</v>
       </c>
       <c r="E20" s="3">
-        <v>55800</v>
+        <v>61100</v>
       </c>
       <c r="F20" s="3">
-        <v>40500</v>
+        <v>44400</v>
       </c>
       <c r="G20" s="3">
-        <v>43200</v>
+        <v>47300</v>
       </c>
       <c r="H20" s="3">
-        <v>55400</v>
+        <v>60700</v>
       </c>
       <c r="I20" s="3">
-        <v>48200</v>
+        <v>52800</v>
       </c>
       <c r="J20" s="3">
-        <v>50100</v>
+        <v>54800</v>
       </c>
       <c r="K20" s="3">
         <v>133100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3282800</v>
+        <v>3592800</v>
       </c>
       <c r="E21" s="3">
-        <v>2872600</v>
+        <v>3144100</v>
       </c>
       <c r="F21" s="3">
-        <v>2571600</v>
+        <v>2814600</v>
       </c>
       <c r="G21" s="3">
-        <v>2331000</v>
+        <v>2551300</v>
       </c>
       <c r="H21" s="3">
-        <v>2010400</v>
+        <v>2200300</v>
       </c>
       <c r="I21" s="3">
-        <v>2055300</v>
+        <v>2249500</v>
       </c>
       <c r="J21" s="3">
-        <v>1889700</v>
+        <v>2068300</v>
       </c>
       <c r="K21" s="3">
         <v>2269100</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>262300</v>
+        <v>287200</v>
       </c>
       <c r="E22" s="3">
-        <v>70800</v>
+        <v>77600</v>
       </c>
       <c r="F22" s="3">
-        <v>65500</v>
+        <v>71700</v>
       </c>
       <c r="G22" s="3">
-        <v>57900</v>
+        <v>63500</v>
       </c>
       <c r="H22" s="3">
-        <v>51400</v>
+        <v>56200</v>
       </c>
       <c r="I22" s="3">
-        <v>55300</v>
+        <v>60500</v>
       </c>
       <c r="J22" s="3">
-        <v>50800</v>
+        <v>55600</v>
       </c>
       <c r="K22" s="3">
         <v>111600</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2243600</v>
+        <v>2456700</v>
       </c>
       <c r="E23" s="3">
-        <v>2228000</v>
+        <v>2439600</v>
       </c>
       <c r="F23" s="3">
-        <v>1974000</v>
+        <v>2161500</v>
       </c>
       <c r="G23" s="3">
-        <v>1784400</v>
+        <v>1953900</v>
       </c>
       <c r="H23" s="3">
-        <v>1501000</v>
+        <v>1643500</v>
       </c>
       <c r="I23" s="3">
-        <v>1576000</v>
+        <v>1725700</v>
       </c>
       <c r="J23" s="3">
-        <v>1441900</v>
+        <v>1578800</v>
       </c>
       <c r="K23" s="3">
         <v>1706000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>515500</v>
+        <v>564400</v>
       </c>
       <c r="E24" s="3">
-        <v>552100</v>
+        <v>604500</v>
       </c>
       <c r="F24" s="3">
-        <v>497000</v>
+        <v>544200</v>
       </c>
       <c r="G24" s="3">
-        <v>484400</v>
+        <v>530400</v>
       </c>
       <c r="H24" s="3">
-        <v>432000</v>
+        <v>473000</v>
       </c>
       <c r="I24" s="3">
-        <v>434200</v>
+        <v>475400</v>
       </c>
       <c r="J24" s="3">
-        <v>439200</v>
+        <v>480900</v>
       </c>
       <c r="K24" s="3">
         <v>495200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1728100</v>
+        <v>1892200</v>
       </c>
       <c r="E26" s="3">
-        <v>1675900</v>
+        <v>1835100</v>
       </c>
       <c r="F26" s="3">
-        <v>1477000</v>
+        <v>1617200</v>
       </c>
       <c r="G26" s="3">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H26" s="3">
-        <v>1069100</v>
+        <v>1170600</v>
       </c>
       <c r="I26" s="3">
-        <v>1141900</v>
+        <v>1250300</v>
       </c>
       <c r="J26" s="3">
-        <v>1002700</v>
+        <v>1097900</v>
       </c>
       <c r="K26" s="3">
         <v>1210800</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1728100</v>
+        <v>1892200</v>
       </c>
       <c r="E27" s="3">
-        <v>1675900</v>
+        <v>1835100</v>
       </c>
       <c r="F27" s="3">
-        <v>1477000</v>
+        <v>1617200</v>
       </c>
       <c r="G27" s="3">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H27" s="3">
-        <v>1068900</v>
+        <v>1170400</v>
       </c>
       <c r="I27" s="3">
-        <v>1141500</v>
+        <v>1249800</v>
       </c>
       <c r="J27" s="3">
-        <v>1002900</v>
+        <v>1098100</v>
       </c>
       <c r="K27" s="3">
         <v>1211200</v>
@@ -1359,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>340800</v>
+        <v>373200</v>
       </c>
       <c r="G29" s="3">
-        <v>220800</v>
+        <v>241800</v>
       </c>
       <c r="H29" s="3">
-        <v>133800</v>
+        <v>146500</v>
       </c>
       <c r="I29" s="3">
-        <v>246000</v>
+        <v>269300</v>
       </c>
       <c r="J29" s="3">
-        <v>33000</v>
+        <v>36200</v>
       </c>
       <c r="K29" s="3">
         <v>36600</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-43400</v>
+        <v>-47500</v>
       </c>
       <c r="E32" s="3">
-        <v>-55800</v>
+        <v>-61100</v>
       </c>
       <c r="F32" s="3">
-        <v>-40500</v>
+        <v>-44400</v>
       </c>
       <c r="G32" s="3">
-        <v>-43200</v>
+        <v>-47300</v>
       </c>
       <c r="H32" s="3">
-        <v>-55400</v>
+        <v>-60700</v>
       </c>
       <c r="I32" s="3">
-        <v>-48200</v>
+        <v>-52800</v>
       </c>
       <c r="J32" s="3">
-        <v>-50100</v>
+        <v>-54800</v>
       </c>
       <c r="K32" s="3">
         <v>-133100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1728100</v>
+        <v>1892200</v>
       </c>
       <c r="E33" s="3">
-        <v>1675900</v>
+        <v>1835100</v>
       </c>
       <c r="F33" s="3">
-        <v>1817800</v>
+        <v>1990500</v>
       </c>
       <c r="G33" s="3">
-        <v>1520900</v>
+        <v>1665300</v>
       </c>
       <c r="H33" s="3">
-        <v>1202700</v>
+        <v>1316900</v>
       </c>
       <c r="I33" s="3">
-        <v>1387400</v>
+        <v>1519200</v>
       </c>
       <c r="J33" s="3">
-        <v>1035900</v>
+        <v>1134300</v>
       </c>
       <c r="K33" s="3">
         <v>1247800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1728100</v>
+        <v>1892200</v>
       </c>
       <c r="E35" s="3">
-        <v>1675900</v>
+        <v>1835100</v>
       </c>
       <c r="F35" s="3">
-        <v>1817800</v>
+        <v>1990500</v>
       </c>
       <c r="G35" s="3">
-        <v>1520900</v>
+        <v>1665300</v>
       </c>
       <c r="H35" s="3">
-        <v>1202700</v>
+        <v>1316900</v>
       </c>
       <c r="I35" s="3">
-        <v>1387400</v>
+        <v>1519200</v>
       </c>
       <c r="J35" s="3">
-        <v>1035900</v>
+        <v>1134300</v>
       </c>
       <c r="K35" s="3">
         <v>1247800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1407100</v>
+        <v>1540700</v>
       </c>
       <c r="E41" s="3">
-        <v>1770600</v>
+        <v>1938800</v>
       </c>
       <c r="F41" s="3">
-        <v>1623200</v>
+        <v>1777300</v>
       </c>
       <c r="G41" s="3">
-        <v>1275700</v>
+        <v>1396800</v>
       </c>
       <c r="H41" s="3">
-        <v>1130500</v>
+        <v>1237800</v>
       </c>
       <c r="I41" s="3">
-        <v>2558000</v>
+        <v>2800900</v>
       </c>
       <c r="J41" s="3">
-        <v>1927000</v>
+        <v>2110000</v>
       </c>
       <c r="K41" s="3">
         <v>1509800</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>625500</v>
+        <v>684900</v>
       </c>
       <c r="E43" s="3">
-        <v>548800</v>
+        <v>600900</v>
       </c>
       <c r="F43" s="3">
-        <v>494100</v>
+        <v>541000</v>
       </c>
       <c r="G43" s="3">
-        <v>447700</v>
+        <v>490200</v>
       </c>
       <c r="H43" s="3">
-        <v>445000</v>
+        <v>487300</v>
       </c>
       <c r="I43" s="3">
-        <v>502900</v>
+        <v>550700</v>
       </c>
       <c r="J43" s="3">
-        <v>579200</v>
+        <v>634200</v>
       </c>
       <c r="K43" s="3">
         <v>556300</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3080400</v>
+        <v>3372900</v>
       </c>
       <c r="E44" s="3">
-        <v>2888500</v>
+        <v>3162800</v>
       </c>
       <c r="F44" s="3">
-        <v>2711500</v>
+        <v>2969000</v>
       </c>
       <c r="G44" s="3">
-        <v>2447100</v>
+        <v>2679500</v>
       </c>
       <c r="H44" s="3">
-        <v>2268500</v>
+        <v>2484000</v>
       </c>
       <c r="I44" s="3">
-        <v>4302400</v>
+        <v>4710900</v>
       </c>
       <c r="J44" s="3">
-        <v>3994100</v>
+        <v>4373400</v>
       </c>
       <c r="K44" s="3">
         <v>2095700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>81100</v>
+        <v>88800</v>
       </c>
       <c r="E45" s="3">
-        <v>64100</v>
+        <v>70200</v>
       </c>
       <c r="F45" s="3">
-        <v>44800</v>
+        <v>49000</v>
       </c>
       <c r="G45" s="3">
-        <v>572900</v>
+        <v>627300</v>
       </c>
       <c r="H45" s="3">
-        <v>25100</v>
+        <v>27500</v>
       </c>
       <c r="I45" s="3">
-        <v>409300</v>
+        <v>448200</v>
       </c>
       <c r="J45" s="3">
-        <v>235500</v>
+        <v>257900</v>
       </c>
       <c r="K45" s="3">
         <v>54500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5194100</v>
+        <v>5687300</v>
       </c>
       <c r="E46" s="3">
-        <v>5272000</v>
+        <v>5772600</v>
       </c>
       <c r="F46" s="3">
-        <v>4873600</v>
+        <v>5336300</v>
       </c>
       <c r="G46" s="3">
-        <v>4743400</v>
+        <v>5193900</v>
       </c>
       <c r="H46" s="3">
-        <v>3869100</v>
+        <v>4236500</v>
       </c>
       <c r="I46" s="3">
-        <v>4124600</v>
+        <v>4516300</v>
       </c>
       <c r="J46" s="3">
-        <v>3768800</v>
+        <v>4126700</v>
       </c>
       <c r="K46" s="3">
         <v>4216300</v>
@@ -1865,10 +1865,10 @@
         <v>8</v>
       </c>
       <c r="I47" s="3">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="J47" s="3">
-        <v>9500</v>
+        <v>10400</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8592800</v>
+        <v>9408800</v>
       </c>
       <c r="E48" s="3">
-        <v>6576500</v>
+        <v>7201000</v>
       </c>
       <c r="F48" s="3">
-        <v>6387700</v>
+        <v>6994300</v>
       </c>
       <c r="G48" s="3">
-        <v>6217500</v>
+        <v>6807900</v>
       </c>
       <c r="H48" s="3">
-        <v>5938100</v>
+        <v>6502000</v>
       </c>
       <c r="I48" s="3">
-        <v>5332300</v>
+        <v>5838600</v>
       </c>
       <c r="J48" s="3">
-        <v>4994100</v>
+        <v>5468400</v>
       </c>
       <c r="K48" s="3">
         <v>6292600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1691000</v>
+        <v>1851600</v>
       </c>
       <c r="E49" s="3">
-        <v>1687100</v>
+        <v>1847300</v>
       </c>
       <c r="F49" s="3">
-        <v>1795200</v>
+        <v>1965600</v>
       </c>
       <c r="G49" s="3">
-        <v>1885100</v>
+        <v>2064100</v>
       </c>
       <c r="H49" s="3">
-        <v>1571200</v>
+        <v>1720400</v>
       </c>
       <c r="I49" s="3">
-        <v>2657400</v>
+        <v>2909700</v>
       </c>
       <c r="J49" s="3">
-        <v>1183600</v>
+        <v>1296000</v>
       </c>
       <c r="K49" s="3">
         <v>1390000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>444400</v>
+        <v>486500</v>
       </c>
       <c r="E52" s="3">
-        <v>442100</v>
+        <v>484000</v>
       </c>
       <c r="F52" s="3">
-        <v>407200</v>
+        <v>445900</v>
       </c>
       <c r="G52" s="3">
-        <v>300000</v>
+        <v>328500</v>
       </c>
       <c r="H52" s="3">
-        <v>188000</v>
+        <v>205900</v>
       </c>
       <c r="I52" s="3">
-        <v>163900</v>
+        <v>179500</v>
       </c>
       <c r="J52" s="3">
-        <v>42800</v>
+        <v>46900</v>
       </c>
       <c r="K52" s="3">
         <v>17900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15922300</v>
+        <v>17434200</v>
       </c>
       <c r="E54" s="3">
-        <v>13977700</v>
+        <v>15305000</v>
       </c>
       <c r="F54" s="3">
-        <v>13463700</v>
+        <v>14742100</v>
       </c>
       <c r="G54" s="3">
-        <v>13146100</v>
+        <v>14394400</v>
       </c>
       <c r="H54" s="3">
-        <v>11566400</v>
+        <v>12664800</v>
       </c>
       <c r="I54" s="3">
-        <v>11341400</v>
+        <v>12418300</v>
       </c>
       <c r="J54" s="3">
-        <v>10500000</v>
+        <v>11497000</v>
       </c>
       <c r="K54" s="3">
         <v>11916700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3972500</v>
+        <v>4349700</v>
       </c>
       <c r="E57" s="3">
-        <v>3890900</v>
+        <v>4260400</v>
       </c>
       <c r="F57" s="3">
-        <v>3652500</v>
+        <v>3999300</v>
       </c>
       <c r="G57" s="3">
-        <v>3005900</v>
+        <v>3291300</v>
       </c>
       <c r="H57" s="3">
-        <v>2571600</v>
+        <v>2815800</v>
       </c>
       <c r="I57" s="3">
-        <v>2403600</v>
+        <v>2631800</v>
       </c>
       <c r="J57" s="3">
-        <v>2171000</v>
+        <v>2377100</v>
       </c>
       <c r="K57" s="3">
         <v>2400100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>138800</v>
+        <v>152000</v>
       </c>
       <c r="E58" s="3">
-        <v>14100</v>
+        <v>15400</v>
       </c>
       <c r="F58" s="3">
-        <v>17400</v>
+        <v>19000</v>
       </c>
       <c r="G58" s="3">
-        <v>24300</v>
+        <v>26600</v>
       </c>
       <c r="H58" s="3">
-        <v>25400</v>
+        <v>27800</v>
       </c>
       <c r="I58" s="3">
-        <v>25500</v>
+        <v>27900</v>
       </c>
       <c r="J58" s="3">
-        <v>33000</v>
+        <v>36100</v>
       </c>
       <c r="K58" s="3">
         <v>25500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1064200</v>
+        <v>1165300</v>
       </c>
       <c r="E59" s="3">
-        <v>1301000</v>
+        <v>1424500</v>
       </c>
       <c r="F59" s="3">
-        <v>1247000</v>
+        <v>1365400</v>
       </c>
       <c r="G59" s="3">
-        <v>2385500</v>
+        <v>2612000</v>
       </c>
       <c r="H59" s="3">
-        <v>928300</v>
+        <v>1016400</v>
       </c>
       <c r="I59" s="3">
-        <v>2120900</v>
+        <v>2322300</v>
       </c>
       <c r="J59" s="3">
-        <v>1508300</v>
+        <v>1651600</v>
       </c>
       <c r="K59" s="3">
         <v>907000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5175600</v>
+        <v>5667000</v>
       </c>
       <c r="E60" s="3">
-        <v>5205900</v>
+        <v>5700300</v>
       </c>
       <c r="F60" s="3">
-        <v>4916900</v>
+        <v>5383800</v>
       </c>
       <c r="G60" s="3">
-        <v>4300900</v>
+        <v>4709300</v>
       </c>
       <c r="H60" s="3">
-        <v>3525300</v>
+        <v>3860100</v>
       </c>
       <c r="I60" s="3">
-        <v>3444100</v>
+        <v>3771100</v>
       </c>
       <c r="J60" s="3">
-        <v>2996900</v>
+        <v>3281500</v>
       </c>
       <c r="K60" s="3">
         <v>3332600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2470100</v>
+        <v>2704600</v>
       </c>
       <c r="E61" s="3">
-        <v>646000</v>
+        <v>707400</v>
       </c>
       <c r="F61" s="3">
-        <v>625900</v>
+        <v>685300</v>
       </c>
       <c r="G61" s="3">
-        <v>596300</v>
+        <v>652900</v>
       </c>
       <c r="H61" s="3">
-        <v>597500</v>
+        <v>654300</v>
       </c>
       <c r="I61" s="3">
-        <v>601000</v>
+        <v>658100</v>
       </c>
       <c r="J61" s="3">
-        <v>627800</v>
+        <v>687400</v>
       </c>
       <c r="K61" s="3">
         <v>677600</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>609200</v>
+        <v>667100</v>
       </c>
       <c r="E62" s="3">
-        <v>605700</v>
+        <v>663200</v>
       </c>
       <c r="F62" s="3">
-        <v>646100</v>
+        <v>707400</v>
       </c>
       <c r="G62" s="3">
-        <v>632500</v>
+        <v>692600</v>
       </c>
       <c r="H62" s="3">
-        <v>520600</v>
+        <v>570000</v>
       </c>
       <c r="I62" s="3">
-        <v>472900</v>
+        <v>517800</v>
       </c>
       <c r="J62" s="3">
-        <v>380500</v>
+        <v>416600</v>
       </c>
       <c r="K62" s="3">
         <v>410000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8254900</v>
+        <v>9038700</v>
       </c>
       <c r="E66" s="3">
-        <v>6457600</v>
+        <v>7070800</v>
       </c>
       <c r="F66" s="3">
-        <v>6188900</v>
+        <v>6776600</v>
       </c>
       <c r="G66" s="3">
-        <v>5529700</v>
+        <v>6054800</v>
       </c>
       <c r="H66" s="3">
-        <v>4644600</v>
+        <v>5085600</v>
       </c>
       <c r="I66" s="3">
-        <v>4491200</v>
+        <v>4917700</v>
       </c>
       <c r="J66" s="3">
-        <v>3982300</v>
+        <v>4360500</v>
       </c>
       <c r="K66" s="3">
         <v>4427400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4706700</v>
+        <v>5153600</v>
       </c>
       <c r="E72" s="3">
-        <v>4537800</v>
+        <v>4968700</v>
       </c>
       <c r="F72" s="3">
-        <v>4126600</v>
+        <v>4518400</v>
       </c>
       <c r="G72" s="3">
-        <v>4705000</v>
+        <v>5151800</v>
       </c>
       <c r="H72" s="3">
-        <v>4345400</v>
+        <v>4758000</v>
       </c>
       <c r="I72" s="3">
-        <v>9078100</v>
+        <v>9940100</v>
       </c>
       <c r="J72" s="3">
-        <v>5678700</v>
+        <v>6217900</v>
       </c>
       <c r="K72" s="3">
         <v>5274500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7667400</v>
+        <v>8395500</v>
       </c>
       <c r="E76" s="3">
-        <v>7520100</v>
+        <v>8234200</v>
       </c>
       <c r="F76" s="3">
-        <v>7274700</v>
+        <v>7965500</v>
       </c>
       <c r="G76" s="3">
-        <v>7616400</v>
+        <v>8339600</v>
       </c>
       <c r="H76" s="3">
-        <v>6921800</v>
+        <v>7579100</v>
       </c>
       <c r="I76" s="3">
-        <v>6850100</v>
+        <v>7500600</v>
       </c>
       <c r="J76" s="3">
-        <v>6517600</v>
+        <v>7136500</v>
       </c>
       <c r="K76" s="3">
         <v>7489400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1728100</v>
+        <v>1892200</v>
       </c>
       <c r="E81" s="3">
-        <v>1675900</v>
+        <v>1835100</v>
       </c>
       <c r="F81" s="3">
-        <v>1817800</v>
+        <v>1990500</v>
       </c>
       <c r="G81" s="3">
-        <v>1520900</v>
+        <v>1665300</v>
       </c>
       <c r="H81" s="3">
-        <v>1202700</v>
+        <v>1316900</v>
       </c>
       <c r="I81" s="3">
-        <v>1387400</v>
+        <v>1519200</v>
       </c>
       <c r="J81" s="3">
-        <v>1035900</v>
+        <v>1134300</v>
       </c>
       <c r="K81" s="3">
         <v>1247800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>775300</v>
+        <v>848900</v>
       </c>
       <c r="E83" s="3">
-        <v>572600</v>
+        <v>627000</v>
       </c>
       <c r="F83" s="3">
-        <v>531000</v>
+        <v>581400</v>
       </c>
       <c r="G83" s="3">
-        <v>487600</v>
+        <v>533900</v>
       </c>
       <c r="H83" s="3">
-        <v>457100</v>
+        <v>500500</v>
       </c>
       <c r="I83" s="3">
-        <v>423100</v>
+        <v>463300</v>
       </c>
       <c r="J83" s="3">
-        <v>396300</v>
+        <v>433900</v>
       </c>
       <c r="K83" s="3">
         <v>450000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2582200</v>
+        <v>2827400</v>
       </c>
       <c r="E89" s="3">
-        <v>2167600</v>
+        <v>2373400</v>
       </c>
       <c r="F89" s="3">
-        <v>2240600</v>
+        <v>2453300</v>
       </c>
       <c r="G89" s="3">
-        <v>2148100</v>
+        <v>2352100</v>
       </c>
       <c r="H89" s="3">
-        <v>1774000</v>
+        <v>1942500</v>
       </c>
       <c r="I89" s="3">
-        <v>1739800</v>
+        <v>1905000</v>
       </c>
       <c r="J89" s="3">
-        <v>1308800</v>
+        <v>1433100</v>
       </c>
       <c r="K89" s="3">
         <v>1589100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-938200</v>
+        <v>-1027300</v>
       </c>
       <c r="E91" s="3">
-        <v>-817700</v>
+        <v>-895400</v>
       </c>
       <c r="F91" s="3">
-        <v>-794600</v>
+        <v>-870100</v>
       </c>
       <c r="G91" s="3">
-        <v>-653700</v>
+        <v>-715700</v>
       </c>
       <c r="H91" s="3">
-        <v>-571200</v>
+        <v>-625400</v>
       </c>
       <c r="I91" s="3">
-        <v>-578700</v>
+        <v>-633700</v>
       </c>
       <c r="J91" s="3">
-        <v>-637800</v>
+        <v>-698400</v>
       </c>
       <c r="K91" s="3">
         <v>-785900</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-897500</v>
+        <v>-982700</v>
       </c>
       <c r="E94" s="3">
-        <v>-705300</v>
+        <v>-772300</v>
       </c>
       <c r="F94" s="3">
-        <v>177300</v>
+        <v>194100</v>
       </c>
       <c r="G94" s="3">
-        <v>-629300</v>
+        <v>-689100</v>
       </c>
       <c r="H94" s="3">
-        <v>-366100</v>
+        <v>-400800</v>
       </c>
       <c r="I94" s="3">
-        <v>-187500</v>
+        <v>-205300</v>
       </c>
       <c r="J94" s="3">
-        <v>-651700</v>
+        <v>-713500</v>
       </c>
       <c r="K94" s="3">
         <v>-766800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1639700</v>
+        <v>-1795300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1166500</v>
+        <v>-1277300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1949700</v>
+        <v>-2134800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1321100</v>
+        <v>-1446600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1439200</v>
+        <v>-1575900</v>
       </c>
       <c r="I96" s="3">
-        <v>-986900</v>
+        <v>-1080600</v>
       </c>
       <c r="J96" s="3">
-        <v>-732200</v>
+        <v>-801700</v>
       </c>
       <c r="K96" s="3">
         <v>-515300</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2007900</v>
+        <v>-2198600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1237600</v>
+        <v>-1355100</v>
       </c>
       <c r="F100" s="3">
-        <v>-2023800</v>
+        <v>-2215900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1395000</v>
+        <v>-1527500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1596500</v>
+        <v>-1748100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1242300</v>
+        <v>-1360300</v>
       </c>
       <c r="J100" s="3">
-        <v>-947400</v>
+        <v>-1037400</v>
       </c>
       <c r="K100" s="3">
         <v>-642900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-40400</v>
+        <v>-44200</v>
       </c>
       <c r="E101" s="3">
-        <v>-77200</v>
+        <v>-84600</v>
       </c>
       <c r="F101" s="3">
-        <v>-46500</v>
+        <v>-51000</v>
       </c>
       <c r="G101" s="3">
-        <v>21400</v>
+        <v>23500</v>
       </c>
       <c r="H101" s="3">
-        <v>40100</v>
+        <v>43900</v>
       </c>
       <c r="I101" s="3">
-        <v>5600</v>
+        <v>6100</v>
       </c>
       <c r="J101" s="3">
-        <v>-30500</v>
+        <v>-33400</v>
       </c>
       <c r="K101" s="3">
         <v>-18700</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-363500</v>
+        <v>-398100</v>
       </c>
       <c r="E102" s="3">
-        <v>147400</v>
+        <v>161400</v>
       </c>
       <c r="F102" s="3">
-        <v>347500</v>
+        <v>380500</v>
       </c>
       <c r="G102" s="3">
-        <v>145200</v>
+        <v>159000</v>
       </c>
       <c r="H102" s="3">
-        <v>-148500</v>
+        <v>-162600</v>
       </c>
       <c r="I102" s="3">
-        <v>315500</v>
+        <v>345400</v>
       </c>
       <c r="J102" s="3">
-        <v>-320700</v>
+        <v>-351200</v>
       </c>
       <c r="K102" s="3">
         <v>160700</v>

--- a/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>32297000</v>
+        <v>33942900</v>
       </c>
       <c r="E8" s="3">
-        <v>30802300</v>
+        <v>31288000</v>
       </c>
       <c r="F8" s="3">
-        <v>28628400</v>
+        <v>29840000</v>
       </c>
       <c r="G8" s="3">
-        <v>26581900</v>
+        <v>27734000</v>
       </c>
       <c r="H8" s="3">
-        <v>23762200</v>
+        <v>25751400</v>
       </c>
       <c r="I8" s="3">
-        <v>22018500</v>
+        <v>23019800</v>
       </c>
       <c r="J8" s="3">
+        <v>21330600</v>
+      </c>
+      <c r="K8" s="3">
         <v>21161500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22090500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19594100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>24904900</v>
+        <v>26105000</v>
       </c>
       <c r="E9" s="3">
-        <v>23732900</v>
+        <v>24126700</v>
       </c>
       <c r="F9" s="3">
-        <v>22084000</v>
+        <v>22991400</v>
       </c>
       <c r="G9" s="3">
-        <v>20716000</v>
+        <v>21394000</v>
       </c>
       <c r="H9" s="3">
-        <v>18639300</v>
+        <v>20068700</v>
       </c>
       <c r="I9" s="3">
-        <v>17144400</v>
+        <v>18056900</v>
       </c>
       <c r="J9" s="3">
+        <v>16608700</v>
+      </c>
+      <c r="K9" s="3">
         <v>16520600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17253400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15192200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7392200</v>
+        <v>7837900</v>
       </c>
       <c r="E10" s="3">
-        <v>7069400</v>
+        <v>7161200</v>
       </c>
       <c r="F10" s="3">
-        <v>6544400</v>
+        <v>6848500</v>
       </c>
       <c r="G10" s="3">
-        <v>5866000</v>
+        <v>6340000</v>
       </c>
       <c r="H10" s="3">
-        <v>5123000</v>
+        <v>5682700</v>
       </c>
       <c r="I10" s="3">
-        <v>4874100</v>
+        <v>4962900</v>
       </c>
       <c r="J10" s="3">
+        <v>4721800</v>
+      </c>
+      <c r="K10" s="3">
         <v>4640900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4837100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4401900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,9 +942,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>29600700</v>
+        <v>31164200</v>
       </c>
       <c r="E17" s="3">
-        <v>28346300</v>
+        <v>28675900</v>
       </c>
       <c r="F17" s="3">
-        <v>26439600</v>
+        <v>27460600</v>
       </c>
       <c r="G17" s="3">
-        <v>24611900</v>
+        <v>25613500</v>
       </c>
       <c r="H17" s="3">
-        <v>22123100</v>
+        <v>23843000</v>
       </c>
       <c r="I17" s="3">
-        <v>20285100</v>
+        <v>21431900</v>
       </c>
       <c r="J17" s="3">
+        <v>19651400</v>
+      </c>
+      <c r="K17" s="3">
         <v>19581900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20406000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18066600</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2696400</v>
+        <v>2778700</v>
       </c>
       <c r="E18" s="3">
-        <v>2456000</v>
+        <v>2612100</v>
       </c>
       <c r="F18" s="3">
-        <v>2188800</v>
+        <v>2379300</v>
       </c>
       <c r="G18" s="3">
-        <v>1970000</v>
+        <v>2120400</v>
       </c>
       <c r="H18" s="3">
-        <v>1639100</v>
+        <v>1908400</v>
       </c>
       <c r="I18" s="3">
-        <v>1733400</v>
+        <v>1587900</v>
       </c>
       <c r="J18" s="3">
+        <v>1679200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1579600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1684500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1527500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>47500</v>
+        <v>-76100</v>
       </c>
       <c r="E20" s="3">
-        <v>61100</v>
+        <v>46000</v>
       </c>
       <c r="F20" s="3">
-        <v>44400</v>
+        <v>59200</v>
       </c>
       <c r="G20" s="3">
-        <v>47300</v>
+        <v>43000</v>
       </c>
       <c r="H20" s="3">
-        <v>60700</v>
+        <v>45900</v>
       </c>
       <c r="I20" s="3">
-        <v>52800</v>
+        <v>58800</v>
       </c>
       <c r="J20" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K20" s="3">
         <v>54800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>133100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>59300</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3592800</v>
+        <v>3560100</v>
       </c>
       <c r="E21" s="3">
-        <v>3144100</v>
+        <v>3470900</v>
       </c>
       <c r="F21" s="3">
-        <v>2814600</v>
+        <v>3038700</v>
       </c>
       <c r="G21" s="3">
-        <v>2551300</v>
+        <v>2720100</v>
       </c>
       <c r="H21" s="3">
-        <v>2200300</v>
+        <v>2465500</v>
       </c>
       <c r="I21" s="3">
-        <v>2249500</v>
+        <v>2125800</v>
       </c>
       <c r="J21" s="3">
+        <v>2173900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2068300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2269100</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>287200</v>
+        <v>310000</v>
       </c>
       <c r="E22" s="3">
-        <v>77600</v>
+        <v>278200</v>
       </c>
       <c r="F22" s="3">
-        <v>71700</v>
+        <v>75100</v>
       </c>
       <c r="G22" s="3">
-        <v>63500</v>
+        <v>69500</v>
       </c>
       <c r="H22" s="3">
-        <v>56200</v>
+        <v>61500</v>
       </c>
       <c r="I22" s="3">
-        <v>60500</v>
+        <v>54500</v>
       </c>
       <c r="J22" s="3">
+        <v>58600</v>
+      </c>
+      <c r="K22" s="3">
         <v>55600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>111600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>46600</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2456700</v>
+        <v>2392600</v>
       </c>
       <c r="E23" s="3">
-        <v>2439600</v>
+        <v>2379900</v>
       </c>
       <c r="F23" s="3">
-        <v>2161500</v>
+        <v>2363300</v>
       </c>
       <c r="G23" s="3">
-        <v>1953900</v>
+        <v>2093900</v>
       </c>
       <c r="H23" s="3">
-        <v>1643500</v>
+        <v>1892800</v>
       </c>
       <c r="I23" s="3">
-        <v>1725700</v>
+        <v>1592200</v>
       </c>
       <c r="J23" s="3">
+        <v>1671800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1578800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1706000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1540200</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>564400</v>
+        <v>775300</v>
       </c>
       <c r="E24" s="3">
-        <v>604500</v>
+        <v>546800</v>
       </c>
       <c r="F24" s="3">
-        <v>544200</v>
+        <v>585600</v>
       </c>
       <c r="G24" s="3">
-        <v>530400</v>
+        <v>527200</v>
       </c>
       <c r="H24" s="3">
-        <v>473000</v>
+        <v>513800</v>
       </c>
       <c r="I24" s="3">
-        <v>475400</v>
+        <v>458200</v>
       </c>
       <c r="J24" s="3">
+        <v>460500</v>
+      </c>
+      <c r="K24" s="3">
         <v>480900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>495200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>398000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1892200</v>
+        <v>1617200</v>
       </c>
       <c r="E26" s="3">
-        <v>1835100</v>
+        <v>1833100</v>
       </c>
       <c r="F26" s="3">
-        <v>1617200</v>
+        <v>1777700</v>
       </c>
       <c r="G26" s="3">
-        <v>1423500</v>
+        <v>1566700</v>
       </c>
       <c r="H26" s="3">
-        <v>1170600</v>
+        <v>1379000</v>
       </c>
       <c r="I26" s="3">
-        <v>1250300</v>
+        <v>1134000</v>
       </c>
       <c r="J26" s="3">
+        <v>1211200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1097900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1210800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1142200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1892200</v>
+        <v>1617200</v>
       </c>
       <c r="E27" s="3">
-        <v>1835100</v>
+        <v>1833100</v>
       </c>
       <c r="F27" s="3">
-        <v>1617200</v>
+        <v>1777700</v>
       </c>
       <c r="G27" s="3">
-        <v>1423500</v>
+        <v>1566700</v>
       </c>
       <c r="H27" s="3">
-        <v>1170400</v>
+        <v>1379000</v>
       </c>
       <c r="I27" s="3">
-        <v>1249800</v>
+        <v>1133800</v>
       </c>
       <c r="J27" s="3">
+        <v>1210800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1098100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1211200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1142000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,42 +1403,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>373200</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>241800</v>
+        <v>361500</v>
       </c>
       <c r="H29" s="3">
-        <v>146500</v>
+        <v>234200</v>
       </c>
       <c r="I29" s="3">
-        <v>269300</v>
+        <v>142000</v>
       </c>
       <c r="J29" s="3">
+        <v>260900</v>
+      </c>
+      <c r="K29" s="3">
         <v>36200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>36600</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-47500</v>
+        <v>76100</v>
       </c>
       <c r="E32" s="3">
-        <v>-61100</v>
+        <v>-46000</v>
       </c>
       <c r="F32" s="3">
-        <v>-44400</v>
+        <v>-59200</v>
       </c>
       <c r="G32" s="3">
-        <v>-47300</v>
+        <v>-43000</v>
       </c>
       <c r="H32" s="3">
-        <v>-60700</v>
+        <v>-45900</v>
       </c>
       <c r="I32" s="3">
-        <v>-52800</v>
+        <v>-58800</v>
       </c>
       <c r="J32" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-54800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-133100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-59300</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1892200</v>
+        <v>1617200</v>
       </c>
       <c r="E33" s="3">
-        <v>1835100</v>
+        <v>1833100</v>
       </c>
       <c r="F33" s="3">
-        <v>1990500</v>
+        <v>1777700</v>
       </c>
       <c r="G33" s="3">
-        <v>1665300</v>
+        <v>1928300</v>
       </c>
       <c r="H33" s="3">
-        <v>1316900</v>
+        <v>1613300</v>
       </c>
       <c r="I33" s="3">
-        <v>1519200</v>
+        <v>1275800</v>
       </c>
       <c r="J33" s="3">
+        <v>1471700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1134300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1247800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1142000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1892200</v>
+        <v>1617200</v>
       </c>
       <c r="E35" s="3">
-        <v>1835100</v>
+        <v>1833100</v>
       </c>
       <c r="F35" s="3">
-        <v>1990500</v>
+        <v>1777700</v>
       </c>
       <c r="G35" s="3">
-        <v>1665300</v>
+        <v>1928300</v>
       </c>
       <c r="H35" s="3">
-        <v>1316900</v>
+        <v>1613300</v>
       </c>
       <c r="I35" s="3">
-        <v>1519200</v>
+        <v>1275800</v>
       </c>
       <c r="J35" s="3">
+        <v>1471700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1134300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1247800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1142000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1540700</v>
+        <v>1725400</v>
       </c>
       <c r="E41" s="3">
-        <v>1938800</v>
+        <v>1492600</v>
       </c>
       <c r="F41" s="3">
-        <v>1777300</v>
+        <v>1878200</v>
       </c>
       <c r="G41" s="3">
-        <v>1396800</v>
+        <v>1721800</v>
       </c>
       <c r="H41" s="3">
-        <v>1237800</v>
+        <v>1353200</v>
       </c>
       <c r="I41" s="3">
-        <v>2800900</v>
+        <v>1199100</v>
       </c>
       <c r="J41" s="3">
+        <v>2713300</v>
+      </c>
+      <c r="K41" s="3">
         <v>2110000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1509800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2603200</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,141 +1800,156 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>684900</v>
+        <v>822000</v>
       </c>
       <c r="E43" s="3">
-        <v>600900</v>
+        <v>663500</v>
       </c>
       <c r="F43" s="3">
-        <v>541000</v>
+        <v>582100</v>
       </c>
       <c r="G43" s="3">
-        <v>490200</v>
+        <v>524100</v>
       </c>
       <c r="H43" s="3">
-        <v>487300</v>
+        <v>474900</v>
       </c>
       <c r="I43" s="3">
-        <v>550700</v>
+        <v>472000</v>
       </c>
       <c r="J43" s="3">
+        <v>533500</v>
+      </c>
+      <c r="K43" s="3">
         <v>634200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>556300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>593800</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3372900</v>
+        <v>3306600</v>
       </c>
       <c r="E44" s="3">
-        <v>3162800</v>
+        <v>3267500</v>
       </c>
       <c r="F44" s="3">
-        <v>2969000</v>
+        <v>3064000</v>
       </c>
       <c r="G44" s="3">
-        <v>2679500</v>
+        <v>2876200</v>
       </c>
       <c r="H44" s="3">
-        <v>2484000</v>
+        <v>2595800</v>
       </c>
       <c r="I44" s="3">
-        <v>4710900</v>
+        <v>2406400</v>
       </c>
       <c r="J44" s="3">
+        <v>4563700</v>
+      </c>
+      <c r="K44" s="3">
         <v>4373400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2095700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2141200</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>88800</v>
+        <v>33900</v>
       </c>
       <c r="E45" s="3">
-        <v>70200</v>
+        <v>86000</v>
       </c>
       <c r="F45" s="3">
-        <v>49000</v>
+        <v>68000</v>
       </c>
       <c r="G45" s="3">
-        <v>627300</v>
+        <v>47500</v>
       </c>
       <c r="H45" s="3">
-        <v>27500</v>
+        <v>607700</v>
       </c>
       <c r="I45" s="3">
-        <v>448200</v>
+        <v>26600</v>
       </c>
       <c r="J45" s="3">
+        <v>434200</v>
+      </c>
+      <c r="K45" s="3">
         <v>257900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>54500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>48800</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5687300</v>
+        <v>5887800</v>
       </c>
       <c r="E46" s="3">
-        <v>5772600</v>
+        <v>5509600</v>
       </c>
       <c r="F46" s="3">
-        <v>5336300</v>
+        <v>5592300</v>
       </c>
       <c r="G46" s="3">
-        <v>5193900</v>
+        <v>5169600</v>
       </c>
       <c r="H46" s="3">
-        <v>4236500</v>
+        <v>5031600</v>
       </c>
       <c r="I46" s="3">
-        <v>4516300</v>
+        <v>4104100</v>
       </c>
       <c r="J46" s="3">
+        <v>4375200</v>
+      </c>
+      <c r="K46" s="3">
         <v>4126700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4216300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3948700</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1864,87 +1968,96 @@
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3">
-        <v>3700</v>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K47" s="3">
         <v>10400</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>15300</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9408800</v>
+        <v>9260600</v>
       </c>
       <c r="E48" s="3">
-        <v>7201000</v>
+        <v>9114800</v>
       </c>
       <c r="F48" s="3">
-        <v>6994300</v>
+        <v>6976000</v>
       </c>
       <c r="G48" s="3">
-        <v>6807900</v>
+        <v>6775700</v>
       </c>
       <c r="H48" s="3">
-        <v>6502000</v>
+        <v>6595200</v>
       </c>
       <c r="I48" s="3">
-        <v>5838600</v>
+        <v>6298900</v>
       </c>
       <c r="J48" s="3">
+        <v>5656200</v>
+      </c>
+      <c r="K48" s="3">
         <v>5468400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6292600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8025400</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1851600</v>
+        <v>1816400</v>
       </c>
       <c r="E49" s="3">
-        <v>1847300</v>
+        <v>1793700</v>
       </c>
       <c r="F49" s="3">
-        <v>1965600</v>
+        <v>1789600</v>
       </c>
       <c r="G49" s="3">
-        <v>2064100</v>
+        <v>1904200</v>
       </c>
       <c r="H49" s="3">
-        <v>1720400</v>
+        <v>1999600</v>
       </c>
       <c r="I49" s="3">
-        <v>2909700</v>
+        <v>1666600</v>
       </c>
       <c r="J49" s="3">
+        <v>2818800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1296000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1390000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1645500</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>486500</v>
+        <v>539400</v>
       </c>
       <c r="E52" s="3">
-        <v>484000</v>
+        <v>471300</v>
       </c>
       <c r="F52" s="3">
-        <v>445900</v>
+        <v>468900</v>
       </c>
       <c r="G52" s="3">
-        <v>328500</v>
+        <v>431900</v>
       </c>
       <c r="H52" s="3">
-        <v>205900</v>
+        <v>318300</v>
       </c>
       <c r="I52" s="3">
-        <v>179500</v>
+        <v>199400</v>
       </c>
       <c r="J52" s="3">
+        <v>173900</v>
+      </c>
+      <c r="K52" s="3">
         <v>46900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>26300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17434200</v>
+        <v>17504300</v>
       </c>
       <c r="E54" s="3">
-        <v>15305000</v>
+        <v>16889500</v>
       </c>
       <c r="F54" s="3">
-        <v>14742100</v>
+        <v>14826800</v>
       </c>
       <c r="G54" s="3">
-        <v>14394400</v>
+        <v>14281500</v>
       </c>
       <c r="H54" s="3">
-        <v>12664800</v>
+        <v>13944700</v>
       </c>
       <c r="I54" s="3">
-        <v>12418300</v>
+        <v>12269100</v>
       </c>
       <c r="J54" s="3">
+        <v>12030300</v>
+      </c>
+      <c r="K54" s="3">
         <v>11497000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11916700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11338100</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4349700</v>
+        <v>4467300</v>
       </c>
       <c r="E57" s="3">
-        <v>4260400</v>
+        <v>4213800</v>
       </c>
       <c r="F57" s="3">
-        <v>3999300</v>
+        <v>4127300</v>
       </c>
       <c r="G57" s="3">
-        <v>3291300</v>
+        <v>3874400</v>
       </c>
       <c r="H57" s="3">
-        <v>2815800</v>
+        <v>3188500</v>
       </c>
       <c r="I57" s="3">
-        <v>2631800</v>
+        <v>2727900</v>
       </c>
       <c r="J57" s="3">
+        <v>2549600</v>
+      </c>
+      <c r="K57" s="3">
         <v>2377100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2630200</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>152000</v>
+        <v>155600</v>
       </c>
       <c r="E58" s="3">
-        <v>15400</v>
+        <v>147300</v>
       </c>
       <c r="F58" s="3">
-        <v>19000</v>
+        <v>14900</v>
       </c>
       <c r="G58" s="3">
-        <v>26600</v>
+        <v>18400</v>
       </c>
       <c r="H58" s="3">
-        <v>27800</v>
+        <v>25800</v>
       </c>
       <c r="I58" s="3">
-        <v>27900</v>
+        <v>26900</v>
       </c>
       <c r="J58" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K58" s="3">
         <v>36100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>25500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>20800</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1165300</v>
+        <v>1330000</v>
       </c>
       <c r="E59" s="3">
-        <v>1424500</v>
+        <v>1128900</v>
       </c>
       <c r="F59" s="3">
-        <v>1365400</v>
+        <v>1380000</v>
       </c>
       <c r="G59" s="3">
-        <v>2612000</v>
+        <v>1322800</v>
       </c>
       <c r="H59" s="3">
-        <v>1016400</v>
+        <v>2530400</v>
       </c>
       <c r="I59" s="3">
-        <v>2322300</v>
+        <v>984700</v>
       </c>
       <c r="J59" s="3">
+        <v>2249700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1651600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>907000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>914900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5667000</v>
+        <v>5952900</v>
       </c>
       <c r="E60" s="3">
-        <v>5700300</v>
+        <v>5489900</v>
       </c>
       <c r="F60" s="3">
-        <v>5383800</v>
+        <v>5522200</v>
       </c>
       <c r="G60" s="3">
-        <v>4709300</v>
+        <v>5215600</v>
       </c>
       <c r="H60" s="3">
-        <v>3860100</v>
+        <v>4562200</v>
       </c>
       <c r="I60" s="3">
-        <v>3771100</v>
+        <v>3739500</v>
       </c>
       <c r="J60" s="3">
+        <v>3653300</v>
+      </c>
+      <c r="K60" s="3">
         <v>3281500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3332600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3443300</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2704600</v>
+        <v>2733900</v>
       </c>
       <c r="E61" s="3">
-        <v>707400</v>
+        <v>2620100</v>
       </c>
       <c r="F61" s="3">
         <v>685300</v>
       </c>
       <c r="G61" s="3">
-        <v>652900</v>
+        <v>663900</v>
       </c>
       <c r="H61" s="3">
-        <v>654300</v>
+        <v>632500</v>
       </c>
       <c r="I61" s="3">
-        <v>658100</v>
+        <v>633800</v>
       </c>
       <c r="J61" s="3">
+        <v>637500</v>
+      </c>
+      <c r="K61" s="3">
         <v>687400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>677600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>848600</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>667100</v>
+        <v>637200</v>
       </c>
       <c r="E62" s="3">
-        <v>663200</v>
+        <v>646200</v>
       </c>
       <c r="F62" s="3">
-        <v>707400</v>
+        <v>642500</v>
       </c>
       <c r="G62" s="3">
-        <v>692600</v>
+        <v>685300</v>
       </c>
       <c r="H62" s="3">
-        <v>570000</v>
+        <v>670900</v>
       </c>
       <c r="I62" s="3">
-        <v>517800</v>
+        <v>552200</v>
       </c>
       <c r="J62" s="3">
+        <v>501600</v>
+      </c>
+      <c r="K62" s="3">
         <v>416600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>410000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1212400</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9038700</v>
+        <v>9324000</v>
       </c>
       <c r="E66" s="3">
-        <v>7070800</v>
+        <v>8756300</v>
       </c>
       <c r="F66" s="3">
-        <v>6776600</v>
+        <v>6849900</v>
       </c>
       <c r="G66" s="3">
-        <v>6054800</v>
+        <v>6564900</v>
       </c>
       <c r="H66" s="3">
-        <v>5085600</v>
+        <v>5865600</v>
       </c>
       <c r="I66" s="3">
-        <v>4917700</v>
+        <v>4926700</v>
       </c>
       <c r="J66" s="3">
+        <v>4764000</v>
+      </c>
+      <c r="K66" s="3">
         <v>4360500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4427400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4673100</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5153600</v>
+        <v>5064100</v>
       </c>
       <c r="E72" s="3">
-        <v>4968700</v>
+        <v>4992600</v>
       </c>
       <c r="F72" s="3">
-        <v>4518400</v>
+        <v>4813400</v>
       </c>
       <c r="G72" s="3">
-        <v>5151800</v>
+        <v>4377300</v>
       </c>
       <c r="H72" s="3">
-        <v>4758000</v>
+        <v>4990800</v>
       </c>
       <c r="I72" s="3">
-        <v>9940100</v>
+        <v>4609300</v>
       </c>
       <c r="J72" s="3">
+        <v>9629600</v>
+      </c>
+      <c r="K72" s="3">
         <v>6217900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5274500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4504300</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8395500</v>
+        <v>8180300</v>
       </c>
       <c r="E76" s="3">
-        <v>8234200</v>
+        <v>8133200</v>
       </c>
       <c r="F76" s="3">
-        <v>7965500</v>
+        <v>7976900</v>
       </c>
       <c r="G76" s="3">
-        <v>8339600</v>
+        <v>7716700</v>
       </c>
       <c r="H76" s="3">
-        <v>7579100</v>
+        <v>8079000</v>
       </c>
       <c r="I76" s="3">
-        <v>7500600</v>
+        <v>7342300</v>
       </c>
       <c r="J76" s="3">
+        <v>7266300</v>
+      </c>
+      <c r="K76" s="3">
         <v>7136500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7489400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6665000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1892200</v>
+        <v>1617200</v>
       </c>
       <c r="E81" s="3">
-        <v>1835100</v>
+        <v>1833100</v>
       </c>
       <c r="F81" s="3">
-        <v>1990500</v>
+        <v>1777700</v>
       </c>
       <c r="G81" s="3">
-        <v>1665300</v>
+        <v>1928300</v>
       </c>
       <c r="H81" s="3">
-        <v>1316900</v>
+        <v>1613300</v>
       </c>
       <c r="I81" s="3">
-        <v>1519200</v>
+        <v>1275800</v>
       </c>
       <c r="J81" s="3">
+        <v>1471700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1134300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1247800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1142000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>848900</v>
+        <v>867700</v>
       </c>
       <c r="E83" s="3">
-        <v>627000</v>
+        <v>822400</v>
       </c>
       <c r="F83" s="3">
-        <v>581400</v>
+        <v>607400</v>
       </c>
       <c r="G83" s="3">
-        <v>533900</v>
+        <v>563300</v>
       </c>
       <c r="H83" s="3">
-        <v>500500</v>
+        <v>517300</v>
       </c>
       <c r="I83" s="3">
-        <v>463300</v>
+        <v>484900</v>
       </c>
       <c r="J83" s="3">
+        <v>448800</v>
+      </c>
+      <c r="K83" s="3">
         <v>433900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>450000</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2827400</v>
+        <v>2968600</v>
       </c>
       <c r="E89" s="3">
-        <v>2373400</v>
+        <v>2774300</v>
       </c>
       <c r="F89" s="3">
-        <v>2453300</v>
+        <v>2299300</v>
       </c>
       <c r="G89" s="3">
-        <v>2352100</v>
+        <v>2376700</v>
       </c>
       <c r="H89" s="3">
-        <v>1942500</v>
+        <v>2278600</v>
       </c>
       <c r="I89" s="3">
-        <v>1905000</v>
+        <v>1881800</v>
       </c>
       <c r="J89" s="3">
+        <v>1845400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1433100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1589100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1664800</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1027300</v>
+        <v>-809100</v>
       </c>
       <c r="E91" s="3">
-        <v>-895400</v>
+        <v>-995200</v>
       </c>
       <c r="F91" s="3">
-        <v>-870100</v>
+        <v>-867400</v>
       </c>
       <c r="G91" s="3">
-        <v>-715700</v>
+        <v>-842900</v>
       </c>
       <c r="H91" s="3">
-        <v>-625400</v>
+        <v>-693400</v>
       </c>
       <c r="I91" s="3">
-        <v>-633700</v>
+        <v>-605900</v>
       </c>
       <c r="J91" s="3">
+        <v>-613900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-698400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-785900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-949200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-982700</v>
+        <v>-799500</v>
       </c>
       <c r="E94" s="3">
-        <v>-772300</v>
+        <v>-952000</v>
       </c>
       <c r="F94" s="3">
-        <v>194100</v>
+        <v>-748200</v>
       </c>
       <c r="G94" s="3">
-        <v>-689100</v>
+        <v>188000</v>
       </c>
       <c r="H94" s="3">
-        <v>-400800</v>
+        <v>-667500</v>
       </c>
       <c r="I94" s="3">
-        <v>-205300</v>
+        <v>-388300</v>
       </c>
       <c r="J94" s="3">
+        <v>-198900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-713500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-766800</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1795300</v>
+        <v>-1496300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1277300</v>
+        <v>-1739300</v>
       </c>
       <c r="F96" s="3">
-        <v>-2134800</v>
+        <v>-1237400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1446600</v>
+        <v>-2068100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1575900</v>
+        <v>-1401400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1080600</v>
+        <v>-1526700</v>
       </c>
       <c r="J96" s="3">
+        <v>-1046900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-801700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-515300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-499600</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2198600</v>
+        <v>-1920500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1355100</v>
+        <v>-2141700</v>
       </c>
       <c r="F100" s="3">
-        <v>-2215900</v>
+        <v>-1312700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1527500</v>
+        <v>-2146700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1748100</v>
+        <v>-1479800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1360300</v>
+        <v>-1693500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1317800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1037400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-642900</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-44200</v>
+        <v>-15800</v>
       </c>
       <c r="E101" s="3">
-        <v>-84600</v>
+        <v>-66300</v>
       </c>
       <c r="F101" s="3">
-        <v>-51000</v>
+        <v>-81900</v>
       </c>
       <c r="G101" s="3">
-        <v>23500</v>
+        <v>-49400</v>
       </c>
       <c r="H101" s="3">
-        <v>43900</v>
+        <v>22700</v>
       </c>
       <c r="I101" s="3">
-        <v>6100</v>
+        <v>42500</v>
       </c>
       <c r="J101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-33400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-18700</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-398100</v>
+        <v>232800</v>
       </c>
       <c r="E102" s="3">
-        <v>161400</v>
+        <v>-385600</v>
       </c>
       <c r="F102" s="3">
-        <v>380500</v>
+        <v>156400</v>
       </c>
       <c r="G102" s="3">
-        <v>159000</v>
+        <v>368600</v>
       </c>
       <c r="H102" s="3">
-        <v>-162600</v>
+        <v>154000</v>
       </c>
       <c r="I102" s="3">
-        <v>345400</v>
+        <v>-157500</v>
       </c>
       <c r="J102" s="3">
+        <v>334600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-351200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>160700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26100</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>33942900</v>
+        <v>35241100</v>
       </c>
       <c r="E8" s="3">
-        <v>31288000</v>
+        <v>32484600</v>
       </c>
       <c r="F8" s="3">
-        <v>29840000</v>
+        <v>30981200</v>
       </c>
       <c r="G8" s="3">
-        <v>27734000</v>
+        <v>28794700</v>
       </c>
       <c r="H8" s="3">
-        <v>25751400</v>
+        <v>26736300</v>
       </c>
       <c r="I8" s="3">
-        <v>23019800</v>
+        <v>23900200</v>
       </c>
       <c r="J8" s="3">
-        <v>21330600</v>
+        <v>22146400</v>
       </c>
       <c r="K8" s="3">
         <v>21161500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>26105000</v>
+        <v>27103400</v>
       </c>
       <c r="E9" s="3">
-        <v>24126700</v>
+        <v>25049500</v>
       </c>
       <c r="F9" s="3">
-        <v>22991400</v>
+        <v>23870800</v>
       </c>
       <c r="G9" s="3">
-        <v>21394000</v>
+        <v>22212200</v>
       </c>
       <c r="H9" s="3">
-        <v>20068700</v>
+        <v>20836300</v>
       </c>
       <c r="I9" s="3">
-        <v>18056900</v>
+        <v>18747500</v>
       </c>
       <c r="J9" s="3">
-        <v>16608700</v>
+        <v>17244000</v>
       </c>
       <c r="K9" s="3">
         <v>16520600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7837900</v>
+        <v>8137600</v>
       </c>
       <c r="E10" s="3">
-        <v>7161200</v>
+        <v>7435100</v>
       </c>
       <c r="F10" s="3">
-        <v>6848500</v>
+        <v>7110500</v>
       </c>
       <c r="G10" s="3">
-        <v>6340000</v>
+        <v>6582500</v>
       </c>
       <c r="H10" s="3">
-        <v>5682700</v>
+        <v>5900000</v>
       </c>
       <c r="I10" s="3">
-        <v>4962900</v>
+        <v>5152700</v>
       </c>
       <c r="J10" s="3">
-        <v>4721800</v>
+        <v>4902400</v>
       </c>
       <c r="K10" s="3">
         <v>4640900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>31164200</v>
+        <v>32356100</v>
       </c>
       <c r="E17" s="3">
-        <v>28675900</v>
+        <v>29772600</v>
       </c>
       <c r="F17" s="3">
-        <v>27460600</v>
+        <v>28510900</v>
       </c>
       <c r="G17" s="3">
-        <v>25613500</v>
+        <v>26593200</v>
       </c>
       <c r="H17" s="3">
-        <v>23843000</v>
+        <v>24754900</v>
       </c>
       <c r="I17" s="3">
-        <v>21431900</v>
+        <v>22251600</v>
       </c>
       <c r="J17" s="3">
-        <v>19651400</v>
+        <v>20403000</v>
       </c>
       <c r="K17" s="3">
         <v>19581900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2778700</v>
+        <v>2885000</v>
       </c>
       <c r="E18" s="3">
-        <v>2612100</v>
+        <v>2712000</v>
       </c>
       <c r="F18" s="3">
-        <v>2379300</v>
+        <v>2470300</v>
       </c>
       <c r="G18" s="3">
-        <v>2120400</v>
+        <v>2201500</v>
       </c>
       <c r="H18" s="3">
-        <v>1908400</v>
+        <v>1981400</v>
       </c>
       <c r="I18" s="3">
-        <v>1587900</v>
+        <v>1648600</v>
       </c>
       <c r="J18" s="3">
-        <v>1679200</v>
+        <v>1743400</v>
       </c>
       <c r="K18" s="3">
         <v>1579600</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-76100</v>
+        <v>-79000</v>
       </c>
       <c r="E20" s="3">
-        <v>46000</v>
+        <v>47800</v>
       </c>
       <c r="F20" s="3">
-        <v>59200</v>
+        <v>61400</v>
       </c>
       <c r="G20" s="3">
-        <v>43000</v>
+        <v>44700</v>
       </c>
       <c r="H20" s="3">
-        <v>45900</v>
+        <v>47600</v>
       </c>
       <c r="I20" s="3">
-        <v>58800</v>
+        <v>61000</v>
       </c>
       <c r="J20" s="3">
-        <v>51200</v>
+        <v>53100</v>
       </c>
       <c r="K20" s="3">
         <v>54800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3560100</v>
+        <v>3709800</v>
       </c>
       <c r="E21" s="3">
-        <v>3470900</v>
+        <v>3616400</v>
       </c>
       <c r="F21" s="3">
-        <v>3038700</v>
+        <v>3164400</v>
       </c>
       <c r="G21" s="3">
-        <v>2720100</v>
+        <v>2832800</v>
       </c>
       <c r="H21" s="3">
-        <v>2465500</v>
+        <v>2567800</v>
       </c>
       <c r="I21" s="3">
-        <v>2125800</v>
+        <v>2214700</v>
       </c>
       <c r="J21" s="3">
-        <v>2173900</v>
+        <v>2264100</v>
       </c>
       <c r="K21" s="3">
         <v>2068300</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>310000</v>
+        <v>321900</v>
       </c>
       <c r="E22" s="3">
-        <v>278200</v>
+        <v>288900</v>
       </c>
       <c r="F22" s="3">
-        <v>75100</v>
+        <v>78000</v>
       </c>
       <c r="G22" s="3">
-        <v>69500</v>
+        <v>72100</v>
       </c>
       <c r="H22" s="3">
-        <v>61500</v>
+        <v>63800</v>
       </c>
       <c r="I22" s="3">
-        <v>54500</v>
+        <v>56600</v>
       </c>
       <c r="J22" s="3">
-        <v>58600</v>
+        <v>60900</v>
       </c>
       <c r="K22" s="3">
         <v>55600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2392600</v>
+        <v>2484100</v>
       </c>
       <c r="E23" s="3">
-        <v>2379900</v>
+        <v>2470900</v>
       </c>
       <c r="F23" s="3">
-        <v>2363300</v>
+        <v>2453700</v>
       </c>
       <c r="G23" s="3">
-        <v>2093900</v>
+        <v>2174000</v>
       </c>
       <c r="H23" s="3">
-        <v>1892800</v>
+        <v>1965200</v>
       </c>
       <c r="I23" s="3">
-        <v>1592200</v>
+        <v>1653100</v>
       </c>
       <c r="J23" s="3">
-        <v>1671800</v>
+        <v>1735700</v>
       </c>
       <c r="K23" s="3">
         <v>1578800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>775300</v>
+        <v>805000</v>
       </c>
       <c r="E24" s="3">
-        <v>546800</v>
+        <v>567700</v>
       </c>
       <c r="F24" s="3">
-        <v>585600</v>
+        <v>608000</v>
       </c>
       <c r="G24" s="3">
-        <v>527200</v>
+        <v>547400</v>
       </c>
       <c r="H24" s="3">
-        <v>513800</v>
+        <v>533500</v>
       </c>
       <c r="I24" s="3">
-        <v>458200</v>
+        <v>475700</v>
       </c>
       <c r="J24" s="3">
-        <v>460500</v>
+        <v>478200</v>
       </c>
       <c r="K24" s="3">
         <v>480900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1617200</v>
+        <v>1679100</v>
       </c>
       <c r="E26" s="3">
-        <v>1833100</v>
+        <v>1903200</v>
       </c>
       <c r="F26" s="3">
-        <v>1777700</v>
+        <v>1845700</v>
       </c>
       <c r="G26" s="3">
-        <v>1566700</v>
+        <v>1626600</v>
       </c>
       <c r="H26" s="3">
-        <v>1379000</v>
+        <v>1431700</v>
       </c>
       <c r="I26" s="3">
-        <v>1134000</v>
+        <v>1177400</v>
       </c>
       <c r="J26" s="3">
-        <v>1211200</v>
+        <v>1257600</v>
       </c>
       <c r="K26" s="3">
         <v>1097900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1617200</v>
+        <v>1679100</v>
       </c>
       <c r="E27" s="3">
-        <v>1833100</v>
+        <v>1903200</v>
       </c>
       <c r="F27" s="3">
-        <v>1777700</v>
+        <v>1845700</v>
       </c>
       <c r="G27" s="3">
-        <v>1566700</v>
+        <v>1626600</v>
       </c>
       <c r="H27" s="3">
-        <v>1379000</v>
+        <v>1431800</v>
       </c>
       <c r="I27" s="3">
-        <v>1133800</v>
+        <v>1177200</v>
       </c>
       <c r="J27" s="3">
-        <v>1210800</v>
+        <v>1257100</v>
       </c>
       <c r="K27" s="3">
         <v>1098100</v>
@@ -1422,16 +1422,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>361500</v>
+        <v>375400</v>
       </c>
       <c r="H29" s="3">
-        <v>234200</v>
+        <v>243200</v>
       </c>
       <c r="I29" s="3">
-        <v>142000</v>
+        <v>147400</v>
       </c>
       <c r="J29" s="3">
-        <v>260900</v>
+        <v>270900</v>
       </c>
       <c r="K29" s="3">
         <v>36200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>76100</v>
+        <v>79000</v>
       </c>
       <c r="E32" s="3">
-        <v>-46000</v>
+        <v>-47800</v>
       </c>
       <c r="F32" s="3">
-        <v>-59200</v>
+        <v>-61400</v>
       </c>
       <c r="G32" s="3">
-        <v>-43000</v>
+        <v>-44700</v>
       </c>
       <c r="H32" s="3">
-        <v>-45900</v>
+        <v>-47600</v>
       </c>
       <c r="I32" s="3">
-        <v>-58800</v>
+        <v>-61000</v>
       </c>
       <c r="J32" s="3">
-        <v>-51200</v>
+        <v>-53100</v>
       </c>
       <c r="K32" s="3">
         <v>-54800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1617200</v>
+        <v>1679100</v>
       </c>
       <c r="E33" s="3">
-        <v>1833100</v>
+        <v>1903200</v>
       </c>
       <c r="F33" s="3">
-        <v>1777700</v>
+        <v>1845700</v>
       </c>
       <c r="G33" s="3">
-        <v>1928300</v>
+        <v>2002000</v>
       </c>
       <c r="H33" s="3">
-        <v>1613300</v>
+        <v>1675000</v>
       </c>
       <c r="I33" s="3">
-        <v>1275800</v>
+        <v>1324600</v>
       </c>
       <c r="J33" s="3">
-        <v>1471700</v>
+        <v>1528000</v>
       </c>
       <c r="K33" s="3">
         <v>1134300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1617200</v>
+        <v>1679100</v>
       </c>
       <c r="E35" s="3">
-        <v>1833100</v>
+        <v>1903200</v>
       </c>
       <c r="F35" s="3">
-        <v>1777700</v>
+        <v>1845700</v>
       </c>
       <c r="G35" s="3">
-        <v>1928300</v>
+        <v>2002000</v>
       </c>
       <c r="H35" s="3">
-        <v>1613300</v>
+        <v>1675000</v>
       </c>
       <c r="I35" s="3">
-        <v>1275800</v>
+        <v>1324600</v>
       </c>
       <c r="J35" s="3">
-        <v>1471700</v>
+        <v>1528000</v>
       </c>
       <c r="K35" s="3">
         <v>1134300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1725400</v>
+        <v>1791400</v>
       </c>
       <c r="E41" s="3">
-        <v>1492600</v>
+        <v>1549600</v>
       </c>
       <c r="F41" s="3">
-        <v>1878200</v>
+        <v>1950000</v>
       </c>
       <c r="G41" s="3">
-        <v>1721800</v>
+        <v>1787600</v>
       </c>
       <c r="H41" s="3">
-        <v>1353200</v>
+        <v>1404900</v>
       </c>
       <c r="I41" s="3">
-        <v>1199100</v>
+        <v>1245000</v>
       </c>
       <c r="J41" s="3">
-        <v>2713300</v>
+        <v>2817100</v>
       </c>
       <c r="K41" s="3">
         <v>2110000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>822000</v>
+        <v>853400</v>
       </c>
       <c r="E43" s="3">
-        <v>663500</v>
+        <v>688900</v>
       </c>
       <c r="F43" s="3">
-        <v>582100</v>
+        <v>604400</v>
       </c>
       <c r="G43" s="3">
-        <v>524100</v>
+        <v>544100</v>
       </c>
       <c r="H43" s="3">
-        <v>474900</v>
+        <v>493100</v>
       </c>
       <c r="I43" s="3">
-        <v>472000</v>
+        <v>490100</v>
       </c>
       <c r="J43" s="3">
-        <v>533500</v>
+        <v>553900</v>
       </c>
       <c r="K43" s="3">
         <v>634200</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3306600</v>
+        <v>3433100</v>
       </c>
       <c r="E44" s="3">
-        <v>3267500</v>
+        <v>3392500</v>
       </c>
       <c r="F44" s="3">
-        <v>3064000</v>
+        <v>3181100</v>
       </c>
       <c r="G44" s="3">
-        <v>2876200</v>
+        <v>2986200</v>
       </c>
       <c r="H44" s="3">
-        <v>2595800</v>
+        <v>2695100</v>
       </c>
       <c r="I44" s="3">
-        <v>2406400</v>
+        <v>2498400</v>
       </c>
       <c r="J44" s="3">
-        <v>4563700</v>
+        <v>4738300</v>
       </c>
       <c r="K44" s="3">
         <v>4373400</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33900</v>
+        <v>35200</v>
       </c>
       <c r="E45" s="3">
-        <v>86000</v>
+        <v>89300</v>
       </c>
       <c r="F45" s="3">
-        <v>68000</v>
+        <v>70600</v>
       </c>
       <c r="G45" s="3">
-        <v>47500</v>
+        <v>49300</v>
       </c>
       <c r="H45" s="3">
-        <v>607700</v>
+        <v>631000</v>
       </c>
       <c r="I45" s="3">
-        <v>26600</v>
+        <v>27600</v>
       </c>
       <c r="J45" s="3">
-        <v>434200</v>
+        <v>450800</v>
       </c>
       <c r="K45" s="3">
         <v>257900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5887800</v>
+        <v>6113000</v>
       </c>
       <c r="E46" s="3">
-        <v>5509600</v>
+        <v>5720300</v>
       </c>
       <c r="F46" s="3">
-        <v>5592300</v>
+        <v>5806200</v>
       </c>
       <c r="G46" s="3">
-        <v>5169600</v>
+        <v>5367300</v>
       </c>
       <c r="H46" s="3">
-        <v>5031600</v>
+        <v>5224000</v>
       </c>
       <c r="I46" s="3">
-        <v>4104100</v>
+        <v>4261100</v>
       </c>
       <c r="J46" s="3">
-        <v>4375200</v>
+        <v>4542500</v>
       </c>
       <c r="K46" s="3">
         <v>4126700</v>
@@ -1972,7 +1972,7 @@
         <v>8</v>
       </c>
       <c r="J47" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="K47" s="3">
         <v>10400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9260600</v>
+        <v>9614800</v>
       </c>
       <c r="E48" s="3">
-        <v>9114800</v>
+        <v>9463400</v>
       </c>
       <c r="F48" s="3">
-        <v>6976000</v>
+        <v>7242800</v>
       </c>
       <c r="G48" s="3">
-        <v>6775700</v>
+        <v>7034900</v>
       </c>
       <c r="H48" s="3">
-        <v>6595200</v>
+        <v>6847500</v>
       </c>
       <c r="I48" s="3">
-        <v>6298900</v>
+        <v>6539800</v>
       </c>
       <c r="J48" s="3">
-        <v>5656200</v>
+        <v>5872500</v>
       </c>
       <c r="K48" s="3">
         <v>5468400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1816400</v>
+        <v>1885900</v>
       </c>
       <c r="E49" s="3">
-        <v>1793700</v>
+        <v>1862300</v>
       </c>
       <c r="F49" s="3">
-        <v>1789600</v>
+        <v>1858000</v>
       </c>
       <c r="G49" s="3">
-        <v>1904200</v>
+        <v>1977100</v>
       </c>
       <c r="H49" s="3">
-        <v>1999600</v>
+        <v>2076100</v>
       </c>
       <c r="I49" s="3">
-        <v>1666600</v>
+        <v>1730400</v>
       </c>
       <c r="J49" s="3">
-        <v>2818800</v>
+        <v>2926600</v>
       </c>
       <c r="K49" s="3">
         <v>1296000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>539400</v>
+        <v>560000</v>
       </c>
       <c r="E52" s="3">
-        <v>471300</v>
+        <v>489400</v>
       </c>
       <c r="F52" s="3">
-        <v>468900</v>
+        <v>486800</v>
       </c>
       <c r="G52" s="3">
-        <v>431900</v>
+        <v>448500</v>
       </c>
       <c r="H52" s="3">
-        <v>318300</v>
+        <v>330400</v>
       </c>
       <c r="I52" s="3">
-        <v>199400</v>
+        <v>207000</v>
       </c>
       <c r="J52" s="3">
-        <v>173900</v>
+        <v>180500</v>
       </c>
       <c r="K52" s="3">
         <v>46900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17504300</v>
+        <v>18173800</v>
       </c>
       <c r="E54" s="3">
-        <v>16889500</v>
+        <v>17535400</v>
       </c>
       <c r="F54" s="3">
-        <v>14826800</v>
+        <v>15393900</v>
       </c>
       <c r="G54" s="3">
-        <v>14281500</v>
+        <v>14827700</v>
       </c>
       <c r="H54" s="3">
-        <v>13944700</v>
+        <v>14478000</v>
       </c>
       <c r="I54" s="3">
-        <v>12269100</v>
+        <v>12738300</v>
       </c>
       <c r="J54" s="3">
-        <v>12030300</v>
+        <v>12490400</v>
       </c>
       <c r="K54" s="3">
         <v>11497000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4467300</v>
+        <v>4638100</v>
       </c>
       <c r="E57" s="3">
-        <v>4213800</v>
+        <v>4375000</v>
       </c>
       <c r="F57" s="3">
-        <v>4127300</v>
+        <v>4285100</v>
       </c>
       <c r="G57" s="3">
-        <v>3874400</v>
+        <v>4022600</v>
       </c>
       <c r="H57" s="3">
-        <v>3188500</v>
+        <v>3310500</v>
       </c>
       <c r="I57" s="3">
-        <v>2727900</v>
+        <v>2832200</v>
       </c>
       <c r="J57" s="3">
-        <v>2549600</v>
+        <v>2647100</v>
       </c>
       <c r="K57" s="3">
         <v>2377100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>155600</v>
+        <v>161500</v>
       </c>
       <c r="E58" s="3">
-        <v>147300</v>
+        <v>152900</v>
       </c>
       <c r="F58" s="3">
-        <v>14900</v>
+        <v>15500</v>
       </c>
       <c r="G58" s="3">
-        <v>18400</v>
+        <v>19100</v>
       </c>
       <c r="H58" s="3">
-        <v>25800</v>
+        <v>26800</v>
       </c>
       <c r="I58" s="3">
-        <v>26900</v>
+        <v>27900</v>
       </c>
       <c r="J58" s="3">
-        <v>27000</v>
+        <v>28100</v>
       </c>
       <c r="K58" s="3">
         <v>36100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1330000</v>
+        <v>1380900</v>
       </c>
       <c r="E59" s="3">
-        <v>1128900</v>
+        <v>1172100</v>
       </c>
       <c r="F59" s="3">
-        <v>1380000</v>
+        <v>1432800</v>
       </c>
       <c r="G59" s="3">
-        <v>1322800</v>
+        <v>1373400</v>
       </c>
       <c r="H59" s="3">
-        <v>2530400</v>
+        <v>2627200</v>
       </c>
       <c r="I59" s="3">
-        <v>984700</v>
+        <v>1022300</v>
       </c>
       <c r="J59" s="3">
-        <v>2249700</v>
+        <v>2335800</v>
       </c>
       <c r="K59" s="3">
         <v>1651600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5952900</v>
+        <v>6180600</v>
       </c>
       <c r="E60" s="3">
-        <v>5489900</v>
+        <v>5699900</v>
       </c>
       <c r="F60" s="3">
-        <v>5522200</v>
+        <v>5733400</v>
       </c>
       <c r="G60" s="3">
-        <v>5215600</v>
+        <v>5415100</v>
       </c>
       <c r="H60" s="3">
-        <v>4562200</v>
+        <v>4736700</v>
       </c>
       <c r="I60" s="3">
-        <v>3739500</v>
+        <v>3882500</v>
       </c>
       <c r="J60" s="3">
-        <v>3653300</v>
+        <v>3793000</v>
       </c>
       <c r="K60" s="3">
         <v>3281500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2733900</v>
+        <v>2838500</v>
       </c>
       <c r="E61" s="3">
-        <v>2620100</v>
+        <v>2720300</v>
       </c>
       <c r="F61" s="3">
-        <v>685300</v>
+        <v>711500</v>
       </c>
       <c r="G61" s="3">
-        <v>663900</v>
+        <v>689300</v>
       </c>
       <c r="H61" s="3">
-        <v>632500</v>
+        <v>656700</v>
       </c>
       <c r="I61" s="3">
-        <v>633800</v>
+        <v>658100</v>
       </c>
       <c r="J61" s="3">
-        <v>637500</v>
+        <v>661900</v>
       </c>
       <c r="K61" s="3">
         <v>687400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>637200</v>
+        <v>661600</v>
       </c>
       <c r="E62" s="3">
-        <v>646200</v>
+        <v>671000</v>
       </c>
       <c r="F62" s="3">
-        <v>642500</v>
+        <v>667000</v>
       </c>
       <c r="G62" s="3">
-        <v>685300</v>
+        <v>711500</v>
       </c>
       <c r="H62" s="3">
-        <v>670900</v>
+        <v>696600</v>
       </c>
       <c r="I62" s="3">
-        <v>552200</v>
+        <v>573300</v>
       </c>
       <c r="J62" s="3">
-        <v>501600</v>
+        <v>520800</v>
       </c>
       <c r="K62" s="3">
         <v>416600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9324000</v>
+        <v>9680600</v>
       </c>
       <c r="E66" s="3">
-        <v>8756300</v>
+        <v>9091200</v>
       </c>
       <c r="F66" s="3">
-        <v>6849900</v>
+        <v>7111900</v>
       </c>
       <c r="G66" s="3">
-        <v>6564900</v>
+        <v>6815900</v>
       </c>
       <c r="H66" s="3">
-        <v>5865600</v>
+        <v>6090000</v>
       </c>
       <c r="I66" s="3">
-        <v>4926700</v>
+        <v>5115200</v>
       </c>
       <c r="J66" s="3">
-        <v>4764000</v>
+        <v>4946200</v>
       </c>
       <c r="K66" s="3">
         <v>4360500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5064100</v>
+        <v>5257800</v>
       </c>
       <c r="E72" s="3">
-        <v>4992600</v>
+        <v>5183600</v>
       </c>
       <c r="F72" s="3">
-        <v>4813400</v>
+        <v>4997500</v>
       </c>
       <c r="G72" s="3">
-        <v>4377300</v>
+        <v>4544700</v>
       </c>
       <c r="H72" s="3">
-        <v>4990800</v>
+        <v>5181700</v>
       </c>
       <c r="I72" s="3">
-        <v>4609300</v>
+        <v>4785600</v>
       </c>
       <c r="J72" s="3">
-        <v>9629600</v>
+        <v>9997900</v>
       </c>
       <c r="K72" s="3">
         <v>6217900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8180300</v>
+        <v>8493100</v>
       </c>
       <c r="E76" s="3">
-        <v>8133200</v>
+        <v>8444200</v>
       </c>
       <c r="F76" s="3">
-        <v>7976900</v>
+        <v>8282000</v>
       </c>
       <c r="G76" s="3">
-        <v>7716700</v>
+        <v>8011800</v>
       </c>
       <c r="H76" s="3">
-        <v>8079000</v>
+        <v>8388000</v>
       </c>
       <c r="I76" s="3">
-        <v>7342300</v>
+        <v>7623100</v>
       </c>
       <c r="J76" s="3">
-        <v>7266300</v>
+        <v>7544200</v>
       </c>
       <c r="K76" s="3">
         <v>7136500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1617200</v>
+        <v>1679100</v>
       </c>
       <c r="E81" s="3">
-        <v>1833100</v>
+        <v>1903200</v>
       </c>
       <c r="F81" s="3">
-        <v>1777700</v>
+        <v>1845700</v>
       </c>
       <c r="G81" s="3">
-        <v>1928300</v>
+        <v>2002000</v>
       </c>
       <c r="H81" s="3">
-        <v>1613300</v>
+        <v>1675000</v>
       </c>
       <c r="I81" s="3">
-        <v>1275800</v>
+        <v>1324600</v>
       </c>
       <c r="J81" s="3">
-        <v>1471700</v>
+        <v>1528000</v>
       </c>
       <c r="K81" s="3">
         <v>1134300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>867700</v>
+        <v>900900</v>
       </c>
       <c r="E83" s="3">
-        <v>822400</v>
+        <v>853900</v>
       </c>
       <c r="F83" s="3">
-        <v>607400</v>
+        <v>630600</v>
       </c>
       <c r="G83" s="3">
-        <v>563300</v>
+        <v>584800</v>
       </c>
       <c r="H83" s="3">
-        <v>517300</v>
+        <v>537000</v>
       </c>
       <c r="I83" s="3">
-        <v>484900</v>
+        <v>503400</v>
       </c>
       <c r="J83" s="3">
-        <v>448800</v>
+        <v>466000</v>
       </c>
       <c r="K83" s="3">
         <v>433900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2968600</v>
+        <v>3082200</v>
       </c>
       <c r="E89" s="3">
-        <v>2774300</v>
+        <v>2880400</v>
       </c>
       <c r="F89" s="3">
-        <v>2299300</v>
+        <v>2387200</v>
       </c>
       <c r="G89" s="3">
-        <v>2376700</v>
+        <v>2467600</v>
       </c>
       <c r="H89" s="3">
-        <v>2278600</v>
+        <v>2365800</v>
       </c>
       <c r="I89" s="3">
-        <v>1881800</v>
+        <v>1953700</v>
       </c>
       <c r="J89" s="3">
-        <v>1845400</v>
+        <v>1916000</v>
       </c>
       <c r="K89" s="3">
         <v>1433100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-809100</v>
+        <v>-840100</v>
       </c>
       <c r="E91" s="3">
-        <v>-995200</v>
+        <v>-1033300</v>
       </c>
       <c r="F91" s="3">
-        <v>-867400</v>
+        <v>-900600</v>
       </c>
       <c r="G91" s="3">
-        <v>-842900</v>
+        <v>-875100</v>
       </c>
       <c r="H91" s="3">
-        <v>-693400</v>
+        <v>-719900</v>
       </c>
       <c r="I91" s="3">
-        <v>-605900</v>
+        <v>-629100</v>
       </c>
       <c r="J91" s="3">
-        <v>-613900</v>
+        <v>-637300</v>
       </c>
       <c r="K91" s="3">
         <v>-698400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-799500</v>
+        <v>-830100</v>
       </c>
       <c r="E94" s="3">
-        <v>-952000</v>
+        <v>-988400</v>
       </c>
       <c r="F94" s="3">
-        <v>-748200</v>
+        <v>-776800</v>
       </c>
       <c r="G94" s="3">
-        <v>188000</v>
+        <v>195200</v>
       </c>
       <c r="H94" s="3">
-        <v>-667500</v>
+        <v>-693100</v>
       </c>
       <c r="I94" s="3">
-        <v>-388300</v>
+        <v>-403200</v>
       </c>
       <c r="J94" s="3">
-        <v>-198900</v>
+        <v>-206500</v>
       </c>
       <c r="K94" s="3">
         <v>-713500</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1496300</v>
+        <v>-1553500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1739300</v>
+        <v>-1805800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1237400</v>
+        <v>-1284700</v>
       </c>
       <c r="G96" s="3">
-        <v>-2068100</v>
+        <v>-2147200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1401400</v>
+        <v>-1455000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1526700</v>
+        <v>-1585100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1046900</v>
+        <v>-1086900</v>
       </c>
       <c r="K96" s="3">
         <v>-801700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1920500</v>
+        <v>-1993900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2141700</v>
+        <v>-2223700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1312700</v>
+        <v>-1362900</v>
       </c>
       <c r="G100" s="3">
-        <v>-2146700</v>
+        <v>-2228800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1479800</v>
+        <v>-1536400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1693500</v>
+        <v>-1758300</v>
       </c>
       <c r="J100" s="3">
-        <v>-1317800</v>
+        <v>-1368200</v>
       </c>
       <c r="K100" s="3">
         <v>-1037400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-15800</v>
+        <v>-16400</v>
       </c>
       <c r="E101" s="3">
-        <v>-66300</v>
+        <v>-68800</v>
       </c>
       <c r="F101" s="3">
-        <v>-81900</v>
+        <v>-85100</v>
       </c>
       <c r="G101" s="3">
-        <v>-49400</v>
+        <v>-51300</v>
       </c>
       <c r="H101" s="3">
-        <v>22700</v>
+        <v>23600</v>
       </c>
       <c r="I101" s="3">
-        <v>42500</v>
+        <v>44100</v>
       </c>
       <c r="J101" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="K101" s="3">
         <v>-33400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>232800</v>
+        <v>241700</v>
       </c>
       <c r="E102" s="3">
-        <v>-385600</v>
+        <v>-400400</v>
       </c>
       <c r="F102" s="3">
-        <v>156400</v>
+        <v>162400</v>
       </c>
       <c r="G102" s="3">
-        <v>368600</v>
+        <v>382700</v>
       </c>
       <c r="H102" s="3">
-        <v>154000</v>
+        <v>159900</v>
       </c>
       <c r="I102" s="3">
-        <v>-157500</v>
+        <v>-163600</v>
       </c>
       <c r="J102" s="3">
-        <v>334600</v>
+        <v>347400</v>
       </c>
       <c r="K102" s="3">
         <v>-351200</v>

--- a/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35241100</v>
+        <v>34820000</v>
       </c>
       <c r="E8" s="3">
-        <v>32484600</v>
+        <v>32096500</v>
       </c>
       <c r="F8" s="3">
-        <v>30981200</v>
+        <v>30611100</v>
       </c>
       <c r="G8" s="3">
-        <v>28794700</v>
+        <v>28450700</v>
       </c>
       <c r="H8" s="3">
-        <v>26736300</v>
+        <v>26416900</v>
       </c>
       <c r="I8" s="3">
-        <v>23900200</v>
+        <v>23614700</v>
       </c>
       <c r="J8" s="3">
-        <v>22146400</v>
+        <v>21881800</v>
       </c>
       <c r="K8" s="3">
         <v>21161500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27103400</v>
+        <v>26779600</v>
       </c>
       <c r="E9" s="3">
-        <v>25049500</v>
+        <v>24750200</v>
       </c>
       <c r="F9" s="3">
-        <v>23870800</v>
+        <v>23585600</v>
       </c>
       <c r="G9" s="3">
-        <v>22212200</v>
+        <v>21946900</v>
       </c>
       <c r="H9" s="3">
-        <v>20836300</v>
+        <v>20587300</v>
       </c>
       <c r="I9" s="3">
-        <v>18747500</v>
+        <v>18523500</v>
       </c>
       <c r="J9" s="3">
-        <v>17244000</v>
+        <v>17038000</v>
       </c>
       <c r="K9" s="3">
         <v>16520600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8137600</v>
+        <v>8040400</v>
       </c>
       <c r="E10" s="3">
-        <v>7435100</v>
+        <v>7346300</v>
       </c>
       <c r="F10" s="3">
-        <v>7110500</v>
+        <v>7025500</v>
       </c>
       <c r="G10" s="3">
-        <v>6582500</v>
+        <v>6503800</v>
       </c>
       <c r="H10" s="3">
-        <v>5900000</v>
+        <v>5829600</v>
       </c>
       <c r="I10" s="3">
-        <v>5152700</v>
+        <v>5091100</v>
       </c>
       <c r="J10" s="3">
-        <v>4902400</v>
+        <v>4843900</v>
       </c>
       <c r="K10" s="3">
         <v>4640900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>32356100</v>
+        <v>31969500</v>
       </c>
       <c r="E17" s="3">
-        <v>29772600</v>
+        <v>29416900</v>
       </c>
       <c r="F17" s="3">
-        <v>28510900</v>
+        <v>28170300</v>
       </c>
       <c r="G17" s="3">
-        <v>26593200</v>
+        <v>26275400</v>
       </c>
       <c r="H17" s="3">
-        <v>24754900</v>
+        <v>24459100</v>
       </c>
       <c r="I17" s="3">
-        <v>22251600</v>
+        <v>21985800</v>
       </c>
       <c r="J17" s="3">
-        <v>20403000</v>
+        <v>20159200</v>
       </c>
       <c r="K17" s="3">
         <v>19581900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2885000</v>
+        <v>2850500</v>
       </c>
       <c r="E18" s="3">
-        <v>2712000</v>
+        <v>2679600</v>
       </c>
       <c r="F18" s="3">
-        <v>2470300</v>
+        <v>2440800</v>
       </c>
       <c r="G18" s="3">
-        <v>2201500</v>
+        <v>2175200</v>
       </c>
       <c r="H18" s="3">
-        <v>1981400</v>
+        <v>1957800</v>
       </c>
       <c r="I18" s="3">
-        <v>1648600</v>
+        <v>1628900</v>
       </c>
       <c r="J18" s="3">
-        <v>1743400</v>
+        <v>1722600</v>
       </c>
       <c r="K18" s="3">
         <v>1579600</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-79000</v>
+        <v>-78100</v>
       </c>
       <c r="E20" s="3">
-        <v>47800</v>
+        <v>47200</v>
       </c>
       <c r="F20" s="3">
-        <v>61400</v>
+        <v>60700</v>
       </c>
       <c r="G20" s="3">
-        <v>44700</v>
+        <v>44100</v>
       </c>
       <c r="H20" s="3">
-        <v>47600</v>
+        <v>47000</v>
       </c>
       <c r="I20" s="3">
-        <v>61000</v>
+        <v>60300</v>
       </c>
       <c r="J20" s="3">
-        <v>53100</v>
+        <v>52500</v>
       </c>
       <c r="K20" s="3">
         <v>54800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3709800</v>
+        <v>3667500</v>
       </c>
       <c r="E21" s="3">
-        <v>3616400</v>
+        <v>3575100</v>
       </c>
       <c r="F21" s="3">
-        <v>3164400</v>
+        <v>3128000</v>
       </c>
       <c r="G21" s="3">
-        <v>2832800</v>
+        <v>2800300</v>
       </c>
       <c r="H21" s="3">
-        <v>2567800</v>
+        <v>2538300</v>
       </c>
       <c r="I21" s="3">
-        <v>2214700</v>
+        <v>2189400</v>
       </c>
       <c r="J21" s="3">
-        <v>2264100</v>
+        <v>2238100</v>
       </c>
       <c r="K21" s="3">
         <v>2068300</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>321900</v>
+        <v>318100</v>
       </c>
       <c r="E22" s="3">
-        <v>288900</v>
+        <v>285400</v>
       </c>
       <c r="F22" s="3">
-        <v>78000</v>
+        <v>77100</v>
       </c>
       <c r="G22" s="3">
-        <v>72100</v>
+        <v>71300</v>
       </c>
       <c r="H22" s="3">
-        <v>63800</v>
+        <v>63100</v>
       </c>
       <c r="I22" s="3">
-        <v>56600</v>
+        <v>55900</v>
       </c>
       <c r="J22" s="3">
-        <v>60900</v>
+        <v>60100</v>
       </c>
       <c r="K22" s="3">
         <v>55600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2484100</v>
+        <v>2454400</v>
       </c>
       <c r="E23" s="3">
-        <v>2470900</v>
+        <v>2441400</v>
       </c>
       <c r="F23" s="3">
-        <v>2453700</v>
+        <v>2424400</v>
       </c>
       <c r="G23" s="3">
-        <v>2174000</v>
+        <v>2148000</v>
       </c>
       <c r="H23" s="3">
-        <v>1965200</v>
+        <v>1941700</v>
       </c>
       <c r="I23" s="3">
-        <v>1653100</v>
+        <v>1633300</v>
       </c>
       <c r="J23" s="3">
-        <v>1735700</v>
+        <v>1715000</v>
       </c>
       <c r="K23" s="3">
         <v>1578800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>805000</v>
+        <v>795400</v>
       </c>
       <c r="E24" s="3">
-        <v>567700</v>
+        <v>560900</v>
       </c>
       <c r="F24" s="3">
-        <v>608000</v>
+        <v>600800</v>
       </c>
       <c r="G24" s="3">
-        <v>547400</v>
+        <v>540800</v>
       </c>
       <c r="H24" s="3">
-        <v>533500</v>
+        <v>527100</v>
       </c>
       <c r="I24" s="3">
-        <v>475700</v>
+        <v>470000</v>
       </c>
       <c r="J24" s="3">
-        <v>478200</v>
+        <v>472400</v>
       </c>
       <c r="K24" s="3">
         <v>480900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1679100</v>
+        <v>1659000</v>
       </c>
       <c r="E26" s="3">
-        <v>1903200</v>
+        <v>1880500</v>
       </c>
       <c r="F26" s="3">
-        <v>1845700</v>
+        <v>1823700</v>
       </c>
       <c r="G26" s="3">
-        <v>1626600</v>
+        <v>1607200</v>
       </c>
       <c r="H26" s="3">
-        <v>1431700</v>
+        <v>1414600</v>
       </c>
       <c r="I26" s="3">
-        <v>1177400</v>
+        <v>1163300</v>
       </c>
       <c r="J26" s="3">
-        <v>1257600</v>
+        <v>1242500</v>
       </c>
       <c r="K26" s="3">
         <v>1097900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1679100</v>
+        <v>1659000</v>
       </c>
       <c r="E27" s="3">
-        <v>1903200</v>
+        <v>1880500</v>
       </c>
       <c r="F27" s="3">
-        <v>1845700</v>
+        <v>1823700</v>
       </c>
       <c r="G27" s="3">
-        <v>1626600</v>
+        <v>1607200</v>
       </c>
       <c r="H27" s="3">
-        <v>1431800</v>
+        <v>1414700</v>
       </c>
       <c r="I27" s="3">
-        <v>1177200</v>
+        <v>1163100</v>
       </c>
       <c r="J27" s="3">
-        <v>1257100</v>
+        <v>1242100</v>
       </c>
       <c r="K27" s="3">
         <v>1098100</v>
@@ -1422,16 +1422,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>375400</v>
+        <v>370900</v>
       </c>
       <c r="H29" s="3">
-        <v>243200</v>
+        <v>240300</v>
       </c>
       <c r="I29" s="3">
-        <v>147400</v>
+        <v>145600</v>
       </c>
       <c r="J29" s="3">
-        <v>270900</v>
+        <v>267700</v>
       </c>
       <c r="K29" s="3">
         <v>36200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>79000</v>
+        <v>78100</v>
       </c>
       <c r="E32" s="3">
-        <v>-47800</v>
+        <v>-47200</v>
       </c>
       <c r="F32" s="3">
-        <v>-61400</v>
+        <v>-60700</v>
       </c>
       <c r="G32" s="3">
-        <v>-44700</v>
+        <v>-44100</v>
       </c>
       <c r="H32" s="3">
-        <v>-47600</v>
+        <v>-47000</v>
       </c>
       <c r="I32" s="3">
-        <v>-61000</v>
+        <v>-60300</v>
       </c>
       <c r="J32" s="3">
-        <v>-53100</v>
+        <v>-52500</v>
       </c>
       <c r="K32" s="3">
         <v>-54800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1679100</v>
+        <v>1659000</v>
       </c>
       <c r="E33" s="3">
-        <v>1903200</v>
+        <v>1880500</v>
       </c>
       <c r="F33" s="3">
-        <v>1845700</v>
+        <v>1823700</v>
       </c>
       <c r="G33" s="3">
-        <v>2002000</v>
+        <v>1978100</v>
       </c>
       <c r="H33" s="3">
-        <v>1675000</v>
+        <v>1654900</v>
       </c>
       <c r="I33" s="3">
-        <v>1324600</v>
+        <v>1308800</v>
       </c>
       <c r="J33" s="3">
-        <v>1528000</v>
+        <v>1509700</v>
       </c>
       <c r="K33" s="3">
         <v>1134300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1679100</v>
+        <v>1659000</v>
       </c>
       <c r="E35" s="3">
-        <v>1903200</v>
+        <v>1880500</v>
       </c>
       <c r="F35" s="3">
-        <v>1845700</v>
+        <v>1823700</v>
       </c>
       <c r="G35" s="3">
-        <v>2002000</v>
+        <v>1978100</v>
       </c>
       <c r="H35" s="3">
-        <v>1675000</v>
+        <v>1654900</v>
       </c>
       <c r="I35" s="3">
-        <v>1324600</v>
+        <v>1308800</v>
       </c>
       <c r="J35" s="3">
-        <v>1528000</v>
+        <v>1509700</v>
       </c>
       <c r="K35" s="3">
         <v>1134300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1791400</v>
+        <v>1770000</v>
       </c>
       <c r="E41" s="3">
-        <v>1549600</v>
+        <v>1531100</v>
       </c>
       <c r="F41" s="3">
-        <v>1950000</v>
+        <v>1926700</v>
       </c>
       <c r="G41" s="3">
-        <v>1787600</v>
+        <v>1766300</v>
       </c>
       <c r="H41" s="3">
-        <v>1404900</v>
+        <v>1388100</v>
       </c>
       <c r="I41" s="3">
-        <v>1245000</v>
+        <v>1230100</v>
       </c>
       <c r="J41" s="3">
-        <v>2817100</v>
+        <v>2783500</v>
       </c>
       <c r="K41" s="3">
         <v>2110000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>853400</v>
+        <v>843200</v>
       </c>
       <c r="E43" s="3">
-        <v>688900</v>
+        <v>680600</v>
       </c>
       <c r="F43" s="3">
-        <v>604400</v>
+        <v>597200</v>
       </c>
       <c r="G43" s="3">
-        <v>544100</v>
+        <v>537600</v>
       </c>
       <c r="H43" s="3">
-        <v>493100</v>
+        <v>487200</v>
       </c>
       <c r="I43" s="3">
-        <v>490100</v>
+        <v>484200</v>
       </c>
       <c r="J43" s="3">
-        <v>553900</v>
+        <v>547300</v>
       </c>
       <c r="K43" s="3">
         <v>634200</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3433100</v>
+        <v>3392000</v>
       </c>
       <c r="E44" s="3">
-        <v>3392500</v>
+        <v>3352000</v>
       </c>
       <c r="F44" s="3">
-        <v>3181100</v>
+        <v>3143100</v>
       </c>
       <c r="G44" s="3">
-        <v>2986200</v>
+        <v>2950600</v>
       </c>
       <c r="H44" s="3">
-        <v>2695100</v>
+        <v>2662900</v>
       </c>
       <c r="I44" s="3">
-        <v>2498400</v>
+        <v>2468500</v>
       </c>
       <c r="J44" s="3">
-        <v>4738300</v>
+        <v>4681700</v>
       </c>
       <c r="K44" s="3">
         <v>4373400</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35200</v>
+        <v>34800</v>
       </c>
       <c r="E45" s="3">
-        <v>89300</v>
+        <v>88200</v>
       </c>
       <c r="F45" s="3">
-        <v>70600</v>
+        <v>69800</v>
       </c>
       <c r="G45" s="3">
-        <v>49300</v>
+        <v>48700</v>
       </c>
       <c r="H45" s="3">
-        <v>631000</v>
+        <v>623400</v>
       </c>
       <c r="I45" s="3">
-        <v>27600</v>
+        <v>27300</v>
       </c>
       <c r="J45" s="3">
-        <v>450800</v>
+        <v>445400</v>
       </c>
       <c r="K45" s="3">
         <v>257900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6113000</v>
+        <v>6040000</v>
       </c>
       <c r="E46" s="3">
-        <v>5720300</v>
+        <v>5652000</v>
       </c>
       <c r="F46" s="3">
-        <v>5806200</v>
+        <v>5736800</v>
       </c>
       <c r="G46" s="3">
-        <v>5367300</v>
+        <v>5303200</v>
       </c>
       <c r="H46" s="3">
-        <v>5224000</v>
+        <v>5161600</v>
       </c>
       <c r="I46" s="3">
-        <v>4261100</v>
+        <v>4210200</v>
       </c>
       <c r="J46" s="3">
-        <v>4542500</v>
+        <v>4488200</v>
       </c>
       <c r="K46" s="3">
         <v>4126700</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9614800</v>
+        <v>9500000</v>
       </c>
       <c r="E48" s="3">
-        <v>9463400</v>
+        <v>9350300</v>
       </c>
       <c r="F48" s="3">
-        <v>7242800</v>
+        <v>7156300</v>
       </c>
       <c r="G48" s="3">
-        <v>7034900</v>
+        <v>6950800</v>
       </c>
       <c r="H48" s="3">
-        <v>6847500</v>
+        <v>6765700</v>
       </c>
       <c r="I48" s="3">
-        <v>6539800</v>
+        <v>6461600</v>
       </c>
       <c r="J48" s="3">
-        <v>5872500</v>
+        <v>5802300</v>
       </c>
       <c r="K48" s="3">
         <v>5468400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1885900</v>
+        <v>1863300</v>
       </c>
       <c r="E49" s="3">
-        <v>1862300</v>
+        <v>1840100</v>
       </c>
       <c r="F49" s="3">
-        <v>1858000</v>
+        <v>1835800</v>
       </c>
       <c r="G49" s="3">
-        <v>1977100</v>
+        <v>1953400</v>
       </c>
       <c r="H49" s="3">
-        <v>2076100</v>
+        <v>2051300</v>
       </c>
       <c r="I49" s="3">
-        <v>1730400</v>
+        <v>1709700</v>
       </c>
       <c r="J49" s="3">
-        <v>2926600</v>
+        <v>2891700</v>
       </c>
       <c r="K49" s="3">
         <v>1296000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>560000</v>
+        <v>553400</v>
       </c>
       <c r="E52" s="3">
-        <v>489400</v>
+        <v>483500</v>
       </c>
       <c r="F52" s="3">
-        <v>486800</v>
+        <v>481000</v>
       </c>
       <c r="G52" s="3">
-        <v>448500</v>
+        <v>443100</v>
       </c>
       <c r="H52" s="3">
-        <v>330400</v>
+        <v>326500</v>
       </c>
       <c r="I52" s="3">
-        <v>207000</v>
+        <v>204600</v>
       </c>
       <c r="J52" s="3">
-        <v>180500</v>
+        <v>178400</v>
       </c>
       <c r="K52" s="3">
         <v>46900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18173800</v>
+        <v>17956600</v>
       </c>
       <c r="E54" s="3">
-        <v>17535400</v>
+        <v>17325900</v>
       </c>
       <c r="F54" s="3">
-        <v>15393900</v>
+        <v>15210000</v>
       </c>
       <c r="G54" s="3">
-        <v>14827700</v>
+        <v>14650600</v>
       </c>
       <c r="H54" s="3">
-        <v>14478000</v>
+        <v>14305000</v>
       </c>
       <c r="I54" s="3">
-        <v>12738300</v>
+        <v>12586100</v>
       </c>
       <c r="J54" s="3">
-        <v>12490400</v>
+        <v>12341200</v>
       </c>
       <c r="K54" s="3">
         <v>11497000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4638100</v>
+        <v>4582700</v>
       </c>
       <c r="E57" s="3">
-        <v>4375000</v>
+        <v>4322700</v>
       </c>
       <c r="F57" s="3">
-        <v>4285100</v>
+        <v>4233900</v>
       </c>
       <c r="G57" s="3">
-        <v>4022600</v>
+        <v>3974500</v>
       </c>
       <c r="H57" s="3">
-        <v>3310500</v>
+        <v>3270900</v>
       </c>
       <c r="I57" s="3">
-        <v>2832200</v>
+        <v>2798300</v>
       </c>
       <c r="J57" s="3">
-        <v>2647100</v>
+        <v>2615500</v>
       </c>
       <c r="K57" s="3">
         <v>2377100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>161500</v>
+        <v>159600</v>
       </c>
       <c r="E58" s="3">
-        <v>152900</v>
+        <v>151100</v>
       </c>
       <c r="F58" s="3">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="G58" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="H58" s="3">
-        <v>26800</v>
+        <v>26400</v>
       </c>
       <c r="I58" s="3">
-        <v>27900</v>
+        <v>27600</v>
       </c>
       <c r="J58" s="3">
-        <v>28100</v>
+        <v>27700</v>
       </c>
       <c r="K58" s="3">
         <v>36100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1380900</v>
+        <v>1364400</v>
       </c>
       <c r="E59" s="3">
-        <v>1172100</v>
+        <v>1158100</v>
       </c>
       <c r="F59" s="3">
-        <v>1432800</v>
+        <v>1415700</v>
       </c>
       <c r="G59" s="3">
-        <v>1373400</v>
+        <v>1357000</v>
       </c>
       <c r="H59" s="3">
-        <v>2627200</v>
+        <v>2595800</v>
       </c>
       <c r="I59" s="3">
-        <v>1022300</v>
+        <v>1010100</v>
       </c>
       <c r="J59" s="3">
-        <v>2335800</v>
+        <v>2307900</v>
       </c>
       <c r="K59" s="3">
         <v>1651600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6180600</v>
+        <v>6106700</v>
       </c>
       <c r="E60" s="3">
-        <v>5699900</v>
+        <v>5631800</v>
       </c>
       <c r="F60" s="3">
-        <v>5733400</v>
+        <v>5664900</v>
       </c>
       <c r="G60" s="3">
-        <v>5415100</v>
+        <v>5350400</v>
       </c>
       <c r="H60" s="3">
-        <v>4736700</v>
+        <v>4680100</v>
       </c>
       <c r="I60" s="3">
-        <v>3882500</v>
+        <v>3836100</v>
       </c>
       <c r="J60" s="3">
-        <v>3793000</v>
+        <v>3747700</v>
       </c>
       <c r="K60" s="3">
         <v>3281500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2838500</v>
+        <v>2804600</v>
       </c>
       <c r="E61" s="3">
-        <v>2720300</v>
+        <v>2687800</v>
       </c>
       <c r="F61" s="3">
-        <v>711500</v>
+        <v>703000</v>
       </c>
       <c r="G61" s="3">
-        <v>689300</v>
+        <v>681100</v>
       </c>
       <c r="H61" s="3">
-        <v>656700</v>
+        <v>648900</v>
       </c>
       <c r="I61" s="3">
-        <v>658100</v>
+        <v>650200</v>
       </c>
       <c r="J61" s="3">
-        <v>661900</v>
+        <v>654000</v>
       </c>
       <c r="K61" s="3">
         <v>687400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>661600</v>
+        <v>653600</v>
       </c>
       <c r="E62" s="3">
-        <v>671000</v>
+        <v>662900</v>
       </c>
       <c r="F62" s="3">
-        <v>667000</v>
+        <v>659100</v>
       </c>
       <c r="G62" s="3">
-        <v>711500</v>
+        <v>703000</v>
       </c>
       <c r="H62" s="3">
-        <v>696600</v>
+        <v>688300</v>
       </c>
       <c r="I62" s="3">
-        <v>573300</v>
+        <v>566500</v>
       </c>
       <c r="J62" s="3">
-        <v>520800</v>
+        <v>514600</v>
       </c>
       <c r="K62" s="3">
         <v>416600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9680600</v>
+        <v>9565000</v>
       </c>
       <c r="E66" s="3">
-        <v>9091200</v>
+        <v>8982600</v>
       </c>
       <c r="F66" s="3">
-        <v>7111900</v>
+        <v>7026900</v>
       </c>
       <c r="G66" s="3">
-        <v>6815900</v>
+        <v>6734500</v>
       </c>
       <c r="H66" s="3">
-        <v>6090000</v>
+        <v>6017200</v>
       </c>
       <c r="I66" s="3">
-        <v>5115200</v>
+        <v>5054100</v>
       </c>
       <c r="J66" s="3">
-        <v>4946200</v>
+        <v>4887200</v>
       </c>
       <c r="K66" s="3">
         <v>4360500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5257800</v>
+        <v>5195000</v>
       </c>
       <c r="E72" s="3">
-        <v>5183600</v>
+        <v>5121700</v>
       </c>
       <c r="F72" s="3">
-        <v>4997500</v>
+        <v>4937800</v>
       </c>
       <c r="G72" s="3">
-        <v>4544700</v>
+        <v>4490400</v>
       </c>
       <c r="H72" s="3">
-        <v>5181700</v>
+        <v>5119800</v>
       </c>
       <c r="I72" s="3">
-        <v>4785600</v>
+        <v>4728400</v>
       </c>
       <c r="J72" s="3">
-        <v>9997900</v>
+        <v>9878400</v>
       </c>
       <c r="K72" s="3">
         <v>6217900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8493100</v>
+        <v>8391700</v>
       </c>
       <c r="E76" s="3">
-        <v>8444200</v>
+        <v>8343300</v>
       </c>
       <c r="F76" s="3">
-        <v>8282000</v>
+        <v>8183000</v>
       </c>
       <c r="G76" s="3">
-        <v>8011800</v>
+        <v>7916100</v>
       </c>
       <c r="H76" s="3">
-        <v>8388000</v>
+        <v>8287800</v>
       </c>
       <c r="I76" s="3">
-        <v>7623100</v>
+        <v>7532100</v>
       </c>
       <c r="J76" s="3">
-        <v>7544200</v>
+        <v>7454000</v>
       </c>
       <c r="K76" s="3">
         <v>7136500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1679100</v>
+        <v>1659000</v>
       </c>
       <c r="E81" s="3">
-        <v>1903200</v>
+        <v>1880500</v>
       </c>
       <c r="F81" s="3">
-        <v>1845700</v>
+        <v>1823700</v>
       </c>
       <c r="G81" s="3">
-        <v>2002000</v>
+        <v>1978100</v>
       </c>
       <c r="H81" s="3">
-        <v>1675000</v>
+        <v>1654900</v>
       </c>
       <c r="I81" s="3">
-        <v>1324600</v>
+        <v>1308800</v>
       </c>
       <c r="J81" s="3">
-        <v>1528000</v>
+        <v>1509700</v>
       </c>
       <c r="K81" s="3">
         <v>1134300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>900900</v>
+        <v>890200</v>
       </c>
       <c r="E83" s="3">
-        <v>853900</v>
+        <v>843700</v>
       </c>
       <c r="F83" s="3">
-        <v>630600</v>
+        <v>623100</v>
       </c>
       <c r="G83" s="3">
-        <v>584800</v>
+        <v>577800</v>
       </c>
       <c r="H83" s="3">
-        <v>537000</v>
+        <v>530600</v>
       </c>
       <c r="I83" s="3">
-        <v>503400</v>
+        <v>497400</v>
       </c>
       <c r="J83" s="3">
-        <v>466000</v>
+        <v>460400</v>
       </c>
       <c r="K83" s="3">
         <v>433900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3082200</v>
+        <v>3045300</v>
       </c>
       <c r="E89" s="3">
-        <v>2880400</v>
+        <v>2846000</v>
       </c>
       <c r="F89" s="3">
-        <v>2387200</v>
+        <v>2358700</v>
       </c>
       <c r="G89" s="3">
-        <v>2467600</v>
+        <v>2438100</v>
       </c>
       <c r="H89" s="3">
-        <v>2365800</v>
+        <v>2337500</v>
       </c>
       <c r="I89" s="3">
-        <v>1953700</v>
+        <v>1930400</v>
       </c>
       <c r="J89" s="3">
-        <v>1916000</v>
+        <v>1893100</v>
       </c>
       <c r="K89" s="3">
         <v>1433100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-840100</v>
+        <v>-830000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1033300</v>
+        <v>-1020900</v>
       </c>
       <c r="F91" s="3">
-        <v>-900600</v>
+        <v>-889800</v>
       </c>
       <c r="G91" s="3">
-        <v>-875100</v>
+        <v>-864700</v>
       </c>
       <c r="H91" s="3">
-        <v>-719900</v>
+        <v>-711300</v>
       </c>
       <c r="I91" s="3">
-        <v>-629100</v>
+        <v>-621600</v>
       </c>
       <c r="J91" s="3">
-        <v>-637300</v>
+        <v>-629700</v>
       </c>
       <c r="K91" s="3">
         <v>-698400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-830100</v>
+        <v>-820200</v>
       </c>
       <c r="E94" s="3">
-        <v>-988400</v>
+        <v>-976600</v>
       </c>
       <c r="F94" s="3">
-        <v>-776800</v>
+        <v>-767500</v>
       </c>
       <c r="G94" s="3">
-        <v>195200</v>
+        <v>192900</v>
       </c>
       <c r="H94" s="3">
-        <v>-693100</v>
+        <v>-684800</v>
       </c>
       <c r="I94" s="3">
-        <v>-403200</v>
+        <v>-398300</v>
       </c>
       <c r="J94" s="3">
-        <v>-206500</v>
+        <v>-204100</v>
       </c>
       <c r="K94" s="3">
         <v>-713500</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1553500</v>
+        <v>-1534900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1805800</v>
+        <v>-1784200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1284700</v>
+        <v>-1269400</v>
       </c>
       <c r="G96" s="3">
-        <v>-2147200</v>
+        <v>-2121500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1455000</v>
+        <v>-1437600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1585100</v>
+        <v>-1566100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1086900</v>
+        <v>-1073900</v>
       </c>
       <c r="K96" s="3">
         <v>-801700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1993900</v>
+        <v>-1970100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2223700</v>
+        <v>-2197100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1362900</v>
+        <v>-1346700</v>
       </c>
       <c r="G100" s="3">
-        <v>-2228800</v>
+        <v>-2202200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1536400</v>
+        <v>-1518000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1758300</v>
+        <v>-1737300</v>
       </c>
       <c r="J100" s="3">
-        <v>-1368200</v>
+        <v>-1351800</v>
       </c>
       <c r="K100" s="3">
         <v>-1037400</v>
@@ -3711,22 +3711,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-16400</v>
+        <v>-16200</v>
       </c>
       <c r="E101" s="3">
-        <v>-68800</v>
+        <v>-68000</v>
       </c>
       <c r="F101" s="3">
-        <v>-85100</v>
+        <v>-84100</v>
       </c>
       <c r="G101" s="3">
-        <v>-51300</v>
+        <v>-50700</v>
       </c>
       <c r="H101" s="3">
-        <v>23600</v>
+        <v>23300</v>
       </c>
       <c r="I101" s="3">
-        <v>44100</v>
+        <v>43600</v>
       </c>
       <c r="J101" s="3">
         <v>6100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>241700</v>
+        <v>238800</v>
       </c>
       <c r="E102" s="3">
-        <v>-400400</v>
+        <v>-395600</v>
       </c>
       <c r="F102" s="3">
-        <v>162400</v>
+        <v>160400</v>
       </c>
       <c r="G102" s="3">
-        <v>382700</v>
+        <v>378100</v>
       </c>
       <c r="H102" s="3">
-        <v>159900</v>
+        <v>158000</v>
       </c>
       <c r="I102" s="3">
-        <v>-163600</v>
+        <v>-161600</v>
       </c>
       <c r="J102" s="3">
-        <v>347400</v>
+        <v>343300</v>
       </c>
       <c r="K102" s="3">
         <v>-351200</v>

--- a/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>34820000</v>
+        <v>32385000</v>
       </c>
       <c r="E8" s="3">
-        <v>32096500</v>
+        <v>29852000</v>
       </c>
       <c r="F8" s="3">
-        <v>30611100</v>
+        <v>28470400</v>
       </c>
       <c r="G8" s="3">
-        <v>28450700</v>
+        <v>26461100</v>
       </c>
       <c r="H8" s="3">
-        <v>26416900</v>
+        <v>24569500</v>
       </c>
       <c r="I8" s="3">
-        <v>23614700</v>
+        <v>21963300</v>
       </c>
       <c r="J8" s="3">
-        <v>21881800</v>
+        <v>20351600</v>
       </c>
       <c r="K8" s="3">
         <v>21161500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>26779600</v>
+        <v>24906900</v>
       </c>
       <c r="E9" s="3">
-        <v>24750200</v>
+        <v>23019400</v>
       </c>
       <c r="F9" s="3">
-        <v>23585600</v>
+        <v>21936200</v>
       </c>
       <c r="G9" s="3">
-        <v>21946900</v>
+        <v>20412100</v>
       </c>
       <c r="H9" s="3">
-        <v>20587300</v>
+        <v>19147600</v>
       </c>
       <c r="I9" s="3">
-        <v>18523500</v>
+        <v>17228200</v>
       </c>
       <c r="J9" s="3">
-        <v>17038000</v>
+        <v>15846500</v>
       </c>
       <c r="K9" s="3">
         <v>16520600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8040400</v>
+        <v>7478100</v>
       </c>
       <c r="E10" s="3">
-        <v>7346300</v>
+        <v>6832500</v>
       </c>
       <c r="F10" s="3">
-        <v>7025500</v>
+        <v>6534200</v>
       </c>
       <c r="G10" s="3">
-        <v>6503800</v>
+        <v>6049000</v>
       </c>
       <c r="H10" s="3">
-        <v>5829600</v>
+        <v>5421900</v>
       </c>
       <c r="I10" s="3">
-        <v>5091100</v>
+        <v>4735100</v>
       </c>
       <c r="J10" s="3">
-        <v>4843900</v>
+        <v>4505100</v>
       </c>
       <c r="K10" s="3">
         <v>4640900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>31969500</v>
+        <v>29733800</v>
       </c>
       <c r="E17" s="3">
-        <v>29416900</v>
+        <v>27359700</v>
       </c>
       <c r="F17" s="3">
-        <v>28170300</v>
+        <v>26200300</v>
       </c>
       <c r="G17" s="3">
-        <v>26275400</v>
+        <v>24438000</v>
       </c>
       <c r="H17" s="3">
-        <v>24459100</v>
+        <v>22748700</v>
       </c>
       <c r="I17" s="3">
-        <v>21985800</v>
+        <v>20448300</v>
       </c>
       <c r="J17" s="3">
-        <v>20159200</v>
+        <v>18749400</v>
       </c>
       <c r="K17" s="3">
         <v>19581900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2850500</v>
+        <v>2651200</v>
       </c>
       <c r="E18" s="3">
-        <v>2679600</v>
+        <v>2492200</v>
       </c>
       <c r="F18" s="3">
-        <v>2440800</v>
+        <v>2270100</v>
       </c>
       <c r="G18" s="3">
-        <v>2175200</v>
+        <v>2023100</v>
       </c>
       <c r="H18" s="3">
-        <v>1957800</v>
+        <v>1820900</v>
       </c>
       <c r="I18" s="3">
-        <v>1628900</v>
+        <v>1515000</v>
       </c>
       <c r="J18" s="3">
-        <v>1722600</v>
+        <v>1602200</v>
       </c>
       <c r="K18" s="3">
         <v>1579600</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-78100</v>
+        <v>-72600</v>
       </c>
       <c r="E20" s="3">
-        <v>47200</v>
+        <v>43900</v>
       </c>
       <c r="F20" s="3">
-        <v>60700</v>
+        <v>56400</v>
       </c>
       <c r="G20" s="3">
-        <v>44100</v>
+        <v>41000</v>
       </c>
       <c r="H20" s="3">
-        <v>47000</v>
+        <v>43700</v>
       </c>
       <c r="I20" s="3">
-        <v>60300</v>
+        <v>56100</v>
       </c>
       <c r="J20" s="3">
-        <v>52500</v>
+        <v>48800</v>
       </c>
       <c r="K20" s="3">
         <v>54800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3667500</v>
+        <v>3397300</v>
       </c>
       <c r="E21" s="3">
-        <v>3575100</v>
+        <v>3312200</v>
       </c>
       <c r="F21" s="3">
-        <v>3128000</v>
+        <v>2899700</v>
       </c>
       <c r="G21" s="3">
-        <v>2800300</v>
+        <v>2595600</v>
       </c>
       <c r="H21" s="3">
-        <v>2538300</v>
+        <v>2352700</v>
       </c>
       <c r="I21" s="3">
-        <v>2189400</v>
+        <v>2028600</v>
       </c>
       <c r="J21" s="3">
-        <v>2238100</v>
+        <v>2074500</v>
       </c>
       <c r="K21" s="3">
         <v>2068300</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>318100</v>
+        <v>295800</v>
       </c>
       <c r="E22" s="3">
-        <v>285400</v>
+        <v>265500</v>
       </c>
       <c r="F22" s="3">
-        <v>77100</v>
+        <v>71700</v>
       </c>
       <c r="G22" s="3">
-        <v>71300</v>
+        <v>66300</v>
       </c>
       <c r="H22" s="3">
-        <v>63100</v>
+        <v>58600</v>
       </c>
       <c r="I22" s="3">
+        <v>52000</v>
+      </c>
+      <c r="J22" s="3">
         <v>55900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>60100</v>
       </c>
       <c r="K22" s="3">
         <v>55600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2454400</v>
+        <v>2282800</v>
       </c>
       <c r="E23" s="3">
-        <v>2441400</v>
+        <v>2270700</v>
       </c>
       <c r="F23" s="3">
-        <v>2424400</v>
+        <v>2254900</v>
       </c>
       <c r="G23" s="3">
-        <v>2148000</v>
+        <v>1997800</v>
       </c>
       <c r="H23" s="3">
-        <v>1941700</v>
+        <v>1806000</v>
       </c>
       <c r="I23" s="3">
-        <v>1633300</v>
+        <v>1519100</v>
       </c>
       <c r="J23" s="3">
-        <v>1715000</v>
+        <v>1595000</v>
       </c>
       <c r="K23" s="3">
         <v>1578800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>795400</v>
+        <v>739700</v>
       </c>
       <c r="E24" s="3">
-        <v>560900</v>
+        <v>521700</v>
       </c>
       <c r="F24" s="3">
-        <v>600800</v>
+        <v>558700</v>
       </c>
       <c r="G24" s="3">
-        <v>540800</v>
+        <v>503000</v>
       </c>
       <c r="H24" s="3">
-        <v>527100</v>
+        <v>490300</v>
       </c>
       <c r="I24" s="3">
-        <v>470000</v>
+        <v>437200</v>
       </c>
       <c r="J24" s="3">
-        <v>472400</v>
+        <v>439400</v>
       </c>
       <c r="K24" s="3">
         <v>480900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1659000</v>
+        <v>1543000</v>
       </c>
       <c r="E26" s="3">
-        <v>1880500</v>
+        <v>1749000</v>
       </c>
       <c r="F26" s="3">
-        <v>1823700</v>
+        <v>1696100</v>
       </c>
       <c r="G26" s="3">
-        <v>1607200</v>
+        <v>1494800</v>
       </c>
       <c r="H26" s="3">
-        <v>1414600</v>
+        <v>1315700</v>
       </c>
       <c r="I26" s="3">
-        <v>1163300</v>
+        <v>1081900</v>
       </c>
       <c r="J26" s="3">
-        <v>1242500</v>
+        <v>1155600</v>
       </c>
       <c r="K26" s="3">
         <v>1097900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1659000</v>
+        <v>1543000</v>
       </c>
       <c r="E27" s="3">
-        <v>1880500</v>
+        <v>1749000</v>
       </c>
       <c r="F27" s="3">
-        <v>1823700</v>
+        <v>1696100</v>
       </c>
       <c r="G27" s="3">
-        <v>1607200</v>
+        <v>1494800</v>
       </c>
       <c r="H27" s="3">
-        <v>1414700</v>
+        <v>1315700</v>
       </c>
       <c r="I27" s="3">
-        <v>1163100</v>
+        <v>1081800</v>
       </c>
       <c r="J27" s="3">
-        <v>1242100</v>
+        <v>1155200</v>
       </c>
       <c r="K27" s="3">
         <v>1098100</v>
@@ -1422,16 +1422,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>370900</v>
+        <v>345000</v>
       </c>
       <c r="H29" s="3">
-        <v>240300</v>
+        <v>223500</v>
       </c>
       <c r="I29" s="3">
-        <v>145600</v>
+        <v>135400</v>
       </c>
       <c r="J29" s="3">
-        <v>267700</v>
+        <v>248900</v>
       </c>
       <c r="K29" s="3">
         <v>36200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>78100</v>
+        <v>72600</v>
       </c>
       <c r="E32" s="3">
-        <v>-47200</v>
+        <v>-43900</v>
       </c>
       <c r="F32" s="3">
-        <v>-60700</v>
+        <v>-56400</v>
       </c>
       <c r="G32" s="3">
-        <v>-44100</v>
+        <v>-41000</v>
       </c>
       <c r="H32" s="3">
-        <v>-47000</v>
+        <v>-43700</v>
       </c>
       <c r="I32" s="3">
-        <v>-60300</v>
+        <v>-56100</v>
       </c>
       <c r="J32" s="3">
-        <v>-52500</v>
+        <v>-48800</v>
       </c>
       <c r="K32" s="3">
         <v>-54800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1659000</v>
+        <v>1543000</v>
       </c>
       <c r="E33" s="3">
-        <v>1880500</v>
+        <v>1749000</v>
       </c>
       <c r="F33" s="3">
-        <v>1823700</v>
+        <v>1696100</v>
       </c>
       <c r="G33" s="3">
-        <v>1978100</v>
+        <v>1839800</v>
       </c>
       <c r="H33" s="3">
-        <v>1654900</v>
+        <v>1539200</v>
       </c>
       <c r="I33" s="3">
-        <v>1308800</v>
+        <v>1217200</v>
       </c>
       <c r="J33" s="3">
-        <v>1509700</v>
+        <v>1404200</v>
       </c>
       <c r="K33" s="3">
         <v>1134300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1659000</v>
+        <v>1543000</v>
       </c>
       <c r="E35" s="3">
-        <v>1880500</v>
+        <v>1749000</v>
       </c>
       <c r="F35" s="3">
-        <v>1823700</v>
+        <v>1696100</v>
       </c>
       <c r="G35" s="3">
-        <v>1978100</v>
+        <v>1839800</v>
       </c>
       <c r="H35" s="3">
-        <v>1654900</v>
+        <v>1539200</v>
       </c>
       <c r="I35" s="3">
-        <v>1308800</v>
+        <v>1217200</v>
       </c>
       <c r="J35" s="3">
-        <v>1509700</v>
+        <v>1404200</v>
       </c>
       <c r="K35" s="3">
         <v>1134300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1770000</v>
+        <v>1646200</v>
       </c>
       <c r="E41" s="3">
-        <v>1531100</v>
+        <v>1424100</v>
       </c>
       <c r="F41" s="3">
-        <v>1926700</v>
+        <v>1792000</v>
       </c>
       <c r="G41" s="3">
-        <v>1766300</v>
+        <v>1642800</v>
       </c>
       <c r="H41" s="3">
-        <v>1388100</v>
+        <v>1291100</v>
       </c>
       <c r="I41" s="3">
-        <v>1230100</v>
+        <v>1144100</v>
       </c>
       <c r="J41" s="3">
-        <v>2783500</v>
+        <v>2588800</v>
       </c>
       <c r="K41" s="3">
         <v>2110000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>843200</v>
+        <v>784300</v>
       </c>
       <c r="E43" s="3">
-        <v>680600</v>
+        <v>633000</v>
       </c>
       <c r="F43" s="3">
-        <v>597200</v>
+        <v>555400</v>
       </c>
       <c r="G43" s="3">
-        <v>537600</v>
+        <v>500000</v>
       </c>
       <c r="H43" s="3">
-        <v>487200</v>
+        <v>453100</v>
       </c>
       <c r="I43" s="3">
-        <v>484200</v>
+        <v>450400</v>
       </c>
       <c r="J43" s="3">
-        <v>547300</v>
+        <v>509000</v>
       </c>
       <c r="K43" s="3">
         <v>634200</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3392000</v>
+        <v>3154800</v>
       </c>
       <c r="E44" s="3">
-        <v>3352000</v>
+        <v>3117600</v>
       </c>
       <c r="F44" s="3">
-        <v>3143100</v>
+        <v>2923300</v>
       </c>
       <c r="G44" s="3">
-        <v>2950600</v>
+        <v>2744200</v>
       </c>
       <c r="H44" s="3">
-        <v>2662900</v>
+        <v>2476700</v>
       </c>
       <c r="I44" s="3">
-        <v>2468500</v>
+        <v>2295900</v>
       </c>
       <c r="J44" s="3">
-        <v>4681700</v>
+        <v>4354300</v>
       </c>
       <c r="K44" s="3">
         <v>4373400</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34800</v>
+        <v>32300</v>
       </c>
       <c r="E45" s="3">
-        <v>88200</v>
+        <v>82100</v>
       </c>
       <c r="F45" s="3">
-        <v>69800</v>
+        <v>64900</v>
       </c>
       <c r="G45" s="3">
-        <v>48700</v>
+        <v>45300</v>
       </c>
       <c r="H45" s="3">
-        <v>623400</v>
+        <v>579800</v>
       </c>
       <c r="I45" s="3">
-        <v>27300</v>
+        <v>25400</v>
       </c>
       <c r="J45" s="3">
-        <v>445400</v>
+        <v>414200</v>
       </c>
       <c r="K45" s="3">
         <v>257900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6040000</v>
+        <v>5617600</v>
       </c>
       <c r="E46" s="3">
-        <v>5652000</v>
+        <v>5256700</v>
       </c>
       <c r="F46" s="3">
-        <v>5736800</v>
+        <v>5335600</v>
       </c>
       <c r="G46" s="3">
-        <v>5303200</v>
+        <v>4932300</v>
       </c>
       <c r="H46" s="3">
-        <v>5161600</v>
+        <v>4800600</v>
       </c>
       <c r="I46" s="3">
-        <v>4210200</v>
+        <v>3915800</v>
       </c>
       <c r="J46" s="3">
-        <v>4488200</v>
+        <v>4174400</v>
       </c>
       <c r="K46" s="3">
         <v>4126700</v>
@@ -1972,7 +1972,7 @@
         <v>8</v>
       </c>
       <c r="J47" s="3">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="K47" s="3">
         <v>10400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9500000</v>
+        <v>8835600</v>
       </c>
       <c r="E48" s="3">
-        <v>9350300</v>
+        <v>8696500</v>
       </c>
       <c r="F48" s="3">
-        <v>7156300</v>
+        <v>6655800</v>
       </c>
       <c r="G48" s="3">
-        <v>6950800</v>
+        <v>6464800</v>
       </c>
       <c r="H48" s="3">
-        <v>6765700</v>
+        <v>6292500</v>
       </c>
       <c r="I48" s="3">
-        <v>6461600</v>
+        <v>6009800</v>
       </c>
       <c r="J48" s="3">
-        <v>5802300</v>
+        <v>5396600</v>
       </c>
       <c r="K48" s="3">
         <v>5468400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1863300</v>
+        <v>1733000</v>
       </c>
       <c r="E49" s="3">
-        <v>1840100</v>
+        <v>1711400</v>
       </c>
       <c r="F49" s="3">
-        <v>1835800</v>
+        <v>1707400</v>
       </c>
       <c r="G49" s="3">
-        <v>1953400</v>
+        <v>1816800</v>
       </c>
       <c r="H49" s="3">
-        <v>2051300</v>
+        <v>1907800</v>
       </c>
       <c r="I49" s="3">
-        <v>1709700</v>
+        <v>1590200</v>
       </c>
       <c r="J49" s="3">
-        <v>2891700</v>
+        <v>2689500</v>
       </c>
       <c r="K49" s="3">
         <v>1296000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>553400</v>
+        <v>514700</v>
       </c>
       <c r="E52" s="3">
-        <v>483500</v>
+        <v>449700</v>
       </c>
       <c r="F52" s="3">
-        <v>481000</v>
+        <v>447400</v>
       </c>
       <c r="G52" s="3">
-        <v>443100</v>
+        <v>412100</v>
       </c>
       <c r="H52" s="3">
-        <v>326500</v>
+        <v>303700</v>
       </c>
       <c r="I52" s="3">
-        <v>204600</v>
+        <v>190300</v>
       </c>
       <c r="J52" s="3">
-        <v>178400</v>
+        <v>165900</v>
       </c>
       <c r="K52" s="3">
         <v>46900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17956600</v>
+        <v>16700900</v>
       </c>
       <c r="E54" s="3">
-        <v>17325900</v>
+        <v>16114300</v>
       </c>
       <c r="F54" s="3">
-        <v>15210000</v>
+        <v>14146300</v>
       </c>
       <c r="G54" s="3">
-        <v>14650600</v>
+        <v>13626000</v>
       </c>
       <c r="H54" s="3">
-        <v>14305000</v>
+        <v>13304700</v>
       </c>
       <c r="I54" s="3">
-        <v>12586100</v>
+        <v>11706000</v>
       </c>
       <c r="J54" s="3">
-        <v>12341200</v>
+        <v>11478200</v>
       </c>
       <c r="K54" s="3">
         <v>11497000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4582700</v>
+        <v>4262200</v>
       </c>
       <c r="E57" s="3">
-        <v>4322700</v>
+        <v>4020400</v>
       </c>
       <c r="F57" s="3">
-        <v>4233900</v>
+        <v>3937800</v>
       </c>
       <c r="G57" s="3">
-        <v>3974500</v>
+        <v>3696600</v>
       </c>
       <c r="H57" s="3">
-        <v>3270900</v>
+        <v>3042200</v>
       </c>
       <c r="I57" s="3">
-        <v>2798300</v>
+        <v>2602700</v>
       </c>
       <c r="J57" s="3">
-        <v>2615500</v>
+        <v>2432600</v>
       </c>
       <c r="K57" s="3">
         <v>2377100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>159600</v>
+        <v>148500</v>
       </c>
       <c r="E58" s="3">
-        <v>151100</v>
+        <v>140500</v>
       </c>
       <c r="F58" s="3">
-        <v>15300</v>
+        <v>14200</v>
       </c>
       <c r="G58" s="3">
-        <v>18900</v>
+        <v>17600</v>
       </c>
       <c r="H58" s="3">
-        <v>26400</v>
+        <v>24600</v>
       </c>
       <c r="I58" s="3">
-        <v>27600</v>
+        <v>25700</v>
       </c>
       <c r="J58" s="3">
-        <v>27700</v>
+        <v>25800</v>
       </c>
       <c r="K58" s="3">
         <v>36100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1364400</v>
+        <v>1269000</v>
       </c>
       <c r="E59" s="3">
-        <v>1158100</v>
+        <v>1077100</v>
       </c>
       <c r="F59" s="3">
-        <v>1415700</v>
+        <v>1316700</v>
       </c>
       <c r="G59" s="3">
-        <v>1357000</v>
+        <v>1262100</v>
       </c>
       <c r="H59" s="3">
-        <v>2595800</v>
+        <v>2414300</v>
       </c>
       <c r="I59" s="3">
-        <v>1010100</v>
+        <v>939500</v>
       </c>
       <c r="J59" s="3">
-        <v>2307900</v>
+        <v>2146500</v>
       </c>
       <c r="K59" s="3">
         <v>1651600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6106700</v>
+        <v>5679700</v>
       </c>
       <c r="E60" s="3">
-        <v>5631800</v>
+        <v>5238000</v>
       </c>
       <c r="F60" s="3">
-        <v>5664900</v>
+        <v>5268700</v>
       </c>
       <c r="G60" s="3">
-        <v>5350400</v>
+        <v>4976200</v>
       </c>
       <c r="H60" s="3">
-        <v>4680100</v>
+        <v>4352800</v>
       </c>
       <c r="I60" s="3">
-        <v>3836100</v>
+        <v>3567800</v>
       </c>
       <c r="J60" s="3">
-        <v>3747700</v>
+        <v>3485600</v>
       </c>
       <c r="K60" s="3">
         <v>3281500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2804600</v>
+        <v>2608500</v>
       </c>
       <c r="E61" s="3">
-        <v>2687800</v>
+        <v>2499900</v>
       </c>
       <c r="F61" s="3">
-        <v>703000</v>
+        <v>653800</v>
       </c>
       <c r="G61" s="3">
-        <v>681100</v>
+        <v>633500</v>
       </c>
       <c r="H61" s="3">
-        <v>648900</v>
+        <v>603500</v>
       </c>
       <c r="I61" s="3">
-        <v>650200</v>
+        <v>604800</v>
       </c>
       <c r="J61" s="3">
-        <v>654000</v>
+        <v>608300</v>
       </c>
       <c r="K61" s="3">
         <v>687400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>653600</v>
+        <v>607900</v>
       </c>
       <c r="E62" s="3">
-        <v>662900</v>
+        <v>616600</v>
       </c>
       <c r="F62" s="3">
-        <v>659100</v>
+        <v>613000</v>
       </c>
       <c r="G62" s="3">
-        <v>703000</v>
+        <v>653900</v>
       </c>
       <c r="H62" s="3">
-        <v>688300</v>
+        <v>640100</v>
       </c>
       <c r="I62" s="3">
-        <v>566500</v>
+        <v>526800</v>
       </c>
       <c r="J62" s="3">
-        <v>514600</v>
+        <v>478600</v>
       </c>
       <c r="K62" s="3">
         <v>416600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9565000</v>
+        <v>8896100</v>
       </c>
       <c r="E66" s="3">
-        <v>8982600</v>
+        <v>8354400</v>
       </c>
       <c r="F66" s="3">
-        <v>7026900</v>
+        <v>6535500</v>
       </c>
       <c r="G66" s="3">
-        <v>6734500</v>
+        <v>6263600</v>
       </c>
       <c r="H66" s="3">
-        <v>6017200</v>
+        <v>5596400</v>
       </c>
       <c r="I66" s="3">
-        <v>5054100</v>
+        <v>4700600</v>
       </c>
       <c r="J66" s="3">
-        <v>4887200</v>
+        <v>4545400</v>
       </c>
       <c r="K66" s="3">
         <v>4360500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5195000</v>
+        <v>4831700</v>
       </c>
       <c r="E72" s="3">
-        <v>5121700</v>
+        <v>4763500</v>
       </c>
       <c r="F72" s="3">
-        <v>4937800</v>
+        <v>4592500</v>
       </c>
       <c r="G72" s="3">
-        <v>4490400</v>
+        <v>4176400</v>
       </c>
       <c r="H72" s="3">
-        <v>5119800</v>
+        <v>4761700</v>
       </c>
       <c r="I72" s="3">
-        <v>4728400</v>
+        <v>4397800</v>
       </c>
       <c r="J72" s="3">
-        <v>9878400</v>
+        <v>9187600</v>
       </c>
       <c r="K72" s="3">
         <v>6217900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8391700</v>
+        <v>7804800</v>
       </c>
       <c r="E76" s="3">
-        <v>8343300</v>
+        <v>7759900</v>
       </c>
       <c r="F76" s="3">
-        <v>8183000</v>
+        <v>7610800</v>
       </c>
       <c r="G76" s="3">
-        <v>7916100</v>
+        <v>7362500</v>
       </c>
       <c r="H76" s="3">
-        <v>8287800</v>
+        <v>7708300</v>
       </c>
       <c r="I76" s="3">
-        <v>7532100</v>
+        <v>7005300</v>
       </c>
       <c r="J76" s="3">
-        <v>7454000</v>
+        <v>6932800</v>
       </c>
       <c r="K76" s="3">
         <v>7136500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1659000</v>
+        <v>1543000</v>
       </c>
       <c r="E81" s="3">
-        <v>1880500</v>
+        <v>1749000</v>
       </c>
       <c r="F81" s="3">
-        <v>1823700</v>
+        <v>1696100</v>
       </c>
       <c r="G81" s="3">
-        <v>1978100</v>
+        <v>1839800</v>
       </c>
       <c r="H81" s="3">
-        <v>1654900</v>
+        <v>1539200</v>
       </c>
       <c r="I81" s="3">
-        <v>1308800</v>
+        <v>1217200</v>
       </c>
       <c r="J81" s="3">
-        <v>1509700</v>
+        <v>1404200</v>
       </c>
       <c r="K81" s="3">
         <v>1134300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>890200</v>
+        <v>827900</v>
       </c>
       <c r="E83" s="3">
-        <v>843700</v>
+        <v>784700</v>
       </c>
       <c r="F83" s="3">
-        <v>623100</v>
+        <v>579500</v>
       </c>
       <c r="G83" s="3">
-        <v>577800</v>
+        <v>537400</v>
       </c>
       <c r="H83" s="3">
-        <v>530600</v>
+        <v>493500</v>
       </c>
       <c r="I83" s="3">
-        <v>497400</v>
+        <v>462600</v>
       </c>
       <c r="J83" s="3">
-        <v>460400</v>
+        <v>428200</v>
       </c>
       <c r="K83" s="3">
         <v>433900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3045300</v>
+        <v>2832400</v>
       </c>
       <c r="E89" s="3">
-        <v>2846000</v>
+        <v>2647000</v>
       </c>
       <c r="F89" s="3">
-        <v>2358700</v>
+        <v>2193700</v>
       </c>
       <c r="G89" s="3">
-        <v>2438100</v>
+        <v>2267600</v>
       </c>
       <c r="H89" s="3">
-        <v>2337500</v>
+        <v>2174000</v>
       </c>
       <c r="I89" s="3">
-        <v>1930400</v>
+        <v>1795400</v>
       </c>
       <c r="J89" s="3">
-        <v>1893100</v>
+        <v>1760700</v>
       </c>
       <c r="K89" s="3">
         <v>1433100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-830000</v>
+        <v>-772000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1020900</v>
+        <v>-949500</v>
       </c>
       <c r="F91" s="3">
-        <v>-889800</v>
+        <v>-827600</v>
       </c>
       <c r="G91" s="3">
-        <v>-864700</v>
+        <v>-804200</v>
       </c>
       <c r="H91" s="3">
-        <v>-711300</v>
+        <v>-661600</v>
       </c>
       <c r="I91" s="3">
-        <v>-621600</v>
+        <v>-578100</v>
       </c>
       <c r="J91" s="3">
-        <v>-629700</v>
+        <v>-585700</v>
       </c>
       <c r="K91" s="3">
         <v>-698400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-820200</v>
+        <v>-762800</v>
       </c>
       <c r="E94" s="3">
-        <v>-976600</v>
+        <v>-908300</v>
       </c>
       <c r="F94" s="3">
-        <v>-767500</v>
+        <v>-713800</v>
       </c>
       <c r="G94" s="3">
-        <v>192900</v>
+        <v>179400</v>
       </c>
       <c r="H94" s="3">
-        <v>-684800</v>
+        <v>-636900</v>
       </c>
       <c r="I94" s="3">
-        <v>-398300</v>
+        <v>-370500</v>
       </c>
       <c r="J94" s="3">
-        <v>-204100</v>
+        <v>-189800</v>
       </c>
       <c r="K94" s="3">
         <v>-713500</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1534900</v>
+        <v>-1427600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1784200</v>
+        <v>-1659400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1269400</v>
+        <v>-1180600</v>
       </c>
       <c r="G96" s="3">
-        <v>-2121500</v>
+        <v>-1973200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1437600</v>
+        <v>-1337100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1566100</v>
+        <v>-1456600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1073900</v>
+        <v>-998800</v>
       </c>
       <c r="K96" s="3">
         <v>-801700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1970100</v>
+        <v>-1832300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2197100</v>
+        <v>-2043400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1346700</v>
+        <v>-1252500</v>
       </c>
       <c r="G100" s="3">
-        <v>-2202200</v>
+        <v>-2048200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1518000</v>
+        <v>-1411900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1737300</v>
+        <v>-1615800</v>
       </c>
       <c r="J100" s="3">
-        <v>-1351800</v>
+        <v>-1257300</v>
       </c>
       <c r="K100" s="3">
         <v>-1037400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-16200</v>
+        <v>-15100</v>
       </c>
       <c r="E101" s="3">
-        <v>-68000</v>
+        <v>-63200</v>
       </c>
       <c r="F101" s="3">
-        <v>-84100</v>
+        <v>-78200</v>
       </c>
       <c r="G101" s="3">
-        <v>-50700</v>
+        <v>-47100</v>
       </c>
       <c r="H101" s="3">
-        <v>23300</v>
+        <v>21700</v>
       </c>
       <c r="I101" s="3">
-        <v>43600</v>
+        <v>40500</v>
       </c>
       <c r="J101" s="3">
-        <v>6100</v>
+        <v>5600</v>
       </c>
       <c r="K101" s="3">
         <v>-33400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>238800</v>
+        <v>222100</v>
       </c>
       <c r="E102" s="3">
-        <v>-395600</v>
+        <v>-367900</v>
       </c>
       <c r="F102" s="3">
-        <v>160400</v>
+        <v>149200</v>
       </c>
       <c r="G102" s="3">
-        <v>378100</v>
+        <v>351700</v>
       </c>
       <c r="H102" s="3">
-        <v>158000</v>
+        <v>147000</v>
       </c>
       <c r="I102" s="3">
-        <v>-161600</v>
+        <v>-150300</v>
       </c>
       <c r="J102" s="3">
-        <v>343300</v>
+        <v>319300</v>
       </c>
       <c r="K102" s="3">
         <v>-351200</v>

--- a/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>32385000</v>
+        <v>33578000</v>
       </c>
       <c r="E8" s="3">
-        <v>29852000</v>
+        <v>30951600</v>
       </c>
       <c r="F8" s="3">
-        <v>28470400</v>
+        <v>29519200</v>
       </c>
       <c r="G8" s="3">
-        <v>26461100</v>
+        <v>27435800</v>
       </c>
       <c r="H8" s="3">
-        <v>24569500</v>
+        <v>25474600</v>
       </c>
       <c r="I8" s="3">
-        <v>21963300</v>
+        <v>22772300</v>
       </c>
       <c r="J8" s="3">
-        <v>20351600</v>
+        <v>21101300</v>
       </c>
       <c r="K8" s="3">
         <v>21161500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>24906900</v>
+        <v>25824400</v>
       </c>
       <c r="E9" s="3">
-        <v>23019400</v>
+        <v>23867400</v>
       </c>
       <c r="F9" s="3">
-        <v>21936200</v>
+        <v>22744200</v>
       </c>
       <c r="G9" s="3">
-        <v>20412100</v>
+        <v>21164000</v>
       </c>
       <c r="H9" s="3">
-        <v>19147600</v>
+        <v>19853000</v>
       </c>
       <c r="I9" s="3">
-        <v>17228200</v>
+        <v>17862800</v>
       </c>
       <c r="J9" s="3">
-        <v>15846500</v>
+        <v>16430200</v>
       </c>
       <c r="K9" s="3">
         <v>16520600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7478100</v>
+        <v>7753600</v>
       </c>
       <c r="E10" s="3">
-        <v>6832500</v>
+        <v>7084200</v>
       </c>
       <c r="F10" s="3">
-        <v>6534200</v>
+        <v>6774900</v>
       </c>
       <c r="G10" s="3">
-        <v>6049000</v>
+        <v>6271800</v>
       </c>
       <c r="H10" s="3">
-        <v>5421900</v>
+        <v>5621600</v>
       </c>
       <c r="I10" s="3">
-        <v>4735100</v>
+        <v>4909500</v>
       </c>
       <c r="J10" s="3">
-        <v>4505100</v>
+        <v>4671100</v>
       </c>
       <c r="K10" s="3">
         <v>4640900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>29733800</v>
+        <v>30829100</v>
       </c>
       <c r="E17" s="3">
-        <v>27359700</v>
+        <v>28367600</v>
       </c>
       <c r="F17" s="3">
-        <v>26200300</v>
+        <v>27165400</v>
       </c>
       <c r="G17" s="3">
-        <v>24438000</v>
+        <v>25338200</v>
       </c>
       <c r="H17" s="3">
-        <v>22748700</v>
+        <v>23586700</v>
       </c>
       <c r="I17" s="3">
-        <v>20448300</v>
+        <v>21201500</v>
       </c>
       <c r="J17" s="3">
-        <v>18749400</v>
+        <v>19440100</v>
       </c>
       <c r="K17" s="3">
         <v>19581900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2651200</v>
+        <v>2748900</v>
       </c>
       <c r="E18" s="3">
-        <v>2492200</v>
+        <v>2584000</v>
       </c>
       <c r="F18" s="3">
-        <v>2270100</v>
+        <v>2353700</v>
       </c>
       <c r="G18" s="3">
-        <v>2023100</v>
+        <v>2097600</v>
       </c>
       <c r="H18" s="3">
-        <v>1820900</v>
+        <v>1887900</v>
       </c>
       <c r="I18" s="3">
-        <v>1515000</v>
+        <v>1570800</v>
       </c>
       <c r="J18" s="3">
-        <v>1602200</v>
+        <v>1661200</v>
       </c>
       <c r="K18" s="3">
         <v>1579600</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-72600</v>
+        <v>-75300</v>
       </c>
       <c r="E20" s="3">
-        <v>43900</v>
+        <v>45600</v>
       </c>
       <c r="F20" s="3">
-        <v>56400</v>
+        <v>58500</v>
       </c>
       <c r="G20" s="3">
-        <v>41000</v>
+        <v>42500</v>
       </c>
       <c r="H20" s="3">
-        <v>43700</v>
+        <v>45400</v>
       </c>
       <c r="I20" s="3">
-        <v>56100</v>
+        <v>58100</v>
       </c>
       <c r="J20" s="3">
-        <v>48800</v>
+        <v>50600</v>
       </c>
       <c r="K20" s="3">
         <v>54800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3397300</v>
+        <v>3532300</v>
       </c>
       <c r="E21" s="3">
-        <v>3312200</v>
+        <v>3443500</v>
       </c>
       <c r="F21" s="3">
-        <v>2899700</v>
+        <v>3013400</v>
       </c>
       <c r="G21" s="3">
-        <v>2595600</v>
+        <v>2697600</v>
       </c>
       <c r="H21" s="3">
-        <v>2352700</v>
+        <v>2445200</v>
       </c>
       <c r="I21" s="3">
-        <v>2028600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2074500</v>
+        <v>2108800</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>2068300</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>295800</v>
+        <v>306700</v>
       </c>
       <c r="E22" s="3">
-        <v>265500</v>
+        <v>275300</v>
       </c>
       <c r="F22" s="3">
-        <v>71700</v>
+        <v>74300</v>
       </c>
       <c r="G22" s="3">
-        <v>66300</v>
+        <v>68700</v>
       </c>
       <c r="H22" s="3">
-        <v>58600</v>
+        <v>60800</v>
       </c>
       <c r="I22" s="3">
-        <v>52000</v>
+        <v>53900</v>
       </c>
       <c r="J22" s="3">
-        <v>55900</v>
+        <v>58000</v>
       </c>
       <c r="K22" s="3">
         <v>55600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2282800</v>
+        <v>2366900</v>
       </c>
       <c r="E23" s="3">
-        <v>2270700</v>
+        <v>2354300</v>
       </c>
       <c r="F23" s="3">
-        <v>2254900</v>
+        <v>2337900</v>
       </c>
       <c r="G23" s="3">
-        <v>1997800</v>
+        <v>2071400</v>
       </c>
       <c r="H23" s="3">
-        <v>1806000</v>
+        <v>1872500</v>
       </c>
       <c r="I23" s="3">
-        <v>1519100</v>
+        <v>1575100</v>
       </c>
       <c r="J23" s="3">
-        <v>1595000</v>
+        <v>1653800</v>
       </c>
       <c r="K23" s="3">
         <v>1578800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>739700</v>
+        <v>767000</v>
       </c>
       <c r="E24" s="3">
-        <v>521700</v>
+        <v>540900</v>
       </c>
       <c r="F24" s="3">
-        <v>558700</v>
+        <v>579300</v>
       </c>
       <c r="G24" s="3">
-        <v>503000</v>
+        <v>521500</v>
       </c>
       <c r="H24" s="3">
-        <v>490300</v>
+        <v>508300</v>
       </c>
       <c r="I24" s="3">
-        <v>437200</v>
+        <v>453300</v>
       </c>
       <c r="J24" s="3">
-        <v>439400</v>
+        <v>455600</v>
       </c>
       <c r="K24" s="3">
         <v>480900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1543000</v>
+        <v>1599900</v>
       </c>
       <c r="E26" s="3">
-        <v>1749000</v>
+        <v>1813400</v>
       </c>
       <c r="F26" s="3">
-        <v>1696100</v>
+        <v>1758600</v>
       </c>
       <c r="G26" s="3">
-        <v>1494800</v>
+        <v>1549900</v>
       </c>
       <c r="H26" s="3">
-        <v>1315700</v>
+        <v>1364200</v>
       </c>
       <c r="I26" s="3">
-        <v>1081900</v>
+        <v>1121800</v>
       </c>
       <c r="J26" s="3">
-        <v>1155600</v>
+        <v>1198200</v>
       </c>
       <c r="K26" s="3">
         <v>1097900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1543000</v>
+        <v>1599900</v>
       </c>
       <c r="E27" s="3">
-        <v>1749000</v>
+        <v>1813400</v>
       </c>
       <c r="F27" s="3">
-        <v>1696100</v>
+        <v>1758600</v>
       </c>
       <c r="G27" s="3">
-        <v>1494800</v>
+        <v>1549900</v>
       </c>
       <c r="H27" s="3">
-        <v>1315700</v>
+        <v>1364200</v>
       </c>
       <c r="I27" s="3">
-        <v>1081800</v>
+        <v>1121600</v>
       </c>
       <c r="J27" s="3">
-        <v>1155200</v>
+        <v>1197800</v>
       </c>
       <c r="K27" s="3">
         <v>1098100</v>
@@ -1422,16 +1422,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>345000</v>
+        <v>357700</v>
       </c>
       <c r="H29" s="3">
-        <v>223500</v>
+        <v>231700</v>
       </c>
       <c r="I29" s="3">
-        <v>135400</v>
+        <v>140400</v>
       </c>
       <c r="J29" s="3">
-        <v>248900</v>
+        <v>258100</v>
       </c>
       <c r="K29" s="3">
         <v>36200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>72600</v>
+        <v>75300</v>
       </c>
       <c r="E32" s="3">
-        <v>-43900</v>
+        <v>-45600</v>
       </c>
       <c r="F32" s="3">
-        <v>-56400</v>
+        <v>-58500</v>
       </c>
       <c r="G32" s="3">
-        <v>-41000</v>
+        <v>-42500</v>
       </c>
       <c r="H32" s="3">
-        <v>-43700</v>
+        <v>-45400</v>
       </c>
       <c r="I32" s="3">
-        <v>-56100</v>
+        <v>-58100</v>
       </c>
       <c r="J32" s="3">
-        <v>-48800</v>
+        <v>-50600</v>
       </c>
       <c r="K32" s="3">
         <v>-54800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1543000</v>
+        <v>1599900</v>
       </c>
       <c r="E33" s="3">
-        <v>1749000</v>
+        <v>1813400</v>
       </c>
       <c r="F33" s="3">
-        <v>1696100</v>
+        <v>1758600</v>
       </c>
       <c r="G33" s="3">
-        <v>1839800</v>
+        <v>1907500</v>
       </c>
       <c r="H33" s="3">
-        <v>1539200</v>
+        <v>1595900</v>
       </c>
       <c r="I33" s="3">
-        <v>1217200</v>
+        <v>1262100</v>
       </c>
       <c r="J33" s="3">
-        <v>1404200</v>
+        <v>1455900</v>
       </c>
       <c r="K33" s="3">
         <v>1134300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1543000</v>
+        <v>1599900</v>
       </c>
       <c r="E35" s="3">
-        <v>1749000</v>
+        <v>1813400</v>
       </c>
       <c r="F35" s="3">
-        <v>1696100</v>
+        <v>1758600</v>
       </c>
       <c r="G35" s="3">
-        <v>1839800</v>
+        <v>1907500</v>
       </c>
       <c r="H35" s="3">
-        <v>1539200</v>
+        <v>1595900</v>
       </c>
       <c r="I35" s="3">
-        <v>1217200</v>
+        <v>1262100</v>
       </c>
       <c r="J35" s="3">
-        <v>1404200</v>
+        <v>1455900</v>
       </c>
       <c r="K35" s="3">
         <v>1134300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1646200</v>
+        <v>2048800</v>
       </c>
       <c r="E41" s="3">
-        <v>1424100</v>
+        <v>1706800</v>
       </c>
       <c r="F41" s="3">
-        <v>1792000</v>
+        <v>1476500</v>
       </c>
       <c r="G41" s="3">
-        <v>1642800</v>
+        <v>1858000</v>
       </c>
       <c r="H41" s="3">
-        <v>1291100</v>
+        <v>1703300</v>
       </c>
       <c r="I41" s="3">
-        <v>1144100</v>
+        <v>1338600</v>
       </c>
       <c r="J41" s="3">
-        <v>2588800</v>
+        <v>1186200</v>
       </c>
       <c r="K41" s="3">
         <v>2110000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>784300</v>
+        <v>805200</v>
       </c>
       <c r="E43" s="3">
-        <v>633000</v>
+        <v>813200</v>
       </c>
       <c r="F43" s="3">
-        <v>555400</v>
+        <v>656400</v>
       </c>
       <c r="G43" s="3">
-        <v>500000</v>
+        <v>575900</v>
       </c>
       <c r="H43" s="3">
-        <v>453100</v>
+        <v>518400</v>
       </c>
       <c r="I43" s="3">
-        <v>450400</v>
+        <v>469800</v>
       </c>
       <c r="J43" s="3">
-        <v>509000</v>
+        <v>467000</v>
       </c>
       <c r="K43" s="3">
         <v>634200</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3154800</v>
+        <v>3843200</v>
       </c>
       <c r="E44" s="3">
-        <v>3117600</v>
+        <v>3271000</v>
       </c>
       <c r="F44" s="3">
-        <v>2923300</v>
+        <v>3232400</v>
       </c>
       <c r="G44" s="3">
-        <v>2744200</v>
+        <v>3031000</v>
       </c>
       <c r="H44" s="3">
-        <v>2476700</v>
+        <v>2845300</v>
       </c>
       <c r="I44" s="3">
-        <v>2295900</v>
+        <v>2567900</v>
       </c>
       <c r="J44" s="3">
-        <v>4354300</v>
+        <v>2380500</v>
       </c>
       <c r="K44" s="3">
         <v>4373400</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32300</v>
+        <v>41000</v>
       </c>
       <c r="E45" s="3">
-        <v>82100</v>
+        <v>33500</v>
       </c>
       <c r="F45" s="3">
-        <v>64900</v>
+        <v>85100</v>
       </c>
       <c r="G45" s="3">
-        <v>45300</v>
+        <v>67300</v>
       </c>
       <c r="H45" s="3">
-        <v>579800</v>
+        <v>47000</v>
       </c>
       <c r="I45" s="3">
-        <v>25400</v>
+        <v>601200</v>
       </c>
       <c r="J45" s="3">
-        <v>414200</v>
+        <v>26300</v>
       </c>
       <c r="K45" s="3">
         <v>257900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5617600</v>
+        <v>6738100</v>
       </c>
       <c r="E46" s="3">
-        <v>5256700</v>
+        <v>5824500</v>
       </c>
       <c r="F46" s="3">
-        <v>5335600</v>
+        <v>5450400</v>
       </c>
       <c r="G46" s="3">
-        <v>4932300</v>
+        <v>5532200</v>
       </c>
       <c r="H46" s="3">
-        <v>4800600</v>
+        <v>5114000</v>
       </c>
       <c r="I46" s="3">
-        <v>3915800</v>
+        <v>4977500</v>
       </c>
       <c r="J46" s="3">
-        <v>4174400</v>
+        <v>4060000</v>
       </c>
       <c r="K46" s="3">
         <v>4126700</v>
@@ -1953,8 +1953,8 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>106300</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
@@ -1971,8 +1971,8 @@
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3">
-        <v>3400</v>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>10400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8835600</v>
+        <v>9580400</v>
       </c>
       <c r="E48" s="3">
-        <v>8696500</v>
+        <v>9161100</v>
       </c>
       <c r="F48" s="3">
-        <v>6655800</v>
+        <v>9016800</v>
       </c>
       <c r="G48" s="3">
-        <v>6464800</v>
+        <v>6901000</v>
       </c>
       <c r="H48" s="3">
-        <v>6292500</v>
+        <v>6702900</v>
       </c>
       <c r="I48" s="3">
-        <v>6009800</v>
+        <v>6524300</v>
       </c>
       <c r="J48" s="3">
-        <v>5396600</v>
+        <v>6231100</v>
       </c>
       <c r="K48" s="3">
         <v>5468400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1733000</v>
+        <v>1854600</v>
       </c>
       <c r="E49" s="3">
-        <v>1711400</v>
+        <v>1796900</v>
       </c>
       <c r="F49" s="3">
-        <v>1707400</v>
+        <v>1774400</v>
       </c>
       <c r="G49" s="3">
-        <v>1816800</v>
+        <v>1770300</v>
       </c>
       <c r="H49" s="3">
-        <v>1907800</v>
+        <v>1883800</v>
       </c>
       <c r="I49" s="3">
-        <v>1590200</v>
+        <v>1978100</v>
       </c>
       <c r="J49" s="3">
-        <v>2689500</v>
+        <v>1648700</v>
       </c>
       <c r="K49" s="3">
         <v>1296000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>514700</v>
+        <v>592100</v>
       </c>
       <c r="E52" s="3">
-        <v>449700</v>
+        <v>533600</v>
       </c>
       <c r="F52" s="3">
-        <v>447400</v>
+        <v>466300</v>
       </c>
       <c r="G52" s="3">
-        <v>412100</v>
+        <v>463900</v>
       </c>
       <c r="H52" s="3">
-        <v>303700</v>
+        <v>427300</v>
       </c>
       <c r="I52" s="3">
-        <v>190300</v>
+        <v>314800</v>
       </c>
       <c r="J52" s="3">
-        <v>165900</v>
+        <v>197300</v>
       </c>
       <c r="K52" s="3">
         <v>46900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16700900</v>
+        <v>18871500</v>
       </c>
       <c r="E54" s="3">
-        <v>16114300</v>
+        <v>17316100</v>
       </c>
       <c r="F54" s="3">
-        <v>14146300</v>
+        <v>16707900</v>
       </c>
       <c r="G54" s="3">
-        <v>13626000</v>
+        <v>14667400</v>
       </c>
       <c r="H54" s="3">
-        <v>13304700</v>
+        <v>14128000</v>
       </c>
       <c r="I54" s="3">
-        <v>11706000</v>
+        <v>13794800</v>
       </c>
       <c r="J54" s="3">
-        <v>11478200</v>
+        <v>12137200</v>
       </c>
       <c r="K54" s="3">
         <v>11497000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4262200</v>
+        <v>5930100</v>
       </c>
       <c r="E57" s="3">
-        <v>4020400</v>
+        <v>4419200</v>
       </c>
       <c r="F57" s="3">
-        <v>3937800</v>
+        <v>4168500</v>
       </c>
       <c r="G57" s="3">
-        <v>3696600</v>
+        <v>4082900</v>
       </c>
       <c r="H57" s="3">
-        <v>3042200</v>
+        <v>3832700</v>
       </c>
       <c r="I57" s="3">
-        <v>2602700</v>
+        <v>3154200</v>
       </c>
       <c r="J57" s="3">
-        <v>2432600</v>
+        <v>2698500</v>
       </c>
       <c r="K57" s="3">
         <v>2377100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>148500</v>
+        <v>164500</v>
       </c>
       <c r="E58" s="3">
-        <v>140500</v>
+        <v>153900</v>
       </c>
       <c r="F58" s="3">
-        <v>14200</v>
+        <v>145700</v>
       </c>
       <c r="G58" s="3">
-        <v>17600</v>
+        <v>14800</v>
       </c>
       <c r="H58" s="3">
-        <v>24600</v>
+        <v>18200</v>
       </c>
       <c r="I58" s="3">
-        <v>25700</v>
+        <v>25500</v>
       </c>
       <c r="J58" s="3">
-        <v>25800</v>
+        <v>26600</v>
       </c>
       <c r="K58" s="3">
         <v>36100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1269000</v>
+        <v>255400</v>
       </c>
       <c r="E59" s="3">
-        <v>1077100</v>
+        <v>1315700</v>
       </c>
       <c r="F59" s="3">
-        <v>1316700</v>
+        <v>1116800</v>
       </c>
       <c r="G59" s="3">
-        <v>1262100</v>
+        <v>1365200</v>
       </c>
       <c r="H59" s="3">
-        <v>2414300</v>
+        <v>1308600</v>
       </c>
       <c r="I59" s="3">
-        <v>939500</v>
+        <v>2503200</v>
       </c>
       <c r="J59" s="3">
-        <v>2146500</v>
+        <v>974100</v>
       </c>
       <c r="K59" s="3">
         <v>1651600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5679700</v>
+        <v>6350100</v>
       </c>
       <c r="E60" s="3">
-        <v>5238000</v>
+        <v>5888900</v>
       </c>
       <c r="F60" s="3">
-        <v>5268700</v>
+        <v>5430900</v>
       </c>
       <c r="G60" s="3">
-        <v>4976200</v>
+        <v>5462800</v>
       </c>
       <c r="H60" s="3">
-        <v>4352800</v>
+        <v>5159500</v>
       </c>
       <c r="I60" s="3">
-        <v>3567800</v>
+        <v>4513100</v>
       </c>
       <c r="J60" s="3">
-        <v>3485600</v>
+        <v>3699300</v>
       </c>
       <c r="K60" s="3">
         <v>3281500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2608500</v>
+        <v>2931000</v>
       </c>
       <c r="E61" s="3">
-        <v>2499900</v>
+        <v>2704500</v>
       </c>
       <c r="F61" s="3">
-        <v>653800</v>
+        <v>2592000</v>
       </c>
       <c r="G61" s="3">
-        <v>633500</v>
+        <v>677900</v>
       </c>
       <c r="H61" s="3">
-        <v>603500</v>
+        <v>656800</v>
       </c>
       <c r="I61" s="3">
-        <v>604800</v>
+        <v>625700</v>
       </c>
       <c r="J61" s="3">
-        <v>608300</v>
+        <v>627000</v>
       </c>
       <c r="K61" s="3">
         <v>687400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>607900</v>
+        <v>696000</v>
       </c>
       <c r="E62" s="3">
-        <v>616600</v>
+        <v>630300</v>
       </c>
       <c r="F62" s="3">
-        <v>613000</v>
+        <v>639300</v>
       </c>
       <c r="G62" s="3">
-        <v>653900</v>
+        <v>635500</v>
       </c>
       <c r="H62" s="3">
-        <v>640100</v>
+        <v>677900</v>
       </c>
       <c r="I62" s="3">
-        <v>526800</v>
+        <v>663700</v>
       </c>
       <c r="J62" s="3">
-        <v>478600</v>
+        <v>546300</v>
       </c>
       <c r="K62" s="3">
         <v>416600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8896100</v>
+        <v>9977100</v>
       </c>
       <c r="E66" s="3">
-        <v>8354400</v>
+        <v>9223800</v>
       </c>
       <c r="F66" s="3">
-        <v>6535500</v>
+        <v>8662200</v>
       </c>
       <c r="G66" s="3">
-        <v>6263600</v>
+        <v>6776300</v>
       </c>
       <c r="H66" s="3">
-        <v>5596400</v>
+        <v>6494300</v>
       </c>
       <c r="I66" s="3">
-        <v>4700600</v>
+        <v>5802600</v>
       </c>
       <c r="J66" s="3">
-        <v>4545400</v>
+        <v>4873800</v>
       </c>
       <c r="K66" s="3">
         <v>4360500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4831700</v>
+        <v>6091800</v>
       </c>
       <c r="E72" s="3">
-        <v>4763500</v>
+        <v>5009700</v>
       </c>
       <c r="F72" s="3">
-        <v>4592500</v>
+        <v>4939000</v>
       </c>
       <c r="G72" s="3">
-        <v>4176400</v>
+        <v>4761700</v>
       </c>
       <c r="H72" s="3">
-        <v>4761700</v>
+        <v>4330200</v>
       </c>
       <c r="I72" s="3">
-        <v>4397800</v>
+        <v>4937100</v>
       </c>
       <c r="J72" s="3">
-        <v>9187600</v>
+        <v>4559800</v>
       </c>
       <c r="K72" s="3">
         <v>6217900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7804800</v>
+        <v>8894500</v>
       </c>
       <c r="E76" s="3">
-        <v>7759900</v>
+        <v>8092300</v>
       </c>
       <c r="F76" s="3">
-        <v>7610800</v>
+        <v>8045700</v>
       </c>
       <c r="G76" s="3">
-        <v>7362500</v>
+        <v>7891100</v>
       </c>
       <c r="H76" s="3">
-        <v>7708300</v>
+        <v>7633700</v>
       </c>
       <c r="I76" s="3">
-        <v>7005300</v>
+        <v>7992200</v>
       </c>
       <c r="J76" s="3">
-        <v>6932800</v>
+        <v>7263400</v>
       </c>
       <c r="K76" s="3">
         <v>7136500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1543000</v>
+        <v>1599900</v>
       </c>
       <c r="E81" s="3">
-        <v>1749000</v>
+        <v>1813400</v>
       </c>
       <c r="F81" s="3">
-        <v>1696100</v>
+        <v>1758600</v>
       </c>
       <c r="G81" s="3">
-        <v>1839800</v>
+        <v>1907500</v>
       </c>
       <c r="H81" s="3">
-        <v>1539200</v>
+        <v>1595900</v>
       </c>
       <c r="I81" s="3">
-        <v>1217200</v>
+        <v>1262100</v>
       </c>
       <c r="J81" s="3">
-        <v>1404200</v>
+        <v>1455900</v>
       </c>
       <c r="K81" s="3">
         <v>1134300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>827900</v>
+        <v>858400</v>
       </c>
       <c r="E83" s="3">
-        <v>784700</v>
+        <v>813600</v>
       </c>
       <c r="F83" s="3">
-        <v>579500</v>
+        <v>600900</v>
       </c>
       <c r="G83" s="3">
-        <v>537400</v>
+        <v>557200</v>
       </c>
       <c r="H83" s="3">
-        <v>493500</v>
+        <v>511700</v>
       </c>
       <c r="I83" s="3">
-        <v>462600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>428200</v>
+        <v>479700</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>433900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2832400</v>
+        <v>2936700</v>
       </c>
       <c r="E89" s="3">
-        <v>2647000</v>
+        <v>2744500</v>
       </c>
       <c r="F89" s="3">
-        <v>2193700</v>
+        <v>2274500</v>
       </c>
       <c r="G89" s="3">
-        <v>2267600</v>
+        <v>2351100</v>
       </c>
       <c r="H89" s="3">
-        <v>2174000</v>
+        <v>2254100</v>
       </c>
       <c r="I89" s="3">
-        <v>1795400</v>
+        <v>1861500</v>
       </c>
       <c r="J89" s="3">
-        <v>1760700</v>
+        <v>1825600</v>
       </c>
       <c r="K89" s="3">
         <v>1433100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-772000</v>
+        <v>-800400</v>
       </c>
       <c r="E91" s="3">
-        <v>-949500</v>
+        <v>-984500</v>
       </c>
       <c r="F91" s="3">
-        <v>-827600</v>
+        <v>-858100</v>
       </c>
       <c r="G91" s="3">
-        <v>-804200</v>
+        <v>-833800</v>
       </c>
       <c r="H91" s="3">
-        <v>-661600</v>
+        <v>-685900</v>
       </c>
       <c r="I91" s="3">
-        <v>-578100</v>
+        <v>-599400</v>
       </c>
       <c r="J91" s="3">
-        <v>-585700</v>
+        <v>-607300</v>
       </c>
       <c r="K91" s="3">
         <v>-698400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-762800</v>
+        <v>-790900</v>
       </c>
       <c r="E94" s="3">
-        <v>-908300</v>
+        <v>-941700</v>
       </c>
       <c r="F94" s="3">
-        <v>-713800</v>
+        <v>-740100</v>
       </c>
       <c r="G94" s="3">
-        <v>179400</v>
+        <v>186000</v>
       </c>
       <c r="H94" s="3">
-        <v>-636900</v>
+        <v>-660400</v>
       </c>
       <c r="I94" s="3">
-        <v>-370500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-189800</v>
+        <v>-384100</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-713500</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1427600</v>
+        <v>-1480200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1659400</v>
+        <v>-1720600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1180600</v>
+        <v>-1224100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1973200</v>
+        <v>-2045900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1337100</v>
+        <v>-1386300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1456600</v>
+        <v>-1510200</v>
       </c>
       <c r="J96" s="3">
-        <v>-998800</v>
+        <v>-1035600</v>
       </c>
       <c r="K96" s="3">
         <v>-801700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1832300</v>
+        <v>-1899800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2043400</v>
+        <v>-2118700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1252500</v>
+        <v>-1298600</v>
       </c>
       <c r="G100" s="3">
-        <v>-2048200</v>
+        <v>-2123600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1411900</v>
+        <v>-1463900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1615800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-1257300</v>
+        <v>-1675300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-1037400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-15100</v>
+        <v>-15700</v>
       </c>
       <c r="E101" s="3">
-        <v>-63200</v>
+        <v>-65500</v>
       </c>
       <c r="F101" s="3">
-        <v>-78200</v>
+        <v>-81100</v>
       </c>
       <c r="G101" s="3">
-        <v>-47100</v>
+        <v>-48800</v>
       </c>
       <c r="H101" s="3">
-        <v>21700</v>
+        <v>22500</v>
       </c>
       <c r="I101" s="3">
-        <v>40500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>5600</v>
+        <v>42000</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-33400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>222100</v>
+        <v>230300</v>
       </c>
       <c r="E102" s="3">
-        <v>-367900</v>
+        <v>-381500</v>
       </c>
       <c r="F102" s="3">
-        <v>149200</v>
+        <v>154700</v>
       </c>
       <c r="G102" s="3">
-        <v>351700</v>
+        <v>364600</v>
       </c>
       <c r="H102" s="3">
-        <v>147000</v>
+        <v>152400</v>
       </c>
       <c r="I102" s="3">
-        <v>-150300</v>
+        <v>-155800</v>
       </c>
       <c r="J102" s="3">
-        <v>319300</v>
+        <v>331000</v>
       </c>
       <c r="K102" s="3">
         <v>-351200</v>

--- a/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>33578000</v>
+        <v>36360600</v>
       </c>
       <c r="E8" s="3">
-        <v>30951600</v>
+        <v>34665700</v>
       </c>
       <c r="F8" s="3">
-        <v>29519200</v>
+        <v>31954200</v>
       </c>
       <c r="G8" s="3">
-        <v>27435800</v>
+        <v>30475400</v>
       </c>
       <c r="H8" s="3">
-        <v>25474600</v>
+        <v>28324500</v>
       </c>
       <c r="I8" s="3">
-        <v>22772300</v>
+        <v>26299800</v>
       </c>
       <c r="J8" s="3">
+        <v>23510000</v>
+      </c>
+      <c r="K8" s="3">
         <v>21101300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21161500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22090500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19594100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>25824400</v>
+        <v>27871700</v>
       </c>
       <c r="E9" s="3">
-        <v>23867400</v>
+        <v>26660900</v>
       </c>
       <c r="F9" s="3">
-        <v>22744200</v>
+        <v>24640500</v>
       </c>
       <c r="G9" s="3">
-        <v>21164000</v>
+        <v>23481000</v>
       </c>
       <c r="H9" s="3">
-        <v>19853000</v>
+        <v>21849600</v>
       </c>
       <c r="I9" s="3">
-        <v>17862800</v>
+        <v>20496100</v>
       </c>
       <c r="J9" s="3">
+        <v>18441400</v>
+      </c>
+      <c r="K9" s="3">
         <v>16430200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16520600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17253400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15192200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7753600</v>
+        <v>8488900</v>
       </c>
       <c r="E10" s="3">
-        <v>7084200</v>
+        <v>8004800</v>
       </c>
       <c r="F10" s="3">
-        <v>6774900</v>
+        <v>7313700</v>
       </c>
       <c r="G10" s="3">
-        <v>6271800</v>
+        <v>6994400</v>
       </c>
       <c r="H10" s="3">
-        <v>5621600</v>
+        <v>6475000</v>
       </c>
       <c r="I10" s="3">
-        <v>4909500</v>
+        <v>5803700</v>
       </c>
       <c r="J10" s="3">
+        <v>5068600</v>
+      </c>
+      <c r="K10" s="3">
         <v>4671100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4640900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4837100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4401900</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,9 +964,12 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30829100</v>
+        <v>33252900</v>
       </c>
       <c r="E17" s="3">
-        <v>28367600</v>
+        <v>31827800</v>
       </c>
       <c r="F17" s="3">
-        <v>27165400</v>
+        <v>29286500</v>
       </c>
       <c r="G17" s="3">
-        <v>25338200</v>
+        <v>28045400</v>
       </c>
       <c r="H17" s="3">
-        <v>23586700</v>
+        <v>26159000</v>
       </c>
       <c r="I17" s="3">
-        <v>21201500</v>
+        <v>24350700</v>
       </c>
       <c r="J17" s="3">
+        <v>21888300</v>
+      </c>
+      <c r="K17" s="3">
         <v>19440100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19581900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20406000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18066600</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2748900</v>
+        <v>3107600</v>
       </c>
       <c r="E18" s="3">
-        <v>2584000</v>
+        <v>2837900</v>
       </c>
       <c r="F18" s="3">
-        <v>2353700</v>
+        <v>2667700</v>
       </c>
       <c r="G18" s="3">
-        <v>2097600</v>
+        <v>2430000</v>
       </c>
       <c r="H18" s="3">
-        <v>1887900</v>
+        <v>2165600</v>
       </c>
       <c r="I18" s="3">
-        <v>1570800</v>
+        <v>1949100</v>
       </c>
       <c r="J18" s="3">
+        <v>1621700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1661200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1579600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1684500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1527500</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-75300</v>
+        <v>42800</v>
       </c>
       <c r="E20" s="3">
-        <v>45600</v>
+        <v>-77700</v>
       </c>
       <c r="F20" s="3">
-        <v>58500</v>
+        <v>47000</v>
       </c>
       <c r="G20" s="3">
-        <v>42500</v>
+        <v>60400</v>
       </c>
       <c r="H20" s="3">
-        <v>45400</v>
+        <v>43900</v>
       </c>
       <c r="I20" s="3">
-        <v>58100</v>
+        <v>46800</v>
       </c>
       <c r="J20" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K20" s="3">
         <v>50600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>54800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>133100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>59300</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3532300</v>
+        <v>4052000</v>
       </c>
       <c r="E21" s="3">
-        <v>3443500</v>
+        <v>3643700</v>
       </c>
       <c r="F21" s="3">
-        <v>3013400</v>
+        <v>3552100</v>
       </c>
       <c r="G21" s="3">
-        <v>2697600</v>
+        <v>3108900</v>
       </c>
       <c r="H21" s="3">
-        <v>2445200</v>
+        <v>2783000</v>
       </c>
       <c r="I21" s="3">
-        <v>2108800</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>2522600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2175400</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2068300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2269100</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>306700</v>
+        <v>320100</v>
       </c>
       <c r="E22" s="3">
-        <v>275300</v>
+        <v>316600</v>
       </c>
       <c r="F22" s="3">
-        <v>74300</v>
+        <v>284200</v>
       </c>
       <c r="G22" s="3">
-        <v>68700</v>
+        <v>76700</v>
       </c>
       <c r="H22" s="3">
-        <v>60800</v>
+        <v>71000</v>
       </c>
       <c r="I22" s="3">
-        <v>53900</v>
+        <v>62800</v>
       </c>
       <c r="J22" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K22" s="3">
         <v>58000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>55600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>111600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>46600</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2366900</v>
+        <v>2830400</v>
       </c>
       <c r="E23" s="3">
-        <v>2354300</v>
+        <v>2443500</v>
       </c>
       <c r="F23" s="3">
-        <v>2337900</v>
+        <v>2430600</v>
       </c>
       <c r="G23" s="3">
-        <v>2071400</v>
+        <v>2413700</v>
       </c>
       <c r="H23" s="3">
-        <v>1872500</v>
+        <v>2138500</v>
       </c>
       <c r="I23" s="3">
-        <v>1575100</v>
+        <v>1933100</v>
       </c>
       <c r="J23" s="3">
+        <v>1626100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1653800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1578800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1706000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1540200</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>767000</v>
+        <v>650000</v>
       </c>
       <c r="E24" s="3">
-        <v>540900</v>
+        <v>791800</v>
       </c>
       <c r="F24" s="3">
-        <v>579300</v>
+        <v>558400</v>
       </c>
       <c r="G24" s="3">
-        <v>521500</v>
+        <v>598100</v>
       </c>
       <c r="H24" s="3">
-        <v>508300</v>
+        <v>538400</v>
       </c>
       <c r="I24" s="3">
-        <v>453300</v>
+        <v>524800</v>
       </c>
       <c r="J24" s="3">
+        <v>468000</v>
+      </c>
+      <c r="K24" s="3">
         <v>455600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>480900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>495200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>398000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1599900</v>
+        <v>2180400</v>
       </c>
       <c r="E26" s="3">
-        <v>1813400</v>
+        <v>1651700</v>
       </c>
       <c r="F26" s="3">
-        <v>1758600</v>
+        <v>1872100</v>
       </c>
       <c r="G26" s="3">
-        <v>1549900</v>
+        <v>1815600</v>
       </c>
       <c r="H26" s="3">
-        <v>1364200</v>
+        <v>1600100</v>
       </c>
       <c r="I26" s="3">
-        <v>1121800</v>
+        <v>1408400</v>
       </c>
       <c r="J26" s="3">
+        <v>1158100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1198200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1097900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1210800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1142200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1599900</v>
+        <v>2180400</v>
       </c>
       <c r="E27" s="3">
-        <v>1813400</v>
+        <v>1651700</v>
       </c>
       <c r="F27" s="3">
-        <v>1758600</v>
+        <v>1872100</v>
       </c>
       <c r="G27" s="3">
-        <v>1549900</v>
+        <v>1815600</v>
       </c>
       <c r="H27" s="3">
-        <v>1364200</v>
+        <v>1600100</v>
       </c>
       <c r="I27" s="3">
-        <v>1121600</v>
+        <v>1408400</v>
       </c>
       <c r="J27" s="3">
+        <v>1158000</v>
+      </c>
+      <c r="K27" s="3">
         <v>1197800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1098100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1211200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1142000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1418,33 +1478,36 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>357700</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>231700</v>
+        <v>369200</v>
       </c>
       <c r="I29" s="3">
-        <v>140400</v>
+        <v>239200</v>
       </c>
       <c r="J29" s="3">
+        <v>145000</v>
+      </c>
+      <c r="K29" s="3">
         <v>258100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>36200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>36600</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>75300</v>
+        <v>-42800</v>
       </c>
       <c r="E32" s="3">
-        <v>-45600</v>
+        <v>77700</v>
       </c>
       <c r="F32" s="3">
-        <v>-58500</v>
+        <v>-47000</v>
       </c>
       <c r="G32" s="3">
-        <v>-42500</v>
+        <v>-60400</v>
       </c>
       <c r="H32" s="3">
-        <v>-45400</v>
+        <v>-43900</v>
       </c>
       <c r="I32" s="3">
-        <v>-58100</v>
+        <v>-46800</v>
       </c>
       <c r="J32" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-50600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-54800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-133100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-59300</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1599900</v>
+        <v>2180400</v>
       </c>
       <c r="E33" s="3">
-        <v>1813400</v>
+        <v>1651700</v>
       </c>
       <c r="F33" s="3">
-        <v>1758600</v>
+        <v>1872100</v>
       </c>
       <c r="G33" s="3">
-        <v>1907500</v>
+        <v>1815600</v>
       </c>
       <c r="H33" s="3">
-        <v>1595900</v>
+        <v>1969300</v>
       </c>
       <c r="I33" s="3">
-        <v>1262100</v>
+        <v>1647600</v>
       </c>
       <c r="J33" s="3">
+        <v>1303000</v>
+      </c>
+      <c r="K33" s="3">
         <v>1455900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1134300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1247800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1142000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1599900</v>
+        <v>2180400</v>
       </c>
       <c r="E35" s="3">
-        <v>1813400</v>
+        <v>1651700</v>
       </c>
       <c r="F35" s="3">
-        <v>1758600</v>
+        <v>1872100</v>
       </c>
       <c r="G35" s="3">
-        <v>1907500</v>
+        <v>1815600</v>
       </c>
       <c r="H35" s="3">
-        <v>1595900</v>
+        <v>1969300</v>
       </c>
       <c r="I35" s="3">
-        <v>1262100</v>
+        <v>1647600</v>
       </c>
       <c r="J35" s="3">
+        <v>1303000</v>
+      </c>
+      <c r="K35" s="3">
         <v>1455900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1134300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1247800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1142000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2048800</v>
+        <v>2115100</v>
       </c>
       <c r="E41" s="3">
-        <v>1706800</v>
+        <v>1762100</v>
       </c>
       <c r="F41" s="3">
-        <v>1476500</v>
+        <v>1524300</v>
       </c>
       <c r="G41" s="3">
-        <v>1858000</v>
+        <v>1918200</v>
       </c>
       <c r="H41" s="3">
-        <v>1703300</v>
+        <v>1758400</v>
       </c>
       <c r="I41" s="3">
-        <v>1338600</v>
+        <v>1382000</v>
       </c>
       <c r="J41" s="3">
+        <v>1224700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1186200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2110000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1509800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2603200</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1803,261 +1892,285 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>805200</v>
+        <v>831300</v>
       </c>
       <c r="E43" s="3">
-        <v>813200</v>
+        <v>839500</v>
       </c>
       <c r="F43" s="3">
-        <v>656400</v>
+        <v>677600</v>
       </c>
       <c r="G43" s="3">
-        <v>575900</v>
+        <v>594500</v>
       </c>
       <c r="H43" s="3">
-        <v>518400</v>
+        <v>535200</v>
       </c>
       <c r="I43" s="3">
-        <v>469800</v>
+        <v>485000</v>
       </c>
       <c r="J43" s="3">
+        <v>482100</v>
+      </c>
+      <c r="K43" s="3">
         <v>467000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>634200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>556300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>593800</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3843200</v>
+        <v>3967700</v>
       </c>
       <c r="E44" s="3">
-        <v>3271000</v>
+        <v>3377000</v>
       </c>
       <c r="F44" s="3">
-        <v>3232400</v>
+        <v>3337100</v>
       </c>
       <c r="G44" s="3">
-        <v>3031000</v>
+        <v>3129200</v>
       </c>
       <c r="H44" s="3">
-        <v>2845300</v>
+        <v>2937500</v>
       </c>
       <c r="I44" s="3">
-        <v>2567900</v>
+        <v>2651100</v>
       </c>
       <c r="J44" s="3">
+        <v>2457600</v>
+      </c>
+      <c r="K44" s="3">
         <v>2380500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4373400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2095700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2141200</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>41000</v>
+        <v>42300</v>
       </c>
       <c r="E45" s="3">
-        <v>33500</v>
+        <v>34600</v>
       </c>
       <c r="F45" s="3">
-        <v>85100</v>
+        <v>87800</v>
       </c>
       <c r="G45" s="3">
-        <v>67300</v>
+        <v>69500</v>
       </c>
       <c r="H45" s="3">
-        <v>47000</v>
+        <v>48500</v>
       </c>
       <c r="I45" s="3">
-        <v>601200</v>
+        <v>620700</v>
       </c>
       <c r="J45" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K45" s="3">
         <v>26300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>257900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>54500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>48800</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6738100</v>
+        <v>6956400</v>
       </c>
       <c r="E46" s="3">
-        <v>5824500</v>
+        <v>6013200</v>
       </c>
       <c r="F46" s="3">
-        <v>5450400</v>
+        <v>5626900</v>
       </c>
       <c r="G46" s="3">
-        <v>5532200</v>
+        <v>5711400</v>
       </c>
       <c r="H46" s="3">
-        <v>5114000</v>
+        <v>5279700</v>
       </c>
       <c r="I46" s="3">
-        <v>4977500</v>
+        <v>5138700</v>
       </c>
       <c r="J46" s="3">
+        <v>4191500</v>
+      </c>
+      <c r="K46" s="3">
         <v>4060000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4126700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4216300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3948700</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>106300</v>
-      </c>
-      <c r="E47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="L47" s="3">
+        <v>10400</v>
+      </c>
+      <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
-        <v>10400</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>15300</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9580400</v>
+        <v>9890800</v>
       </c>
       <c r="E48" s="3">
-        <v>9161100</v>
+        <v>9457800</v>
       </c>
       <c r="F48" s="3">
-        <v>9016800</v>
+        <v>9308900</v>
       </c>
       <c r="G48" s="3">
-        <v>6901000</v>
+        <v>7124600</v>
       </c>
       <c r="H48" s="3">
-        <v>6702900</v>
+        <v>6920000</v>
       </c>
       <c r="I48" s="3">
-        <v>6524300</v>
+        <v>6735700</v>
       </c>
       <c r="J48" s="3">
+        <v>6433000</v>
+      </c>
+      <c r="K48" s="3">
         <v>6231100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5468400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6292600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8025400</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1854600</v>
+        <v>1914600</v>
       </c>
       <c r="E49" s="3">
-        <v>1796900</v>
+        <v>1855100</v>
       </c>
       <c r="F49" s="3">
-        <v>1774400</v>
+        <v>1831900</v>
       </c>
       <c r="G49" s="3">
-        <v>1770300</v>
+        <v>1827700</v>
       </c>
       <c r="H49" s="3">
-        <v>1883800</v>
+        <v>1944800</v>
       </c>
       <c r="I49" s="3">
-        <v>1978100</v>
+        <v>2042200</v>
       </c>
       <c r="J49" s="3">
+        <v>1702100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1648700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1296000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1390000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1645500</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>592100</v>
+        <v>721000</v>
       </c>
       <c r="E52" s="3">
-        <v>533600</v>
+        <v>550900</v>
       </c>
       <c r="F52" s="3">
-        <v>466300</v>
+        <v>481400</v>
       </c>
       <c r="G52" s="3">
-        <v>463900</v>
+        <v>478900</v>
       </c>
       <c r="H52" s="3">
-        <v>427300</v>
+        <v>441100</v>
       </c>
       <c r="I52" s="3">
-        <v>314800</v>
+        <v>325000</v>
       </c>
       <c r="J52" s="3">
+        <v>203700</v>
+      </c>
+      <c r="K52" s="3">
         <v>197300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>46900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>26300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18871500</v>
+        <v>19482800</v>
       </c>
       <c r="E54" s="3">
-        <v>17316100</v>
+        <v>17877000</v>
       </c>
       <c r="F54" s="3">
-        <v>16707900</v>
+        <v>17249100</v>
       </c>
       <c r="G54" s="3">
-        <v>14667400</v>
+        <v>15142500</v>
       </c>
       <c r="H54" s="3">
-        <v>14128000</v>
+        <v>14585600</v>
       </c>
       <c r="I54" s="3">
-        <v>13794800</v>
+        <v>14241600</v>
       </c>
       <c r="J54" s="3">
+        <v>12530300</v>
+      </c>
+      <c r="K54" s="3">
         <v>12137200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11497000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11916700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11338100</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5930100</v>
+        <v>4773900</v>
       </c>
       <c r="E57" s="3">
-        <v>4419200</v>
+        <v>4562400</v>
       </c>
       <c r="F57" s="3">
-        <v>4168500</v>
+        <v>4303500</v>
       </c>
       <c r="G57" s="3">
-        <v>4082900</v>
+        <v>4215200</v>
       </c>
       <c r="H57" s="3">
-        <v>3832700</v>
+        <v>3956900</v>
       </c>
       <c r="I57" s="3">
-        <v>3154200</v>
+        <v>3256400</v>
       </c>
       <c r="J57" s="3">
+        <v>2785900</v>
+      </c>
+      <c r="K57" s="3">
         <v>2698500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2377100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2630200</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>164500</v>
+        <v>169900</v>
       </c>
       <c r="E58" s="3">
-        <v>153900</v>
+        <v>158900</v>
       </c>
       <c r="F58" s="3">
-        <v>145700</v>
+        <v>150400</v>
       </c>
       <c r="G58" s="3">
-        <v>14800</v>
+        <v>15200</v>
       </c>
       <c r="H58" s="3">
-        <v>18200</v>
+        <v>18800</v>
       </c>
       <c r="I58" s="3">
+        <v>26300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K58" s="3">
+        <v>26600</v>
+      </c>
+      <c r="L58" s="3">
+        <v>36100</v>
+      </c>
+      <c r="M58" s="3">
         <v>25500</v>
       </c>
-      <c r="J58" s="3">
-        <v>26600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>36100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>25500</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>20800</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>255400</v>
+        <v>1612000</v>
       </c>
       <c r="E59" s="3">
-        <v>1315700</v>
+        <v>1358300</v>
       </c>
       <c r="F59" s="3">
-        <v>1116800</v>
+        <v>1152900</v>
       </c>
       <c r="G59" s="3">
-        <v>1365200</v>
+        <v>1409400</v>
       </c>
       <c r="H59" s="3">
-        <v>1308600</v>
+        <v>1351000</v>
       </c>
       <c r="I59" s="3">
-        <v>2503200</v>
+        <v>2584300</v>
       </c>
       <c r="J59" s="3">
+        <v>1005600</v>
+      </c>
+      <c r="K59" s="3">
         <v>974100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1651600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>907000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>914900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6350100</v>
+        <v>6555800</v>
       </c>
       <c r="E60" s="3">
-        <v>5888900</v>
+        <v>6079700</v>
       </c>
       <c r="F60" s="3">
-        <v>5430900</v>
+        <v>5606800</v>
       </c>
       <c r="G60" s="3">
-        <v>5462800</v>
+        <v>5639800</v>
       </c>
       <c r="H60" s="3">
-        <v>5159500</v>
+        <v>5326700</v>
       </c>
       <c r="I60" s="3">
-        <v>4513100</v>
+        <v>4659300</v>
       </c>
       <c r="J60" s="3">
+        <v>3819100</v>
+      </c>
+      <c r="K60" s="3">
         <v>3699300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3281500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3332600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3443300</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2931000</v>
+        <v>3025900</v>
       </c>
       <c r="E61" s="3">
-        <v>2704500</v>
+        <v>2792200</v>
       </c>
       <c r="F61" s="3">
-        <v>2592000</v>
+        <v>2675900</v>
       </c>
       <c r="G61" s="3">
-        <v>677900</v>
+        <v>699900</v>
       </c>
       <c r="H61" s="3">
-        <v>656800</v>
+        <v>678100</v>
       </c>
       <c r="I61" s="3">
-        <v>625700</v>
+        <v>646000</v>
       </c>
       <c r="J61" s="3">
+        <v>647300</v>
+      </c>
+      <c r="K61" s="3">
         <v>627000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>687400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>677600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>848600</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>696000</v>
+        <v>718600</v>
       </c>
       <c r="E62" s="3">
-        <v>630300</v>
+        <v>650800</v>
       </c>
       <c r="F62" s="3">
-        <v>639300</v>
+        <v>660000</v>
       </c>
       <c r="G62" s="3">
-        <v>635500</v>
+        <v>656100</v>
       </c>
       <c r="H62" s="3">
-        <v>677900</v>
+        <v>699900</v>
       </c>
       <c r="I62" s="3">
-        <v>663700</v>
+        <v>685200</v>
       </c>
       <c r="J62" s="3">
+        <v>564000</v>
+      </c>
+      <c r="K62" s="3">
         <v>546300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>416600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>410000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1212400</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9977100</v>
+        <v>10300300</v>
       </c>
       <c r="E66" s="3">
-        <v>9223800</v>
+        <v>9522600</v>
       </c>
       <c r="F66" s="3">
-        <v>8662200</v>
+        <v>8942800</v>
       </c>
       <c r="G66" s="3">
-        <v>6776300</v>
+        <v>6995800</v>
       </c>
       <c r="H66" s="3">
-        <v>6494300</v>
+        <v>6704700</v>
       </c>
       <c r="I66" s="3">
-        <v>5802600</v>
+        <v>5990500</v>
       </c>
       <c r="J66" s="3">
+        <v>5031700</v>
+      </c>
+      <c r="K66" s="3">
         <v>4873800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4360500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4427400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4673100</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6091800</v>
+        <v>5963300</v>
       </c>
       <c r="E72" s="3">
-        <v>5009700</v>
+        <v>5171900</v>
       </c>
       <c r="F72" s="3">
-        <v>4939000</v>
+        <v>5098900</v>
       </c>
       <c r="G72" s="3">
-        <v>4761700</v>
+        <v>4915900</v>
       </c>
       <c r="H72" s="3">
-        <v>4330200</v>
+        <v>4470500</v>
       </c>
       <c r="I72" s="3">
-        <v>4937100</v>
+        <v>5097100</v>
       </c>
       <c r="J72" s="3">
+        <v>4707500</v>
+      </c>
+      <c r="K72" s="3">
         <v>4559800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6217900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5274500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4504300</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8894500</v>
+        <v>9182600</v>
       </c>
       <c r="E76" s="3">
-        <v>8092300</v>
+        <v>8354500</v>
       </c>
       <c r="F76" s="3">
-        <v>8045700</v>
+        <v>8306400</v>
       </c>
       <c r="G76" s="3">
-        <v>7891100</v>
+        <v>8146800</v>
       </c>
       <c r="H76" s="3">
-        <v>7633700</v>
+        <v>7881000</v>
       </c>
       <c r="I76" s="3">
-        <v>7992200</v>
+        <v>8251100</v>
       </c>
       <c r="J76" s="3">
+        <v>7498700</v>
+      </c>
+      <c r="K76" s="3">
         <v>7263400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7136500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7489400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6665000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1599900</v>
+        <v>2180400</v>
       </c>
       <c r="E81" s="3">
-        <v>1813400</v>
+        <v>1651700</v>
       </c>
       <c r="F81" s="3">
-        <v>1758600</v>
+        <v>1872100</v>
       </c>
       <c r="G81" s="3">
-        <v>1907500</v>
+        <v>1815600</v>
       </c>
       <c r="H81" s="3">
-        <v>1595900</v>
+        <v>1969300</v>
       </c>
       <c r="I81" s="3">
-        <v>1262100</v>
+        <v>1647600</v>
       </c>
       <c r="J81" s="3">
+        <v>1303000</v>
+      </c>
+      <c r="K81" s="3">
         <v>1455900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1134300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1247800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1142000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>858400</v>
+        <v>904300</v>
       </c>
       <c r="E83" s="3">
-        <v>813600</v>
+        <v>886200</v>
       </c>
       <c r="F83" s="3">
-        <v>600900</v>
+        <v>839900</v>
       </c>
       <c r="G83" s="3">
-        <v>557200</v>
+        <v>620300</v>
       </c>
       <c r="H83" s="3">
-        <v>511700</v>
+        <v>575300</v>
       </c>
       <c r="I83" s="3">
-        <v>479700</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>528300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>495200</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>433900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>450000</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2936700</v>
+        <v>3205200</v>
       </c>
       <c r="E89" s="3">
-        <v>2744500</v>
+        <v>3031800</v>
       </c>
       <c r="F89" s="3">
-        <v>2274500</v>
+        <v>2833400</v>
       </c>
       <c r="G89" s="3">
-        <v>2351100</v>
+        <v>2348200</v>
       </c>
       <c r="H89" s="3">
-        <v>2254100</v>
+        <v>2427300</v>
       </c>
       <c r="I89" s="3">
-        <v>1861500</v>
+        <v>2327100</v>
       </c>
       <c r="J89" s="3">
+        <v>1921800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1825600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1433100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1589100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1664800</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-800400</v>
+        <v>-1011000</v>
       </c>
       <c r="E91" s="3">
-        <v>-984500</v>
+        <v>-826400</v>
       </c>
       <c r="F91" s="3">
-        <v>-858100</v>
+        <v>-1016400</v>
       </c>
       <c r="G91" s="3">
-        <v>-833800</v>
+        <v>-885900</v>
       </c>
       <c r="H91" s="3">
-        <v>-685900</v>
+        <v>-860800</v>
       </c>
       <c r="I91" s="3">
-        <v>-599400</v>
+        <v>-708100</v>
       </c>
       <c r="J91" s="3">
+        <v>-618800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-607300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-698400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-785900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-949200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-790900</v>
+        <v>-945000</v>
       </c>
       <c r="E94" s="3">
-        <v>-941700</v>
+        <v>-816500</v>
       </c>
       <c r="F94" s="3">
-        <v>-740100</v>
+        <v>-972200</v>
       </c>
       <c r="G94" s="3">
-        <v>186000</v>
+        <v>-764100</v>
       </c>
       <c r="H94" s="3">
-        <v>-660400</v>
+        <v>192000</v>
       </c>
       <c r="I94" s="3">
-        <v>-384100</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-681800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-396600</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-713500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-766800</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1480200</v>
+        <v>-1392500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1720600</v>
+        <v>-1528100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1224100</v>
+        <v>-1776300</v>
       </c>
       <c r="G96" s="3">
-        <v>-2045900</v>
+        <v>-1263700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1386300</v>
+        <v>-2112100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1510200</v>
+        <v>-1431200</v>
       </c>
       <c r="J96" s="3">
+        <v>-1559200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1035600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-801700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-515300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-499600</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1899800</v>
+        <v>-1852300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2118700</v>
+        <v>-1961400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1298600</v>
+        <v>-2187300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2123600</v>
+        <v>-1340700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1463900</v>
+        <v>-2192400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1675300</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-1511300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1729600</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1037400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-642900</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-15700</v>
+        <v>-54800</v>
       </c>
       <c r="E101" s="3">
-        <v>-65500</v>
+        <v>-16200</v>
       </c>
       <c r="F101" s="3">
-        <v>-81100</v>
+        <v>-67700</v>
       </c>
       <c r="G101" s="3">
-        <v>-48800</v>
+        <v>-83700</v>
       </c>
       <c r="H101" s="3">
-        <v>22500</v>
+        <v>-50400</v>
       </c>
       <c r="I101" s="3">
-        <v>42000</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>23200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>43400</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-33400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-18700</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>230300</v>
+        <v>353000</v>
       </c>
       <c r="E102" s="3">
-        <v>-381500</v>
+        <v>237800</v>
       </c>
       <c r="F102" s="3">
-        <v>154700</v>
+        <v>-393800</v>
       </c>
       <c r="G102" s="3">
-        <v>364600</v>
+        <v>159700</v>
       </c>
       <c r="H102" s="3">
-        <v>152400</v>
+        <v>376500</v>
       </c>
       <c r="I102" s="3">
-        <v>-155800</v>
+        <v>157300</v>
       </c>
       <c r="J102" s="3">
+        <v>-160900</v>
+      </c>
+      <c r="K102" s="3">
         <v>331000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-351200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>160700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>26100</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>36360600</v>
+        <v>36964100</v>
       </c>
       <c r="E8" s="3">
-        <v>34665700</v>
+        <v>35241100</v>
       </c>
       <c r="F8" s="3">
-        <v>31954200</v>
+        <v>32484600</v>
       </c>
       <c r="G8" s="3">
-        <v>30475400</v>
+        <v>30981200</v>
       </c>
       <c r="H8" s="3">
-        <v>28324500</v>
+        <v>28794700</v>
       </c>
       <c r="I8" s="3">
-        <v>26299800</v>
+        <v>26736300</v>
       </c>
       <c r="J8" s="3">
-        <v>23510000</v>
+        <v>23900200</v>
       </c>
       <c r="K8" s="3">
         <v>21101300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27871700</v>
+        <v>28334300</v>
       </c>
       <c r="E9" s="3">
-        <v>26660900</v>
+        <v>27103400</v>
       </c>
       <c r="F9" s="3">
-        <v>24640500</v>
+        <v>25049500</v>
       </c>
       <c r="G9" s="3">
-        <v>23481000</v>
+        <v>23870800</v>
       </c>
       <c r="H9" s="3">
-        <v>21849600</v>
+        <v>22212200</v>
       </c>
       <c r="I9" s="3">
-        <v>20496100</v>
+        <v>20836300</v>
       </c>
       <c r="J9" s="3">
-        <v>18441400</v>
+        <v>18747500</v>
       </c>
       <c r="K9" s="3">
         <v>16430200</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8488900</v>
+        <v>8629800</v>
       </c>
       <c r="E10" s="3">
-        <v>8004800</v>
+        <v>8137600</v>
       </c>
       <c r="F10" s="3">
-        <v>7313700</v>
+        <v>7435100</v>
       </c>
       <c r="G10" s="3">
-        <v>6994400</v>
+        <v>7110500</v>
       </c>
       <c r="H10" s="3">
-        <v>6475000</v>
+        <v>6582500</v>
       </c>
       <c r="I10" s="3">
-        <v>5803700</v>
+        <v>5900000</v>
       </c>
       <c r="J10" s="3">
-        <v>5068600</v>
+        <v>5152700</v>
       </c>
       <c r="K10" s="3">
         <v>4671100</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33252900</v>
+        <v>33804900</v>
       </c>
       <c r="E17" s="3">
-        <v>31827800</v>
+        <v>32356100</v>
       </c>
       <c r="F17" s="3">
-        <v>29286500</v>
+        <v>29772600</v>
       </c>
       <c r="G17" s="3">
-        <v>28045400</v>
+        <v>28510900</v>
       </c>
       <c r="H17" s="3">
-        <v>26159000</v>
+        <v>26593200</v>
       </c>
       <c r="I17" s="3">
-        <v>24350700</v>
+        <v>24754900</v>
       </c>
       <c r="J17" s="3">
-        <v>21888300</v>
+        <v>22251600</v>
       </c>
       <c r="K17" s="3">
         <v>19440100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3107600</v>
+        <v>3159200</v>
       </c>
       <c r="E18" s="3">
-        <v>2837900</v>
+        <v>2885000</v>
       </c>
       <c r="F18" s="3">
-        <v>2667700</v>
+        <v>2712000</v>
       </c>
       <c r="G18" s="3">
-        <v>2430000</v>
+        <v>2470300</v>
       </c>
       <c r="H18" s="3">
-        <v>2165600</v>
+        <v>2201500</v>
       </c>
       <c r="I18" s="3">
-        <v>1949100</v>
+        <v>1981400</v>
       </c>
       <c r="J18" s="3">
-        <v>1621700</v>
+        <v>1648600</v>
       </c>
       <c r="K18" s="3">
         <v>1661200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>42800</v>
+        <v>43500</v>
       </c>
       <c r="E20" s="3">
-        <v>-77700</v>
+        <v>-79000</v>
       </c>
       <c r="F20" s="3">
-        <v>47000</v>
+        <v>47800</v>
       </c>
       <c r="G20" s="3">
-        <v>60400</v>
+        <v>61400</v>
       </c>
       <c r="H20" s="3">
-        <v>43900</v>
+        <v>44700</v>
       </c>
       <c r="I20" s="3">
-        <v>46800</v>
+        <v>47600</v>
       </c>
       <c r="J20" s="3">
-        <v>60000</v>
+        <v>61000</v>
       </c>
       <c r="K20" s="3">
         <v>50600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4052000</v>
+        <v>4123400</v>
       </c>
       <c r="E21" s="3">
-        <v>3643700</v>
+        <v>3708200</v>
       </c>
       <c r="F21" s="3">
-        <v>3552100</v>
+        <v>3614900</v>
       </c>
       <c r="G21" s="3">
-        <v>3108900</v>
+        <v>3163300</v>
       </c>
       <c r="H21" s="3">
-        <v>2783000</v>
+        <v>2831800</v>
       </c>
       <c r="I21" s="3">
-        <v>2522600</v>
+        <v>2566800</v>
       </c>
       <c r="J21" s="3">
-        <v>2175400</v>
+        <v>2213800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>320100</v>
+        <v>325400</v>
       </c>
       <c r="E22" s="3">
-        <v>316600</v>
+        <v>321900</v>
       </c>
       <c r="F22" s="3">
-        <v>284200</v>
+        <v>288900</v>
       </c>
       <c r="G22" s="3">
-        <v>76700</v>
+        <v>78000</v>
       </c>
       <c r="H22" s="3">
-        <v>71000</v>
+        <v>72100</v>
       </c>
       <c r="I22" s="3">
-        <v>62800</v>
+        <v>63800</v>
       </c>
       <c r="J22" s="3">
-        <v>55600</v>
+        <v>56600</v>
       </c>
       <c r="K22" s="3">
         <v>58000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2830400</v>
+        <v>2877400</v>
       </c>
       <c r="E23" s="3">
-        <v>2443500</v>
+        <v>2484100</v>
       </c>
       <c r="F23" s="3">
-        <v>2430600</v>
+        <v>2470900</v>
       </c>
       <c r="G23" s="3">
-        <v>2413700</v>
+        <v>2453700</v>
       </c>
       <c r="H23" s="3">
-        <v>2138500</v>
+        <v>2174000</v>
       </c>
       <c r="I23" s="3">
-        <v>1933100</v>
+        <v>1965200</v>
       </c>
       <c r="J23" s="3">
-        <v>1626100</v>
+        <v>1653100</v>
       </c>
       <c r="K23" s="3">
         <v>1653800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>650000</v>
+        <v>660800</v>
       </c>
       <c r="E24" s="3">
-        <v>791800</v>
+        <v>805000</v>
       </c>
       <c r="F24" s="3">
-        <v>558400</v>
+        <v>567700</v>
       </c>
       <c r="G24" s="3">
-        <v>598100</v>
+        <v>608000</v>
       </c>
       <c r="H24" s="3">
-        <v>538400</v>
+        <v>547400</v>
       </c>
       <c r="I24" s="3">
-        <v>524800</v>
+        <v>533500</v>
       </c>
       <c r="J24" s="3">
-        <v>468000</v>
+        <v>475700</v>
       </c>
       <c r="K24" s="3">
         <v>455600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2180400</v>
+        <v>2216600</v>
       </c>
       <c r="E26" s="3">
-        <v>1651700</v>
+        <v>1679100</v>
       </c>
       <c r="F26" s="3">
-        <v>1872100</v>
+        <v>1903200</v>
       </c>
       <c r="G26" s="3">
-        <v>1815600</v>
+        <v>1845700</v>
       </c>
       <c r="H26" s="3">
-        <v>1600100</v>
+        <v>1626600</v>
       </c>
       <c r="I26" s="3">
-        <v>1408400</v>
+        <v>1431700</v>
       </c>
       <c r="J26" s="3">
-        <v>1158100</v>
+        <v>1177400</v>
       </c>
       <c r="K26" s="3">
         <v>1198200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2180400</v>
+        <v>2216600</v>
       </c>
       <c r="E27" s="3">
-        <v>1651700</v>
+        <v>1679100</v>
       </c>
       <c r="F27" s="3">
-        <v>1872100</v>
+        <v>1903200</v>
       </c>
       <c r="G27" s="3">
-        <v>1815600</v>
+        <v>1845700</v>
       </c>
       <c r="H27" s="3">
-        <v>1600100</v>
+        <v>1626600</v>
       </c>
       <c r="I27" s="3">
-        <v>1408400</v>
+        <v>1431800</v>
       </c>
       <c r="J27" s="3">
-        <v>1158000</v>
+        <v>1177200</v>
       </c>
       <c r="K27" s="3">
         <v>1197800</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>369200</v>
+        <v>375400</v>
       </c>
       <c r="I29" s="3">
-        <v>239200</v>
+        <v>243200</v>
       </c>
       <c r="J29" s="3">
-        <v>145000</v>
+        <v>147400</v>
       </c>
       <c r="K29" s="3">
         <v>258100</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-42800</v>
+        <v>-43500</v>
       </c>
       <c r="E32" s="3">
-        <v>77700</v>
+        <v>79000</v>
       </c>
       <c r="F32" s="3">
-        <v>-47000</v>
+        <v>-47800</v>
       </c>
       <c r="G32" s="3">
-        <v>-60400</v>
+        <v>-61400</v>
       </c>
       <c r="H32" s="3">
-        <v>-43900</v>
+        <v>-44700</v>
       </c>
       <c r="I32" s="3">
-        <v>-46800</v>
+        <v>-47600</v>
       </c>
       <c r="J32" s="3">
-        <v>-60000</v>
+        <v>-61000</v>
       </c>
       <c r="K32" s="3">
         <v>-50600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2180400</v>
+        <v>2216600</v>
       </c>
       <c r="E33" s="3">
-        <v>1651700</v>
+        <v>1679100</v>
       </c>
       <c r="F33" s="3">
-        <v>1872100</v>
+        <v>1903200</v>
       </c>
       <c r="G33" s="3">
-        <v>1815600</v>
+        <v>1845700</v>
       </c>
       <c r="H33" s="3">
-        <v>1969300</v>
+        <v>2002000</v>
       </c>
       <c r="I33" s="3">
-        <v>1647600</v>
+        <v>1675000</v>
       </c>
       <c r="J33" s="3">
-        <v>1303000</v>
+        <v>1324600</v>
       </c>
       <c r="K33" s="3">
         <v>1455900</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2180400</v>
+        <v>2216600</v>
       </c>
       <c r="E35" s="3">
-        <v>1651700</v>
+        <v>1679100</v>
       </c>
       <c r="F35" s="3">
-        <v>1872100</v>
+        <v>1903200</v>
       </c>
       <c r="G35" s="3">
-        <v>1815600</v>
+        <v>1845700</v>
       </c>
       <c r="H35" s="3">
-        <v>1969300</v>
+        <v>2002000</v>
       </c>
       <c r="I35" s="3">
-        <v>1647600</v>
+        <v>1675000</v>
       </c>
       <c r="J35" s="3">
-        <v>1303000</v>
+        <v>1324600</v>
       </c>
       <c r="K35" s="3">
         <v>1455900</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2115100</v>
+        <v>2150200</v>
       </c>
       <c r="E41" s="3">
-        <v>1762100</v>
+        <v>1791400</v>
       </c>
       <c r="F41" s="3">
-        <v>1524300</v>
+        <v>1549600</v>
       </c>
       <c r="G41" s="3">
-        <v>1918200</v>
+        <v>1950000</v>
       </c>
       <c r="H41" s="3">
-        <v>1758400</v>
+        <v>1787600</v>
       </c>
       <c r="I41" s="3">
-        <v>1382000</v>
+        <v>1404900</v>
       </c>
       <c r="J41" s="3">
-        <v>1224700</v>
+        <v>1245000</v>
       </c>
       <c r="K41" s="3">
         <v>1186200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>831300</v>
+        <v>845100</v>
       </c>
       <c r="E43" s="3">
-        <v>839500</v>
+        <v>853400</v>
       </c>
       <c r="F43" s="3">
-        <v>677600</v>
+        <v>688900</v>
       </c>
       <c r="G43" s="3">
-        <v>594500</v>
+        <v>604400</v>
       </c>
       <c r="H43" s="3">
-        <v>535200</v>
+        <v>544100</v>
       </c>
       <c r="I43" s="3">
-        <v>485000</v>
+        <v>493100</v>
       </c>
       <c r="J43" s="3">
-        <v>482100</v>
+        <v>490100</v>
       </c>
       <c r="K43" s="3">
         <v>467000</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3967700</v>
+        <v>4033500</v>
       </c>
       <c r="E44" s="3">
-        <v>3377000</v>
+        <v>3433100</v>
       </c>
       <c r="F44" s="3">
-        <v>3337100</v>
+        <v>3392500</v>
       </c>
       <c r="G44" s="3">
-        <v>3129200</v>
+        <v>3181100</v>
       </c>
       <c r="H44" s="3">
-        <v>2937500</v>
+        <v>2986200</v>
       </c>
       <c r="I44" s="3">
-        <v>2651100</v>
+        <v>2695100</v>
       </c>
       <c r="J44" s="3">
-        <v>2457600</v>
+        <v>2498400</v>
       </c>
       <c r="K44" s="3">
         <v>2380500</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>42300</v>
+        <v>43000</v>
       </c>
       <c r="E45" s="3">
-        <v>34600</v>
+        <v>35200</v>
       </c>
       <c r="F45" s="3">
-        <v>87800</v>
+        <v>89300</v>
       </c>
       <c r="G45" s="3">
-        <v>69500</v>
+        <v>70600</v>
       </c>
       <c r="H45" s="3">
-        <v>48500</v>
+        <v>49300</v>
       </c>
       <c r="I45" s="3">
-        <v>620700</v>
+        <v>631000</v>
       </c>
       <c r="J45" s="3">
-        <v>27200</v>
+        <v>27600</v>
       </c>
       <c r="K45" s="3">
         <v>26300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6956400</v>
+        <v>7071900</v>
       </c>
       <c r="E46" s="3">
-        <v>6013200</v>
+        <v>6113000</v>
       </c>
       <c r="F46" s="3">
-        <v>5626900</v>
+        <v>5720300</v>
       </c>
       <c r="G46" s="3">
-        <v>5711400</v>
+        <v>5806200</v>
       </c>
       <c r="H46" s="3">
-        <v>5279700</v>
+        <v>5367300</v>
       </c>
       <c r="I46" s="3">
-        <v>5138700</v>
+        <v>5224000</v>
       </c>
       <c r="J46" s="3">
-        <v>4191500</v>
+        <v>4261100</v>
       </c>
       <c r="K46" s="3">
         <v>4060000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9890800</v>
+        <v>10054900</v>
       </c>
       <c r="E48" s="3">
-        <v>9457800</v>
+        <v>9614800</v>
       </c>
       <c r="F48" s="3">
-        <v>9308900</v>
+        <v>9463400</v>
       </c>
       <c r="G48" s="3">
-        <v>7124600</v>
+        <v>7242800</v>
       </c>
       <c r="H48" s="3">
-        <v>6920000</v>
+        <v>7034900</v>
       </c>
       <c r="I48" s="3">
-        <v>6735700</v>
+        <v>6847500</v>
       </c>
       <c r="J48" s="3">
-        <v>6433000</v>
+        <v>6539800</v>
       </c>
       <c r="K48" s="3">
         <v>6231100</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1914600</v>
+        <v>1946400</v>
       </c>
       <c r="E49" s="3">
-        <v>1855100</v>
+        <v>1885900</v>
       </c>
       <c r="F49" s="3">
-        <v>1831900</v>
+        <v>1862300</v>
       </c>
       <c r="G49" s="3">
-        <v>1827700</v>
+        <v>1858000</v>
       </c>
       <c r="H49" s="3">
-        <v>1944800</v>
+        <v>1977100</v>
       </c>
       <c r="I49" s="3">
-        <v>2042200</v>
+        <v>2076100</v>
       </c>
       <c r="J49" s="3">
-        <v>1702100</v>
+        <v>1730400</v>
       </c>
       <c r="K49" s="3">
         <v>1648700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>721000</v>
+        <v>733000</v>
       </c>
       <c r="E52" s="3">
-        <v>550900</v>
+        <v>560000</v>
       </c>
       <c r="F52" s="3">
-        <v>481400</v>
+        <v>489400</v>
       </c>
       <c r="G52" s="3">
-        <v>478900</v>
+        <v>486800</v>
       </c>
       <c r="H52" s="3">
-        <v>441100</v>
+        <v>448500</v>
       </c>
       <c r="I52" s="3">
-        <v>325000</v>
+        <v>330400</v>
       </c>
       <c r="J52" s="3">
-        <v>203700</v>
+        <v>207000</v>
       </c>
       <c r="K52" s="3">
         <v>197300</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19482800</v>
+        <v>19806200</v>
       </c>
       <c r="E54" s="3">
-        <v>17877000</v>
+        <v>18173800</v>
       </c>
       <c r="F54" s="3">
-        <v>17249100</v>
+        <v>17535400</v>
       </c>
       <c r="G54" s="3">
-        <v>15142500</v>
+        <v>15393900</v>
       </c>
       <c r="H54" s="3">
-        <v>14585600</v>
+        <v>14827700</v>
       </c>
       <c r="I54" s="3">
-        <v>14241600</v>
+        <v>14478000</v>
       </c>
       <c r="J54" s="3">
-        <v>12530300</v>
+        <v>12738300</v>
       </c>
       <c r="K54" s="3">
         <v>12137200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4773900</v>
+        <v>4853200</v>
       </c>
       <c r="E57" s="3">
-        <v>4562400</v>
+        <v>4638100</v>
       </c>
       <c r="F57" s="3">
-        <v>4303500</v>
+        <v>4375000</v>
       </c>
       <c r="G57" s="3">
-        <v>4215200</v>
+        <v>4285100</v>
       </c>
       <c r="H57" s="3">
-        <v>3956900</v>
+        <v>4022600</v>
       </c>
       <c r="I57" s="3">
-        <v>3256400</v>
+        <v>3310500</v>
       </c>
       <c r="J57" s="3">
-        <v>2785900</v>
+        <v>2832200</v>
       </c>
       <c r="K57" s="3">
         <v>2698500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>169900</v>
+        <v>172700</v>
       </c>
       <c r="E58" s="3">
-        <v>158900</v>
+        <v>161500</v>
       </c>
       <c r="F58" s="3">
-        <v>150400</v>
+        <v>152900</v>
       </c>
       <c r="G58" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="H58" s="3">
-        <v>18800</v>
+        <v>19100</v>
       </c>
       <c r="I58" s="3">
-        <v>26300</v>
+        <v>26800</v>
       </c>
       <c r="J58" s="3">
-        <v>27500</v>
+        <v>27900</v>
       </c>
       <c r="K58" s="3">
         <v>26600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1612000</v>
+        <v>1638800</v>
       </c>
       <c r="E59" s="3">
-        <v>1358300</v>
+        <v>1380900</v>
       </c>
       <c r="F59" s="3">
-        <v>1152900</v>
+        <v>1172100</v>
       </c>
       <c r="G59" s="3">
-        <v>1409400</v>
+        <v>1432800</v>
       </c>
       <c r="H59" s="3">
-        <v>1351000</v>
+        <v>1373400</v>
       </c>
       <c r="I59" s="3">
-        <v>2584300</v>
+        <v>2627200</v>
       </c>
       <c r="J59" s="3">
-        <v>1005600</v>
+        <v>1022300</v>
       </c>
       <c r="K59" s="3">
         <v>974100</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6555800</v>
+        <v>6664600</v>
       </c>
       <c r="E60" s="3">
-        <v>6079700</v>
+        <v>6180600</v>
       </c>
       <c r="F60" s="3">
-        <v>5606800</v>
+        <v>5699900</v>
       </c>
       <c r="G60" s="3">
-        <v>5639800</v>
+        <v>5733400</v>
       </c>
       <c r="H60" s="3">
-        <v>5326700</v>
+        <v>5415100</v>
       </c>
       <c r="I60" s="3">
-        <v>4659300</v>
+        <v>4736700</v>
       </c>
       <c r="J60" s="3">
-        <v>3819100</v>
+        <v>3882500</v>
       </c>
       <c r="K60" s="3">
         <v>3699300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3025900</v>
+        <v>3076100</v>
       </c>
       <c r="E61" s="3">
-        <v>2792200</v>
+        <v>2838500</v>
       </c>
       <c r="F61" s="3">
-        <v>2675900</v>
+        <v>2720300</v>
       </c>
       <c r="G61" s="3">
-        <v>699900</v>
+        <v>711500</v>
       </c>
       <c r="H61" s="3">
-        <v>678100</v>
+        <v>689300</v>
       </c>
       <c r="I61" s="3">
-        <v>646000</v>
+        <v>656700</v>
       </c>
       <c r="J61" s="3">
-        <v>647300</v>
+        <v>658100</v>
       </c>
       <c r="K61" s="3">
         <v>627000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>718600</v>
+        <v>730500</v>
       </c>
       <c r="E62" s="3">
-        <v>650800</v>
+        <v>661600</v>
       </c>
       <c r="F62" s="3">
-        <v>660000</v>
+        <v>671000</v>
       </c>
       <c r="G62" s="3">
-        <v>656100</v>
+        <v>667000</v>
       </c>
       <c r="H62" s="3">
-        <v>699900</v>
+        <v>711500</v>
       </c>
       <c r="I62" s="3">
-        <v>685200</v>
+        <v>696600</v>
       </c>
       <c r="J62" s="3">
-        <v>564000</v>
+        <v>573300</v>
       </c>
       <c r="K62" s="3">
         <v>546300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10300300</v>
+        <v>10471200</v>
       </c>
       <c r="E66" s="3">
-        <v>9522600</v>
+        <v>9680600</v>
       </c>
       <c r="F66" s="3">
-        <v>8942800</v>
+        <v>9091200</v>
       </c>
       <c r="G66" s="3">
-        <v>6995800</v>
+        <v>7111900</v>
       </c>
       <c r="H66" s="3">
-        <v>6704700</v>
+        <v>6815900</v>
       </c>
       <c r="I66" s="3">
-        <v>5990500</v>
+        <v>6090000</v>
       </c>
       <c r="J66" s="3">
-        <v>5031700</v>
+        <v>5115200</v>
       </c>
       <c r="K66" s="3">
         <v>4873800</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5963300</v>
+        <v>6062300</v>
       </c>
       <c r="E72" s="3">
-        <v>5171900</v>
+        <v>5257800</v>
       </c>
       <c r="F72" s="3">
-        <v>5098900</v>
+        <v>5183600</v>
       </c>
       <c r="G72" s="3">
-        <v>4915900</v>
+        <v>4997500</v>
       </c>
       <c r="H72" s="3">
-        <v>4470500</v>
+        <v>4544700</v>
       </c>
       <c r="I72" s="3">
-        <v>5097100</v>
+        <v>5181700</v>
       </c>
       <c r="J72" s="3">
-        <v>4707500</v>
+        <v>4785600</v>
       </c>
       <c r="K72" s="3">
         <v>4559800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9182600</v>
+        <v>9335000</v>
       </c>
       <c r="E76" s="3">
-        <v>8354500</v>
+        <v>8493100</v>
       </c>
       <c r="F76" s="3">
-        <v>8306400</v>
+        <v>8444200</v>
       </c>
       <c r="G76" s="3">
-        <v>8146800</v>
+        <v>8282000</v>
       </c>
       <c r="H76" s="3">
-        <v>7881000</v>
+        <v>8011800</v>
       </c>
       <c r="I76" s="3">
-        <v>8251100</v>
+        <v>8388000</v>
       </c>
       <c r="J76" s="3">
-        <v>7498700</v>
+        <v>7623100</v>
       </c>
       <c r="K76" s="3">
         <v>7263400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2180400</v>
+        <v>2216600</v>
       </c>
       <c r="E81" s="3">
-        <v>1651700</v>
+        <v>1679100</v>
       </c>
       <c r="F81" s="3">
-        <v>1872100</v>
+        <v>1903200</v>
       </c>
       <c r="G81" s="3">
-        <v>1815600</v>
+        <v>1845700</v>
       </c>
       <c r="H81" s="3">
-        <v>1969300</v>
+        <v>2002000</v>
       </c>
       <c r="I81" s="3">
-        <v>1647600</v>
+        <v>1675000</v>
       </c>
       <c r="J81" s="3">
-        <v>1303000</v>
+        <v>1324600</v>
       </c>
       <c r="K81" s="3">
         <v>1455900</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>904300</v>
+        <v>919300</v>
       </c>
       <c r="E83" s="3">
-        <v>886200</v>
+        <v>900900</v>
       </c>
       <c r="F83" s="3">
-        <v>839900</v>
+        <v>853900</v>
       </c>
       <c r="G83" s="3">
-        <v>620300</v>
+        <v>630600</v>
       </c>
       <c r="H83" s="3">
-        <v>575300</v>
+        <v>584800</v>
       </c>
       <c r="I83" s="3">
-        <v>528300</v>
+        <v>537000</v>
       </c>
       <c r="J83" s="3">
-        <v>495200</v>
+        <v>503400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3205200</v>
+        <v>3258400</v>
       </c>
       <c r="E89" s="3">
-        <v>3031800</v>
+        <v>3082200</v>
       </c>
       <c r="F89" s="3">
-        <v>2833400</v>
+        <v>2880400</v>
       </c>
       <c r="G89" s="3">
-        <v>2348200</v>
+        <v>2387200</v>
       </c>
       <c r="H89" s="3">
-        <v>2427300</v>
+        <v>2467600</v>
       </c>
       <c r="I89" s="3">
-        <v>2327100</v>
+        <v>2365800</v>
       </c>
       <c r="J89" s="3">
-        <v>1921800</v>
+        <v>1953700</v>
       </c>
       <c r="K89" s="3">
         <v>1825600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1011000</v>
+        <v>-1027800</v>
       </c>
       <c r="E91" s="3">
-        <v>-826400</v>
+        <v>-840100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1016400</v>
+        <v>-1033300</v>
       </c>
       <c r="G91" s="3">
-        <v>-885900</v>
+        <v>-900600</v>
       </c>
       <c r="H91" s="3">
-        <v>-860800</v>
+        <v>-875100</v>
       </c>
       <c r="I91" s="3">
-        <v>-708100</v>
+        <v>-719900</v>
       </c>
       <c r="J91" s="3">
-        <v>-618800</v>
+        <v>-629100</v>
       </c>
       <c r="K91" s="3">
         <v>-607300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-945000</v>
+        <v>-960700</v>
       </c>
       <c r="E94" s="3">
-        <v>-816500</v>
+        <v>-830100</v>
       </c>
       <c r="F94" s="3">
-        <v>-972200</v>
+        <v>-988400</v>
       </c>
       <c r="G94" s="3">
-        <v>-764100</v>
+        <v>-776800</v>
       </c>
       <c r="H94" s="3">
-        <v>192000</v>
+        <v>195200</v>
       </c>
       <c r="I94" s="3">
-        <v>-681800</v>
+        <v>-693100</v>
       </c>
       <c r="J94" s="3">
-        <v>-396600</v>
+        <v>-403200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1392500</v>
+        <v>-1415600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1528100</v>
+        <v>-1553500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1776300</v>
+        <v>-1805800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1263700</v>
+        <v>-1284700</v>
       </c>
       <c r="H96" s="3">
-        <v>-2112100</v>
+        <v>-2147200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1431200</v>
+        <v>-1455000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1559200</v>
+        <v>-1585100</v>
       </c>
       <c r="K96" s="3">
         <v>-1035600</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1852300</v>
+        <v>-1883000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1961400</v>
+        <v>-1993900</v>
       </c>
       <c r="F100" s="3">
-        <v>-2187300</v>
+        <v>-2223700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1340700</v>
+        <v>-1362900</v>
       </c>
       <c r="H100" s="3">
-        <v>-2192400</v>
+        <v>-2228800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1511300</v>
+        <v>-1536400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1729600</v>
+        <v>-1758300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-54800</v>
+        <v>-55700</v>
       </c>
       <c r="E101" s="3">
-        <v>-16200</v>
+        <v>-16400</v>
       </c>
       <c r="F101" s="3">
-        <v>-67700</v>
+        <v>-68800</v>
       </c>
       <c r="G101" s="3">
-        <v>-83700</v>
+        <v>-85100</v>
       </c>
       <c r="H101" s="3">
-        <v>-50400</v>
+        <v>-51300</v>
       </c>
       <c r="I101" s="3">
-        <v>23200</v>
+        <v>23600</v>
       </c>
       <c r="J101" s="3">
-        <v>43400</v>
+        <v>44100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>353000</v>
+        <v>358900</v>
       </c>
       <c r="E102" s="3">
-        <v>237800</v>
+        <v>241700</v>
       </c>
       <c r="F102" s="3">
-        <v>-393800</v>
+        <v>-400400</v>
       </c>
       <c r="G102" s="3">
-        <v>159700</v>
+        <v>162400</v>
       </c>
       <c r="H102" s="3">
-        <v>376500</v>
+        <v>382700</v>
       </c>
       <c r="I102" s="3">
-        <v>157300</v>
+        <v>159900</v>
       </c>
       <c r="J102" s="3">
-        <v>-160900</v>
+        <v>-163600</v>
       </c>
       <c r="K102" s="3">
         <v>331000</v>

--- a/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>36964100</v>
+        <v>38119700</v>
       </c>
       <c r="E8" s="3">
-        <v>35241100</v>
+        <v>36342800</v>
       </c>
       <c r="F8" s="3">
-        <v>32484600</v>
+        <v>33500200</v>
       </c>
       <c r="G8" s="3">
-        <v>30981200</v>
+        <v>31949800</v>
       </c>
       <c r="H8" s="3">
-        <v>28794700</v>
+        <v>29694900</v>
       </c>
       <c r="I8" s="3">
-        <v>26736300</v>
+        <v>27572200</v>
       </c>
       <c r="J8" s="3">
-        <v>23900200</v>
+        <v>24647400</v>
       </c>
       <c r="K8" s="3">
         <v>21101300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>28334300</v>
+        <v>29220100</v>
       </c>
       <c r="E9" s="3">
-        <v>27103400</v>
+        <v>27950800</v>
       </c>
       <c r="F9" s="3">
-        <v>25049500</v>
+        <v>25832600</v>
       </c>
       <c r="G9" s="3">
-        <v>23870800</v>
+        <v>24617000</v>
       </c>
       <c r="H9" s="3">
-        <v>22212200</v>
+        <v>22906600</v>
       </c>
       <c r="I9" s="3">
-        <v>20836300</v>
+        <v>21487700</v>
       </c>
       <c r="J9" s="3">
-        <v>18747500</v>
+        <v>19333600</v>
       </c>
       <c r="K9" s="3">
         <v>16430200</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8629800</v>
+        <v>8899600</v>
       </c>
       <c r="E10" s="3">
-        <v>8137600</v>
+        <v>8392000</v>
       </c>
       <c r="F10" s="3">
-        <v>7435100</v>
+        <v>7667600</v>
       </c>
       <c r="G10" s="3">
-        <v>7110500</v>
+        <v>7332800</v>
       </c>
       <c r="H10" s="3">
-        <v>6582500</v>
+        <v>6788200</v>
       </c>
       <c r="I10" s="3">
-        <v>5900000</v>
+        <v>6084500</v>
       </c>
       <c r="J10" s="3">
-        <v>5152700</v>
+        <v>5313800</v>
       </c>
       <c r="K10" s="3">
         <v>4671100</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33804900</v>
+        <v>34861700</v>
       </c>
       <c r="E17" s="3">
-        <v>32356100</v>
+        <v>33367600</v>
       </c>
       <c r="F17" s="3">
-        <v>29772600</v>
+        <v>30703400</v>
       </c>
       <c r="G17" s="3">
-        <v>28510900</v>
+        <v>29402200</v>
       </c>
       <c r="H17" s="3">
-        <v>26593200</v>
+        <v>27424500</v>
       </c>
       <c r="I17" s="3">
-        <v>24754900</v>
+        <v>25528800</v>
       </c>
       <c r="J17" s="3">
-        <v>22251600</v>
+        <v>22947200</v>
       </c>
       <c r="K17" s="3">
         <v>19440100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3159200</v>
+        <v>3258000</v>
       </c>
       <c r="E18" s="3">
-        <v>2885000</v>
+        <v>2975200</v>
       </c>
       <c r="F18" s="3">
-        <v>2712000</v>
+        <v>2796800</v>
       </c>
       <c r="G18" s="3">
-        <v>2470300</v>
+        <v>2547500</v>
       </c>
       <c r="H18" s="3">
-        <v>2201500</v>
+        <v>2270300</v>
       </c>
       <c r="I18" s="3">
-        <v>1981400</v>
+        <v>2043400</v>
       </c>
       <c r="J18" s="3">
-        <v>1648600</v>
+        <v>1700200</v>
       </c>
       <c r="K18" s="3">
         <v>1661200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>43500</v>
+        <v>44900</v>
       </c>
       <c r="E20" s="3">
-        <v>-79000</v>
+        <v>-81500</v>
       </c>
       <c r="F20" s="3">
-        <v>47800</v>
+        <v>49300</v>
       </c>
       <c r="G20" s="3">
-        <v>61400</v>
+        <v>63300</v>
       </c>
       <c r="H20" s="3">
-        <v>44700</v>
+        <v>46000</v>
       </c>
       <c r="I20" s="3">
-        <v>47600</v>
+        <v>49100</v>
       </c>
       <c r="J20" s="3">
-        <v>61000</v>
+        <v>62900</v>
       </c>
       <c r="K20" s="3">
         <v>50600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4123400</v>
+        <v>4238500</v>
       </c>
       <c r="E21" s="3">
-        <v>3708200</v>
+        <v>3810600</v>
       </c>
       <c r="F21" s="3">
-        <v>3614900</v>
+        <v>3715100</v>
       </c>
       <c r="G21" s="3">
-        <v>3163300</v>
+        <v>3252700</v>
       </c>
       <c r="H21" s="3">
-        <v>2831800</v>
+        <v>2911600</v>
       </c>
       <c r="I21" s="3">
-        <v>2566800</v>
+        <v>2639000</v>
       </c>
       <c r="J21" s="3">
-        <v>2213800</v>
+        <v>2275500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>325400</v>
+        <v>335500</v>
       </c>
       <c r="E22" s="3">
-        <v>321900</v>
+        <v>332000</v>
       </c>
       <c r="F22" s="3">
-        <v>288900</v>
+        <v>297900</v>
       </c>
       <c r="G22" s="3">
-        <v>78000</v>
+        <v>80400</v>
       </c>
       <c r="H22" s="3">
-        <v>72100</v>
+        <v>74400</v>
       </c>
       <c r="I22" s="3">
-        <v>63800</v>
+        <v>65800</v>
       </c>
       <c r="J22" s="3">
-        <v>56600</v>
+        <v>58300</v>
       </c>
       <c r="K22" s="3">
         <v>58000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2877400</v>
+        <v>2967300</v>
       </c>
       <c r="E23" s="3">
-        <v>2484100</v>
+        <v>2561700</v>
       </c>
       <c r="F23" s="3">
-        <v>2470900</v>
+        <v>2548200</v>
       </c>
       <c r="G23" s="3">
-        <v>2453700</v>
+        <v>2530400</v>
       </c>
       <c r="H23" s="3">
-        <v>2174000</v>
+        <v>2242000</v>
       </c>
       <c r="I23" s="3">
-        <v>1965200</v>
+        <v>2026700</v>
       </c>
       <c r="J23" s="3">
-        <v>1653100</v>
+        <v>1704800</v>
       </c>
       <c r="K23" s="3">
         <v>1653800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>660800</v>
+        <v>681400</v>
       </c>
       <c r="E24" s="3">
-        <v>805000</v>
+        <v>830200</v>
       </c>
       <c r="F24" s="3">
-        <v>567700</v>
+        <v>585500</v>
       </c>
       <c r="G24" s="3">
-        <v>608000</v>
+        <v>627000</v>
       </c>
       <c r="H24" s="3">
-        <v>547400</v>
+        <v>564500</v>
       </c>
       <c r="I24" s="3">
-        <v>533500</v>
+        <v>550200</v>
       </c>
       <c r="J24" s="3">
-        <v>475700</v>
+        <v>490600</v>
       </c>
       <c r="K24" s="3">
         <v>455600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2216600</v>
+        <v>2285900</v>
       </c>
       <c r="E26" s="3">
-        <v>1679100</v>
+        <v>1731600</v>
       </c>
       <c r="F26" s="3">
-        <v>1903200</v>
+        <v>1962700</v>
       </c>
       <c r="G26" s="3">
-        <v>1845700</v>
+        <v>1903400</v>
       </c>
       <c r="H26" s="3">
-        <v>1626600</v>
+        <v>1677500</v>
       </c>
       <c r="I26" s="3">
-        <v>1431700</v>
+        <v>1476500</v>
       </c>
       <c r="J26" s="3">
-        <v>1177400</v>
+        <v>1214200</v>
       </c>
       <c r="K26" s="3">
         <v>1198200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2216600</v>
+        <v>2285900</v>
       </c>
       <c r="E27" s="3">
-        <v>1679100</v>
+        <v>1731600</v>
       </c>
       <c r="F27" s="3">
-        <v>1903200</v>
+        <v>1962700</v>
       </c>
       <c r="G27" s="3">
-        <v>1845700</v>
+        <v>1903400</v>
       </c>
       <c r="H27" s="3">
-        <v>1626600</v>
+        <v>1677500</v>
       </c>
       <c r="I27" s="3">
-        <v>1431800</v>
+        <v>1476500</v>
       </c>
       <c r="J27" s="3">
-        <v>1177200</v>
+        <v>1214000</v>
       </c>
       <c r="K27" s="3">
         <v>1197800</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>375400</v>
+        <v>387100</v>
       </c>
       <c r="I29" s="3">
-        <v>243200</v>
+        <v>250800</v>
       </c>
       <c r="J29" s="3">
-        <v>147400</v>
+        <v>152000</v>
       </c>
       <c r="K29" s="3">
         <v>258100</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-43500</v>
+        <v>-44900</v>
       </c>
       <c r="E32" s="3">
-        <v>79000</v>
+        <v>81500</v>
       </c>
       <c r="F32" s="3">
-        <v>-47800</v>
+        <v>-49300</v>
       </c>
       <c r="G32" s="3">
-        <v>-61400</v>
+        <v>-63300</v>
       </c>
       <c r="H32" s="3">
-        <v>-44700</v>
+        <v>-46000</v>
       </c>
       <c r="I32" s="3">
-        <v>-47600</v>
+        <v>-49100</v>
       </c>
       <c r="J32" s="3">
-        <v>-61000</v>
+        <v>-62900</v>
       </c>
       <c r="K32" s="3">
         <v>-50600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2216600</v>
+        <v>2285900</v>
       </c>
       <c r="E33" s="3">
-        <v>1679100</v>
+        <v>1731600</v>
       </c>
       <c r="F33" s="3">
-        <v>1903200</v>
+        <v>1962700</v>
       </c>
       <c r="G33" s="3">
-        <v>1845700</v>
+        <v>1903400</v>
       </c>
       <c r="H33" s="3">
-        <v>2002000</v>
+        <v>2064600</v>
       </c>
       <c r="I33" s="3">
-        <v>1675000</v>
+        <v>1727300</v>
       </c>
       <c r="J33" s="3">
-        <v>1324600</v>
+        <v>1366000</v>
       </c>
       <c r="K33" s="3">
         <v>1455900</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2216600</v>
+        <v>2285900</v>
       </c>
       <c r="E35" s="3">
-        <v>1679100</v>
+        <v>1731600</v>
       </c>
       <c r="F35" s="3">
-        <v>1903200</v>
+        <v>1962700</v>
       </c>
       <c r="G35" s="3">
-        <v>1845700</v>
+        <v>1903400</v>
       </c>
       <c r="H35" s="3">
-        <v>2002000</v>
+        <v>2064600</v>
       </c>
       <c r="I35" s="3">
-        <v>1675000</v>
+        <v>1727300</v>
       </c>
       <c r="J35" s="3">
-        <v>1324600</v>
+        <v>1366000</v>
       </c>
       <c r="K35" s="3">
         <v>1455900</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2150200</v>
+        <v>2217500</v>
       </c>
       <c r="E41" s="3">
-        <v>1791400</v>
+        <v>1847400</v>
       </c>
       <c r="F41" s="3">
-        <v>1549600</v>
+        <v>1598100</v>
       </c>
       <c r="G41" s="3">
-        <v>1950000</v>
+        <v>2011000</v>
       </c>
       <c r="H41" s="3">
-        <v>1787600</v>
+        <v>1843500</v>
       </c>
       <c r="I41" s="3">
-        <v>1404900</v>
+        <v>1448900</v>
       </c>
       <c r="J41" s="3">
-        <v>1245000</v>
+        <v>1283900</v>
       </c>
       <c r="K41" s="3">
         <v>1186200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>845100</v>
+        <v>871500</v>
       </c>
       <c r="E43" s="3">
-        <v>853400</v>
+        <v>880100</v>
       </c>
       <c r="F43" s="3">
-        <v>688900</v>
+        <v>710400</v>
       </c>
       <c r="G43" s="3">
-        <v>604400</v>
+        <v>623300</v>
       </c>
       <c r="H43" s="3">
-        <v>544100</v>
+        <v>561100</v>
       </c>
       <c r="I43" s="3">
-        <v>493100</v>
+        <v>508500</v>
       </c>
       <c r="J43" s="3">
-        <v>490100</v>
+        <v>505400</v>
       </c>
       <c r="K43" s="3">
         <v>467000</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4033500</v>
+        <v>4159600</v>
       </c>
       <c r="E44" s="3">
-        <v>3433100</v>
+        <v>3540400</v>
       </c>
       <c r="F44" s="3">
-        <v>3392500</v>
+        <v>3498600</v>
       </c>
       <c r="G44" s="3">
-        <v>3181100</v>
+        <v>3280600</v>
       </c>
       <c r="H44" s="3">
-        <v>2986200</v>
+        <v>3079600</v>
       </c>
       <c r="I44" s="3">
-        <v>2695100</v>
+        <v>2779300</v>
       </c>
       <c r="J44" s="3">
-        <v>2498400</v>
+        <v>2576500</v>
       </c>
       <c r="K44" s="3">
         <v>2380500</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>43000</v>
+        <v>44400</v>
       </c>
       <c r="E45" s="3">
-        <v>35200</v>
+        <v>36300</v>
       </c>
       <c r="F45" s="3">
-        <v>89300</v>
+        <v>92100</v>
       </c>
       <c r="G45" s="3">
-        <v>70600</v>
+        <v>72800</v>
       </c>
       <c r="H45" s="3">
-        <v>49300</v>
+        <v>50900</v>
       </c>
       <c r="I45" s="3">
-        <v>631000</v>
+        <v>650700</v>
       </c>
       <c r="J45" s="3">
-        <v>27600</v>
+        <v>28500</v>
       </c>
       <c r="K45" s="3">
         <v>26300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7071900</v>
+        <v>7292900</v>
       </c>
       <c r="E46" s="3">
-        <v>6113000</v>
+        <v>6304100</v>
       </c>
       <c r="F46" s="3">
-        <v>5720300</v>
+        <v>5899100</v>
       </c>
       <c r="G46" s="3">
-        <v>5806200</v>
+        <v>5987700</v>
       </c>
       <c r="H46" s="3">
-        <v>5367300</v>
+        <v>5535100</v>
       </c>
       <c r="I46" s="3">
-        <v>5224000</v>
+        <v>5387300</v>
       </c>
       <c r="J46" s="3">
-        <v>4261100</v>
+        <v>4394300</v>
       </c>
       <c r="K46" s="3">
         <v>4060000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10054900</v>
+        <v>10369300</v>
       </c>
       <c r="E48" s="3">
-        <v>9614800</v>
+        <v>9915400</v>
       </c>
       <c r="F48" s="3">
-        <v>9463400</v>
+        <v>9759300</v>
       </c>
       <c r="G48" s="3">
-        <v>7242800</v>
+        <v>7469300</v>
       </c>
       <c r="H48" s="3">
-        <v>7034900</v>
+        <v>7254800</v>
       </c>
       <c r="I48" s="3">
-        <v>6847500</v>
+        <v>7061500</v>
       </c>
       <c r="J48" s="3">
-        <v>6539800</v>
+        <v>6744200</v>
       </c>
       <c r="K48" s="3">
         <v>6231100</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1946400</v>
+        <v>2007300</v>
       </c>
       <c r="E49" s="3">
-        <v>1885900</v>
+        <v>1944800</v>
       </c>
       <c r="F49" s="3">
-        <v>1862300</v>
+        <v>1920600</v>
       </c>
       <c r="G49" s="3">
-        <v>1858000</v>
+        <v>1916100</v>
       </c>
       <c r="H49" s="3">
-        <v>1977100</v>
+        <v>2038900</v>
       </c>
       <c r="I49" s="3">
-        <v>2076100</v>
+        <v>2141000</v>
       </c>
       <c r="J49" s="3">
-        <v>1730400</v>
+        <v>1784500</v>
       </c>
       <c r="K49" s="3">
         <v>1648700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>733000</v>
+        <v>755900</v>
       </c>
       <c r="E52" s="3">
-        <v>560000</v>
+        <v>577600</v>
       </c>
       <c r="F52" s="3">
-        <v>489400</v>
+        <v>504700</v>
       </c>
       <c r="G52" s="3">
-        <v>486800</v>
+        <v>502100</v>
       </c>
       <c r="H52" s="3">
-        <v>448500</v>
+        <v>462500</v>
       </c>
       <c r="I52" s="3">
-        <v>330400</v>
+        <v>340800</v>
       </c>
       <c r="J52" s="3">
-        <v>207000</v>
+        <v>213500</v>
       </c>
       <c r="K52" s="3">
         <v>197300</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19806200</v>
+        <v>20425400</v>
       </c>
       <c r="E54" s="3">
-        <v>18173800</v>
+        <v>18741900</v>
       </c>
       <c r="F54" s="3">
-        <v>17535400</v>
+        <v>18083600</v>
       </c>
       <c r="G54" s="3">
-        <v>15393900</v>
+        <v>15875100</v>
       </c>
       <c r="H54" s="3">
-        <v>14827700</v>
+        <v>15291300</v>
       </c>
       <c r="I54" s="3">
-        <v>14478000</v>
+        <v>14930600</v>
       </c>
       <c r="J54" s="3">
-        <v>12738300</v>
+        <v>13136500</v>
       </c>
       <c r="K54" s="3">
         <v>12137200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4853200</v>
+        <v>5004900</v>
       </c>
       <c r="E57" s="3">
-        <v>4638100</v>
+        <v>4783100</v>
       </c>
       <c r="F57" s="3">
-        <v>4375000</v>
+        <v>4511700</v>
       </c>
       <c r="G57" s="3">
-        <v>4285100</v>
+        <v>4419100</v>
       </c>
       <c r="H57" s="3">
-        <v>4022600</v>
+        <v>4148300</v>
       </c>
       <c r="I57" s="3">
-        <v>3310500</v>
+        <v>3413900</v>
       </c>
       <c r="J57" s="3">
-        <v>2832200</v>
+        <v>2920700</v>
       </c>
       <c r="K57" s="3">
         <v>2698500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>172700</v>
+        <v>178100</v>
       </c>
       <c r="E58" s="3">
-        <v>161500</v>
+        <v>166600</v>
       </c>
       <c r="F58" s="3">
-        <v>152900</v>
+        <v>157700</v>
       </c>
       <c r="G58" s="3">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="H58" s="3">
-        <v>19100</v>
+        <v>19700</v>
       </c>
       <c r="I58" s="3">
-        <v>26800</v>
+        <v>27600</v>
       </c>
       <c r="J58" s="3">
-        <v>27900</v>
+        <v>28800</v>
       </c>
       <c r="K58" s="3">
         <v>26600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1638800</v>
+        <v>1690000</v>
       </c>
       <c r="E59" s="3">
-        <v>1380900</v>
+        <v>1424100</v>
       </c>
       <c r="F59" s="3">
-        <v>1172100</v>
+        <v>1208700</v>
       </c>
       <c r="G59" s="3">
-        <v>1432800</v>
+        <v>1477600</v>
       </c>
       <c r="H59" s="3">
-        <v>1373400</v>
+        <v>1416300</v>
       </c>
       <c r="I59" s="3">
-        <v>2627200</v>
+        <v>2709300</v>
       </c>
       <c r="J59" s="3">
-        <v>1022300</v>
+        <v>1054300</v>
       </c>
       <c r="K59" s="3">
         <v>974100</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6664600</v>
+        <v>6873000</v>
       </c>
       <c r="E60" s="3">
-        <v>6180600</v>
+        <v>6373800</v>
       </c>
       <c r="F60" s="3">
-        <v>5699900</v>
+        <v>5878100</v>
       </c>
       <c r="G60" s="3">
-        <v>5733400</v>
+        <v>5912600</v>
       </c>
       <c r="H60" s="3">
-        <v>5415100</v>
+        <v>5584400</v>
       </c>
       <c r="I60" s="3">
-        <v>4736700</v>
+        <v>4884700</v>
       </c>
       <c r="J60" s="3">
-        <v>3882500</v>
+        <v>4003900</v>
       </c>
       <c r="K60" s="3">
         <v>3699300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3076100</v>
+        <v>3172300</v>
       </c>
       <c r="E61" s="3">
-        <v>2838500</v>
+        <v>2927200</v>
       </c>
       <c r="F61" s="3">
-        <v>2720300</v>
+        <v>2805400</v>
       </c>
       <c r="G61" s="3">
-        <v>711500</v>
+        <v>733700</v>
       </c>
       <c r="H61" s="3">
-        <v>689300</v>
+        <v>710900</v>
       </c>
       <c r="I61" s="3">
-        <v>656700</v>
+        <v>677300</v>
       </c>
       <c r="J61" s="3">
-        <v>658100</v>
+        <v>678700</v>
       </c>
       <c r="K61" s="3">
         <v>627000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>730500</v>
+        <v>753300</v>
       </c>
       <c r="E62" s="3">
-        <v>661600</v>
+        <v>682200</v>
       </c>
       <c r="F62" s="3">
-        <v>671000</v>
+        <v>691900</v>
       </c>
       <c r="G62" s="3">
-        <v>667000</v>
+        <v>687900</v>
       </c>
       <c r="H62" s="3">
-        <v>711500</v>
+        <v>733800</v>
       </c>
       <c r="I62" s="3">
-        <v>696600</v>
+        <v>718400</v>
       </c>
       <c r="J62" s="3">
-        <v>573300</v>
+        <v>591200</v>
       </c>
       <c r="K62" s="3">
         <v>546300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10471200</v>
+        <v>10798600</v>
       </c>
       <c r="E66" s="3">
-        <v>9680600</v>
+        <v>9983300</v>
       </c>
       <c r="F66" s="3">
-        <v>9091200</v>
+        <v>9375400</v>
       </c>
       <c r="G66" s="3">
-        <v>7111900</v>
+        <v>7334200</v>
       </c>
       <c r="H66" s="3">
-        <v>6815900</v>
+        <v>7029000</v>
       </c>
       <c r="I66" s="3">
-        <v>6090000</v>
+        <v>6280300</v>
       </c>
       <c r="J66" s="3">
-        <v>5115200</v>
+        <v>5275100</v>
       </c>
       <c r="K66" s="3">
         <v>4873800</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6062300</v>
+        <v>6251900</v>
       </c>
       <c r="E72" s="3">
-        <v>5257800</v>
+        <v>5422200</v>
       </c>
       <c r="F72" s="3">
-        <v>5183600</v>
+        <v>5345600</v>
       </c>
       <c r="G72" s="3">
-        <v>4997500</v>
+        <v>5153700</v>
       </c>
       <c r="H72" s="3">
-        <v>4544700</v>
+        <v>4686700</v>
       </c>
       <c r="I72" s="3">
-        <v>5181700</v>
+        <v>5343700</v>
       </c>
       <c r="J72" s="3">
-        <v>4785600</v>
+        <v>4935200</v>
       </c>
       <c r="K72" s="3">
         <v>4559800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9335000</v>
+        <v>9626800</v>
       </c>
       <c r="E76" s="3">
-        <v>8493100</v>
+        <v>8758700</v>
       </c>
       <c r="F76" s="3">
-        <v>8444200</v>
+        <v>8708200</v>
       </c>
       <c r="G76" s="3">
-        <v>8282000</v>
+        <v>8540900</v>
       </c>
       <c r="H76" s="3">
-        <v>8011800</v>
+        <v>8262300</v>
       </c>
       <c r="I76" s="3">
-        <v>8388000</v>
+        <v>8650300</v>
       </c>
       <c r="J76" s="3">
-        <v>7623100</v>
+        <v>7861500</v>
       </c>
       <c r="K76" s="3">
         <v>7263400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2216600</v>
+        <v>2285900</v>
       </c>
       <c r="E81" s="3">
-        <v>1679100</v>
+        <v>1731600</v>
       </c>
       <c r="F81" s="3">
-        <v>1903200</v>
+        <v>1962700</v>
       </c>
       <c r="G81" s="3">
-        <v>1845700</v>
+        <v>1903400</v>
       </c>
       <c r="H81" s="3">
-        <v>2002000</v>
+        <v>2064600</v>
       </c>
       <c r="I81" s="3">
-        <v>1675000</v>
+        <v>1727300</v>
       </c>
       <c r="J81" s="3">
-        <v>1324600</v>
+        <v>1366000</v>
       </c>
       <c r="K81" s="3">
         <v>1455900</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>919300</v>
+        <v>948100</v>
       </c>
       <c r="E83" s="3">
-        <v>900900</v>
+        <v>929100</v>
       </c>
       <c r="F83" s="3">
-        <v>853900</v>
+        <v>880600</v>
       </c>
       <c r="G83" s="3">
-        <v>630600</v>
+        <v>650400</v>
       </c>
       <c r="H83" s="3">
-        <v>584800</v>
+        <v>603100</v>
       </c>
       <c r="I83" s="3">
-        <v>537000</v>
+        <v>553800</v>
       </c>
       <c r="J83" s="3">
-        <v>503400</v>
+        <v>519200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3258400</v>
+        <v>3360200</v>
       </c>
       <c r="E89" s="3">
-        <v>3082200</v>
+        <v>3178500</v>
       </c>
       <c r="F89" s="3">
-        <v>2880400</v>
+        <v>2970500</v>
       </c>
       <c r="G89" s="3">
-        <v>2387200</v>
+        <v>2461800</v>
       </c>
       <c r="H89" s="3">
-        <v>2467600</v>
+        <v>2544700</v>
       </c>
       <c r="I89" s="3">
-        <v>2365800</v>
+        <v>2439700</v>
       </c>
       <c r="J89" s="3">
-        <v>1953700</v>
+        <v>2014800</v>
       </c>
       <c r="K89" s="3">
         <v>1825600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1027800</v>
+        <v>-1060000</v>
       </c>
       <c r="E91" s="3">
-        <v>-840100</v>
+        <v>-866300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1033300</v>
+        <v>-1065600</v>
       </c>
       <c r="G91" s="3">
-        <v>-900600</v>
+        <v>-928700</v>
       </c>
       <c r="H91" s="3">
-        <v>-875100</v>
+        <v>-902500</v>
       </c>
       <c r="I91" s="3">
-        <v>-719900</v>
+        <v>-742400</v>
       </c>
       <c r="J91" s="3">
-        <v>-629100</v>
+        <v>-648700</v>
       </c>
       <c r="K91" s="3">
         <v>-607300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-960700</v>
+        <v>-990800</v>
       </c>
       <c r="E94" s="3">
-        <v>-830100</v>
+        <v>-856000</v>
       </c>
       <c r="F94" s="3">
-        <v>-988400</v>
+        <v>-1019300</v>
       </c>
       <c r="G94" s="3">
-        <v>-776800</v>
+        <v>-801100</v>
       </c>
       <c r="H94" s="3">
-        <v>195200</v>
+        <v>201300</v>
       </c>
       <c r="I94" s="3">
-        <v>-693100</v>
+        <v>-714700</v>
       </c>
       <c r="J94" s="3">
-        <v>-403200</v>
+        <v>-415800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1415600</v>
+        <v>-1459900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1553500</v>
+        <v>-1602000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1805800</v>
+        <v>-1862200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1284700</v>
+        <v>-1324900</v>
       </c>
       <c r="H96" s="3">
-        <v>-2147200</v>
+        <v>-2214300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1455000</v>
+        <v>-1500500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1585100</v>
+        <v>-1634600</v>
       </c>
       <c r="K96" s="3">
         <v>-1035600</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1883000</v>
+        <v>-1941900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1993900</v>
+        <v>-2056200</v>
       </c>
       <c r="F100" s="3">
-        <v>-2223700</v>
+        <v>-2293200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1362900</v>
+        <v>-1405500</v>
       </c>
       <c r="H100" s="3">
-        <v>-2228800</v>
+        <v>-2298500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1536400</v>
+        <v>-1584400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1758300</v>
+        <v>-1813200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-55700</v>
+        <v>-57400</v>
       </c>
       <c r="E101" s="3">
-        <v>-16400</v>
+        <v>-17000</v>
       </c>
       <c r="F101" s="3">
-        <v>-68800</v>
+        <v>-70900</v>
       </c>
       <c r="G101" s="3">
-        <v>-85100</v>
+        <v>-87700</v>
       </c>
       <c r="H101" s="3">
-        <v>-51300</v>
+        <v>-52900</v>
       </c>
       <c r="I101" s="3">
-        <v>23600</v>
+        <v>24400</v>
       </c>
       <c r="J101" s="3">
-        <v>44100</v>
+        <v>45500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>358900</v>
+        <v>370100</v>
       </c>
       <c r="E102" s="3">
-        <v>241700</v>
+        <v>249300</v>
       </c>
       <c r="F102" s="3">
-        <v>-400400</v>
+        <v>-412900</v>
       </c>
       <c r="G102" s="3">
-        <v>162400</v>
+        <v>167500</v>
       </c>
       <c r="H102" s="3">
-        <v>382700</v>
+        <v>394700</v>
       </c>
       <c r="I102" s="3">
-        <v>159900</v>
+        <v>164900</v>
       </c>
       <c r="J102" s="3">
-        <v>-163600</v>
+        <v>-168700</v>
       </c>
       <c r="K102" s="3">
         <v>331000</v>

--- a/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>38119700</v>
+        <v>40121800</v>
       </c>
       <c r="E8" s="3">
-        <v>36342800</v>
+        <v>38251500</v>
       </c>
       <c r="F8" s="3">
-        <v>33500200</v>
+        <v>35259600</v>
       </c>
       <c r="G8" s="3">
-        <v>31949800</v>
+        <v>33627800</v>
       </c>
       <c r="H8" s="3">
-        <v>29694900</v>
+        <v>31254500</v>
       </c>
       <c r="I8" s="3">
-        <v>27572200</v>
+        <v>29020300</v>
       </c>
       <c r="J8" s="3">
-        <v>24647400</v>
+        <v>25941900</v>
       </c>
       <c r="K8" s="3">
         <v>21101300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>29220100</v>
+        <v>30754800</v>
       </c>
       <c r="E9" s="3">
-        <v>27950800</v>
+        <v>29418700</v>
       </c>
       <c r="F9" s="3">
-        <v>25832600</v>
+        <v>27189300</v>
       </c>
       <c r="G9" s="3">
-        <v>24617000</v>
+        <v>25909900</v>
       </c>
       <c r="H9" s="3">
-        <v>22906600</v>
+        <v>24109700</v>
       </c>
       <c r="I9" s="3">
-        <v>21487700</v>
+        <v>22616200</v>
       </c>
       <c r="J9" s="3">
-        <v>19333600</v>
+        <v>20349000</v>
       </c>
       <c r="K9" s="3">
         <v>16430200</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8899600</v>
+        <v>9367000</v>
       </c>
       <c r="E10" s="3">
-        <v>8392000</v>
+        <v>8832800</v>
       </c>
       <c r="F10" s="3">
-        <v>7667600</v>
+        <v>8070200</v>
       </c>
       <c r="G10" s="3">
-        <v>7332800</v>
+        <v>7717900</v>
       </c>
       <c r="H10" s="3">
-        <v>6788200</v>
+        <v>7144800</v>
       </c>
       <c r="I10" s="3">
-        <v>6084500</v>
+        <v>6404000</v>
       </c>
       <c r="J10" s="3">
-        <v>5313800</v>
+        <v>5592900</v>
       </c>
       <c r="K10" s="3">
         <v>4671100</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>34861700</v>
+        <v>36692700</v>
       </c>
       <c r="E17" s="3">
-        <v>33367600</v>
+        <v>35120100</v>
       </c>
       <c r="F17" s="3">
-        <v>30703400</v>
+        <v>32315900</v>
       </c>
       <c r="G17" s="3">
-        <v>29402200</v>
+        <v>30946400</v>
       </c>
       <c r="H17" s="3">
-        <v>27424500</v>
+        <v>28864900</v>
       </c>
       <c r="I17" s="3">
-        <v>25528800</v>
+        <v>26869600</v>
       </c>
       <c r="J17" s="3">
-        <v>22947200</v>
+        <v>24152400</v>
       </c>
       <c r="K17" s="3">
         <v>19440100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3258000</v>
+        <v>3429100</v>
       </c>
       <c r="E18" s="3">
-        <v>2975200</v>
+        <v>3131500</v>
       </c>
       <c r="F18" s="3">
-        <v>2796800</v>
+        <v>2943700</v>
       </c>
       <c r="G18" s="3">
-        <v>2547500</v>
+        <v>2681300</v>
       </c>
       <c r="H18" s="3">
-        <v>2270300</v>
+        <v>2389600</v>
       </c>
       <c r="I18" s="3">
-        <v>2043400</v>
+        <v>2150700</v>
       </c>
       <c r="J18" s="3">
-        <v>1700200</v>
+        <v>1789500</v>
       </c>
       <c r="K18" s="3">
         <v>1661200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>44900</v>
+        <v>47300</v>
       </c>
       <c r="E20" s="3">
-        <v>-81500</v>
+        <v>-85800</v>
       </c>
       <c r="F20" s="3">
-        <v>49300</v>
+        <v>51900</v>
       </c>
       <c r="G20" s="3">
-        <v>63300</v>
+        <v>66700</v>
       </c>
       <c r="H20" s="3">
-        <v>46000</v>
+        <v>48500</v>
       </c>
       <c r="I20" s="3">
-        <v>49100</v>
+        <v>51700</v>
       </c>
       <c r="J20" s="3">
-        <v>62900</v>
+        <v>66200</v>
       </c>
       <c r="K20" s="3">
         <v>50600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4238500</v>
+        <v>4474700</v>
       </c>
       <c r="E21" s="3">
-        <v>3810600</v>
+        <v>3991900</v>
       </c>
       <c r="F21" s="3">
-        <v>3715100</v>
+        <v>3694400</v>
       </c>
       <c r="G21" s="3">
-        <v>3252700</v>
+        <v>3396000</v>
       </c>
       <c r="H21" s="3">
-        <v>2911600</v>
+        <v>3033200</v>
       </c>
       <c r="I21" s="3">
-        <v>2639000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2275500</v>
+        <v>2760200</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>335500</v>
+        <v>353200</v>
       </c>
       <c r="E22" s="3">
-        <v>332000</v>
+        <v>349400</v>
       </c>
       <c r="F22" s="3">
-        <v>297900</v>
+        <v>313600</v>
       </c>
       <c r="G22" s="3">
-        <v>80400</v>
+        <v>84700</v>
       </c>
       <c r="H22" s="3">
-        <v>74400</v>
+        <v>78300</v>
       </c>
       <c r="I22" s="3">
-        <v>65800</v>
+        <v>69300</v>
       </c>
       <c r="J22" s="3">
-        <v>58300</v>
+        <v>61400</v>
       </c>
       <c r="K22" s="3">
         <v>58000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2967300</v>
+        <v>3123200</v>
       </c>
       <c r="E23" s="3">
-        <v>2561700</v>
+        <v>2696300</v>
       </c>
       <c r="F23" s="3">
-        <v>2548200</v>
+        <v>2682000</v>
       </c>
       <c r="G23" s="3">
-        <v>2530400</v>
+        <v>2663300</v>
       </c>
       <c r="H23" s="3">
-        <v>2242000</v>
+        <v>2359700</v>
       </c>
       <c r="I23" s="3">
-        <v>2026700</v>
+        <v>2133100</v>
       </c>
       <c r="J23" s="3">
-        <v>1704800</v>
+        <v>1794300</v>
       </c>
       <c r="K23" s="3">
         <v>1653800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>681400</v>
+        <v>717200</v>
       </c>
       <c r="E24" s="3">
-        <v>830200</v>
+        <v>873800</v>
       </c>
       <c r="F24" s="3">
-        <v>585500</v>
+        <v>616200</v>
       </c>
       <c r="G24" s="3">
-        <v>627000</v>
+        <v>660000</v>
       </c>
       <c r="H24" s="3">
-        <v>564500</v>
+        <v>594100</v>
       </c>
       <c r="I24" s="3">
-        <v>550200</v>
+        <v>579100</v>
       </c>
       <c r="J24" s="3">
-        <v>490600</v>
+        <v>516400</v>
       </c>
       <c r="K24" s="3">
         <v>455600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2285900</v>
+        <v>2406000</v>
       </c>
       <c r="E26" s="3">
-        <v>1731600</v>
+        <v>1822500</v>
       </c>
       <c r="F26" s="3">
-        <v>1962700</v>
+        <v>2065800</v>
       </c>
       <c r="G26" s="3">
-        <v>1903400</v>
+        <v>2003400</v>
       </c>
       <c r="H26" s="3">
-        <v>1677500</v>
+        <v>1765600</v>
       </c>
       <c r="I26" s="3">
-        <v>1476500</v>
+        <v>1554000</v>
       </c>
       <c r="J26" s="3">
-        <v>1214200</v>
+        <v>1277900</v>
       </c>
       <c r="K26" s="3">
         <v>1198200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2285900</v>
+        <v>2406000</v>
       </c>
       <c r="E27" s="3">
-        <v>1731600</v>
+        <v>1822500</v>
       </c>
       <c r="F27" s="3">
-        <v>1962700</v>
+        <v>2065800</v>
       </c>
       <c r="G27" s="3">
-        <v>1903400</v>
+        <v>2003400</v>
       </c>
       <c r="H27" s="3">
-        <v>1677500</v>
+        <v>1765600</v>
       </c>
       <c r="I27" s="3">
-        <v>1476500</v>
+        <v>1554100</v>
       </c>
       <c r="J27" s="3">
-        <v>1214000</v>
+        <v>1277800</v>
       </c>
       <c r="K27" s="3">
         <v>1197800</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>387100</v>
+        <v>407400</v>
       </c>
       <c r="I29" s="3">
-        <v>250800</v>
+        <v>264000</v>
       </c>
       <c r="J29" s="3">
-        <v>152000</v>
+        <v>160000</v>
       </c>
       <c r="K29" s="3">
         <v>258100</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-44900</v>
+        <v>-47300</v>
       </c>
       <c r="E32" s="3">
-        <v>81500</v>
+        <v>85800</v>
       </c>
       <c r="F32" s="3">
-        <v>-49300</v>
+        <v>-51900</v>
       </c>
       <c r="G32" s="3">
-        <v>-63300</v>
+        <v>-66700</v>
       </c>
       <c r="H32" s="3">
-        <v>-46000</v>
+        <v>-48500</v>
       </c>
       <c r="I32" s="3">
-        <v>-49100</v>
+        <v>-51700</v>
       </c>
       <c r="J32" s="3">
-        <v>-62900</v>
+        <v>-66200</v>
       </c>
       <c r="K32" s="3">
         <v>-50600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2285900</v>
+        <v>2406000</v>
       </c>
       <c r="E33" s="3">
-        <v>1731600</v>
+        <v>1822500</v>
       </c>
       <c r="F33" s="3">
-        <v>1962700</v>
+        <v>2065800</v>
       </c>
       <c r="G33" s="3">
-        <v>1903400</v>
+        <v>2003400</v>
       </c>
       <c r="H33" s="3">
-        <v>2064600</v>
+        <v>2173000</v>
       </c>
       <c r="I33" s="3">
-        <v>1727300</v>
+        <v>1818000</v>
       </c>
       <c r="J33" s="3">
-        <v>1366000</v>
+        <v>1437700</v>
       </c>
       <c r="K33" s="3">
         <v>1455900</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2285900</v>
+        <v>2406000</v>
       </c>
       <c r="E35" s="3">
-        <v>1731600</v>
+        <v>1822500</v>
       </c>
       <c r="F35" s="3">
-        <v>1962700</v>
+        <v>2065800</v>
       </c>
       <c r="G35" s="3">
-        <v>1903400</v>
+        <v>2003400</v>
       </c>
       <c r="H35" s="3">
-        <v>2064600</v>
+        <v>2173000</v>
       </c>
       <c r="I35" s="3">
-        <v>1727300</v>
+        <v>1818000</v>
       </c>
       <c r="J35" s="3">
-        <v>1366000</v>
+        <v>1437700</v>
       </c>
       <c r="K35" s="3">
         <v>1455900</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2217500</v>
+        <v>2333900</v>
       </c>
       <c r="E41" s="3">
-        <v>1847400</v>
+        <v>1944400</v>
       </c>
       <c r="F41" s="3">
-        <v>1598100</v>
+        <v>1682000</v>
       </c>
       <c r="G41" s="3">
-        <v>2011000</v>
+        <v>2116600</v>
       </c>
       <c r="H41" s="3">
-        <v>1843500</v>
+        <v>1940300</v>
       </c>
       <c r="I41" s="3">
-        <v>1448900</v>
+        <v>1524900</v>
       </c>
       <c r="J41" s="3">
-        <v>1283900</v>
+        <v>1351300</v>
       </c>
       <c r="K41" s="3">
         <v>1186200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>871500</v>
+        <v>917300</v>
       </c>
       <c r="E43" s="3">
-        <v>880100</v>
+        <v>926300</v>
       </c>
       <c r="F43" s="3">
-        <v>710400</v>
+        <v>747700</v>
       </c>
       <c r="G43" s="3">
-        <v>623300</v>
+        <v>656000</v>
       </c>
       <c r="H43" s="3">
-        <v>561100</v>
+        <v>590600</v>
       </c>
       <c r="I43" s="3">
-        <v>508500</v>
+        <v>535200</v>
       </c>
       <c r="J43" s="3">
-        <v>505400</v>
+        <v>531900</v>
       </c>
       <c r="K43" s="3">
         <v>467000</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4159600</v>
+        <v>4378100</v>
       </c>
       <c r="E44" s="3">
-        <v>3540400</v>
+        <v>3726300</v>
       </c>
       <c r="F44" s="3">
-        <v>3498600</v>
+        <v>3682300</v>
       </c>
       <c r="G44" s="3">
-        <v>3280600</v>
+        <v>3452900</v>
       </c>
       <c r="H44" s="3">
-        <v>3079600</v>
+        <v>3241300</v>
       </c>
       <c r="I44" s="3">
-        <v>2779300</v>
+        <v>2925300</v>
       </c>
       <c r="J44" s="3">
-        <v>2576500</v>
+        <v>2711800</v>
       </c>
       <c r="K44" s="3">
         <v>2380500</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>44400</v>
+        <v>46700</v>
       </c>
       <c r="E45" s="3">
-        <v>36300</v>
+        <v>38200</v>
       </c>
       <c r="F45" s="3">
-        <v>92100</v>
+        <v>96900</v>
       </c>
       <c r="G45" s="3">
-        <v>72800</v>
+        <v>76600</v>
       </c>
       <c r="H45" s="3">
-        <v>50900</v>
+        <v>53500</v>
       </c>
       <c r="I45" s="3">
-        <v>650700</v>
+        <v>684900</v>
       </c>
       <c r="J45" s="3">
-        <v>28500</v>
+        <v>30000</v>
       </c>
       <c r="K45" s="3">
         <v>26300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7292900</v>
+        <v>7676000</v>
       </c>
       <c r="E46" s="3">
-        <v>6304100</v>
+        <v>6635200</v>
       </c>
       <c r="F46" s="3">
-        <v>5899100</v>
+        <v>6209000</v>
       </c>
       <c r="G46" s="3">
-        <v>5987700</v>
+        <v>6302200</v>
       </c>
       <c r="H46" s="3">
-        <v>5535100</v>
+        <v>5825800</v>
       </c>
       <c r="I46" s="3">
-        <v>5387300</v>
+        <v>5670300</v>
       </c>
       <c r="J46" s="3">
-        <v>4394300</v>
+        <v>4625100</v>
       </c>
       <c r="K46" s="3">
         <v>4060000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10369300</v>
+        <v>10913900</v>
       </c>
       <c r="E48" s="3">
-        <v>9915400</v>
+        <v>10436200</v>
       </c>
       <c r="F48" s="3">
-        <v>9759300</v>
+        <v>10271800</v>
       </c>
       <c r="G48" s="3">
-        <v>7469300</v>
+        <v>7861500</v>
       </c>
       <c r="H48" s="3">
-        <v>7254800</v>
+        <v>7635800</v>
       </c>
       <c r="I48" s="3">
-        <v>7061500</v>
+        <v>7432400</v>
       </c>
       <c r="J48" s="3">
-        <v>6744200</v>
+        <v>7098400</v>
       </c>
       <c r="K48" s="3">
         <v>6231100</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2007300</v>
+        <v>2112700</v>
       </c>
       <c r="E49" s="3">
-        <v>1944800</v>
+        <v>2047000</v>
       </c>
       <c r="F49" s="3">
-        <v>1920600</v>
+        <v>2021400</v>
       </c>
       <c r="G49" s="3">
-        <v>1916100</v>
+        <v>2016700</v>
       </c>
       <c r="H49" s="3">
-        <v>2038900</v>
+        <v>2146000</v>
       </c>
       <c r="I49" s="3">
-        <v>2141000</v>
+        <v>2253400</v>
       </c>
       <c r="J49" s="3">
-        <v>1784500</v>
+        <v>1878200</v>
       </c>
       <c r="K49" s="3">
         <v>1648700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>755900</v>
+        <v>795600</v>
       </c>
       <c r="E52" s="3">
-        <v>577600</v>
+        <v>607900</v>
       </c>
       <c r="F52" s="3">
-        <v>504700</v>
+        <v>531200</v>
       </c>
       <c r="G52" s="3">
-        <v>502100</v>
+        <v>528400</v>
       </c>
       <c r="H52" s="3">
-        <v>462500</v>
+        <v>486800</v>
       </c>
       <c r="I52" s="3">
-        <v>340800</v>
+        <v>358700</v>
       </c>
       <c r="J52" s="3">
-        <v>213500</v>
+        <v>224700</v>
       </c>
       <c r="K52" s="3">
         <v>197300</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20425400</v>
+        <v>21498200</v>
       </c>
       <c r="E54" s="3">
-        <v>18741900</v>
+        <v>19726200</v>
       </c>
       <c r="F54" s="3">
-        <v>18083600</v>
+        <v>19033400</v>
       </c>
       <c r="G54" s="3">
-        <v>15875100</v>
+        <v>16708900</v>
       </c>
       <c r="H54" s="3">
-        <v>15291300</v>
+        <v>16094400</v>
       </c>
       <c r="I54" s="3">
-        <v>14930600</v>
+        <v>15714800</v>
       </c>
       <c r="J54" s="3">
-        <v>13136500</v>
+        <v>13826500</v>
       </c>
       <c r="K54" s="3">
         <v>12137200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5004900</v>
+        <v>5267700</v>
       </c>
       <c r="E57" s="3">
-        <v>4783100</v>
+        <v>5034300</v>
       </c>
       <c r="F57" s="3">
-        <v>4511700</v>
+        <v>4748700</v>
       </c>
       <c r="G57" s="3">
-        <v>4419100</v>
+        <v>4651200</v>
       </c>
       <c r="H57" s="3">
-        <v>4148300</v>
+        <v>4366200</v>
       </c>
       <c r="I57" s="3">
-        <v>3413900</v>
+        <v>3593200</v>
       </c>
       <c r="J57" s="3">
-        <v>2920700</v>
+        <v>3074100</v>
       </c>
       <c r="K57" s="3">
         <v>2698500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>178100</v>
+        <v>187400</v>
       </c>
       <c r="E58" s="3">
-        <v>166600</v>
+        <v>175300</v>
       </c>
       <c r="F58" s="3">
-        <v>157700</v>
+        <v>165900</v>
       </c>
       <c r="G58" s="3">
-        <v>16000</v>
+        <v>16800</v>
       </c>
       <c r="H58" s="3">
-        <v>19700</v>
+        <v>20800</v>
       </c>
       <c r="I58" s="3">
-        <v>27600</v>
+        <v>29100</v>
       </c>
       <c r="J58" s="3">
-        <v>28800</v>
+        <v>30300</v>
       </c>
       <c r="K58" s="3">
         <v>26600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1690000</v>
+        <v>1778800</v>
       </c>
       <c r="E59" s="3">
-        <v>1424100</v>
+        <v>1498900</v>
       </c>
       <c r="F59" s="3">
-        <v>1208700</v>
+        <v>1272200</v>
       </c>
       <c r="G59" s="3">
-        <v>1477600</v>
+        <v>1555200</v>
       </c>
       <c r="H59" s="3">
-        <v>1416300</v>
+        <v>1490700</v>
       </c>
       <c r="I59" s="3">
-        <v>2709300</v>
+        <v>2851600</v>
       </c>
       <c r="J59" s="3">
-        <v>1054300</v>
+        <v>1109700</v>
       </c>
       <c r="K59" s="3">
         <v>974100</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6873000</v>
+        <v>7233900</v>
       </c>
       <c r="E60" s="3">
-        <v>6373800</v>
+        <v>6708500</v>
       </c>
       <c r="F60" s="3">
-        <v>5878100</v>
+        <v>6186800</v>
       </c>
       <c r="G60" s="3">
-        <v>5912600</v>
+        <v>6223200</v>
       </c>
       <c r="H60" s="3">
-        <v>5584400</v>
+        <v>5877700</v>
       </c>
       <c r="I60" s="3">
-        <v>4884700</v>
+        <v>5141300</v>
       </c>
       <c r="J60" s="3">
-        <v>4003900</v>
+        <v>4214100</v>
       </c>
       <c r="K60" s="3">
         <v>3699300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3172300</v>
+        <v>3338900</v>
       </c>
       <c r="E61" s="3">
-        <v>2927200</v>
+        <v>3081000</v>
       </c>
       <c r="F61" s="3">
-        <v>2805400</v>
+        <v>2952700</v>
       </c>
       <c r="G61" s="3">
-        <v>733700</v>
+        <v>772300</v>
       </c>
       <c r="H61" s="3">
-        <v>710900</v>
+        <v>748200</v>
       </c>
       <c r="I61" s="3">
-        <v>677300</v>
+        <v>712800</v>
       </c>
       <c r="J61" s="3">
-        <v>678700</v>
+        <v>714300</v>
       </c>
       <c r="K61" s="3">
         <v>627000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>753300</v>
+        <v>792900</v>
       </c>
       <c r="E62" s="3">
-        <v>682200</v>
+        <v>718100</v>
       </c>
       <c r="F62" s="3">
-        <v>691900</v>
+        <v>728300</v>
       </c>
       <c r="G62" s="3">
-        <v>687900</v>
+        <v>724000</v>
       </c>
       <c r="H62" s="3">
-        <v>733800</v>
+        <v>772300</v>
       </c>
       <c r="I62" s="3">
-        <v>718400</v>
+        <v>756100</v>
       </c>
       <c r="J62" s="3">
-        <v>591200</v>
+        <v>622300</v>
       </c>
       <c r="K62" s="3">
         <v>546300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10798600</v>
+        <v>11365700</v>
       </c>
       <c r="E66" s="3">
-        <v>9983300</v>
+        <v>10507600</v>
       </c>
       <c r="F66" s="3">
-        <v>9375400</v>
+        <v>9867800</v>
       </c>
       <c r="G66" s="3">
-        <v>7334200</v>
+        <v>7719400</v>
       </c>
       <c r="H66" s="3">
-        <v>7029000</v>
+        <v>7398200</v>
       </c>
       <c r="I66" s="3">
-        <v>6280300</v>
+        <v>6610200</v>
       </c>
       <c r="J66" s="3">
-        <v>5275100</v>
+        <v>5552100</v>
       </c>
       <c r="K66" s="3">
         <v>4873800</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6251900</v>
+        <v>6580200</v>
       </c>
       <c r="E72" s="3">
-        <v>5422200</v>
+        <v>5706900</v>
       </c>
       <c r="F72" s="3">
-        <v>5345600</v>
+        <v>5626400</v>
       </c>
       <c r="G72" s="3">
-        <v>5153700</v>
+        <v>5424400</v>
       </c>
       <c r="H72" s="3">
-        <v>4686700</v>
+        <v>4932900</v>
       </c>
       <c r="I72" s="3">
-        <v>5343700</v>
+        <v>5624300</v>
       </c>
       <c r="J72" s="3">
-        <v>4935200</v>
+        <v>5194400</v>
       </c>
       <c r="K72" s="3">
         <v>4559800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9626800</v>
+        <v>10132400</v>
       </c>
       <c r="E76" s="3">
-        <v>8758700</v>
+        <v>9218700</v>
       </c>
       <c r="F76" s="3">
-        <v>8708200</v>
+        <v>9165600</v>
       </c>
       <c r="G76" s="3">
-        <v>8540900</v>
+        <v>8989500</v>
       </c>
       <c r="H76" s="3">
-        <v>8262300</v>
+        <v>8696200</v>
       </c>
       <c r="I76" s="3">
-        <v>8650300</v>
+        <v>9104600</v>
       </c>
       <c r="J76" s="3">
-        <v>7861500</v>
+        <v>8274300</v>
       </c>
       <c r="K76" s="3">
         <v>7263400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2285900</v>
+        <v>2406000</v>
       </c>
       <c r="E81" s="3">
-        <v>1731600</v>
+        <v>1822500</v>
       </c>
       <c r="F81" s="3">
-        <v>1962700</v>
+        <v>2065800</v>
       </c>
       <c r="G81" s="3">
-        <v>1903400</v>
+        <v>2003400</v>
       </c>
       <c r="H81" s="3">
-        <v>2064600</v>
+        <v>2173000</v>
       </c>
       <c r="I81" s="3">
-        <v>1727300</v>
+        <v>1818000</v>
       </c>
       <c r="J81" s="3">
-        <v>1366000</v>
+        <v>1437700</v>
       </c>
       <c r="K81" s="3">
         <v>1455900</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>948100</v>
+        <v>977900</v>
       </c>
       <c r="E83" s="3">
-        <v>929100</v>
+        <v>926800</v>
       </c>
       <c r="F83" s="3">
-        <v>880600</v>
+        <v>684500</v>
       </c>
       <c r="G83" s="3">
-        <v>650400</v>
+        <v>634800</v>
       </c>
       <c r="H83" s="3">
-        <v>603100</v>
+        <v>582900</v>
       </c>
       <c r="I83" s="3">
-        <v>553800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>519200</v>
+        <v>546400</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3360200</v>
+        <v>3345400</v>
       </c>
       <c r="E89" s="3">
-        <v>3178500</v>
+        <v>3126500</v>
       </c>
       <c r="F89" s="3">
-        <v>2970500</v>
+        <v>2591100</v>
       </c>
       <c r="G89" s="3">
-        <v>2461800</v>
+        <v>2678400</v>
       </c>
       <c r="H89" s="3">
-        <v>2544700</v>
+        <v>2567900</v>
       </c>
       <c r="I89" s="3">
-        <v>2439700</v>
+        <v>2120600</v>
       </c>
       <c r="J89" s="3">
-        <v>2014800</v>
+        <v>2079700</v>
       </c>
       <c r="K89" s="3">
         <v>1825600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1060000</v>
+        <v>-911800</v>
       </c>
       <c r="E91" s="3">
-        <v>-866300</v>
+        <v>-1121500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1065600</v>
+        <v>-977500</v>
       </c>
       <c r="G91" s="3">
-        <v>-928700</v>
+        <v>-949900</v>
       </c>
       <c r="H91" s="3">
-        <v>-902500</v>
+        <v>-781400</v>
       </c>
       <c r="I91" s="3">
-        <v>-742400</v>
+        <v>-682800</v>
       </c>
       <c r="J91" s="3">
-        <v>-648700</v>
+        <v>-691800</v>
       </c>
       <c r="K91" s="3">
         <v>-607300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-990800</v>
+        <v>-901000</v>
       </c>
       <c r="E94" s="3">
-        <v>-856000</v>
+        <v>-1072800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1019300</v>
+        <v>-843200</v>
       </c>
       <c r="G94" s="3">
-        <v>-801100</v>
+        <v>211900</v>
       </c>
       <c r="H94" s="3">
-        <v>201300</v>
+        <v>-752300</v>
       </c>
       <c r="I94" s="3">
-        <v>-714700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-415800</v>
+        <v>-437600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1459900</v>
+        <v>-1686200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1602000</v>
+        <v>-1960000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1862200</v>
+        <v>-1394500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1324900</v>
+        <v>-2330600</v>
       </c>
       <c r="H96" s="3">
-        <v>-2214300</v>
+        <v>-1579300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1500500</v>
+        <v>-1720500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1634600</v>
+        <v>-1179700</v>
       </c>
       <c r="K96" s="3">
         <v>-1035600</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1941900</v>
+        <v>-2164200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2056200</v>
+        <v>-2413600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2293200</v>
+        <v>-1479400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1405500</v>
+        <v>-2419200</v>
       </c>
       <c r="H100" s="3">
-        <v>-2298500</v>
+        <v>-1667600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1584400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-1813200</v>
+        <v>-1908500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-57400</v>
+        <v>-17800</v>
       </c>
       <c r="E101" s="3">
-        <v>-17000</v>
+        <v>-74700</v>
       </c>
       <c r="F101" s="3">
-        <v>-70900</v>
+        <v>-92300</v>
       </c>
       <c r="G101" s="3">
-        <v>-87700</v>
+        <v>-55600</v>
       </c>
       <c r="H101" s="3">
-        <v>-52900</v>
+        <v>25600</v>
       </c>
       <c r="I101" s="3">
-        <v>24400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>45500</v>
+        <v>47900</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>370100</v>
+        <v>262400</v>
       </c>
       <c r="E102" s="3">
-        <v>249300</v>
+        <v>-434600</v>
       </c>
       <c r="F102" s="3">
-        <v>-412900</v>
+        <v>176300</v>
       </c>
       <c r="G102" s="3">
-        <v>167500</v>
+        <v>415400</v>
       </c>
       <c r="H102" s="3">
-        <v>394700</v>
+        <v>173600</v>
       </c>
       <c r="I102" s="3">
-        <v>164900</v>
+        <v>-177500</v>
       </c>
       <c r="J102" s="3">
-        <v>-168700</v>
+        <v>377100</v>
       </c>
       <c r="K102" s="3">
         <v>331000</v>

--- a/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>40121800</v>
+        <v>46274900</v>
       </c>
       <c r="E8" s="3">
-        <v>38251500</v>
+        <v>41579100</v>
       </c>
       <c r="F8" s="3">
-        <v>35259600</v>
+        <v>39641000</v>
       </c>
       <c r="G8" s="3">
-        <v>33627800</v>
+        <v>36540400</v>
       </c>
       <c r="H8" s="3">
-        <v>31254500</v>
+        <v>34849300</v>
       </c>
       <c r="I8" s="3">
-        <v>29020300</v>
+        <v>32389700</v>
       </c>
       <c r="J8" s="3">
+        <v>30074400</v>
+      </c>
+      <c r="K8" s="3">
         <v>25941900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21101300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21161500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22090500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19594100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>30754800</v>
+        <v>35462800</v>
       </c>
       <c r="E9" s="3">
-        <v>29418700</v>
+        <v>31871900</v>
       </c>
       <c r="F9" s="3">
-        <v>27189300</v>
+        <v>30487300</v>
       </c>
       <c r="G9" s="3">
-        <v>25909900</v>
+        <v>28177000</v>
       </c>
       <c r="H9" s="3">
-        <v>24109700</v>
+        <v>26851000</v>
       </c>
       <c r="I9" s="3">
-        <v>22616200</v>
+        <v>24985500</v>
       </c>
       <c r="J9" s="3">
+        <v>23437700</v>
+      </c>
+      <c r="K9" s="3">
         <v>20349000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16430200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16520600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17253400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15192200</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9367000</v>
+        <v>10812100</v>
       </c>
       <c r="E10" s="3">
-        <v>8832800</v>
+        <v>9707200</v>
       </c>
       <c r="F10" s="3">
-        <v>8070200</v>
+        <v>9153600</v>
       </c>
       <c r="G10" s="3">
-        <v>7717900</v>
+        <v>8363400</v>
       </c>
       <c r="H10" s="3">
-        <v>7144800</v>
+        <v>7998200</v>
       </c>
       <c r="I10" s="3">
-        <v>6404000</v>
+        <v>7404300</v>
       </c>
       <c r="J10" s="3">
+        <v>6636700</v>
+      </c>
+      <c r="K10" s="3">
         <v>5592900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4671100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4640900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4837100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4401900</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,9 +986,12 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36692700</v>
+        <v>42432900</v>
       </c>
       <c r="E17" s="3">
-        <v>35120100</v>
+        <v>38025500</v>
       </c>
       <c r="F17" s="3">
-        <v>32315900</v>
+        <v>36395800</v>
       </c>
       <c r="G17" s="3">
-        <v>30946400</v>
+        <v>33489700</v>
       </c>
       <c r="H17" s="3">
-        <v>28864900</v>
+        <v>32070500</v>
       </c>
       <c r="I17" s="3">
-        <v>26869600</v>
+        <v>29913300</v>
       </c>
       <c r="J17" s="3">
+        <v>27845600</v>
+      </c>
+      <c r="K17" s="3">
         <v>24152400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19440100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19581900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20406000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18066600</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3429100</v>
+        <v>3842000</v>
       </c>
       <c r="E18" s="3">
-        <v>3131500</v>
+        <v>3553700</v>
       </c>
       <c r="F18" s="3">
-        <v>2943700</v>
+        <v>3245200</v>
       </c>
       <c r="G18" s="3">
-        <v>2681300</v>
+        <v>3050600</v>
       </c>
       <c r="H18" s="3">
-        <v>2389600</v>
+        <v>2778700</v>
       </c>
       <c r="I18" s="3">
-        <v>2150700</v>
+        <v>2476400</v>
       </c>
       <c r="J18" s="3">
+        <v>2228800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1789500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1661200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1579600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1684500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1527500</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>47300</v>
+        <v>135800</v>
       </c>
       <c r="E20" s="3">
-        <v>-85800</v>
+        <v>49000</v>
       </c>
       <c r="F20" s="3">
-        <v>51900</v>
+        <v>-88900</v>
       </c>
       <c r="G20" s="3">
-        <v>66700</v>
+        <v>53800</v>
       </c>
       <c r="H20" s="3">
-        <v>48500</v>
+        <v>69100</v>
       </c>
       <c r="I20" s="3">
-        <v>51700</v>
+        <v>50200</v>
       </c>
       <c r="J20" s="3">
+        <v>53600</v>
+      </c>
+      <c r="K20" s="3">
         <v>66200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>50600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>54800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>133100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>59300</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4474700</v>
+        <v>5078600</v>
       </c>
       <c r="E21" s="3">
-        <v>3991900</v>
+        <v>4643500</v>
       </c>
       <c r="F21" s="3">
-        <v>3694400</v>
+        <v>4176400</v>
       </c>
       <c r="G21" s="3">
-        <v>3396000</v>
+        <v>4071100</v>
       </c>
       <c r="H21" s="3">
-        <v>3033200</v>
+        <v>3561900</v>
       </c>
       <c r="I21" s="3">
-        <v>2760200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>3188700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2890400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>2068300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2269100</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>353200</v>
+        <v>398200</v>
       </c>
       <c r="E22" s="3">
-        <v>349400</v>
+        <v>366000</v>
       </c>
       <c r="F22" s="3">
-        <v>313600</v>
+        <v>362100</v>
       </c>
       <c r="G22" s="3">
-        <v>84700</v>
+        <v>325000</v>
       </c>
       <c r="H22" s="3">
-        <v>78300</v>
+        <v>87700</v>
       </c>
       <c r="I22" s="3">
-        <v>69300</v>
+        <v>81200</v>
       </c>
       <c r="J22" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K22" s="3">
         <v>61400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>58000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>55600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>111600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>46600</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3123200</v>
+        <v>3579600</v>
       </c>
       <c r="E23" s="3">
-        <v>2696300</v>
+        <v>3236600</v>
       </c>
       <c r="F23" s="3">
-        <v>2682000</v>
+        <v>2794200</v>
       </c>
       <c r="G23" s="3">
-        <v>2663300</v>
+        <v>2779400</v>
       </c>
       <c r="H23" s="3">
-        <v>2359700</v>
+        <v>2760100</v>
       </c>
       <c r="I23" s="3">
-        <v>2133100</v>
+        <v>2445500</v>
       </c>
       <c r="J23" s="3">
+        <v>2210600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1794300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1653800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1578800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1706000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1540200</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>717200</v>
+        <v>813000</v>
       </c>
       <c r="E24" s="3">
-        <v>873800</v>
+        <v>743300</v>
       </c>
       <c r="F24" s="3">
-        <v>616200</v>
+        <v>905500</v>
       </c>
       <c r="G24" s="3">
-        <v>660000</v>
+        <v>638600</v>
       </c>
       <c r="H24" s="3">
-        <v>594100</v>
+        <v>683900</v>
       </c>
       <c r="I24" s="3">
-        <v>579100</v>
+        <v>615700</v>
       </c>
       <c r="J24" s="3">
+        <v>600100</v>
+      </c>
+      <c r="K24" s="3">
         <v>516400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>455600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>480900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>495200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>398000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2406000</v>
+        <v>2766600</v>
       </c>
       <c r="E26" s="3">
-        <v>1822500</v>
+        <v>2493400</v>
       </c>
       <c r="F26" s="3">
-        <v>2065800</v>
+        <v>1888700</v>
       </c>
       <c r="G26" s="3">
-        <v>2003400</v>
+        <v>2140800</v>
       </c>
       <c r="H26" s="3">
-        <v>1765600</v>
+        <v>2076200</v>
       </c>
       <c r="I26" s="3">
-        <v>1554000</v>
+        <v>1829700</v>
       </c>
       <c r="J26" s="3">
+        <v>1610500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1277900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1198200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1097900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1210800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1142200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2406000</v>
+        <v>2766600</v>
       </c>
       <c r="E27" s="3">
-        <v>1822500</v>
+        <v>2493400</v>
       </c>
       <c r="F27" s="3">
-        <v>2065800</v>
+        <v>1888700</v>
       </c>
       <c r="G27" s="3">
-        <v>2003400</v>
+        <v>2140800</v>
       </c>
       <c r="H27" s="3">
-        <v>1765600</v>
+        <v>2076200</v>
       </c>
       <c r="I27" s="3">
-        <v>1554100</v>
+        <v>1829700</v>
       </c>
       <c r="J27" s="3">
+        <v>1610500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1277800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1197800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1098100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1211200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1142000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1481,33 +1541,36 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>407400</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>264000</v>
+        <v>422200</v>
       </c>
       <c r="J29" s="3">
+        <v>273600</v>
+      </c>
+      <c r="K29" s="3">
         <v>160000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>258100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>36200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>36600</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-47300</v>
+        <v>-135800</v>
       </c>
       <c r="E32" s="3">
-        <v>85800</v>
+        <v>-49000</v>
       </c>
       <c r="F32" s="3">
-        <v>-51900</v>
+        <v>88900</v>
       </c>
       <c r="G32" s="3">
-        <v>-66700</v>
+        <v>-53800</v>
       </c>
       <c r="H32" s="3">
-        <v>-48500</v>
+        <v>-69100</v>
       </c>
       <c r="I32" s="3">
-        <v>-51700</v>
+        <v>-50200</v>
       </c>
       <c r="J32" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-66200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-50600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-54800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-133100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-59300</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2406000</v>
+        <v>2766600</v>
       </c>
       <c r="E33" s="3">
-        <v>1822500</v>
+        <v>2493400</v>
       </c>
       <c r="F33" s="3">
-        <v>2065800</v>
+        <v>1888700</v>
       </c>
       <c r="G33" s="3">
-        <v>2003400</v>
+        <v>2140800</v>
       </c>
       <c r="H33" s="3">
-        <v>2173000</v>
+        <v>2076200</v>
       </c>
       <c r="I33" s="3">
-        <v>1818000</v>
+        <v>2252000</v>
       </c>
       <c r="J33" s="3">
+        <v>1884100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1437700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1455900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1134300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1247800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1142000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2406000</v>
+        <v>2766600</v>
       </c>
       <c r="E35" s="3">
-        <v>1822500</v>
+        <v>2493400</v>
       </c>
       <c r="F35" s="3">
-        <v>2065800</v>
+        <v>1888700</v>
       </c>
       <c r="G35" s="3">
-        <v>2003400</v>
+        <v>2140800</v>
       </c>
       <c r="H35" s="3">
-        <v>2173000</v>
+        <v>2076200</v>
       </c>
       <c r="I35" s="3">
-        <v>1818000</v>
+        <v>2252000</v>
       </c>
       <c r="J35" s="3">
+        <v>1884100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1437700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1455900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1134300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1247800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1142000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2333900</v>
+        <v>2679200</v>
       </c>
       <c r="E41" s="3">
-        <v>1944400</v>
+        <v>2418700</v>
       </c>
       <c r="F41" s="3">
-        <v>1682000</v>
+        <v>2015000</v>
       </c>
       <c r="G41" s="3">
-        <v>2116600</v>
+        <v>1743100</v>
       </c>
       <c r="H41" s="3">
-        <v>1940300</v>
+        <v>2193500</v>
       </c>
       <c r="I41" s="3">
-        <v>1524900</v>
+        <v>2010800</v>
       </c>
       <c r="J41" s="3">
+        <v>1580300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1351300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1186200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2110000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1509800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2603200</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1895,165 +1984,180 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>917300</v>
+        <v>944500</v>
       </c>
       <c r="E43" s="3">
-        <v>926300</v>
+        <v>950600</v>
       </c>
       <c r="F43" s="3">
-        <v>747700</v>
+        <v>960000</v>
       </c>
       <c r="G43" s="3">
-        <v>656000</v>
+        <v>774900</v>
       </c>
       <c r="H43" s="3">
-        <v>590600</v>
+        <v>679900</v>
       </c>
       <c r="I43" s="3">
-        <v>535200</v>
+        <v>612000</v>
       </c>
       <c r="J43" s="3">
+        <v>554600</v>
+      </c>
+      <c r="K43" s="3">
         <v>531900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>467000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>634200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>556300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>593800</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4378100</v>
+        <v>5053700</v>
       </c>
       <c r="E44" s="3">
-        <v>3726300</v>
+        <v>4537100</v>
       </c>
       <c r="F44" s="3">
-        <v>3682300</v>
+        <v>3861700</v>
       </c>
       <c r="G44" s="3">
-        <v>3452900</v>
+        <v>3816100</v>
       </c>
       <c r="H44" s="3">
-        <v>3241300</v>
+        <v>3578300</v>
       </c>
       <c r="I44" s="3">
-        <v>2925300</v>
+        <v>3359100</v>
       </c>
       <c r="J44" s="3">
+        <v>3031500</v>
+      </c>
+      <c r="K44" s="3">
         <v>2711800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2380500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4373400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2095700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2141200</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>46700</v>
+        <v>52200</v>
       </c>
       <c r="E45" s="3">
-        <v>38200</v>
+        <v>48400</v>
       </c>
       <c r="F45" s="3">
-        <v>96900</v>
+        <v>39600</v>
       </c>
       <c r="G45" s="3">
-        <v>76600</v>
+        <v>100400</v>
       </c>
       <c r="H45" s="3">
-        <v>53500</v>
+        <v>79400</v>
       </c>
       <c r="I45" s="3">
-        <v>684900</v>
+        <v>55500</v>
       </c>
       <c r="J45" s="3">
+        <v>709700</v>
+      </c>
+      <c r="K45" s="3">
         <v>30000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>257900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>54500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>48800</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7676000</v>
+        <v>8729600</v>
       </c>
       <c r="E46" s="3">
-        <v>6635200</v>
+        <v>7954800</v>
       </c>
       <c r="F46" s="3">
-        <v>6209000</v>
+        <v>6876200</v>
       </c>
       <c r="G46" s="3">
-        <v>6302200</v>
+        <v>6434500</v>
       </c>
       <c r="H46" s="3">
-        <v>5825800</v>
+        <v>6531100</v>
       </c>
       <c r="I46" s="3">
-        <v>5670300</v>
+        <v>6037400</v>
       </c>
       <c r="J46" s="3">
+        <v>5876200</v>
+      </c>
+      <c r="K46" s="3">
         <v>4625100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4060000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4126700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4216300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3948700</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2078,99 +2182,108 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10400</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>15300</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10913900</v>
+        <v>11785800</v>
       </c>
       <c r="E48" s="3">
-        <v>10436200</v>
+        <v>11310300</v>
       </c>
       <c r="F48" s="3">
-        <v>10271800</v>
+        <v>10815300</v>
       </c>
       <c r="G48" s="3">
-        <v>7861500</v>
+        <v>10644900</v>
       </c>
       <c r="H48" s="3">
-        <v>7635800</v>
+        <v>8147100</v>
       </c>
       <c r="I48" s="3">
-        <v>7432400</v>
+        <v>7913200</v>
       </c>
       <c r="J48" s="3">
+        <v>7702400</v>
+      </c>
+      <c r="K48" s="3">
         <v>7098400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6231100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5468400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6292600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8025400</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2112700</v>
+        <v>2215400</v>
       </c>
       <c r="E49" s="3">
-        <v>2047000</v>
+        <v>2189400</v>
       </c>
       <c r="F49" s="3">
-        <v>2021400</v>
+        <v>2121300</v>
       </c>
       <c r="G49" s="3">
-        <v>2016700</v>
+        <v>2094900</v>
       </c>
       <c r="H49" s="3">
-        <v>2146000</v>
+        <v>2090000</v>
       </c>
       <c r="I49" s="3">
-        <v>2253400</v>
+        <v>2223900</v>
       </c>
       <c r="J49" s="3">
+        <v>2335300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1878200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1648700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1296000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1390000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1645500</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>795600</v>
+        <v>927700</v>
       </c>
       <c r="E52" s="3">
-        <v>607900</v>
+        <v>824500</v>
       </c>
       <c r="F52" s="3">
-        <v>531200</v>
+        <v>630000</v>
       </c>
       <c r="G52" s="3">
-        <v>528400</v>
+        <v>550500</v>
       </c>
       <c r="H52" s="3">
-        <v>486800</v>
+        <v>547600</v>
       </c>
       <c r="I52" s="3">
-        <v>358700</v>
+        <v>504500</v>
       </c>
       <c r="J52" s="3">
+        <v>371700</v>
+      </c>
+      <c r="K52" s="3">
         <v>224700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>197300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>46900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26300</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21498200</v>
+        <v>23658500</v>
       </c>
       <c r="E54" s="3">
-        <v>19726200</v>
+        <v>22279100</v>
       </c>
       <c r="F54" s="3">
-        <v>19033400</v>
+        <v>20442800</v>
       </c>
       <c r="G54" s="3">
-        <v>16708900</v>
+        <v>19724700</v>
       </c>
       <c r="H54" s="3">
-        <v>16094400</v>
+        <v>17315800</v>
       </c>
       <c r="I54" s="3">
-        <v>15714800</v>
+        <v>16679000</v>
       </c>
       <c r="J54" s="3">
+        <v>16285600</v>
+      </c>
+      <c r="K54" s="3">
         <v>13826500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12137200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11497000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11916700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11338100</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5267700</v>
+        <v>5590000</v>
       </c>
       <c r="E57" s="3">
-        <v>5034300</v>
+        <v>5459100</v>
       </c>
       <c r="F57" s="3">
-        <v>4748700</v>
+        <v>5217200</v>
       </c>
       <c r="G57" s="3">
-        <v>4651200</v>
+        <v>4921200</v>
       </c>
       <c r="H57" s="3">
-        <v>4366200</v>
+        <v>4820100</v>
       </c>
       <c r="I57" s="3">
-        <v>3593200</v>
+        <v>4524800</v>
       </c>
       <c r="J57" s="3">
+        <v>3723800</v>
+      </c>
+      <c r="K57" s="3">
         <v>3074100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2698500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2377100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2630200</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>187400</v>
+        <v>396700</v>
       </c>
       <c r="E58" s="3">
-        <v>175300</v>
+        <v>194200</v>
       </c>
       <c r="F58" s="3">
-        <v>165900</v>
+        <v>181700</v>
       </c>
       <c r="G58" s="3">
-        <v>16800</v>
+        <v>172000</v>
       </c>
       <c r="H58" s="3">
+        <v>17400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>21500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>30100</v>
+      </c>
+      <c r="K58" s="3">
+        <v>30300</v>
+      </c>
+      <c r="L58" s="3">
+        <v>26600</v>
+      </c>
+      <c r="M58" s="3">
+        <v>36100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>25500</v>
+      </c>
+      <c r="O58" s="3">
         <v>20800</v>
       </c>
-      <c r="I58" s="3">
-        <v>29100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>30300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>26600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>36100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>25500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>20800</v>
-      </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1778800</v>
+        <v>1791100</v>
       </c>
       <c r="E59" s="3">
-        <v>1498900</v>
+        <v>1843400</v>
       </c>
       <c r="F59" s="3">
-        <v>1272200</v>
+        <v>1553300</v>
       </c>
       <c r="G59" s="3">
-        <v>1555200</v>
+        <v>1318400</v>
       </c>
       <c r="H59" s="3">
-        <v>1490700</v>
+        <v>1611700</v>
       </c>
       <c r="I59" s="3">
-        <v>2851600</v>
+        <v>1544800</v>
       </c>
       <c r="J59" s="3">
+        <v>2955200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1109700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>974100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1651600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>907000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>914900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7233900</v>
+        <v>7777900</v>
       </c>
       <c r="E60" s="3">
-        <v>6708500</v>
+        <v>7496700</v>
       </c>
       <c r="F60" s="3">
-        <v>6186800</v>
+        <v>6952200</v>
       </c>
       <c r="G60" s="3">
-        <v>6223200</v>
+        <v>6411600</v>
       </c>
       <c r="H60" s="3">
-        <v>5877700</v>
+        <v>6449200</v>
       </c>
       <c r="I60" s="3">
-        <v>5141300</v>
+        <v>6091200</v>
       </c>
       <c r="J60" s="3">
+        <v>5328000</v>
+      </c>
+      <c r="K60" s="3">
         <v>4214100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3699300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3281500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3332600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3443300</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3338900</v>
+        <v>3746800</v>
       </c>
       <c r="E61" s="3">
-        <v>3081000</v>
+        <v>3460200</v>
       </c>
       <c r="F61" s="3">
-        <v>2952700</v>
+        <v>3192900</v>
       </c>
       <c r="G61" s="3">
-        <v>772300</v>
+        <v>3060000</v>
       </c>
       <c r="H61" s="3">
-        <v>748200</v>
+        <v>800300</v>
       </c>
       <c r="I61" s="3">
-        <v>712800</v>
+        <v>775400</v>
       </c>
       <c r="J61" s="3">
+        <v>738700</v>
+      </c>
+      <c r="K61" s="3">
         <v>714300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>627000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>687400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>677600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>848600</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>792900</v>
+        <v>696400</v>
       </c>
       <c r="E62" s="3">
-        <v>718100</v>
+        <v>821700</v>
       </c>
       <c r="F62" s="3">
-        <v>728300</v>
+        <v>744100</v>
       </c>
       <c r="G62" s="3">
-        <v>724000</v>
+        <v>754700</v>
       </c>
       <c r="H62" s="3">
-        <v>772300</v>
+        <v>750300</v>
       </c>
       <c r="I62" s="3">
-        <v>756100</v>
+        <v>800300</v>
       </c>
       <c r="J62" s="3">
+        <v>783500</v>
+      </c>
+      <c r="K62" s="3">
         <v>622300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>546300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>416600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>410000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1212400</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11365700</v>
+        <v>12221000</v>
       </c>
       <c r="E66" s="3">
-        <v>10507600</v>
+        <v>11778600</v>
       </c>
       <c r="F66" s="3">
-        <v>9867800</v>
+        <v>10889300</v>
       </c>
       <c r="G66" s="3">
-        <v>7719400</v>
+        <v>10226200</v>
       </c>
       <c r="H66" s="3">
-        <v>7398200</v>
+        <v>7999800</v>
       </c>
       <c r="I66" s="3">
-        <v>6610200</v>
+        <v>7666900</v>
       </c>
       <c r="J66" s="3">
+        <v>6850300</v>
+      </c>
+      <c r="K66" s="3">
         <v>5552100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4873800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4360500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4427400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4673100</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6580200</v>
+        <v>7831600</v>
       </c>
       <c r="E72" s="3">
-        <v>5706900</v>
+        <v>6819200</v>
       </c>
       <c r="F72" s="3">
-        <v>5626400</v>
+        <v>5914200</v>
       </c>
       <c r="G72" s="3">
-        <v>5424400</v>
+        <v>5830800</v>
       </c>
       <c r="H72" s="3">
-        <v>4932900</v>
+        <v>5621500</v>
       </c>
       <c r="I72" s="3">
-        <v>5624300</v>
+        <v>5112100</v>
       </c>
       <c r="J72" s="3">
+        <v>5828600</v>
+      </c>
+      <c r="K72" s="3">
         <v>5194400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4559800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6217900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5274500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4504300</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10132400</v>
+        <v>11437400</v>
       </c>
       <c r="E76" s="3">
-        <v>9218700</v>
+        <v>10500500</v>
       </c>
       <c r="F76" s="3">
-        <v>9165600</v>
+        <v>9553500</v>
       </c>
       <c r="G76" s="3">
-        <v>8989500</v>
+        <v>9498500</v>
       </c>
       <c r="H76" s="3">
-        <v>8696200</v>
+        <v>9316000</v>
       </c>
       <c r="I76" s="3">
-        <v>9104600</v>
+        <v>9012100</v>
       </c>
       <c r="J76" s="3">
+        <v>9435300</v>
+      </c>
+      <c r="K76" s="3">
         <v>8274300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7263400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7136500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7489400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6665000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2406000</v>
+        <v>2766600</v>
       </c>
       <c r="E81" s="3">
-        <v>1822500</v>
+        <v>2493400</v>
       </c>
       <c r="F81" s="3">
-        <v>2065800</v>
+        <v>1888700</v>
       </c>
       <c r="G81" s="3">
-        <v>2003400</v>
+        <v>2140800</v>
       </c>
       <c r="H81" s="3">
-        <v>2173000</v>
+        <v>2076200</v>
       </c>
       <c r="I81" s="3">
-        <v>1818000</v>
+        <v>2252000</v>
       </c>
       <c r="J81" s="3">
+        <v>1884100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1437700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1455900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1134300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1247800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1142000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>977900</v>
+        <v>1093600</v>
       </c>
       <c r="E83" s="3">
-        <v>926800</v>
+        <v>1034100</v>
       </c>
       <c r="F83" s="3">
-        <v>684500</v>
+        <v>1013400</v>
       </c>
       <c r="G83" s="3">
-        <v>634800</v>
+        <v>960500</v>
       </c>
       <c r="H83" s="3">
-        <v>582900</v>
+        <v>709400</v>
       </c>
       <c r="I83" s="3">
-        <v>546400</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>657800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>604100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>433900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>450000</v>
       </c>
-      <c r="N83" s="3" t="s">
+      <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3345400</v>
+        <v>3641900</v>
       </c>
       <c r="E89" s="3">
-        <v>3126500</v>
+        <v>3665200</v>
       </c>
       <c r="F89" s="3">
-        <v>2591100</v>
+        <v>3467000</v>
       </c>
       <c r="G89" s="3">
-        <v>2678400</v>
+        <v>3240100</v>
       </c>
       <c r="H89" s="3">
-        <v>2567900</v>
+        <v>2685200</v>
       </c>
       <c r="I89" s="3">
-        <v>2120600</v>
+        <v>2775700</v>
       </c>
       <c r="J89" s="3">
+        <v>2661100</v>
+      </c>
+      <c r="K89" s="3">
         <v>2079700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1825600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1433100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1589100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1664800</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-911800</v>
+        <v>-1203400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1121500</v>
+        <v>-1156100</v>
       </c>
       <c r="F91" s="3">
-        <v>-977500</v>
+        <v>-945000</v>
       </c>
       <c r="G91" s="3">
-        <v>-949900</v>
+        <v>-1162300</v>
       </c>
       <c r="H91" s="3">
-        <v>-781400</v>
+        <v>-1013000</v>
       </c>
       <c r="I91" s="3">
-        <v>-682800</v>
+        <v>-984400</v>
       </c>
       <c r="J91" s="3">
+        <v>-809800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-691800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-607300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-698400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-785900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-949200</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-901000</v>
+        <v>-1147700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1072800</v>
+        <v>-1080700</v>
       </c>
       <c r="F94" s="3">
-        <v>-843200</v>
+        <v>-933700</v>
       </c>
       <c r="G94" s="3">
-        <v>211900</v>
+        <v>-1111800</v>
       </c>
       <c r="H94" s="3">
-        <v>-752300</v>
+        <v>-873800</v>
       </c>
       <c r="I94" s="3">
-        <v>-437600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>219600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-779600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-713500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-766800</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1686200</v>
+        <v>-1669700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1960000</v>
+        <v>-1592400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1394500</v>
+        <v>-1747400</v>
       </c>
       <c r="G96" s="3">
-        <v>-2330600</v>
+        <v>-2031200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1579300</v>
+        <v>-1445100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1720500</v>
+        <v>-2415300</v>
       </c>
       <c r="J96" s="3">
+        <v>-1636600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1179700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1035600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-801700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-515300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-499600</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2164200</v>
+        <v>-2239300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2413600</v>
+        <v>-2118100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1479400</v>
+        <v>-2242900</v>
       </c>
       <c r="G100" s="3">
-        <v>-2419200</v>
+        <v>-2501300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1667600</v>
+        <v>-1533100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1908500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-2507100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1728200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1037400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-642900</v>
       </c>
-      <c r="N100" s="3" t="s">
+      <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17800</v>
+        <v>5600</v>
       </c>
       <c r="E101" s="3">
-        <v>-74700</v>
+        <v>-62700</v>
       </c>
       <c r="F101" s="3">
-        <v>-92300</v>
+        <v>-18500</v>
       </c>
       <c r="G101" s="3">
-        <v>-55600</v>
+        <v>-77400</v>
       </c>
       <c r="H101" s="3">
-        <v>25600</v>
+        <v>-95700</v>
       </c>
       <c r="I101" s="3">
-        <v>47900</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>-57700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>26600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-33400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-18700</v>
       </c>
-      <c r="N101" s="3" t="s">
+      <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>262400</v>
+        <v>260500</v>
       </c>
       <c r="E102" s="3">
-        <v>-434600</v>
+        <v>403700</v>
       </c>
       <c r="F102" s="3">
-        <v>176300</v>
+        <v>271900</v>
       </c>
       <c r="G102" s="3">
-        <v>415400</v>
+        <v>-450400</v>
       </c>
       <c r="H102" s="3">
-        <v>173600</v>
+        <v>182700</v>
       </c>
       <c r="I102" s="3">
-        <v>-177500</v>
+        <v>430500</v>
       </c>
       <c r="J102" s="3">
+        <v>179900</v>
+      </c>
+      <c r="K102" s="3">
         <v>377100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>331000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-351200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>160700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>26100</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>46274900</v>
+        <v>48109800</v>
       </c>
       <c r="E8" s="3">
-        <v>41579100</v>
+        <v>43227900</v>
       </c>
       <c r="F8" s="3">
-        <v>39641000</v>
+        <v>41212800</v>
       </c>
       <c r="G8" s="3">
-        <v>36540400</v>
+        <v>37989300</v>
       </c>
       <c r="H8" s="3">
-        <v>34849300</v>
+        <v>36231100</v>
       </c>
       <c r="I8" s="3">
-        <v>32389700</v>
+        <v>33674100</v>
       </c>
       <c r="J8" s="3">
-        <v>30074400</v>
+        <v>31266900</v>
       </c>
       <c r="K8" s="3">
         <v>25941900</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>35462800</v>
+        <v>36869000</v>
       </c>
       <c r="E9" s="3">
-        <v>31871900</v>
+        <v>33135700</v>
       </c>
       <c r="F9" s="3">
-        <v>30487300</v>
+        <v>31696200</v>
       </c>
       <c r="G9" s="3">
-        <v>28177000</v>
+        <v>29294300</v>
       </c>
       <c r="H9" s="3">
-        <v>26851000</v>
+        <v>27915800</v>
       </c>
       <c r="I9" s="3">
-        <v>24985500</v>
+        <v>25976200</v>
       </c>
       <c r="J9" s="3">
-        <v>23437700</v>
+        <v>24367100</v>
       </c>
       <c r="K9" s="3">
         <v>20349000</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10812100</v>
+        <v>11240800</v>
       </c>
       <c r="E10" s="3">
-        <v>9707200</v>
+        <v>10092100</v>
       </c>
       <c r="F10" s="3">
-        <v>9153600</v>
+        <v>9516600</v>
       </c>
       <c r="G10" s="3">
-        <v>8363400</v>
+        <v>8695000</v>
       </c>
       <c r="H10" s="3">
-        <v>7998200</v>
+        <v>8315400</v>
       </c>
       <c r="I10" s="3">
-        <v>7404300</v>
+        <v>7697900</v>
       </c>
       <c r="J10" s="3">
-        <v>6636700</v>
+        <v>6899800</v>
       </c>
       <c r="K10" s="3">
         <v>5592900</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>42432900</v>
+        <v>44115500</v>
       </c>
       <c r="E17" s="3">
-        <v>38025500</v>
+        <v>39533300</v>
       </c>
       <c r="F17" s="3">
-        <v>36395800</v>
+        <v>37839000</v>
       </c>
       <c r="G17" s="3">
-        <v>33489700</v>
+        <v>34817700</v>
       </c>
       <c r="H17" s="3">
-        <v>32070500</v>
+        <v>33342200</v>
       </c>
       <c r="I17" s="3">
-        <v>29913300</v>
+        <v>31099500</v>
       </c>
       <c r="J17" s="3">
-        <v>27845600</v>
+        <v>28949700</v>
       </c>
       <c r="K17" s="3">
         <v>24152400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3842000</v>
+        <v>3994300</v>
       </c>
       <c r="E18" s="3">
-        <v>3553700</v>
+        <v>3694600</v>
       </c>
       <c r="F18" s="3">
-        <v>3245200</v>
+        <v>3373900</v>
       </c>
       <c r="G18" s="3">
-        <v>3050600</v>
+        <v>3171600</v>
       </c>
       <c r="H18" s="3">
-        <v>2778700</v>
+        <v>2888900</v>
       </c>
       <c r="I18" s="3">
-        <v>2476400</v>
+        <v>2574600</v>
       </c>
       <c r="J18" s="3">
-        <v>2228800</v>
+        <v>2317200</v>
       </c>
       <c r="K18" s="3">
         <v>1789500</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>135800</v>
+        <v>141200</v>
       </c>
       <c r="E20" s="3">
-        <v>49000</v>
+        <v>50900</v>
       </c>
       <c r="F20" s="3">
-        <v>-88900</v>
+        <v>-92400</v>
       </c>
       <c r="G20" s="3">
-        <v>53800</v>
+        <v>55900</v>
       </c>
       <c r="H20" s="3">
-        <v>69100</v>
+        <v>71800</v>
       </c>
       <c r="I20" s="3">
-        <v>50200</v>
+        <v>52200</v>
       </c>
       <c r="J20" s="3">
-        <v>53600</v>
+        <v>55700</v>
       </c>
       <c r="K20" s="3">
         <v>66200</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5078600</v>
+        <v>5272500</v>
       </c>
       <c r="E21" s="3">
-        <v>4643500</v>
+        <v>4820600</v>
       </c>
       <c r="F21" s="3">
-        <v>4176400</v>
+        <v>4335100</v>
       </c>
       <c r="G21" s="3">
-        <v>4071100</v>
+        <v>4226000</v>
       </c>
       <c r="H21" s="3">
-        <v>3561900</v>
+        <v>3698300</v>
       </c>
       <c r="I21" s="3">
-        <v>3188700</v>
+        <v>3310700</v>
       </c>
       <c r="J21" s="3">
-        <v>2890400</v>
+        <v>3000900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>398200</v>
+        <v>414000</v>
       </c>
       <c r="E22" s="3">
-        <v>366000</v>
+        <v>380500</v>
       </c>
       <c r="F22" s="3">
-        <v>362100</v>
+        <v>376500</v>
       </c>
       <c r="G22" s="3">
-        <v>325000</v>
+        <v>337800</v>
       </c>
       <c r="H22" s="3">
-        <v>87700</v>
+        <v>91200</v>
       </c>
       <c r="I22" s="3">
-        <v>81200</v>
+        <v>84400</v>
       </c>
       <c r="J22" s="3">
-        <v>71800</v>
+        <v>74600</v>
       </c>
       <c r="K22" s="3">
         <v>61400</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3579600</v>
+        <v>3721500</v>
       </c>
       <c r="E23" s="3">
-        <v>3236600</v>
+        <v>3365000</v>
       </c>
       <c r="F23" s="3">
-        <v>2794200</v>
+        <v>2905000</v>
       </c>
       <c r="G23" s="3">
-        <v>2779400</v>
+        <v>2889600</v>
       </c>
       <c r="H23" s="3">
-        <v>2760100</v>
+        <v>2869500</v>
       </c>
       <c r="I23" s="3">
-        <v>2445500</v>
+        <v>2542400</v>
       </c>
       <c r="J23" s="3">
-        <v>2210600</v>
+        <v>2298200</v>
       </c>
       <c r="K23" s="3">
         <v>1794300</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>813000</v>
+        <v>845300</v>
       </c>
       <c r="E24" s="3">
-        <v>743300</v>
+        <v>772700</v>
       </c>
       <c r="F24" s="3">
-        <v>905500</v>
+        <v>941400</v>
       </c>
       <c r="G24" s="3">
-        <v>638600</v>
+        <v>663900</v>
       </c>
       <c r="H24" s="3">
-        <v>683900</v>
+        <v>711100</v>
       </c>
       <c r="I24" s="3">
-        <v>615700</v>
+        <v>640100</v>
       </c>
       <c r="J24" s="3">
-        <v>600100</v>
+        <v>623900</v>
       </c>
       <c r="K24" s="3">
         <v>516400</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2766600</v>
+        <v>2876300</v>
       </c>
       <c r="E26" s="3">
-        <v>2493400</v>
+        <v>2592200</v>
       </c>
       <c r="F26" s="3">
-        <v>1888700</v>
+        <v>1963600</v>
       </c>
       <c r="G26" s="3">
-        <v>2140800</v>
+        <v>2225700</v>
       </c>
       <c r="H26" s="3">
-        <v>2076200</v>
+        <v>2158500</v>
       </c>
       <c r="I26" s="3">
-        <v>1829700</v>
+        <v>1902300</v>
       </c>
       <c r="J26" s="3">
-        <v>1610500</v>
+        <v>1674300</v>
       </c>
       <c r="K26" s="3">
         <v>1277900</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2766600</v>
+        <v>2876300</v>
       </c>
       <c r="E27" s="3">
-        <v>2493400</v>
+        <v>2592200</v>
       </c>
       <c r="F27" s="3">
-        <v>1888700</v>
+        <v>1963600</v>
       </c>
       <c r="G27" s="3">
-        <v>2140800</v>
+        <v>2225700</v>
       </c>
       <c r="H27" s="3">
-        <v>2076200</v>
+        <v>2158500</v>
       </c>
       <c r="I27" s="3">
-        <v>1829700</v>
+        <v>1902300</v>
       </c>
       <c r="J27" s="3">
-        <v>1610500</v>
+        <v>1674400</v>
       </c>
       <c r="K27" s="3">
         <v>1277800</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>422200</v>
+        <v>439000</v>
       </c>
       <c r="J29" s="3">
-        <v>273600</v>
+        <v>284400</v>
       </c>
       <c r="K29" s="3">
         <v>160000</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-135800</v>
+        <v>-141200</v>
       </c>
       <c r="E32" s="3">
-        <v>-49000</v>
+        <v>-50900</v>
       </c>
       <c r="F32" s="3">
-        <v>88900</v>
+        <v>92400</v>
       </c>
       <c r="G32" s="3">
-        <v>-53800</v>
+        <v>-55900</v>
       </c>
       <c r="H32" s="3">
-        <v>-69100</v>
+        <v>-71800</v>
       </c>
       <c r="I32" s="3">
-        <v>-50200</v>
+        <v>-52200</v>
       </c>
       <c r="J32" s="3">
-        <v>-53600</v>
+        <v>-55700</v>
       </c>
       <c r="K32" s="3">
         <v>-66200</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2766600</v>
+        <v>2876300</v>
       </c>
       <c r="E33" s="3">
-        <v>2493400</v>
+        <v>2592200</v>
       </c>
       <c r="F33" s="3">
-        <v>1888700</v>
+        <v>1963600</v>
       </c>
       <c r="G33" s="3">
-        <v>2140800</v>
+        <v>2225700</v>
       </c>
       <c r="H33" s="3">
-        <v>2076200</v>
+        <v>2158500</v>
       </c>
       <c r="I33" s="3">
-        <v>2252000</v>
+        <v>2341300</v>
       </c>
       <c r="J33" s="3">
-        <v>1884100</v>
+        <v>1958800</v>
       </c>
       <c r="K33" s="3">
         <v>1437700</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2766600</v>
+        <v>2876300</v>
       </c>
       <c r="E35" s="3">
-        <v>2493400</v>
+        <v>2592200</v>
       </c>
       <c r="F35" s="3">
-        <v>1888700</v>
+        <v>1963600</v>
       </c>
       <c r="G35" s="3">
-        <v>2140800</v>
+        <v>2225700</v>
       </c>
       <c r="H35" s="3">
-        <v>2076200</v>
+        <v>2158500</v>
       </c>
       <c r="I35" s="3">
-        <v>2252000</v>
+        <v>2341300</v>
       </c>
       <c r="J35" s="3">
-        <v>1884100</v>
+        <v>1958800</v>
       </c>
       <c r="K35" s="3">
         <v>1437700</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2679200</v>
+        <v>2785400</v>
       </c>
       <c r="E41" s="3">
-        <v>2418700</v>
+        <v>2514600</v>
       </c>
       <c r="F41" s="3">
-        <v>2015000</v>
+        <v>2094900</v>
       </c>
       <c r="G41" s="3">
-        <v>1743100</v>
+        <v>1812200</v>
       </c>
       <c r="H41" s="3">
-        <v>2193500</v>
+        <v>2280500</v>
       </c>
       <c r="I41" s="3">
-        <v>2010800</v>
+        <v>2090600</v>
       </c>
       <c r="J41" s="3">
-        <v>1580300</v>
+        <v>1643000</v>
       </c>
       <c r="K41" s="3">
         <v>1351300</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>944500</v>
+        <v>981900</v>
       </c>
       <c r="E43" s="3">
-        <v>950600</v>
+        <v>988300</v>
       </c>
       <c r="F43" s="3">
-        <v>960000</v>
+        <v>998000</v>
       </c>
       <c r="G43" s="3">
-        <v>774900</v>
+        <v>805600</v>
       </c>
       <c r="H43" s="3">
-        <v>679900</v>
+        <v>706800</v>
       </c>
       <c r="I43" s="3">
-        <v>612000</v>
+        <v>636300</v>
       </c>
       <c r="J43" s="3">
-        <v>554600</v>
+        <v>576600</v>
       </c>
       <c r="K43" s="3">
         <v>531900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5053700</v>
+        <v>5254100</v>
       </c>
       <c r="E44" s="3">
-        <v>4537100</v>
+        <v>4717000</v>
       </c>
       <c r="F44" s="3">
-        <v>3861700</v>
+        <v>4014800</v>
       </c>
       <c r="G44" s="3">
-        <v>3816100</v>
+        <v>3967400</v>
       </c>
       <c r="H44" s="3">
-        <v>3578300</v>
+        <v>3720200</v>
       </c>
       <c r="I44" s="3">
-        <v>3359100</v>
+        <v>3492300</v>
       </c>
       <c r="J44" s="3">
-        <v>3031500</v>
+        <v>3151800</v>
       </c>
       <c r="K44" s="3">
         <v>2711800</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>52200</v>
+        <v>54300</v>
       </c>
       <c r="E45" s="3">
-        <v>48400</v>
+        <v>50300</v>
       </c>
       <c r="F45" s="3">
-        <v>39600</v>
+        <v>41100</v>
       </c>
       <c r="G45" s="3">
-        <v>100400</v>
+        <v>104400</v>
       </c>
       <c r="H45" s="3">
-        <v>79400</v>
+        <v>82600</v>
       </c>
       <c r="I45" s="3">
-        <v>55500</v>
+        <v>57700</v>
       </c>
       <c r="J45" s="3">
-        <v>709700</v>
+        <v>737900</v>
       </c>
       <c r="K45" s="3">
         <v>30000</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8729600</v>
+        <v>9075700</v>
       </c>
       <c r="E46" s="3">
-        <v>7954800</v>
+        <v>8270200</v>
       </c>
       <c r="F46" s="3">
-        <v>6876200</v>
+        <v>7148900</v>
       </c>
       <c r="G46" s="3">
-        <v>6434500</v>
+        <v>6689700</v>
       </c>
       <c r="H46" s="3">
-        <v>6531100</v>
+        <v>6790100</v>
       </c>
       <c r="I46" s="3">
-        <v>6037400</v>
+        <v>6276800</v>
       </c>
       <c r="J46" s="3">
-        <v>5876200</v>
+        <v>6109300</v>
       </c>
       <c r="K46" s="3">
         <v>4625100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11785800</v>
+        <v>12253100</v>
       </c>
       <c r="E48" s="3">
-        <v>11310300</v>
+        <v>11758800</v>
       </c>
       <c r="F48" s="3">
-        <v>10815300</v>
+        <v>11244100</v>
       </c>
       <c r="G48" s="3">
-        <v>10644900</v>
+        <v>11067000</v>
       </c>
       <c r="H48" s="3">
-        <v>8147100</v>
+        <v>8470200</v>
       </c>
       <c r="I48" s="3">
-        <v>7913200</v>
+        <v>8227000</v>
       </c>
       <c r="J48" s="3">
-        <v>7702400</v>
+        <v>8007800</v>
       </c>
       <c r="K48" s="3">
         <v>7098400</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2215400</v>
+        <v>2303300</v>
       </c>
       <c r="E49" s="3">
-        <v>2189400</v>
+        <v>2276300</v>
       </c>
       <c r="F49" s="3">
-        <v>2121300</v>
+        <v>2205400</v>
       </c>
       <c r="G49" s="3">
-        <v>2094900</v>
+        <v>2177900</v>
       </c>
       <c r="H49" s="3">
-        <v>2090000</v>
+        <v>2172900</v>
       </c>
       <c r="I49" s="3">
-        <v>2223900</v>
+        <v>2312100</v>
       </c>
       <c r="J49" s="3">
-        <v>2335300</v>
+        <v>2427900</v>
       </c>
       <c r="K49" s="3">
         <v>1878200</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>927700</v>
+        <v>964500</v>
       </c>
       <c r="E52" s="3">
-        <v>824500</v>
+        <v>857200</v>
       </c>
       <c r="F52" s="3">
-        <v>630000</v>
+        <v>654900</v>
       </c>
       <c r="G52" s="3">
-        <v>550500</v>
+        <v>572300</v>
       </c>
       <c r="H52" s="3">
-        <v>547600</v>
+        <v>569300</v>
       </c>
       <c r="I52" s="3">
-        <v>504500</v>
+        <v>524500</v>
       </c>
       <c r="J52" s="3">
-        <v>371700</v>
+        <v>386400</v>
       </c>
       <c r="K52" s="3">
         <v>224700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23658500</v>
+        <v>24596600</v>
       </c>
       <c r="E54" s="3">
-        <v>22279100</v>
+        <v>23162500</v>
       </c>
       <c r="F54" s="3">
-        <v>20442800</v>
+        <v>21253400</v>
       </c>
       <c r="G54" s="3">
-        <v>19724700</v>
+        <v>20506900</v>
       </c>
       <c r="H54" s="3">
-        <v>17315800</v>
+        <v>18002400</v>
       </c>
       <c r="I54" s="3">
-        <v>16679000</v>
+        <v>17340400</v>
       </c>
       <c r="J54" s="3">
-        <v>16285600</v>
+        <v>16931400</v>
       </c>
       <c r="K54" s="3">
         <v>13826500</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5590000</v>
+        <v>5811700</v>
       </c>
       <c r="E57" s="3">
-        <v>5459100</v>
+        <v>5675500</v>
       </c>
       <c r="F57" s="3">
-        <v>5217200</v>
+        <v>5424100</v>
       </c>
       <c r="G57" s="3">
-        <v>4921200</v>
+        <v>5116300</v>
       </c>
       <c r="H57" s="3">
-        <v>4820100</v>
+        <v>5011300</v>
       </c>
       <c r="I57" s="3">
-        <v>4524800</v>
+        <v>4704200</v>
       </c>
       <c r="J57" s="3">
-        <v>3723800</v>
+        <v>3871400</v>
       </c>
       <c r="K57" s="3">
         <v>3074100</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>396700</v>
+        <v>412500</v>
       </c>
       <c r="E58" s="3">
-        <v>194200</v>
+        <v>201900</v>
       </c>
       <c r="F58" s="3">
-        <v>181700</v>
+        <v>188900</v>
       </c>
       <c r="G58" s="3">
-        <v>172000</v>
+        <v>178800</v>
       </c>
       <c r="H58" s="3">
-        <v>17400</v>
+        <v>18100</v>
       </c>
       <c r="I58" s="3">
-        <v>21500</v>
+        <v>22400</v>
       </c>
       <c r="J58" s="3">
-        <v>30100</v>
+        <v>31300</v>
       </c>
       <c r="K58" s="3">
         <v>30300</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1791100</v>
+        <v>1862100</v>
       </c>
       <c r="E59" s="3">
-        <v>1843400</v>
+        <v>1916500</v>
       </c>
       <c r="F59" s="3">
-        <v>1553300</v>
+        <v>1614900</v>
       </c>
       <c r="G59" s="3">
-        <v>1318400</v>
+        <v>1370700</v>
       </c>
       <c r="H59" s="3">
-        <v>1611700</v>
+        <v>1675600</v>
       </c>
       <c r="I59" s="3">
-        <v>1544800</v>
+        <v>1606100</v>
       </c>
       <c r="J59" s="3">
-        <v>2955200</v>
+        <v>3072400</v>
       </c>
       <c r="K59" s="3">
         <v>1109700</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7777900</v>
+        <v>8086300</v>
       </c>
       <c r="E60" s="3">
-        <v>7496700</v>
+        <v>7794000</v>
       </c>
       <c r="F60" s="3">
-        <v>6952200</v>
+        <v>7227900</v>
       </c>
       <c r="G60" s="3">
-        <v>6411600</v>
+        <v>6665800</v>
       </c>
       <c r="H60" s="3">
-        <v>6449200</v>
+        <v>6704900</v>
       </c>
       <c r="I60" s="3">
-        <v>6091200</v>
+        <v>6332700</v>
       </c>
       <c r="J60" s="3">
-        <v>5328000</v>
+        <v>5539300</v>
       </c>
       <c r="K60" s="3">
         <v>4214100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3746800</v>
+        <v>3895400</v>
       </c>
       <c r="E61" s="3">
-        <v>3460200</v>
+        <v>3597400</v>
       </c>
       <c r="F61" s="3">
-        <v>3192900</v>
+        <v>3319500</v>
       </c>
       <c r="G61" s="3">
-        <v>3060000</v>
+        <v>3181300</v>
       </c>
       <c r="H61" s="3">
-        <v>800300</v>
+        <v>832000</v>
       </c>
       <c r="I61" s="3">
-        <v>775400</v>
+        <v>806100</v>
       </c>
       <c r="J61" s="3">
-        <v>738700</v>
+        <v>768000</v>
       </c>
       <c r="K61" s="3">
         <v>714300</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>696400</v>
+        <v>724000</v>
       </c>
       <c r="E62" s="3">
-        <v>821700</v>
+        <v>854300</v>
       </c>
       <c r="F62" s="3">
-        <v>744100</v>
+        <v>773700</v>
       </c>
       <c r="G62" s="3">
-        <v>754700</v>
+        <v>784600</v>
       </c>
       <c r="H62" s="3">
-        <v>750300</v>
+        <v>780100</v>
       </c>
       <c r="I62" s="3">
-        <v>800300</v>
+        <v>832100</v>
       </c>
       <c r="J62" s="3">
-        <v>783500</v>
+        <v>814600</v>
       </c>
       <c r="K62" s="3">
         <v>622300</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12221000</v>
+        <v>12705600</v>
       </c>
       <c r="E66" s="3">
-        <v>11778600</v>
+        <v>12245600</v>
       </c>
       <c r="F66" s="3">
-        <v>10889300</v>
+        <v>11321100</v>
       </c>
       <c r="G66" s="3">
-        <v>10226200</v>
+        <v>10631700</v>
       </c>
       <c r="H66" s="3">
-        <v>7999800</v>
+        <v>8317000</v>
       </c>
       <c r="I66" s="3">
-        <v>7666900</v>
+        <v>7970900</v>
       </c>
       <c r="J66" s="3">
-        <v>6850300</v>
+        <v>7121900</v>
       </c>
       <c r="K66" s="3">
         <v>5552100</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7831600</v>
+        <v>8142200</v>
       </c>
       <c r="E72" s="3">
-        <v>6819200</v>
+        <v>7089600</v>
       </c>
       <c r="F72" s="3">
-        <v>5914200</v>
+        <v>6148700</v>
       </c>
       <c r="G72" s="3">
-        <v>5830800</v>
+        <v>6062000</v>
       </c>
       <c r="H72" s="3">
-        <v>5621500</v>
+        <v>5844400</v>
       </c>
       <c r="I72" s="3">
-        <v>5112100</v>
+        <v>5314800</v>
       </c>
       <c r="J72" s="3">
-        <v>5828600</v>
+        <v>6059700</v>
       </c>
       <c r="K72" s="3">
         <v>5194400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11437400</v>
+        <v>11891000</v>
       </c>
       <c r="E76" s="3">
-        <v>10500500</v>
+        <v>10916900</v>
       </c>
       <c r="F76" s="3">
-        <v>9553500</v>
+        <v>9932300</v>
       </c>
       <c r="G76" s="3">
-        <v>9498500</v>
+        <v>9875100</v>
       </c>
       <c r="H76" s="3">
-        <v>9316000</v>
+        <v>9685400</v>
       </c>
       <c r="I76" s="3">
-        <v>9012100</v>
+        <v>9369400</v>
       </c>
       <c r="J76" s="3">
-        <v>9435300</v>
+        <v>9809400</v>
       </c>
       <c r="K76" s="3">
         <v>8274300</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2766600</v>
+        <v>2876300</v>
       </c>
       <c r="E81" s="3">
-        <v>2493400</v>
+        <v>2592200</v>
       </c>
       <c r="F81" s="3">
-        <v>1888700</v>
+        <v>1963600</v>
       </c>
       <c r="G81" s="3">
-        <v>2140800</v>
+        <v>2225700</v>
       </c>
       <c r="H81" s="3">
-        <v>2076200</v>
+        <v>2158500</v>
       </c>
       <c r="I81" s="3">
-        <v>2252000</v>
+        <v>2341300</v>
       </c>
       <c r="J81" s="3">
-        <v>1884100</v>
+        <v>1958800</v>
       </c>
       <c r="K81" s="3">
         <v>1437700</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1093600</v>
+        <v>1137000</v>
       </c>
       <c r="E83" s="3">
-        <v>1034100</v>
+        <v>1075100</v>
       </c>
       <c r="F83" s="3">
-        <v>1013400</v>
+        <v>1053600</v>
       </c>
       <c r="G83" s="3">
-        <v>960500</v>
+        <v>998600</v>
       </c>
       <c r="H83" s="3">
-        <v>709400</v>
+        <v>737500</v>
       </c>
       <c r="I83" s="3">
-        <v>657800</v>
+        <v>683900</v>
       </c>
       <c r="J83" s="3">
-        <v>604100</v>
+        <v>628000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3641900</v>
+        <v>3786300</v>
       </c>
       <c r="E89" s="3">
-        <v>3665200</v>
+        <v>3810500</v>
       </c>
       <c r="F89" s="3">
-        <v>3467000</v>
+        <v>3604400</v>
       </c>
       <c r="G89" s="3">
-        <v>3240100</v>
+        <v>3368500</v>
       </c>
       <c r="H89" s="3">
-        <v>2685200</v>
+        <v>2791700</v>
       </c>
       <c r="I89" s="3">
-        <v>2775700</v>
+        <v>2885700</v>
       </c>
       <c r="J89" s="3">
-        <v>2661100</v>
+        <v>2766600</v>
       </c>
       <c r="K89" s="3">
         <v>2079700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1203400</v>
+        <v>-1251200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1156100</v>
+        <v>-1202000</v>
       </c>
       <c r="F91" s="3">
-        <v>-945000</v>
+        <v>-982400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1162300</v>
+        <v>-1208400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1013000</v>
+        <v>-1053200</v>
       </c>
       <c r="I91" s="3">
-        <v>-984400</v>
+        <v>-1023400</v>
       </c>
       <c r="J91" s="3">
-        <v>-809800</v>
+        <v>-841900</v>
       </c>
       <c r="K91" s="3">
         <v>-691800</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1147700</v>
+        <v>-1193200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1080700</v>
+        <v>-1123500</v>
       </c>
       <c r="F94" s="3">
-        <v>-933700</v>
+        <v>-970700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1111800</v>
+        <v>-1155900</v>
       </c>
       <c r="H94" s="3">
-        <v>-873800</v>
+        <v>-908400</v>
       </c>
       <c r="I94" s="3">
-        <v>219600</v>
+        <v>228300</v>
       </c>
       <c r="J94" s="3">
-        <v>-779600</v>
+        <v>-810500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1669700</v>
+        <v>-1735900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1592400</v>
+        <v>-1655500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1747400</v>
+        <v>-1816700</v>
       </c>
       <c r="G96" s="3">
-        <v>-2031200</v>
+        <v>-2111800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1445100</v>
+        <v>-1502400</v>
       </c>
       <c r="I96" s="3">
-        <v>-2415300</v>
+        <v>-2511000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1636600</v>
+        <v>-1701500</v>
       </c>
       <c r="K96" s="3">
         <v>-1179700</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2239300</v>
+        <v>-2328100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2118100</v>
+        <v>-2202100</v>
       </c>
       <c r="F100" s="3">
-        <v>-2242900</v>
+        <v>-2331800</v>
       </c>
       <c r="G100" s="3">
-        <v>-2501300</v>
+        <v>-2600500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1533100</v>
+        <v>-1593900</v>
       </c>
       <c r="I100" s="3">
-        <v>-2507100</v>
+        <v>-2606500</v>
       </c>
       <c r="J100" s="3">
-        <v>-1728200</v>
+        <v>-1796700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="E101" s="3">
-        <v>-62700</v>
+        <v>-65100</v>
       </c>
       <c r="F101" s="3">
-        <v>-18500</v>
+        <v>-19200</v>
       </c>
       <c r="G101" s="3">
-        <v>-77400</v>
+        <v>-80400</v>
       </c>
       <c r="H101" s="3">
-        <v>-95700</v>
+        <v>-99500</v>
       </c>
       <c r="I101" s="3">
-        <v>-57700</v>
+        <v>-60000</v>
       </c>
       <c r="J101" s="3">
-        <v>26600</v>
+        <v>27600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>260500</v>
+        <v>270800</v>
       </c>
       <c r="E102" s="3">
-        <v>403700</v>
+        <v>419700</v>
       </c>
       <c r="F102" s="3">
-        <v>271900</v>
+        <v>282700</v>
       </c>
       <c r="G102" s="3">
-        <v>-450400</v>
+        <v>-468200</v>
       </c>
       <c r="H102" s="3">
-        <v>182700</v>
+        <v>189900</v>
       </c>
       <c r="I102" s="3">
-        <v>430500</v>
+        <v>447600</v>
       </c>
       <c r="J102" s="3">
-        <v>179900</v>
+        <v>187000</v>
       </c>
       <c r="K102" s="3">
         <v>377100</v>

--- a/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WMMVY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>48109800</v>
+        <v>47561000</v>
       </c>
       <c r="E8" s="3">
-        <v>43227900</v>
+        <v>42734700</v>
       </c>
       <c r="F8" s="3">
-        <v>41212800</v>
+        <v>40742700</v>
       </c>
       <c r="G8" s="3">
-        <v>37989300</v>
+        <v>37555900</v>
       </c>
       <c r="H8" s="3">
-        <v>36231100</v>
+        <v>35817800</v>
       </c>
       <c r="I8" s="3">
-        <v>33674100</v>
+        <v>33289900</v>
       </c>
       <c r="J8" s="3">
-        <v>31266900</v>
+        <v>30910200</v>
       </c>
       <c r="K8" s="3">
         <v>25941900</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>36869000</v>
+        <v>36448400</v>
       </c>
       <c r="E9" s="3">
-        <v>33135700</v>
+        <v>32757700</v>
       </c>
       <c r="F9" s="3">
-        <v>31696200</v>
+        <v>31334600</v>
       </c>
       <c r="G9" s="3">
-        <v>29294300</v>
+        <v>28960100</v>
       </c>
       <c r="H9" s="3">
-        <v>27915800</v>
+        <v>27597300</v>
       </c>
       <c r="I9" s="3">
-        <v>25976200</v>
+        <v>25679900</v>
       </c>
       <c r="J9" s="3">
-        <v>24367100</v>
+        <v>24089100</v>
       </c>
       <c r="K9" s="3">
         <v>20349000</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11240800</v>
+        <v>11112600</v>
       </c>
       <c r="E10" s="3">
-        <v>10092100</v>
+        <v>9977000</v>
       </c>
       <c r="F10" s="3">
-        <v>9516600</v>
+        <v>9408000</v>
       </c>
       <c r="G10" s="3">
-        <v>8695000</v>
+        <v>8595800</v>
       </c>
       <c r="H10" s="3">
-        <v>8315400</v>
+        <v>8220500</v>
       </c>
       <c r="I10" s="3">
-        <v>7697900</v>
+        <v>7610100</v>
       </c>
       <c r="J10" s="3">
-        <v>6899800</v>
+        <v>6821100</v>
       </c>
       <c r="K10" s="3">
         <v>5592900</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>44115500</v>
+        <v>43612200</v>
       </c>
       <c r="E17" s="3">
-        <v>39533300</v>
+        <v>39082300</v>
       </c>
       <c r="F17" s="3">
-        <v>37839000</v>
+        <v>37407300</v>
       </c>
       <c r="G17" s="3">
-        <v>34817700</v>
+        <v>34420500</v>
       </c>
       <c r="H17" s="3">
-        <v>33342200</v>
+        <v>32961900</v>
       </c>
       <c r="I17" s="3">
-        <v>31099500</v>
+        <v>30744700</v>
       </c>
       <c r="J17" s="3">
-        <v>28949700</v>
+        <v>28619500</v>
       </c>
       <c r="K17" s="3">
         <v>24152400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3994300</v>
+        <v>3948800</v>
       </c>
       <c r="E18" s="3">
-        <v>3694600</v>
+        <v>3652400</v>
       </c>
       <c r="F18" s="3">
-        <v>3373900</v>
+        <v>3335400</v>
       </c>
       <c r="G18" s="3">
-        <v>3171600</v>
+        <v>3135400</v>
       </c>
       <c r="H18" s="3">
-        <v>2888900</v>
+        <v>2856000</v>
       </c>
       <c r="I18" s="3">
-        <v>2574600</v>
+        <v>2545200</v>
       </c>
       <c r="J18" s="3">
-        <v>2317200</v>
+        <v>2290800</v>
       </c>
       <c r="K18" s="3">
         <v>1789500</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>141200</v>
+        <v>139600</v>
       </c>
       <c r="E20" s="3">
-        <v>50900</v>
+        <v>50300</v>
       </c>
       <c r="F20" s="3">
-        <v>-92400</v>
+        <v>-91300</v>
       </c>
       <c r="G20" s="3">
-        <v>55900</v>
+        <v>55300</v>
       </c>
       <c r="H20" s="3">
-        <v>71800</v>
+        <v>71000</v>
       </c>
       <c r="I20" s="3">
-        <v>52200</v>
+        <v>51600</v>
       </c>
       <c r="J20" s="3">
-        <v>55700</v>
+        <v>55000</v>
       </c>
       <c r="K20" s="3">
         <v>66200</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5272500</v>
+        <v>5207700</v>
       </c>
       <c r="E21" s="3">
-        <v>4820600</v>
+        <v>4761200</v>
       </c>
       <c r="F21" s="3">
-        <v>4335100</v>
+        <v>4281300</v>
       </c>
       <c r="G21" s="3">
-        <v>4226000</v>
+        <v>4173800</v>
       </c>
       <c r="H21" s="3">
-        <v>3698300</v>
+        <v>3653100</v>
       </c>
       <c r="I21" s="3">
-        <v>3310700</v>
+        <v>3270100</v>
       </c>
       <c r="J21" s="3">
-        <v>3000900</v>
+        <v>2964100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>414000</v>
+        <v>409300</v>
       </c>
       <c r="E22" s="3">
-        <v>380500</v>
+        <v>376200</v>
       </c>
       <c r="F22" s="3">
-        <v>376500</v>
+        <v>372200</v>
       </c>
       <c r="G22" s="3">
-        <v>337800</v>
+        <v>334000</v>
       </c>
       <c r="H22" s="3">
-        <v>91200</v>
+        <v>90200</v>
       </c>
       <c r="I22" s="3">
-        <v>84400</v>
+        <v>83400</v>
       </c>
       <c r="J22" s="3">
-        <v>74600</v>
+        <v>73800</v>
       </c>
       <c r="K22" s="3">
         <v>61400</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3721500</v>
+        <v>3679100</v>
       </c>
       <c r="E23" s="3">
-        <v>3365000</v>
+        <v>3326600</v>
       </c>
       <c r="F23" s="3">
-        <v>2905000</v>
+        <v>2871900</v>
       </c>
       <c r="G23" s="3">
-        <v>2889600</v>
+        <v>2856700</v>
       </c>
       <c r="H23" s="3">
-        <v>2869500</v>
+        <v>2836800</v>
       </c>
       <c r="I23" s="3">
-        <v>2542400</v>
+        <v>2513400</v>
       </c>
       <c r="J23" s="3">
-        <v>2298200</v>
+        <v>2272000</v>
       </c>
       <c r="K23" s="3">
         <v>1794300</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>845300</v>
+        <v>835600</v>
       </c>
       <c r="E24" s="3">
-        <v>772700</v>
+        <v>763900</v>
       </c>
       <c r="F24" s="3">
-        <v>941400</v>
+        <v>930700</v>
       </c>
       <c r="G24" s="3">
-        <v>663900</v>
+        <v>656300</v>
       </c>
       <c r="H24" s="3">
-        <v>711100</v>
+        <v>702900</v>
       </c>
       <c r="I24" s="3">
-        <v>640100</v>
+        <v>632800</v>
       </c>
       <c r="J24" s="3">
-        <v>623900</v>
+        <v>616800</v>
       </c>
       <c r="K24" s="3">
         <v>516400</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2876300</v>
+        <v>2843400</v>
       </c>
       <c r="E26" s="3">
-        <v>2592200</v>
+        <v>2562700</v>
       </c>
       <c r="F26" s="3">
-        <v>1963600</v>
+        <v>1941200</v>
       </c>
       <c r="G26" s="3">
-        <v>2225700</v>
+        <v>2200300</v>
       </c>
       <c r="H26" s="3">
-        <v>2158500</v>
+        <v>2133900</v>
       </c>
       <c r="I26" s="3">
-        <v>1902300</v>
+        <v>1880600</v>
       </c>
       <c r="J26" s="3">
-        <v>1674300</v>
+        <v>1655200</v>
       </c>
       <c r="K26" s="3">
         <v>1277900</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2876300</v>
+        <v>2843400</v>
       </c>
       <c r="E27" s="3">
-        <v>2592200</v>
+        <v>2562700</v>
       </c>
       <c r="F27" s="3">
-        <v>1963600</v>
+        <v>1941200</v>
       </c>
       <c r="G27" s="3">
-        <v>2225700</v>
+        <v>2200300</v>
       </c>
       <c r="H27" s="3">
-        <v>2158500</v>
+        <v>2133900</v>
       </c>
       <c r="I27" s="3">
-        <v>1902300</v>
+        <v>1880600</v>
       </c>
       <c r="J27" s="3">
-        <v>1674400</v>
+        <v>1655300</v>
       </c>
       <c r="K27" s="3">
         <v>1277800</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>439000</v>
+        <v>434000</v>
       </c>
       <c r="J29" s="3">
-        <v>284400</v>
+        <v>281200</v>
       </c>
       <c r="K29" s="3">
         <v>160000</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-141200</v>
+        <v>-139600</v>
       </c>
       <c r="E32" s="3">
-        <v>-50900</v>
+        <v>-50300</v>
       </c>
       <c r="F32" s="3">
-        <v>92400</v>
+        <v>91300</v>
       </c>
       <c r="G32" s="3">
-        <v>-55900</v>
+        <v>-55300</v>
       </c>
       <c r="H32" s="3">
-        <v>-71800</v>
+        <v>-71000</v>
       </c>
       <c r="I32" s="3">
-        <v>-52200</v>
+        <v>-51600</v>
       </c>
       <c r="J32" s="3">
-        <v>-55700</v>
+        <v>-55000</v>
       </c>
       <c r="K32" s="3">
         <v>-66200</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2876300</v>
+        <v>2843400</v>
       </c>
       <c r="E33" s="3">
-        <v>2592200</v>
+        <v>2562700</v>
       </c>
       <c r="F33" s="3">
-        <v>1963600</v>
+        <v>1941200</v>
       </c>
       <c r="G33" s="3">
-        <v>2225700</v>
+        <v>2200300</v>
       </c>
       <c r="H33" s="3">
-        <v>2158500</v>
+        <v>2133900</v>
       </c>
       <c r="I33" s="3">
-        <v>2341300</v>
+        <v>2314600</v>
       </c>
       <c r="J33" s="3">
-        <v>1958800</v>
+        <v>1936400</v>
       </c>
       <c r="K33" s="3">
         <v>1437700</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2876300</v>
+        <v>2843400</v>
       </c>
       <c r="E35" s="3">
-        <v>2592200</v>
+        <v>2562700</v>
       </c>
       <c r="F35" s="3">
-        <v>1963600</v>
+        <v>1941200</v>
       </c>
       <c r="G35" s="3">
-        <v>2225700</v>
+        <v>2200300</v>
       </c>
       <c r="H35" s="3">
-        <v>2158500</v>
+        <v>2133900</v>
       </c>
       <c r="I35" s="3">
-        <v>2341300</v>
+        <v>2314600</v>
       </c>
       <c r="J35" s="3">
-        <v>1958800</v>
+        <v>1936400</v>
       </c>
       <c r="K35" s="3">
         <v>1437700</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2785400</v>
+        <v>2753600</v>
       </c>
       <c r="E41" s="3">
-        <v>2514600</v>
+        <v>2485900</v>
       </c>
       <c r="F41" s="3">
-        <v>2094900</v>
+        <v>2071000</v>
       </c>
       <c r="G41" s="3">
-        <v>1812200</v>
+        <v>1791600</v>
       </c>
       <c r="H41" s="3">
-        <v>2280500</v>
+        <v>2254400</v>
       </c>
       <c r="I41" s="3">
-        <v>2090600</v>
+        <v>2066700</v>
       </c>
       <c r="J41" s="3">
-        <v>1643000</v>
+        <v>1624300</v>
       </c>
       <c r="K41" s="3">
         <v>1351300</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>981900</v>
+        <v>970700</v>
       </c>
       <c r="E43" s="3">
-        <v>988300</v>
+        <v>977000</v>
       </c>
       <c r="F43" s="3">
-        <v>998000</v>
+        <v>986700</v>
       </c>
       <c r="G43" s="3">
-        <v>805600</v>
+        <v>796400</v>
       </c>
       <c r="H43" s="3">
-        <v>706800</v>
+        <v>698800</v>
       </c>
       <c r="I43" s="3">
-        <v>636300</v>
+        <v>629000</v>
       </c>
       <c r="J43" s="3">
-        <v>576600</v>
+        <v>570000</v>
       </c>
       <c r="K43" s="3">
         <v>531900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5254100</v>
+        <v>5194100</v>
       </c>
       <c r="E44" s="3">
-        <v>4717000</v>
+        <v>4663200</v>
       </c>
       <c r="F44" s="3">
-        <v>4014800</v>
+        <v>3969000</v>
       </c>
       <c r="G44" s="3">
-        <v>3967400</v>
+        <v>3922100</v>
       </c>
       <c r="H44" s="3">
-        <v>3720200</v>
+        <v>3677800</v>
       </c>
       <c r="I44" s="3">
-        <v>3492300</v>
+        <v>3452400</v>
       </c>
       <c r="J44" s="3">
-        <v>3151800</v>
+        <v>3115800</v>
       </c>
       <c r="K44" s="3">
         <v>2711800</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>54300</v>
+        <v>53700</v>
       </c>
       <c r="E45" s="3">
-        <v>50300</v>
+        <v>49700</v>
       </c>
       <c r="F45" s="3">
-        <v>41100</v>
+        <v>40700</v>
       </c>
       <c r="G45" s="3">
-        <v>104400</v>
+        <v>103200</v>
       </c>
       <c r="H45" s="3">
-        <v>82600</v>
+        <v>81600</v>
       </c>
       <c r="I45" s="3">
-        <v>57700</v>
+        <v>57000</v>
       </c>
       <c r="J45" s="3">
-        <v>737900</v>
+        <v>729500</v>
       </c>
       <c r="K45" s="3">
         <v>30000</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9075700</v>
+        <v>8972200</v>
       </c>
       <c r="E46" s="3">
-        <v>8270200</v>
+        <v>8175900</v>
       </c>
       <c r="F46" s="3">
-        <v>7148900</v>
+        <v>7067300</v>
       </c>
       <c r="G46" s="3">
-        <v>6689700</v>
+        <v>6613300</v>
       </c>
       <c r="H46" s="3">
-        <v>6790100</v>
+        <v>6712600</v>
       </c>
       <c r="I46" s="3">
-        <v>6276800</v>
+        <v>6205200</v>
       </c>
       <c r="J46" s="3">
-        <v>6109300</v>
+        <v>6039600</v>
       </c>
       <c r="K46" s="3">
         <v>4625100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12253100</v>
+        <v>12113300</v>
       </c>
       <c r="E48" s="3">
-        <v>11758800</v>
+        <v>11624700</v>
       </c>
       <c r="F48" s="3">
-        <v>11244100</v>
+        <v>11115800</v>
       </c>
       <c r="G48" s="3">
-        <v>11067000</v>
+        <v>10940800</v>
       </c>
       <c r="H48" s="3">
-        <v>8470200</v>
+        <v>8373500</v>
       </c>
       <c r="I48" s="3">
-        <v>8227000</v>
+        <v>8133100</v>
       </c>
       <c r="J48" s="3">
-        <v>8007800</v>
+        <v>7916500</v>
       </c>
       <c r="K48" s="3">
         <v>7098400</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2303300</v>
+        <v>2277000</v>
       </c>
       <c r="E49" s="3">
-        <v>2276300</v>
+        <v>2250300</v>
       </c>
       <c r="F49" s="3">
-        <v>2205400</v>
+        <v>2180300</v>
       </c>
       <c r="G49" s="3">
-        <v>2177900</v>
+        <v>2153100</v>
       </c>
       <c r="H49" s="3">
-        <v>2172900</v>
+        <v>2148100</v>
       </c>
       <c r="I49" s="3">
-        <v>2312100</v>
+        <v>2285700</v>
       </c>
       <c r="J49" s="3">
-        <v>2427900</v>
+        <v>2400200</v>
       </c>
       <c r="K49" s="3">
         <v>1878200</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>964500</v>
+        <v>953500</v>
       </c>
       <c r="E52" s="3">
-        <v>857200</v>
+        <v>847400</v>
       </c>
       <c r="F52" s="3">
-        <v>654900</v>
+        <v>647500</v>
       </c>
       <c r="G52" s="3">
-        <v>572300</v>
+        <v>565800</v>
       </c>
       <c r="H52" s="3">
-        <v>569300</v>
+        <v>562900</v>
       </c>
       <c r="I52" s="3">
-        <v>524500</v>
+        <v>518500</v>
       </c>
       <c r="J52" s="3">
-        <v>386400</v>
+        <v>382000</v>
       </c>
       <c r="K52" s="3">
         <v>224700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24596600</v>
+        <v>24316000</v>
       </c>
       <c r="E54" s="3">
-        <v>23162500</v>
+        <v>22898300</v>
       </c>
       <c r="F54" s="3">
-        <v>21253400</v>
+        <v>21010900</v>
       </c>
       <c r="G54" s="3">
-        <v>20506900</v>
+        <v>20272900</v>
       </c>
       <c r="H54" s="3">
-        <v>18002400</v>
+        <v>17797100</v>
       </c>
       <c r="I54" s="3">
-        <v>17340400</v>
+        <v>17142500</v>
       </c>
       <c r="J54" s="3">
-        <v>16931400</v>
+        <v>16738200</v>
       </c>
       <c r="K54" s="3">
         <v>13826500</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5811700</v>
+        <v>5745400</v>
       </c>
       <c r="E57" s="3">
-        <v>5675500</v>
+        <v>5610800</v>
       </c>
       <c r="F57" s="3">
-        <v>5424100</v>
+        <v>5362200</v>
       </c>
       <c r="G57" s="3">
-        <v>5116300</v>
+        <v>5057900</v>
       </c>
       <c r="H57" s="3">
-        <v>5011300</v>
+        <v>4954100</v>
       </c>
       <c r="I57" s="3">
-        <v>4704200</v>
+        <v>4650600</v>
       </c>
       <c r="J57" s="3">
-        <v>3871400</v>
+        <v>3827300</v>
       </c>
       <c r="K57" s="3">
         <v>3074100</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>412500</v>
+        <v>407800</v>
       </c>
       <c r="E58" s="3">
-        <v>201900</v>
+        <v>199600</v>
       </c>
       <c r="F58" s="3">
-        <v>188900</v>
+        <v>186800</v>
       </c>
       <c r="G58" s="3">
-        <v>178800</v>
+        <v>176800</v>
       </c>
       <c r="H58" s="3">
-        <v>18100</v>
+        <v>17900</v>
       </c>
       <c r="I58" s="3">
-        <v>22400</v>
+        <v>22100</v>
       </c>
       <c r="J58" s="3">
-        <v>31300</v>
+        <v>30900</v>
       </c>
       <c r="K58" s="3">
         <v>30300</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1862100</v>
+        <v>1840900</v>
       </c>
       <c r="E59" s="3">
-        <v>1916500</v>
+        <v>1894600</v>
       </c>
       <c r="F59" s="3">
-        <v>1614900</v>
+        <v>1596500</v>
       </c>
       <c r="G59" s="3">
-        <v>1370700</v>
+        <v>1355100</v>
       </c>
       <c r="H59" s="3">
-        <v>1675600</v>
+        <v>1656500</v>
       </c>
       <c r="I59" s="3">
-        <v>1606100</v>
+        <v>1587800</v>
       </c>
       <c r="J59" s="3">
-        <v>3072400</v>
+        <v>3037300</v>
       </c>
       <c r="K59" s="3">
         <v>1109700</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8086300</v>
+        <v>7994000</v>
       </c>
       <c r="E60" s="3">
-        <v>7794000</v>
+        <v>7705100</v>
       </c>
       <c r="F60" s="3">
-        <v>7227900</v>
+        <v>7145400</v>
       </c>
       <c r="G60" s="3">
-        <v>6665800</v>
+        <v>6589700</v>
       </c>
       <c r="H60" s="3">
-        <v>6704900</v>
+        <v>6628400</v>
       </c>
       <c r="I60" s="3">
-        <v>6332700</v>
+        <v>6260500</v>
       </c>
       <c r="J60" s="3">
-        <v>5539300</v>
+        <v>5476100</v>
       </c>
       <c r="K60" s="3">
         <v>4214100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3895400</v>
+        <v>3850900</v>
       </c>
       <c r="E61" s="3">
-        <v>3597400</v>
+        <v>3556300</v>
       </c>
       <c r="F61" s="3">
-        <v>3319500</v>
+        <v>3281600</v>
       </c>
       <c r="G61" s="3">
-        <v>3181300</v>
+        <v>3145000</v>
       </c>
       <c r="H61" s="3">
-        <v>832000</v>
+        <v>822600</v>
       </c>
       <c r="I61" s="3">
-        <v>806100</v>
+        <v>796900</v>
       </c>
       <c r="J61" s="3">
-        <v>768000</v>
+        <v>759300</v>
       </c>
       <c r="K61" s="3">
         <v>714300</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>724000</v>
+        <v>715700</v>
       </c>
       <c r="E62" s="3">
-        <v>854300</v>
+        <v>844500</v>
       </c>
       <c r="F62" s="3">
-        <v>773700</v>
+        <v>764800</v>
       </c>
       <c r="G62" s="3">
-        <v>784600</v>
+        <v>775700</v>
       </c>
       <c r="H62" s="3">
-        <v>780100</v>
+        <v>771200</v>
       </c>
       <c r="I62" s="3">
-        <v>832100</v>
+        <v>822600</v>
       </c>
       <c r="J62" s="3">
-        <v>814600</v>
+        <v>805300</v>
       </c>
       <c r="K62" s="3">
         <v>622300</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12705600</v>
+        <v>12560700</v>
       </c>
       <c r="E66" s="3">
-        <v>12245600</v>
+        <v>12105900</v>
       </c>
       <c r="F66" s="3">
-        <v>11321100</v>
+        <v>11191900</v>
       </c>
       <c r="G66" s="3">
-        <v>10631700</v>
+        <v>10510500</v>
       </c>
       <c r="H66" s="3">
-        <v>8317000</v>
+        <v>8222200</v>
       </c>
       <c r="I66" s="3">
-        <v>7970900</v>
+        <v>7880000</v>
       </c>
       <c r="J66" s="3">
-        <v>7121900</v>
+        <v>7040700</v>
       </c>
       <c r="K66" s="3">
         <v>5552100</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8142200</v>
+        <v>8049300</v>
       </c>
       <c r="E72" s="3">
-        <v>7089600</v>
+        <v>7008700</v>
       </c>
       <c r="F72" s="3">
-        <v>6148700</v>
+        <v>6078600</v>
       </c>
       <c r="G72" s="3">
-        <v>6062000</v>
+        <v>5992800</v>
       </c>
       <c r="H72" s="3">
-        <v>5844400</v>
+        <v>5777700</v>
       </c>
       <c r="I72" s="3">
-        <v>5314800</v>
+        <v>5254200</v>
       </c>
       <c r="J72" s="3">
-        <v>6059700</v>
+        <v>5990600</v>
       </c>
       <c r="K72" s="3">
         <v>5194400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11891000</v>
+        <v>11755300</v>
       </c>
       <c r="E76" s="3">
-        <v>10916900</v>
+        <v>10792300</v>
       </c>
       <c r="F76" s="3">
-        <v>9932300</v>
+        <v>9819000</v>
       </c>
       <c r="G76" s="3">
-        <v>9875100</v>
+        <v>9762500</v>
       </c>
       <c r="H76" s="3">
-        <v>9685400</v>
+        <v>9574900</v>
       </c>
       <c r="I76" s="3">
-        <v>9369400</v>
+        <v>9262500</v>
       </c>
       <c r="J76" s="3">
-        <v>9809400</v>
+        <v>9697500</v>
       </c>
       <c r="K76" s="3">
         <v>8274300</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2876300</v>
+        <v>2843400</v>
       </c>
       <c r="E81" s="3">
-        <v>2592200</v>
+        <v>2562700</v>
       </c>
       <c r="F81" s="3">
-        <v>1963600</v>
+        <v>1941200</v>
       </c>
       <c r="G81" s="3">
-        <v>2225700</v>
+        <v>2200300</v>
       </c>
       <c r="H81" s="3">
-        <v>2158500</v>
+        <v>2133900</v>
       </c>
       <c r="I81" s="3">
-        <v>2341300</v>
+        <v>2314600</v>
       </c>
       <c r="J81" s="3">
-        <v>1958800</v>
+        <v>1936400</v>
       </c>
       <c r="K81" s="3">
         <v>1437700</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1137000</v>
+        <v>1124000</v>
       </c>
       <c r="E83" s="3">
-        <v>1075100</v>
+        <v>1062800</v>
       </c>
       <c r="F83" s="3">
-        <v>1053600</v>
+        <v>1041600</v>
       </c>
       <c r="G83" s="3">
-        <v>998600</v>
+        <v>987200</v>
       </c>
       <c r="H83" s="3">
-        <v>737500</v>
+        <v>729100</v>
       </c>
       <c r="I83" s="3">
-        <v>683900</v>
+        <v>676100</v>
       </c>
       <c r="J83" s="3">
-        <v>628000</v>
+        <v>620900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3786300</v>
+        <v>3743100</v>
       </c>
       <c r="E89" s="3">
-        <v>3810500</v>
+        <v>3767000</v>
       </c>
       <c r="F89" s="3">
-        <v>3604400</v>
+        <v>3563300</v>
       </c>
       <c r="G89" s="3">
-        <v>3368500</v>
+        <v>3330100</v>
       </c>
       <c r="H89" s="3">
-        <v>2791700</v>
+        <v>2759900</v>
       </c>
       <c r="I89" s="3">
-        <v>2885700</v>
+        <v>2852800</v>
       </c>
       <c r="J89" s="3">
-        <v>2766600</v>
+        <v>2735100</v>
       </c>
       <c r="K89" s="3">
         <v>2079700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1251200</v>
+        <v>-1236900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1202000</v>
+        <v>-1188300</v>
       </c>
       <c r="F91" s="3">
-        <v>-982400</v>
+        <v>-971200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1208400</v>
+        <v>-1194600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1053200</v>
+        <v>-1041200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1023400</v>
+        <v>-1011700</v>
       </c>
       <c r="J91" s="3">
-        <v>-841900</v>
+        <v>-832300</v>
       </c>
       <c r="K91" s="3">
         <v>-691800</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1193200</v>
+        <v>-1179600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1123500</v>
+        <v>-1110700</v>
       </c>
       <c r="F94" s="3">
-        <v>-970700</v>
+        <v>-959700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1155900</v>
+        <v>-1142700</v>
       </c>
       <c r="H94" s="3">
-        <v>-908400</v>
+        <v>-898100</v>
       </c>
       <c r="I94" s="3">
-        <v>228300</v>
+        <v>225700</v>
       </c>
       <c r="J94" s="3">
-        <v>-810500</v>
+        <v>-801300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1735900</v>
+        <v>-1716100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1655500</v>
+        <v>-1636600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1816700</v>
+        <v>-1796000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2111800</v>
+        <v>-2087700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1502400</v>
+        <v>-1485300</v>
       </c>
       <c r="I96" s="3">
-        <v>-2511000</v>
+        <v>-2482400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1701500</v>
+        <v>-1682100</v>
       </c>
       <c r="K96" s="3">
         <v>-1179700</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2328100</v>
+        <v>-2301600</v>
       </c>
       <c r="E100" s="3">
-        <v>-2202100</v>
+        <v>-2177000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2331800</v>
+        <v>-2305200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2600500</v>
+        <v>-2570800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1593900</v>
+        <v>-1575700</v>
       </c>
       <c r="I100" s="3">
-        <v>-2606500</v>
+        <v>-2576800</v>
       </c>
       <c r="J100" s="3">
-        <v>-1796700</v>
+        <v>-1776200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4210,22 +4210,22 @@
         <v>5800</v>
       </c>
       <c r="E101" s="3">
-        <v>-65100</v>
+        <v>-64400</v>
       </c>
       <c r="F101" s="3">
-        <v>-19200</v>
+        <v>-19000</v>
       </c>
       <c r="G101" s="3">
-        <v>-80400</v>
+        <v>-79500</v>
       </c>
       <c r="H101" s="3">
-        <v>-99500</v>
+        <v>-98400</v>
       </c>
       <c r="I101" s="3">
-        <v>-60000</v>
+        <v>-59300</v>
       </c>
       <c r="J101" s="3">
-        <v>27600</v>
+        <v>27300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>270800</v>
+        <v>267700</v>
       </c>
       <c r="E102" s="3">
-        <v>419700</v>
+        <v>414900</v>
       </c>
       <c r="F102" s="3">
-        <v>282700</v>
+        <v>279500</v>
       </c>
       <c r="G102" s="3">
-        <v>-468200</v>
+        <v>-462900</v>
       </c>
       <c r="H102" s="3">
-        <v>189900</v>
+        <v>187700</v>
       </c>
       <c r="I102" s="3">
-        <v>447600</v>
+        <v>442500</v>
       </c>
       <c r="J102" s="3">
-        <v>187000</v>
+        <v>184900</v>
       </c>
       <c r="K102" s="3">
         <v>377100</v>
